--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FA0983-8AD0-441C-B37C-861F06882AEC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Medium</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>['a family rolls up its grandmother in a carpet. a short time later she dissapears forever', 'quit']</t>
+  </si>
+  <si>
+    <t>Nikki</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol? Your question is based on a false assumption.', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person? Based on a false assumption.', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'yes']</t>
   </si>
 </sst>
 </file>
@@ -136,7 +148,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,6 +161,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,6 +538,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>66</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FA0983-8AD0-441C-B37C-861F06882AEC}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6048008A-6F09-4A30-8E28-66C1C47CA7E1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Medium</t>
   </si>
@@ -79,10 +79,19 @@
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
   </si>
   <si>
-    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol? Your question is based on a false assumption.', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person? Based on a false assumption.', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
-  </si>
-  <si>
-    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'yes']</t>
+    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'},  {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'},  {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'},  {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'},  {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'},  {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'},  {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'},  {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
+  </si>
+  <si>
+    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
   </si>
 </sst>
 </file>
@@ -454,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -574,6 +583,44 @@
       </c>
       <c r="L3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6048008A-6F09-4A30-8E28-66C1C47CA7E1}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F55AF9-A5D5-43DE-9329-CC09F4340B03}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,13 +85,13 @@
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'},  {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'},  {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'},  {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'},  {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'},  {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'},  {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'},  {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
   </si>
   <si>
     <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4">
         <v>15</v>
@@ -620,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{8CE70668-1527-4EDF-A382-7531B8DD46AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17F55AF9-A5D5-43DE-9329-CC09F4340B03}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_51E1979E5BE0DB3ED37A3711595ED87656CD6943" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B20022-69C1-447C-A10D-5FF182B52F66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Medium</t>
   </si>
@@ -85,13 +85,22 @@
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
   </si>
   <si>
-    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
+  </si>
+  <si>
+    <t>['a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.', 'this is not a yes or no question', 'yes, but why are they doing this?', 'you're not done yet. I need a lot of more details. like the location, and circumstances', 'not relevant to the story', "no they don't do it to pass time. you're not there yet", 'sort of. they are both going to die regardless', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -109,10 +118,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,14 +178,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +219,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -286,10 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -620,10 +620,48 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_51E1979E5BE0DB3ED37A3711595ED87656CD6943" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B20022-69C1-447C-A10D-5FF182B52F66}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Medium</t>
   </si>
@@ -64,50 +58,59 @@
     <t>Linthe</t>
   </si>
   <si>
+    <t>Nikki</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a family rolls up its grandmother in a carpet. a short time later she dissapears forever'}, {'role': 'assistant', 'content': 'Was the grandmother alive when she was rolled up in the carpet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the family intentionally cause the grandmother's disappearance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the family dispose of the grandmother's body by rolling it in the carpet and getting rid of it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the family roll the grandmother in the carpet for a traditional funeral practice?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the disappearance of the grandmother relate to any criminal activity?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Is the grandmother's disappearance involve any forms of magic or supernatural causes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone other than the family take the grandmother wrapped in the carpet away?'}]</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of hypothermia or exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from a self-inflicted injury or suicide?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die as a result of an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was he alone when the accident happened?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a motorcycle or bike?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an aircraft of some sort?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die from the crash of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump or fall out of the plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man have a parachute when he jumped or fell out of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?'}, {'role': 'user', 'content': 'no, false assumptions. ask how the man got into the plane with barely any clothes'}, {'role': 'assistant', 'content': 'Did the man board the plane initially with barely any clothes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man remove his clothes after boarding the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man lose his clothes because of a malfunction or damage of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did someone else remove the man's clothes before or during his flight?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane carrying cargo or was it a passenger plane?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Was the plane a cargo aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a personal aircraft, not intended for commercial or cargo use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a passenger aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane originally over water before it reached the woods?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man attempt to land the plane on water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the plane's final destination within the woods or wilderness area?"}, {'role': 'user', 'content': 'partly correct'}, {'role': 'assistant', 'content': 'Was the plane intended to land in a body of water near the woods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane intended to land in an area within the woods?'}, {'role': 'user', 'content': 'not land, but the plane was there for the woods'}, {'role': 'assistant', 'content': 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the plane involved in firefighting activities?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's clothing burn due to a fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?'}, {'role': 'user', 'content': 'the man was in the plane by accident'}, {'role': 'assistant', 'content': 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?'}, {'role': 'user', 'content': 'almost, why was he there?'}, {'role': 'assistant', 'content': "Did the man sneak into the plane without the crew's knowledge?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man homeless and seeking shelter in the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?'}, {'role': 'user', 'content': 'no, he did not enter the plane himself'}, {'role': 'assistant', 'content': 'Was the man placed in the plane by somebody else?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?'}, {'role': 'user', 'content': 'false assumption that it is used for cargo'}, {'role': 'assistant', 'content': 'Was the man placed in the plane as part of a rescue operation or medical evacuation?'}, {'role': 'user', 'content': 'you already guessed where the plane was for!'}, {'role': 'assistant', 'content': 'Did the man get scooped up with water when the plane was loading water for firefighting?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}]</t>
+  </si>
+  <si>
     <t>{1: 'Was the grandmother alive when she was rolled up in the carpet?', 2: "Did the family intentionally cause the grandmother's disappearance?", 3: "Did the family dispose of the grandmother's body by rolling it in the carpet and getting rid of it?", 4: 'Did the family roll the grandmother in the carpet for a traditional funeral practice?', 5: 'Did the disappearance of the grandmother relate to any criminal activity?', 6: "Is the grandmother's disappearance involve any forms of magic or supernatural causes?", 7: 'Did someone other than the family take the grandmother wrapped in the carpet away?'}</t>
   </si>
   <si>
+    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
+  </si>
+  <si>
     <t>['a family rolls up its grandmother in a carpet. a short time later she dissapears forever', 'quit']</t>
   </si>
   <si>
-    <t>Nikki</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
-  </si>
-  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
-  </si>
-  <si>
     <t>['a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.', 'this is not a yes or no question', 'yes, but why are they doing this?', 'you're not done yet. I need a lot of more details. like the location, and circumstances', 'not relevant to the story', "no they don't do it to pass time. you're not there yet", 'sort of. they are both going to die regardless', 'quit']</t>
+  </si>
+  <si>
+    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'no, false assumptions. ask how the man got into the plane with barely any clothes', 'this is not a yes or no question', 'partly correct', 'not land, but the plane was there for the woods', 'the man was in the plane by accident', 'almost, why was he there?', 'no, he did not enter the plane himself', 'sort of', 'false assumption that it is used for cargo', 'you already guessed where the plane was for!', 'quit']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,7 +121,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,14 +173,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -462,16 +460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -532,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -544,15 +540,15 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -570,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3">
         <v>16</v>
@@ -582,15 +578,15 @@
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -608,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
@@ -620,15 +616,15 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -646,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -658,10 +654,48 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Medium</t>
   </si>
@@ -76,6 +76,12 @@
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of hypothermia or exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from a self-inflicted injury or suicide?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die as a result of an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was he alone when the accident happened?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a motorcycle or bike?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an aircraft of some sort?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die from the crash of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump or fall out of the plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man have a parachute when he jumped or fell out of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?'}, {'role': 'user', 'content': 'no, false assumptions. ask how the man got into the plane with barely any clothes'}, {'role': 'assistant', 'content': 'Did the man board the plane initially with barely any clothes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man remove his clothes after boarding the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man lose his clothes because of a malfunction or damage of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did someone else remove the man's clothes before or during his flight?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane carrying cargo or was it a passenger plane?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Was the plane a cargo aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a personal aircraft, not intended for commercial or cargo use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a passenger aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane originally over water before it reached the woods?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man attempt to land the plane on water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the plane's final destination within the woods or wilderness area?"}, {'role': 'user', 'content': 'partly correct'}, {'role': 'assistant', 'content': 'Was the plane intended to land in a body of water near the woods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane intended to land in an area within the woods?'}, {'role': 'user', 'content': 'not land, but the plane was there for the woods'}, {'role': 'assistant', 'content': 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the plane involved in firefighting activities?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's clothing burn due to a fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?'}, {'role': 'user', 'content': 'the man was in the plane by accident'}, {'role': 'assistant', 'content': 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?'}, {'role': 'user', 'content': 'almost, why was he there?'}, {'role': 'assistant', 'content': "Did the man sneak into the plane without the crew's knowledge?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man homeless and seeking shelter in the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?'}, {'role': 'user', 'content': 'no, he did not enter the plane himself'}, {'role': 'assistant', 'content': 'Was the man placed in the plane by somebody else?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?'}, {'role': 'user', 'content': 'false assumption that it is used for cargo'}, {'role': 'assistant', 'content': 'Was the man placed in the plane as part of a rescue operation or medical evacuation?'}, {'role': 'user', 'content': 'you already guessed where the plane was for!'}, {'role': 'assistant', 'content': 'Did the man get scooped up with water when the plane was loading water for firefighting?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}]</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die from a self-inflicted injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die due to an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the accident related to a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it a car accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the accident related to an aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man jump out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man the pilot of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a passenger on the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the aircraft crash into the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the aircraft drop something that directly caused the man's death?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the man hit by a falling object from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die trying to catch something that was falling from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a parachute?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to save his life?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a packed object that got deployed accidentally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to be used in a survival situation?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?'}, {'role': 'user', 'content': 'no, the man was on the airplane'}, {'role': 'assistant', 'content': 'Was he detached from the aircraft in mid-air, leading to his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft without a parachute?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because the door was accidentally opened?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man trying to enter or exit the aircraft when he fell out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft as a result of a fight or altercation on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft during a routine operation or procedure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man pushed out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was on the ground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was taking off or landing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the man fall out because the floor of the aircraft gave way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?'}, {'role': 'user', 'content': 'he did not fall out of the aircraft due to himself'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because another person on that aircraft made him do it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something in the aircraft malfunction, causing him to fall out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out due to an explosion in the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because an animal in the aircraft caused it?'}, {'role': 'user', 'content': 'no, ask about the function of the airplane'}, {'role': 'assistant', 'content': 'Was the aircraft used for commercial travel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for military purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for cargo transportation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for scientific research?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for private/personal use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for a rescue mission?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the aircraft being used for air ambulance or medical evacuation purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for firefighting purposes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was releasing water or fire retardant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.'}, {'role': 'user', 'content': 'you miss one element, how did the person got there?'}, {'role': 'assistant', 'content': 'Was the man actually inside the aircraft when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man already in the area for another purpose when the aircraft arrived?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?"}, {'role': 'user', 'content': 'no, why did he had barely any clothes on?'}, {'role': 'assistant', 'content': 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Did the woman intend to harm herself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did something tragic happen to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have mental health issues?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she escaping from someone or something in city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she complete an important task or mission in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she forced to make the return trip against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did anything significant happen on her way back to city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the sundress and dark glasses relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the sundress and dark glasses a disguise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman wear the sundress and dark glasses to protect herself from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the sundress and dark glasses have symbolic meaning for the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does the woman have a visual impairment?'}, {'role': 'user', 'content': 'false assumption present tense'}, {'role': 'assistant', 'content': 'Did the woman have a visual impairment before the journey to city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A."}, {'role': 'user', 'content': 'almost correct. ask about the reason why she jumped'}, {'role': 'assistant', 'content': 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman see something specific on her return trip that prompted her to take her own life?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did she jump because she could not bear the darkness in the tunnel?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman scared of the darkness due to her previous inability to see?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because without her sight she could better handle the darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?'}, {'role': 'user', 'content': 'no, after eye surgery, what do you have?'}, {'role': 'assistant', 'content': 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.'}, {'role': 'user', 'content': 'almost, when did she check if she could see again?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again when she came out of the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again while she was still inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}]</t>
+  </si>
+  <si>
     <t>{1: 'Was the grandmother alive when she was rolled up in the carpet?', 2: "Did the family intentionally cause the grandmother's disappearance?", 3: "Did the family dispose of the grandmother's body by rolling it in the carpet and getting rid of it?", 4: 'Did the family roll the grandmother in the carpet for a traditional funeral practice?', 5: 'Did the disappearance of the grandmother relate to any criminal activity?', 6: "Is the grandmother's disappearance involve any forms of magic or supernatural causes?", 7: 'Did someone other than the family take the grandmother wrapped in the carpet away?'}</t>
   </si>
   <si>
@@ -91,6 +97,12 @@
     <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
   </si>
   <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die of natural causes?', 3: 'Did the man die of exposure to the elements?', 4: 'Did he die from a self-inflicted injury?', 5: 'Did he die due to an accident?', 6: 'Was the accident related to a vehicle?', 7: 'Was it a car accident?', 8: 'Was the accident related to an aircraft?', 9: 'Did the man jump out of the aircraft?', 10: 'Was the man the pilot of the aircraft?', 11: 'Was the man a passenger on the aircraft?', 12: 'Did the aircraft crash into the man?', 13: "Did the aircraft drop something that directly caused the man's death?", 14: 'Was the man hit by a falling object from the aircraft?', 15: 'Did the man die trying to catch something that was falling from the aircraft?', 16: "Did the man's death involve a parachute?", 17: "Did the man's death involve an object that was intended to save his life?", 18: "Did the man's death involve a packed object that got deployed accidentally?", 19: "Did the man's death involve an object that was intended to be used in a survival situation?", 20: 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?', 21: 'Was he detached from the aircraft in mid-air, leading to his death?', 22: 'Did the man fall out of the aircraft?', 23: 'Did the man fall out of the aircraft without a parachute?', 24: 'Did the man fall out of the aircraft because the door was accidentally opened?', 25: 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?', 26: 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?', 27: 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?', 28: 'Was the man trying to enter or exit the aircraft when he fell out?', 29: 'Did the man fall out of the aircraft as a result of a fight or altercation on board?', 30: 'Did the man fall out of the aircraft during a routine operation or procedure?', 31: 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?', 32: 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?', 33: 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?', 34: 'Was the man pushed out of the aircraft?', 35: 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?', 36: 'Did the man fall out of the aircraft while it was on the ground?', 37: 'Did the man fall out of the aircraft while it was taking off or landing?', 38: 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?', 39: 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?', 40: 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?', 41: 'Did the man fall out because the floor of the aircraft gave way?', 42: 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?', 43: 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?', 44: 'Did the man fall out of the aircraft because another person on that aircraft made him do it?', 45: 'Did something in the aircraft malfunction, causing him to fall out?', 46: 'Did the man fall out due to an explosion in the aircraft?', 47: 'Did the man fall out of the aircraft because an animal in the aircraft caused it?', 48: 'Was the aircraft used for commercial travel?', 49: 'Was the aircraft used for military purposes?', 50: 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?', 51: 'Was the aircraft being used for cargo transportation?', 52: 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?', 53: 'Was the aircraft used for scientific research?', 54: 'Was the aircraft being used for private/personal use?', 55: 'Was the aircraft being used for a rescue mission?', 56: 'Was the aircraft being used for air ambulance or medical evacuation purposes?', 57: 'Was the aircraft being used for firefighting purposes?', 58: 'Did the man fall out of the aircraft while it was releasing water or fire retardant?', 59: 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.', 60: 'Was the man actually inside the aircraft when it took off?', 61: 'Was the man already in the area for another purpose when the aircraft arrived?', 62: "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?", 63: 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?', 64: "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
+  </si>
+  <si>
     <t>['a family rolls up its grandmother in a carpet. a short time later she dissapears forever', 'quit']</t>
   </si>
   <si>
@@ -104,6 +116,12 @@
   </si>
   <si>
     <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'no, false assumptions. ask how the man got into the plane with barely any clothes', 'this is not a yes or no question', 'partly correct', 'not land, but the plane was there for the woods', 'the man was in the plane by accident', 'almost, why was he there?', 'no, he did not enter the plane himself', 'sort of', 'false assumption that it is used for cargo', 'you already guessed where the plane was for!', 'quit']</t>
+  </si>
+  <si>
+    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'sort of', 'no, the man was on the airplane', 'false assumption', 'he did not fall out of the aircraft due to himself', 'no, ask about the function of the airplane', 'sort of', 'you miss one element, how did the person got there?', 'no, why did he had barely any clothes on?', 'quit']</t>
+  </si>
+  <si>
+    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption present tense', 'almost correct. ask about the reason why she jumped', 'false assumption', 'yes, but why?', 'false assumption', 'no, after eye surgery, what do you have?', 'almost, when did she check if she could see again?', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -540,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -569,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>16</v>
@@ -578,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -607,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>15</v>
@@ -616,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -645,7 +663,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>12</v>
@@ -654,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -683,7 +701,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -692,7 +710,83 @@
         <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -55,15 +55,12 @@
     <t>GPT</t>
   </si>
   <si>
+    <t>Nikki</t>
+  </si>
+  <si>
     <t>Linthe</t>
   </si>
   <si>
-    <t>Nikki</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a family rolls up its grandmother in a carpet. a short time later she dissapears forever'}, {'role': 'assistant', 'content': 'Was the grandmother alive when she was rolled up in the carpet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the family intentionally cause the grandmother's disappearance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the family dispose of the grandmother's body by rolling it in the carpet and getting rid of it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the family roll the grandmother in the carpet for a traditional funeral practice?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the disappearance of the grandmother relate to any criminal activity?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Is the grandmother's disappearance involve any forms of magic or supernatural causes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone other than the family take the grandmother wrapped in the carpet away?'}]</t>
-  </si>
-  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
   </si>
   <si>
@@ -82,7 +79,7 @@
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Did the woman intend to harm herself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did something tragic happen to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have mental health issues?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she escaping from someone or something in city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she complete an important task or mission in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she forced to make the return trip against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did anything significant happen on her way back to city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the sundress and dark glasses relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the sundress and dark glasses a disguise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman wear the sundress and dark glasses to protect herself from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the sundress and dark glasses have symbolic meaning for the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does the woman have a visual impairment?'}, {'role': 'user', 'content': 'false assumption present tense'}, {'role': 'assistant', 'content': 'Did the woman have a visual impairment before the journey to city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A."}, {'role': 'user', 'content': 'almost correct. ask about the reason why she jumped'}, {'role': 'assistant', 'content': 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman see something specific on her return trip that prompted her to take her own life?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did she jump because she could not bear the darkness in the tunnel?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman scared of the darkness due to her previous inability to see?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because without her sight she could better handle the darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?'}, {'role': 'user', 'content': 'no, after eye surgery, what do you have?'}, {'role': 'assistant', 'content': 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.'}, {'role': 'user', 'content': 'almost, when did she check if she could see again?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again when she came out of the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again while she was still inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}]</t>
   </si>
   <si>
-    <t>{1: 'Was the grandmother alive when she was rolled up in the carpet?', 2: "Did the family intentionally cause the grandmother's disappearance?", 3: "Did the family dispose of the grandmother's body by rolling it in the carpet and getting rid of it?", 4: 'Did the family roll the grandmother in the carpet for a traditional funeral practice?', 5: 'Did the disappearance of the grandmother relate to any criminal activity?', 6: "Is the grandmother's disappearance involve any forms of magic or supernatural causes?", 7: 'Did someone other than the family take the grandmother wrapped in the carpet away?'}</t>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman suffering from a mental illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something significant happen to her during her stay in city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did she receive bad news in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she meet someone significant in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she come into possession of something distressing or harmful in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she commit a crime in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she lose something valuable or meaningful to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she experience something traumatic in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman spend the entire twelve days in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman on a mission or task in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's return to City A have any significance?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman come back early from city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman ill physically?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the time spent in city B longer than she intended?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman forced or coerced into making the trip back to City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something happen to her on the bus trip from city B to A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the tunnel trigger a phobia or fear in the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman react to something she saw or heard inside the tunnel?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Was it completely dark inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Are the woman's dark glasses relevant to her reaction in the tunnel?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the woman not able to see in the dark tunnel even with her dark glasses on?'}, {'role': 'user', 'content': 'false assumption that she still has her glasses on'}, {'role': 'assistant', 'content': 'Did the woman lose her dark glasses during the bus ride?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she leave her glasses in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman remove her glasses before or during the bus ride?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses when they entered the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses after entering the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Had she removed her glasses before boarding the bus to city A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's state of mind change after taking off her glasses?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's glasses have a special feature or property?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does her glasses being off in the tunnel mean that she expected to see darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses due to an event or circumstance in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman lose or damage her glasses in City B?'}, {'role': 'user', 'content': 'no, stop asking questions about the glasses'}, {'role': 'assistant', 'content': 'Did the woman experience a change in her vision during her time in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the change in her vision cause her distress or discomfort?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone alter her vision intentionally while she was in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change in her vision permanent?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change made to her vision done against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman pay someone to alter her vision in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.'}, {'role': 'user', 'content': 'not really, ask about her condition in city a and after the surgery in city b'}, {'role': 'assistant', 'content': 'Did the woman have normal vision when she left City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman blind or had a serious vision problem when she left City A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After the surgery in City B, was the woman able to see?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but did she already know that she could see?'}, {'role': 'assistant', 'content': 'Did the woman not realize she could see until she was in the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.'}, {'role': 'user', 'content': 'no, when did she check if she could see?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see while she was inside the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel."}, {'role': 'user', 'content': 'she did not know yet if she could see, why did she jump?'}, {'role': 'assistant', 'content': 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}]</t>
   </si>
   <si>
     <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
@@ -103,7 +100,7 @@
     <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
   </si>
   <si>
-    <t>['a family rolls up its grandmother in a carpet. a short time later she dissapears forever', 'quit']</t>
+    <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?", 52: 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?', 53: 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?', 54: 'Did the woman not realize she could see until she was in the dark tunnel?', 55: 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.', 56: 'Did the woman check if she could see while she was inside the dark tunnel?', 57: "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel.", 58: 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?', 59: 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}</t>
   </si>
   <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption present tense', 'almost correct. ask about the reason why she jumped', 'false assumption', 'yes, but why?', 'false assumption', 'no, after eye surgery, what do you have?', 'almost, when did she check if she could see again?', 'quit']</t>
+  </si>
+  <si>
+    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption', 'sort of', 'false assumption that she still has her glasses on', 'no, stop asking questions about the glasses', 'not really, ask about her condition in city a and after the surgery in city b', 'yes, but why?', 'yes, but did she already know that she could see?', 'no, when did she check if she could see?', 'she did not know yet if she could see, why did she jump?', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -531,16 +531,16 @@
         <v>13</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>7</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
       <c r="F2">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>22</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -566,19 +566,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -590,10 +590,10 @@
         <v>23</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
         <v>30</v>
@@ -604,19 +604,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>24</v>
       </c>
       <c r="J4">
+        <v>12</v>
+      </c>
+      <c r="K4">
         <v>15</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
@@ -645,16 +645,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>25</v>
       </c>
       <c r="J5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -680,19 +680,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>9</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
@@ -718,19 +718,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>27</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="L7" t="s">
         <v>34</v>
@@ -756,19 +756,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>28</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
         <v>35</v>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639BD355-9D27-4C00-975B-CD24BDBE8481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Medium</t>
   </si>
@@ -82,6 +101,9 @@
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman suffering from a mental illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something significant happen to her during her stay in city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did she receive bad news in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she meet someone significant in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she come into possession of something distressing or harmful in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she commit a crime in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she lose something valuable or meaningful to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she experience something traumatic in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman spend the entire twelve days in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman on a mission or task in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's return to City A have any significance?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman come back early from city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman ill physically?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the time spent in city B longer than she intended?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman forced or coerced into making the trip back to City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something happen to her on the bus trip from city B to A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the tunnel trigger a phobia or fear in the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman react to something she saw or heard inside the tunnel?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Was it completely dark inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Are the woman's dark glasses relevant to her reaction in the tunnel?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the woman not able to see in the dark tunnel even with her dark glasses on?'}, {'role': 'user', 'content': 'false assumption that she still has her glasses on'}, {'role': 'assistant', 'content': 'Did the woman lose her dark glasses during the bus ride?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she leave her glasses in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman remove her glasses before or during the bus ride?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses when they entered the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses after entering the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Had she removed her glasses before boarding the bus to city A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's state of mind change after taking off her glasses?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's glasses have a special feature or property?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does her glasses being off in the tunnel mean that she expected to see darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses due to an event or circumstance in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman lose or damage her glasses in City B?'}, {'role': 'user', 'content': 'no, stop asking questions about the glasses'}, {'role': 'assistant', 'content': 'Did the woman experience a change in her vision during her time in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the change in her vision cause her distress or discomfort?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone alter her vision intentionally while she was in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change in her vision permanent?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change made to her vision done against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman pay someone to alter her vision in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.'}, {'role': 'user', 'content': 'not really, ask about her condition in city a and after the surgery in city b'}, {'role': 'assistant', 'content': 'Did the woman have normal vision when she left City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman blind or had a serious vision problem when she left City A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After the surgery in City B, was the woman able to see?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but did she already know that she could see?'}, {'role': 'assistant', 'content': 'Did the woman not realize she could see until she was in the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.'}, {'role': 'user', 'content': 'no, when did she check if she could see?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see while she was inside the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel."}, {'role': 'user', 'content': 'she did not know yet if she could see, why did she jump?'}, {'role': 'assistant', 'content': 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}]</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'assistant', 'content': 'Was the woman already dead before she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die because of an explosion caused by lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die from smoke or gas inhalation after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die instantaneously after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman alone when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the person she was with relevant to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman killed by the person she was with after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she die of natural causes (like heart attack) after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in some sort of vehicle when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in an enclosed space when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman die from lack of oxygen after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the lighter have anything 'special' or 'unusual' about it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the enclosed space underwater or in space?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's death directly caused by her lighting the lighter?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the lighting of the lighter cause an event that indirectly led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman in a coffin when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.'}, {'role': 'user', 'content': 'partly correct. ask about the other person'}, {'role': 'assistant', 'content': 'Was the other person with her in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person die as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "So, was the other person a creature that doesn't need air to survive?"}, {'role': 'user', 'content': 'no, he was already dead'}, {'role': 'assistant', 'content': "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral."}, {'role': 'user', 'content': 'seing the other person while lighting the lighter made her realise somthing'}, {'role': 'assistant', 'content': 'Did she recognize the dead person in the coffin with her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the dead person someone she was close to?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the dead person have something to do with her being in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed."}, {'role': 'user', 'content': 'no, ask about the occupation of the dead man'}, {'role': 'assistant', 'content': 'Was the dead man a mortician or funeral director?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.'}, {'role': 'user', 'content': 'ask more about herself and the relation to the mortician'}, {'role': 'assistant', 'content': 'Was the woman a patient or client of the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman work with the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman a criminal?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman kill the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman fake her own death or was she running away from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman plan to rob the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman hiding from the law or someone else in the coffin?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman plan to replace the mortician's body with a different body?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some sort of deal or arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman plan to be buried alive as part of her arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.'}, {'role': 'user', 'content': 'not a criminal plot. where was she before?'}, {'role': 'assistant', 'content': 'Was the woman in prison before she was in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in the morgue before she was in the coffin?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Was the woman trying to escape prison by being buried alive and then dug up later?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}]</t>
+  </si>
+  <si>
     <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
   </si>
   <si>
@@ -103,6 +125,9 @@
     <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?", 52: 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?', 53: 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?', 54: 'Did the woman not realize she could see until she was in the dark tunnel?', 55: 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.', 56: 'Did the woman check if she could see while she was inside the dark tunnel?', 57: "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel.", 58: 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?', 59: 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}</t>
   </si>
   <si>
+    <t>{1: 'Was the woman already dead before she lit the lighter?', 2: 'Did the woman die because of an explosion caused by lighting the lighter?', 3: 'Did the woman die from smoke or gas inhalation after she lit the lighter?', 4: 'Did the woman die instantaneously after lighting the lighter?', 5: 'Was the woman alone when she lit the lighter?', 6: 'Is the person she was with relevant to her death?', 7: 'Was the woman killed by the person she was with after she lit the lighter?', 8: 'Did the woman have a terminal illness?', 9: 'Did she die of natural causes (like heart attack) after lighting the lighter?', 10: 'Was the woman in some sort of vehicle when she lit the lighter?', 11: 'Was the woman in an enclosed space when she lit the lighter?', 12: 'Did the woman die from lack of oxygen after lighting the lighter?', 13: "Did the lighter have anything 'special' or 'unusual' about it?", 14: 'Was the enclosed space underwater or in space?', 15: "Was the woman's death directly caused by her lighting the lighter?", 16: 'Did the lighting of the lighter cause an event that indirectly led to her death?', 17: "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?", 18: 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?', 19: 'Was the woman in a coffin when she lit the lighter?', 20: 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.', 21: 'Was the other person with her in the coffin?', 22: 'Did the other person die as well?', 23: "So, was the other person a creature that doesn't need air to survive?", 24: "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral.", 25: 'Did she recognize the dead person in the coffin with her?', 26: 'Is the dead person someone she was close to?', 27: 'Did the dead person have something to do with her being in the coffin?', 28: "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed.", 29: 'Was the dead man a mortician or funeral director?', 30: 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.', 31: 'Was the woman a patient or client of the mortician?', 32: 'Did the woman work with the mortician?', 33: 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?', 34: 'Was the woman a criminal?', 35: 'Did the woman kill the mortician?', 36: 'Did the woman fake her own death or was she running away from something?', 37: 'Did the woman plan to rob the mortician?', 38: 'Was the woman hiding from the law or someone else in the coffin?', 39: "Did the woman plan to replace the mortician's body with a different body?", 40: 'Did the woman have some sort of deal or arrangement with the mortician?', 41: 'Did the woman plan to be buried alive as part of her arrangement with the mortician?', 42: 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.', 43: 'Was the woman in prison before she was in the coffin?', 44: "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral.", 45: 'Was the woman in the morgue before she was in the coffin?', 46: 'Was the woman trying to escape prison by being buried alive and then dug up later?', 47: "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}</t>
+  </si>
+  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
@@ -122,13 +147,25 @@
   </si>
   <si>
     <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption', 'sort of', 'false assumption that she still has her glasses on', 'no, stop asking questions about the glasses', 'not really, ask about her condition in city a and after the surgery in city b', 'yes, but why?', 'yes, but did she already know that she could see?', 'no, when did she check if she could see?', 'she did not know yet if she could see, why did she jump?', 'quit']</t>
+  </si>
+  <si>
+    <t>['a woman dies after lighting a lighter, and doesn’t even need a funeral.', 'partly correct. ask about the other person', 'no, he was already dead', 'seing the other person while lighting the lighter made her realise somthing', 'no, ask about the occupation of the dead man', 'ask more about herself and the relation to the mortician', 'not a criminal plot. where was she before?', 'not relevant', 'quit']</t>
+  </si>
+  <si>
+    <t>[' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions', ' not really', ' she was not alone in the coffin', ' ask about this other person', ' not relevant', ' no, ask about where she was before she was in the coffin', ' no, she was in prison', ' this was the plan yes to be buried. But ask about the other person in the coffin', ' false assumption of other prisoner inside the coffin', ' what was the occupation of the accomplice?']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'user', 'content': ' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions'}, {'role': 'assistant', 'content': ' Was the woman ill before lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the act of lighting the lighter cause her death?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alive when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman in a dangerous or risky environment when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a human?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did her death occur immediately after lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the lighter have any special or unusual characteristics?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alone when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Was the woman's death due to natural causes?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die due to an explosion or fire caused by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she suffocate because of the smoke or fumes created by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did someone else cause her death?'}, {'role': 'user', 'content': ' not really'}, {'role': 'assistant', 'content': ' Was the woman part of an act or performance when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she ingest or inhale anything harmful from the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die in a closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the space she died in a type of transport?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the space she died in lack oxygen?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she intentionally trying to die?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in submerged in water?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in naturally devoid of breathable air?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman in a spaceship or spacecraft when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she in outer space when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman trapped in the closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman already in a coffin when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' she was not alone in the coffin'}, {'role': 'assistant', 'content': " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried."}, {'role': 'user', 'content': ' ask about this other person'}, {'role': 'assistant', 'content': ' Was the other person alive when the woman lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person dead before the woman was put into the coffin?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person on purpose?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person a male?'}, {'role': 'user', 'content': ' not relevant'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a part of a ritual or custom?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person because there was no space in the grave site for another coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a form of punishment?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person in the coffin a loved one of the woman?'}, {'role': 'user', 'content': ' no '}, {'role': 'assistant', 'content': ' Did the woman know the other person in the coffin before they were buried together?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did the woman kill the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Did the woman's place of work or occupation have anything to do with her being buried with the other person?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a body double or stunt double for the dead person in the coffin?'}, {'role': 'user', 'content': ' no, ask about where she was before she was in the coffin'}, {'role': 'assistant', 'content': ' Was the woman in a hospital or medical facility before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at her place of work before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the location of death of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman attend the funeral of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the morgue before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the cemetery before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?'}, {'role': 'user', 'content': ' no, she was in prison'}, {'role': 'assistant', 'content': ' Was the woman in prison for a crime related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' this was the plan yes to be buried. But ask about the other person in the coffin'}, {'role': 'assistant', 'content': " Was the other person in the coffin an accomplice or involved in the woman's escape plan?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried."}, {'role': 'user', 'content': ' false assumption of other prisoner inside the coffin'}, {'role': 'assistant', 'content': ' Was the other person in the coffin someone who was not a prisoner?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried."}, {'role': 'user', 'content': ' what was the occupation of the accomplice?'}, {'role': 'assistant', 'content': ' Was the accomplice the cemetery worker or grave digger?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}]</t>
+  </si>
+  <si>
+    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,17 +224,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +280,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -269,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -303,9 +349,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,14 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -549,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -558,10 +607,10 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -587,7 +636,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -596,10 +645,10 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -625,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -634,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -663,7 +712,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -672,10 +721,10 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -701,7 +750,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -710,10 +759,10 @@
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -739,7 +788,7 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -748,10 +797,10 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -777,7 +826,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -786,7 +835,83 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>72</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>99</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,32 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639BD355-9D27-4C00-975B-CD24BDBE8481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE4866-EE9D-4D9F-99AA-4199AA0F3250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Medium</t>
   </si>
@@ -104,6 +91,21 @@
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'assistant', 'content': 'Was the woman already dead before she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die because of an explosion caused by lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die from smoke or gas inhalation after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die instantaneously after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman alone when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the person she was with relevant to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman killed by the person she was with after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she die of natural causes (like heart attack) after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in some sort of vehicle when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in an enclosed space when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman die from lack of oxygen after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the lighter have anything 'special' or 'unusual' about it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the enclosed space underwater or in space?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's death directly caused by her lighting the lighter?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the lighting of the lighter cause an event that indirectly led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman in a coffin when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.'}, {'role': 'user', 'content': 'partly correct. ask about the other person'}, {'role': 'assistant', 'content': 'Was the other person with her in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person die as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "So, was the other person a creature that doesn't need air to survive?"}, {'role': 'user', 'content': 'no, he was already dead'}, {'role': 'assistant', 'content': "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral."}, {'role': 'user', 'content': 'seing the other person while lighting the lighter made her realise somthing'}, {'role': 'assistant', 'content': 'Did she recognize the dead person in the coffin with her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the dead person someone she was close to?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the dead person have something to do with her being in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed."}, {'role': 'user', 'content': 'no, ask about the occupation of the dead man'}, {'role': 'assistant', 'content': 'Was the dead man a mortician or funeral director?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.'}, {'role': 'user', 'content': 'ask more about herself and the relation to the mortician'}, {'role': 'assistant', 'content': 'Was the woman a patient or client of the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman work with the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman a criminal?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman kill the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman fake her own death or was she running away from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman plan to rob the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman hiding from the law or someone else in the coffin?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman plan to replace the mortician's body with a different body?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some sort of deal or arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman plan to be buried alive as part of her arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.'}, {'role': 'user', 'content': 'not a criminal plot. where was she before?'}, {'role': 'assistant', 'content': 'Was the woman in prison before she was in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in the morgue before she was in the coffin?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Was the woman trying to escape prison by being buried alive and then dug up later?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}]</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'user', 'content': ' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions'}, {'role': 'assistant', 'content': ' Was the woman ill before lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the act of lighting the lighter cause her death?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alive when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman in a dangerous or risky environment when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a human?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did her death occur immediately after lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the lighter have any special or unusual characteristics?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alone when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Was the woman's death due to natural causes?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die due to an explosion or fire caused by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she suffocate because of the smoke or fumes created by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did someone else cause her death?'}, {'role': 'user', 'content': ' not really'}, {'role': 'assistant', 'content': ' Was the woman part of an act or performance when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she ingest or inhale anything harmful from the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die in a closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the space she died in a type of transport?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the space she died in lack oxygen?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she intentionally trying to die?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in submerged in water?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in naturally devoid of breathable air?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman in a spaceship or spacecraft when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she in outer space when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman trapped in the closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman already in a coffin when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' she was not alone in the coffin'}, {'role': 'assistant', 'content': " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried."}, {'role': 'user', 'content': ' ask about this other person'}, {'role': 'assistant', 'content': ' Was the other person alive when the woman lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person dead before the woman was put into the coffin?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person on purpose?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person a male?'}, {'role': 'user', 'content': ' not relevant'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a part of a ritual or custom?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person because there was no space in the grave site for another coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a form of punishment?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person in the coffin a loved one of the woman?'}, {'role': 'user', 'content': ' no '}, {'role': 'assistant', 'content': ' Did the woman know the other person in the coffin before they were buried together?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did the woman kill the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Did the woman's place of work or occupation have anything to do with her being buried with the other person?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a body double or stunt double for the dead person in the coffin?'}, {'role': 'user', 'content': ' no, ask about where she was before she was in the coffin'}, {'role': 'assistant', 'content': ' Was the woman in a hospital or medical facility before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at her place of work before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the location of death of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman attend the funeral of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the morgue before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the cemetery before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?'}, {'role': 'user', 'content': ' no, she was in prison'}, {'role': 'assistant', 'content': ' Was the woman in prison for a crime related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' this was the plan yes to be buried. But ask about the other person in the coffin'}, {'role': 'assistant', 'content': " Was the other person in the coffin an accomplice or involved in the woman's escape plan?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried."}, {'role': 'user', 'content': ' false assumption of other prisoner inside the coffin'}, {'role': 'assistant', 'content': ' Was the other person in the coffin someone who was not a prisoner?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried."}, {'role': 'user', 'content': ' what was the occupation of the accomplice?'}, {'role': 'assistant', 'content': ' Was the accomplice the cemetery worker or grave digger?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man ever tasted albatross before this incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly identified the dish as albatross when it was not?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any particular reactions (allergic or emotional) towards albatross?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man associated with an albatross in any traumatic past experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was this traumatic experience related to a lost loved one?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the traumatic experience related to being stranded or lost at sea?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he eat an albatross during this traumatic experience?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he believe he had eaten albatross during this traumatic experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man have a prior encounter with albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions'}, {'role': 'assistant', 'content': 'Did the man die?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there poison in the drink that the man had?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any allergies?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing medical condition that might have caused his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman do anything to the man's drink after they were served by the bartender?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks come into contact with anything else after they were served?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman drink her drink faster than the man?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die as a result of a delayed reaction to something in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the bartender involved in the man's death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did anyone else manipulate the man's drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.'}, {'role': 'user', 'content': 'why was the woman not affected?'}, {'role': 'assistant', 'content': 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink get neutralized over time or by exposure to air?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there ice in the drink?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. '}, {'role': 'assistant', 'content': 'Did the drink contain poison?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone else at the pub harm the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing health condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man consume anything else besides the drink before his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks have different temperatures?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drink something else other than the drink he ordered at the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was there something in the man's glass before the drink was poured?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they drink at different speeds?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drink faster than the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So the man died because he drank slower than the woman, correct?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the drink they ordered an alcoholic beverage?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Did the man die from some type of external event or trigger while they were in the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something deadly or toxic within the drinks that got neutralized over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on his drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in the drink that naturally sank to the bottom over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman do something to her drink before consuming it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drink they had ordered originally contain something harmful?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the ice in their drinks have anything to do with the death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's ice melt before she consumed her drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the man's drink contain a harmful substance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}]</t>
+  </si>
+  <si>
     <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
   </si>
   <si>
@@ -128,6 +130,21 @@
     <t>{1: 'Was the woman already dead before she lit the lighter?', 2: 'Did the woman die because of an explosion caused by lighting the lighter?', 3: 'Did the woman die from smoke or gas inhalation after she lit the lighter?', 4: 'Did the woman die instantaneously after lighting the lighter?', 5: 'Was the woman alone when she lit the lighter?', 6: 'Is the person she was with relevant to her death?', 7: 'Was the woman killed by the person she was with after she lit the lighter?', 8: 'Did the woman have a terminal illness?', 9: 'Did she die of natural causes (like heart attack) after lighting the lighter?', 10: 'Was the woman in some sort of vehicle when she lit the lighter?', 11: 'Was the woman in an enclosed space when she lit the lighter?', 12: 'Did the woman die from lack of oxygen after lighting the lighter?', 13: "Did the lighter have anything 'special' or 'unusual' about it?", 14: 'Was the enclosed space underwater or in space?', 15: "Was the woman's death directly caused by her lighting the lighter?", 16: 'Did the lighting of the lighter cause an event that indirectly led to her death?', 17: "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?", 18: 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?', 19: 'Was the woman in a coffin when she lit the lighter?', 20: 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.', 21: 'Was the other person with her in the coffin?', 22: 'Did the other person die as well?', 23: "So, was the other person a creature that doesn't need air to survive?", 24: "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral.", 25: 'Did she recognize the dead person in the coffin with her?', 26: 'Is the dead person someone she was close to?', 27: 'Did the dead person have something to do with her being in the coffin?', 28: "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed.", 29: 'Was the dead man a mortician or funeral director?', 30: 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.', 31: 'Was the woman a patient or client of the mortician?', 32: 'Did the woman work with the mortician?', 33: 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?', 34: 'Was the woman a criminal?', 35: 'Did the woman kill the mortician?', 36: 'Did the woman fake her own death or was she running away from something?', 37: 'Did the woman plan to rob the mortician?', 38: 'Was the woman hiding from the law or someone else in the coffin?', 39: "Did the woman plan to replace the mortician's body with a different body?", 40: 'Did the woman have some sort of deal or arrangement with the mortician?', 41: 'Did the woman plan to be buried alive as part of her arrangement with the mortician?', 42: 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.', 43: 'Was the woman in prison before she was in the coffin?', 44: "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral.", 45: 'Was the woman in the morgue before she was in the coffin?', 46: 'Was the woman trying to escape prison by being buried alive and then dug up later?', 47: "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}</t>
   </si>
   <si>
+    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man ever tasted albatross before this incident?', 2: 'Did the man mistakenly identified the dish as albatross when it was not?', 3: 'Did the man have any particular reactions (allergic or emotional) towards albatross?', 4: 'Was the man associated with an albatross in any traumatic past experience?', 5: 'Was this traumatic experience related to a lost loved one?', 6: 'Was the traumatic experience related to being stranded or lost at sea?', 7: 'Did he eat an albatross during this traumatic experience?', 8: 'Did he believe he had eaten albatross during this traumatic experience?', 9: 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?', 10: 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man have a prior encounter with albatross before his visit to the restaurant?', 2: 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?', 3: 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?', 4: 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?', 5: 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?', 6: "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man die?', 2: 'Was there poison in the drink that the man had?', 3: 'Did the man have any allergies?', 4: 'Did the man have a pre-existing medical condition that might have caused his death?', 5: "Did the woman do anything to the man's drink after they were served by the bartender?", 6: 'Did the drinks come into contact with anything else after they were served?', 7: 'Did the man choke on the drink?', 8: 'Did the woman drink her drink faster than the man?', 9: 'Did the man die as a result of a delayed reaction to something in the drink?', 10: "Was the bartender involved in the man's death?", 11: "Did anyone else manipulate the man's drink?", 12: 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?', 13: 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.', 14: 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.', 15: 'Did the harmful substance in the drink get neutralized over time or by exposure to air?', 16: 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?', 17: 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?', 18: "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?", 19: 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?', 20: 'Was there ice in the drink?', 21: 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?', 22: "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?", 23: 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the drink contain poison?', 2: 'Did the woman die?', 3: 'Did someone else at the pub harm the man?', 4: 'Did the man have a pre-existing health condition?', 5: 'Did the man consume anything else besides the drink before his death?', 6: 'Did the drinks have different temperatures?', 7: 'Did the man drink something else other than the drink he ordered at the pub?', 8: "Was there something in the man's glass before the drink was poured?", 9: 'Did they drink at different speeds?', 10: 'Did the man drink faster than the woman?', 11: 'So the man died because he drank slower than the woman, correct?', 12: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.', 13: 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?', 14: 'Was the drink they ordered an alcoholic beverage?', 15: 'Did the man die from some type of external event or trigger while they were in the pub?', 16: 'Was there something deadly or toxic within the drinks that got neutralized over time?', 17: 'Did the man choke on his drink?', 18: 'Was there something harmful in the drink that naturally sank to the bottom over time?', 19: 'Did the woman do something to her drink before consuming it?', 20: 'Did the drink they had ordered originally contain something harmful?', 21: 'Did the ice in their drinks have anything to do with the death?', 22: "Did the woman's ice melt before she consumed her drink?", 23: "Did the ice in the man's drink contain a harmful substance?", 24: "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?", 25: "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise.", 26: 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?', 27: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}</t>
+  </si>
+  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
@@ -155,10 +172,13 @@
     <t>[' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions', ' not really', ' she was not alone in the coffin', ' ask about this other person', ' not relevant', ' no, ask about where she was before she was in the coffin', ' no, she was in prison', ' this was the plan yes to be buried. But ask about the other person in the coffin', ' false assumption of other prisoner inside the coffin', ' what was the occupation of the accomplice?']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'user', 'content': ' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions'}, {'role': 'assistant', 'content': ' Was the woman ill before lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the act of lighting the lighter cause her death?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alive when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman in a dangerous or risky environment when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a human?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did her death occur immediately after lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the lighter have any special or unusual characteristics?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alone when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Was the woman's death due to natural causes?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die due to an explosion or fire caused by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she suffocate because of the smoke or fumes created by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did someone else cause her death?'}, {'role': 'user', 'content': ' not really'}, {'role': 'assistant', 'content': ' Was the woman part of an act or performance when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she ingest or inhale anything harmful from the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die in a closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the space she died in a type of transport?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the space she died in lack oxygen?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she intentionally trying to die?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in submerged in water?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in naturally devoid of breathable air?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman in a spaceship or spacecraft when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she in outer space when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman trapped in the closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman already in a coffin when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' she was not alone in the coffin'}, {'role': 'assistant', 'content': " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried."}, {'role': 'user', 'content': ' ask about this other person'}, {'role': 'assistant', 'content': ' Was the other person alive when the woman lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person dead before the woman was put into the coffin?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person on purpose?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person a male?'}, {'role': 'user', 'content': ' not relevant'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a part of a ritual or custom?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person because there was no space in the grave site for another coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a form of punishment?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person in the coffin a loved one of the woman?'}, {'role': 'user', 'content': ' no '}, {'role': 'assistant', 'content': ' Did the woman know the other person in the coffin before they were buried together?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did the woman kill the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Did the woman's place of work or occupation have anything to do with her being buried with the other person?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a body double or stunt double for the dead person in the coffin?'}, {'role': 'user', 'content': ' no, ask about where she was before she was in the coffin'}, {'role': 'assistant', 'content': ' Was the woman in a hospital or medical facility before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at her place of work before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the location of death of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman attend the funeral of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the morgue before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the cemetery before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?'}, {'role': 'user', 'content': ' no, she was in prison'}, {'role': 'assistant', 'content': ' Was the woman in prison for a crime related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' this was the plan yes to be buried. But ask about the other person in the coffin'}, {'role': 'assistant', 'content': " Was the other person in the coffin an accomplice or involved in the woman's escape plan?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried."}, {'role': 'user', 'content': ' false assumption of other prisoner inside the coffin'}, {'role': 'assistant', 'content': ' Was the other person in the coffin someone who was not a prisoner?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried."}, {'role': 'user', 'content': ' what was the occupation of the accomplice?'}, {'role': 'assistant', 'content': ' Was the accomplice the cemetery worker or grave digger?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}]</t>
-  </si>
-  <si>
-    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
+    <t>['a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.', 'quit']</t>
+  </si>
+  <si>
+    <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions', 'why was the woman not affected?', 'quit']</t>
+  </si>
+  <si>
+    <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. ', 'not relevant', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -526,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +618,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -607,7 +627,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -636,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -645,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -674,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -683,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -712,7 +732,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -721,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -750,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -759,7 +779,7 @@
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -788,7 +808,7 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -797,7 +817,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -826,7 +846,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -835,7 +855,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -864,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -873,7 +893,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -899,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -911,7 +931,159 @@
         <v>39</v>
       </c>
       <c r="L10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s">
         <v>39</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAE4866-EE9D-4D9F-99AA-4199AA0F3250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0539E0F-30D9-4B92-9E8E-878C43E85F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
   <si>
     <t>Medium</t>
   </si>
@@ -106,6 +119,9 @@
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. '}, {'role': 'assistant', 'content': 'Did the drink contain poison?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone else at the pub harm the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing health condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man consume anything else besides the drink before his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks have different temperatures?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drink something else other than the drink he ordered at the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was there something in the man's glass before the drink was poured?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they drink at different speeds?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drink faster than the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So the man died because he drank slower than the woman, correct?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the drink they ordered an alcoholic beverage?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Did the man die from some type of external event or trigger while they were in the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something deadly or toxic within the drinks that got neutralized over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on his drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in the drink that naturally sank to the bottom over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman do something to her drink before consuming it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drink they had ordered originally contain something harmful?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the ice in their drinks have anything to do with the death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's ice melt before she consumed her drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the man's drink contain a harmful substance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}]</t>
   </si>
   <si>
+    <t>['Linthe Van Rooij: You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Linthe Van Rooij: Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'Thijs : Is her death related to the shoes', 'Linthe Van Rooij: yes', 'Thijs : Are they regular shoes?', 'Linthe Van Rooij: yes', 'Thijs : Is her friend willingly giving the shoes?', 'Linthe Van Rooij: yes', 'Thijs : Does her friend know about the death when it is happening', 'Linthe Van Rooij: no', 'Thijs : Did she die naturally?', 'Linthe Van Rooij: no', 'Thijs : She was murdered?', 'Linthe Van Rooij: no', 'Thijs : Accident?', 'Linthe Van Rooij: yes', 'Thijs : Did she trip because of the shoes?', 'Linthe Van Rooij: no', 'Thijs : Did sure have the shoes on when she died?', 'Linthe Van Rooij: yes', 'Thijs : Was there anything off about the shoes?', 'Linthe Van Rooij: no', 'Thijs : Was there anyone else involved in her death', 'Linthe Van Rooij: yes', 'Thijs : Did that person want the shoes', 'Linthe Van Rooij: no', 'Thijs : Did they make the accident happen', 'Linthe Van Rooij: yes', 'Thijs : Was the accident at home', 'Linthe Van Rooij: yes', 'Thijs : Was it her husband?', 'Linthe Van Rooij: yes', 'Thijs : Was her husband having an affair with the friend', 'Linthe Van Rooij: no', 'Thijs : Did she die because of air restriction? E.g. choked', 'Linthe Van Rooij: no', 'Linthe Van Rooij: What where they doing together?', "Thijs : We're they dancing?", 'Linthe Van Rooij: no', "Thijs : We're they moving", 'Linthe Van Rooij: false assumption they', 'Thijs : Was she moving', 'Linthe Van Rooij: no', 'Thijs : Was he moving', 'Linthe Van Rooij: yes', 'Thijs : Did he kill her by accident', 'Linthe Van Rooij: yes', 'Thijs : Did he trip over the shoes', 'Linthe Van Rooij: no', 'Thijs : Did he stab her', 'Linthe Van Rooij: no', 'Thijs : Was he taking a shower', 'Linthe Van Rooij: no', 'Thijs : Were they eating', 'Linthe Van Rooij: no', 'Thijs : Sleeping?', 'Linthe Van Rooij: no', 'Thijs : Cooking', 'Linthe Van Rooij: no', 'Thijs : Did he scare her', 'Linthe Van Rooij: no', 'Thijs : Hint', 'Linthe Van Rooij: ask about the hobbies of the man', 'Thijs : Was he a shoe maker', 'Linthe Van Rooij: no', 'Thijs : Did he have a workshop', 'Linthe Van Rooij: no', 'Thijs : Anything clothes, food or fashion related hobbies?', 'Linthe Van Rooij: no', 'Thijs : Anything with weapons?', 'Linthe Van Rooij: yes', 'Thijs : Swords?', 'Linthe Van Rooij: no', 'Thijs : Guns', 'Linthe Van Rooij: no', 'Thijs : Bow and arrow', 'Linthe Van Rooij: yes', 'Thijs : Did her shoes look like a target', 'Linthe Van Rooij: no', 'Thijs : Did he shoot her with an arrow', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: what could have been different with other shoes', 'Thijs : Did he think she was an intruder', 'Linthe Van Rooij: no', 'Thijs : Did she have the same shoes as his targets', 'Linthe Van Rooij: no', 'Thijs : Was she taller because of the shoes', 'Linthe Van Rooij: yes', 'Thijs : Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Linthe Van Rooij: no', 'Thijs : Was she taller than a safety wall, so she could get hit', 'Linthe Van Rooij: no', 'Linthe Van Rooij: Could he see where he was aiming?', 'Thijs : Was he blind or blondfolded', 'Linthe Van Rooij: yes', 'Thijs : So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her', 'Linthe Van Rooij: ik keur hem goed!']</t>
+  </si>
+  <si>
     <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
   </si>
   <si>
@@ -145,6 +161,9 @@
     <t>{1: 'Did the drink contain poison?', 2: 'Did the woman die?', 3: 'Did someone else at the pub harm the man?', 4: 'Did the man have a pre-existing health condition?', 5: 'Did the man consume anything else besides the drink before his death?', 6: 'Did the drinks have different temperatures?', 7: 'Did the man drink something else other than the drink he ordered at the pub?', 8: "Was there something in the man's glass before the drink was poured?", 9: 'Did they drink at different speeds?', 10: 'Did the man drink faster than the woman?', 11: 'So the man died because he drank slower than the woman, correct?', 12: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.', 13: 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?', 14: 'Was the drink they ordered an alcoholic beverage?', 15: 'Did the man die from some type of external event or trigger while they were in the pub?', 16: 'Was there something deadly or toxic within the drinks that got neutralized over time?', 17: 'Did the man choke on his drink?', 18: 'Was there something harmful in the drink that naturally sank to the bottom over time?', 19: 'Did the woman do something to her drink before consuming it?', 20: 'Did the drink they had ordered originally contain something harmful?', 21: 'Did the ice in their drinks have anything to do with the death?', 22: "Did the woman's ice melt before she consumed her drink?", 23: "Did the ice in the man's drink contain a harmful substance?", 24: "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?", 25: "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise.", 26: 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?', 27: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}</t>
   </si>
   <si>
+    <t>['Is her death related to the shoes', 'Are they regular shoes?', 'Is her friend willingly giving the shoes?', 'Does her friend know about the death when it is happening', 'Did she die naturally?', 'She was murdered?', 'Accident?', 'Did she trip because of the shoes?', 'Did sure have the shoes on when she died?', 'Was there anything off about the shoes?', 'Was there anyone else involved in her death', 'Did that person want the shoes', 'Did they make the accident happen', 'Was the accident at home', 'Was it her husband?', 'Was her husband having an affair with the friend', 'Did she die because of air restriction? E.g. choked', "We're they dancing?", "We're they moving", 'Was she moving', 'Was he moving', 'Did he kill her by accident', 'Did he trip over the shoes', 'Did he stab her', 'Was he taking a shower', 'Were they eating', 'Sleeping?', 'Cooking', 'Did he scare her', 'Hint', 'Was he a shoe maker', 'Did he have a workshop', 'Anything clothes, food or fashion related hobbies?', 'Anything with weapons?', 'Swords?', 'Guns', 'Bow and arrow', 'Did her shoes look like a target', 'Did he shoot her with an arrow', 'Did he think she was an intruder', 'Did she have the same shoes as his targets', 'Was she taller because of the shoes', 'Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Was she taller than a safety wall, so she could get hit', 'Was he blind or blondfolded', 'So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her']</t>
+  </si>
+  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
@@ -179,6 +198,9 @@
   </si>
   <si>
     <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. ', 'not relevant', 'quit']</t>
+  </si>
+  <si>
+    <t>['You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'What where they doing together?', 'false assumption they', 'ask about the hobbies of the man', 'what could have been different with other shoes', 'Could he see where he was aiming?', 'ik keur hem goed!']</t>
   </si>
 </sst>
 </file>
@@ -546,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -627,7 +649,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -656,7 +678,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -665,7 +687,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -694,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -703,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -732,7 +754,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -741,7 +763,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -770,7 +792,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -779,7 +801,7 @@
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -808,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -817,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -846,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -855,7 +877,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -884,7 +906,7 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -893,7 +915,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -922,7 +944,7 @@
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -931,7 +953,7 @@
         <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -960,7 +982,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -969,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -998,7 +1020,7 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1007,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1036,7 +1058,7 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1045,7 +1067,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1074,7 +1096,7 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1083,7 +1105,45 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>66</v>
+      </c>
+      <c r="G15">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0539E0F-30D9-4B92-9E8E-878C43E85F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2809AA0-AB8E-4010-8E0F-5622943741DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>Medium</t>
   </si>
@@ -122,6 +122,18 @@
     <t>['Linthe Van Rooij: You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Linthe Van Rooij: Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'Thijs : Is her death related to the shoes', 'Linthe Van Rooij: yes', 'Thijs : Are they regular shoes?', 'Linthe Van Rooij: yes', 'Thijs : Is her friend willingly giving the shoes?', 'Linthe Van Rooij: yes', 'Thijs : Does her friend know about the death when it is happening', 'Linthe Van Rooij: no', 'Thijs : Did she die naturally?', 'Linthe Van Rooij: no', 'Thijs : She was murdered?', 'Linthe Van Rooij: no', 'Thijs : Accident?', 'Linthe Van Rooij: yes', 'Thijs : Did she trip because of the shoes?', 'Linthe Van Rooij: no', 'Thijs : Did sure have the shoes on when she died?', 'Linthe Van Rooij: yes', 'Thijs : Was there anything off about the shoes?', 'Linthe Van Rooij: no', 'Thijs : Was there anyone else involved in her death', 'Linthe Van Rooij: yes', 'Thijs : Did that person want the shoes', 'Linthe Van Rooij: no', 'Thijs : Did they make the accident happen', 'Linthe Van Rooij: yes', 'Thijs : Was the accident at home', 'Linthe Van Rooij: yes', 'Thijs : Was it her husband?', 'Linthe Van Rooij: yes', 'Thijs : Was her husband having an affair with the friend', 'Linthe Van Rooij: no', 'Thijs : Did she die because of air restriction? E.g. choked', 'Linthe Van Rooij: no', 'Linthe Van Rooij: What where they doing together?', "Thijs : We're they dancing?", 'Linthe Van Rooij: no', "Thijs : We're they moving", 'Linthe Van Rooij: false assumption they', 'Thijs : Was she moving', 'Linthe Van Rooij: no', 'Thijs : Was he moving', 'Linthe Van Rooij: yes', 'Thijs : Did he kill her by accident', 'Linthe Van Rooij: yes', 'Thijs : Did he trip over the shoes', 'Linthe Van Rooij: no', 'Thijs : Did he stab her', 'Linthe Van Rooij: no', 'Thijs : Was he taking a shower', 'Linthe Van Rooij: no', 'Thijs : Were they eating', 'Linthe Van Rooij: no', 'Thijs : Sleeping?', 'Linthe Van Rooij: no', 'Thijs : Cooking', 'Linthe Van Rooij: no', 'Thijs : Did he scare her', 'Linthe Van Rooij: no', 'Thijs : Hint', 'Linthe Van Rooij: ask about the hobbies of the man', 'Thijs : Was he a shoe maker', 'Linthe Van Rooij: no', 'Thijs : Did he have a workshop', 'Linthe Van Rooij: no', 'Thijs : Anything clothes, food or fashion related hobbies?', 'Linthe Van Rooij: no', 'Thijs : Anything with weapons?', 'Linthe Van Rooij: yes', 'Thijs : Swords?', 'Linthe Van Rooij: no', 'Thijs : Guns', 'Linthe Van Rooij: no', 'Thijs : Bow and arrow', 'Linthe Van Rooij: yes', 'Thijs : Did her shoes look like a target', 'Linthe Van Rooij: no', 'Thijs : Did he shoot her with an arrow', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: what could have been different with other shoes', 'Thijs : Did he think she was an intruder', 'Linthe Van Rooij: no', 'Thijs : Did she have the same shoes as his targets', 'Linthe Van Rooij: no', 'Thijs : Was she taller because of the shoes', 'Linthe Van Rooij: yes', 'Thijs : Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Linthe Van Rooij: no', 'Thijs : Was she taller than a safety wall, so she could get hit', 'Linthe Van Rooij: no', 'Linthe Van Rooij: Could he see where he was aiming?', 'Thijs : Was he blind or blondfolded', 'Linthe Van Rooij: yes', 'Thijs : So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her', 'Linthe Van Rooij: ik keur hem goed!']</t>
   </si>
   <si>
+    <t>['Linthe Van Rooij: A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Thijs : Did she die in a fire or die from the smoke of the fire', 'Linthe Van Rooij: No', 'Thijs : Was she already burried?', 'Linthe Van Rooij: Yes', 'Thijs : Was she already presumed to be dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall in a coffin?', 'Linthe Van Rooij: No', 'Thijs : But she is in a coffin?', 'Linthe Van Rooij: Yes', 'Thijs : She lit the lighter to see that she was buried?', 'Linthe Van Rooij: No', 'Thijs : Was she mistaken for someone else?', 'Linthe Van Rooij: No', 'Thijs : Was she in the coffin by accident?', 'Linthe Van Rooij: No', 'Thijs : Was she looking for someone in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Did people already think that she was dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall asleep in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Was there anyone else involved in her death?', 'Linthe Van Rooij: Yes', 'Thijs : Did that person try to kill/murder her or accidentally kill her?', 'Linthe Van Rooij: No', 'Thijs : Was that person alive?', 'Linthe Van Rooij: No', 'Thijs : Did she suffocate?', 'Linthe Van Rooij: Yes', 'Thijs : Did she dig the hole that she was in herself?', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: Ask about the occupation of the other person involved', 'Thijs : Was the other person a gravedigger or involved at the graveyard?', 'Linthe Van Rooij: Yes', 'Thijs : Was there anyone else involved', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger digging her grave?', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger already dead when she met him?', 'Linthe Van Rooij: No', 'Thijs : Did they fight and she killed him?', 'Linthe Van Rooij: No', 'Thijs : Did she know him?', 'Linthe Van Rooij: Yes', 'Thijs : Was she related to him?', 'Linthe Van Rooij: No', 'Thijs : Were they partners', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Why did she lit the lighter inside the coffin?', 'Thijs : To set something on fire or to signal something?', 'Linthe Van Rooij: No', 'Thijs : To light a cigarette or to suffocate herself?', 'Linthe Van Rooij: No', 'Thijs : Was the other person with her inside or the coffin?', 'Linthe Van Rooij: Yes', 'Thijs : Did she light it to kill him or to do anything related to him?', 'Linthe Van Rooij: No', 'Thijs : Did she take a shortcut home through the graveyard?', 'Linthe Van Rooij: No', 'Thijs : Did the guy fall in the coffin?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about where she was before', 'Thijs : Was she at a funeral?', 'Linthe Van Rooij: No', 'Thijs : At a social event?', 'Linthe Van Rooij: No', 'Thijs : Was she visiting someone at the graveyard or was she running?', 'Linthe Van Rooij: No', 'Thijs : Was she walking', 'Linthe Van Rooij: No', 'Thijs : Was she scared of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Was she at home', 'Linthe Van Rooij: No', 'Thijs : Anything sport related or food related', 'Linthe Van Rooij: No', 'Thijs : Was she drunk or on drugs', 'Linthe Van Rooij: No', 'Thijs : Was she shopping or in town', 'Linthe Van Rooij: No', 'Thijs : Was it night', 'Linthe Van Rooij: Not relevant', 'Thijs : Was she driving around', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: She was a criminal/convict', 'Thijs : Did she just rob the house of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Did she rob someone who died', 'Linthe Van Rooij: No', 'Thijs : Did she just rob someone', 'Linthe Van Rooij: No', 'Thijs : Did she just murder someone?', 'Linthe Van Rooij: No', 'Thijs : Was she escaping prison', 'Linthe Van Rooij: Yes', 'Thijs : And she was hiding in the grave to escape the police?', 'Linthe Van Rooij: Yes', 'Thijs : And the gravedigger was an accomplice?', 'Linthe Van Rooij: Yes', 'Thijs : So they tried to hide from the police by hiding in the grave but they got locked in', 'Linthe Van Rooij: No', 'Thijs : She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'Linthe Van Rooij: She expected another person to be in the grave next to her', 'Thijs : She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her', 'Linthe Van Rooij: Allrightyy']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'Lynn van Zeijts: is one of them going to die after she leaves?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: do they have an important conversation after he received the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the men also has a weapon?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: will he take the knife of the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is she leaving with the knife in her hand?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men ask the women for a knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is one the men or the women getting injured?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: are there more people involved except the men &amp; women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know why the women decides to leave?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: False assumption woman leaves', 'Lynn van Zeijts: so HE leaves? (not she)', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did the  men pay for his coke?', 'Lynn van Zeijts: is the relation between the men &amp; women important?', 'Linthe Van Rooij: Not relevant', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women aimed to threaten him with the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women ask him to do something with the knife because she did not want to do something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men insult the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men do something which can be seen considerd as ethically wrong?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about why he orders something at the bar', 'Lynn van Zeijts: did he order a coke to celebrate something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something because had some medical emergency?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something for a negative reason?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was this negative reason related to the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this related to his work?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to his family live?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the fact that he order coke (and not another drink) important to understand the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he revelaed a secret?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men receive his coke before she grabbed the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men threatend the women as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: so did the women refused to give him the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the negative event happended shortly before he entered the cafe?', 'Linthe Van Rooij: No, it is still happening', 'Lynn van Zeijts: did they got into a fight?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men drink anything before he order the coke?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The drink could serve as a remedy for the event', 'Lynn van Zeijts: were there any other elements or objects involved, caused the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the coke dangerous for him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the negative event over once he leaves the cafe?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the women trying to help the men by showing the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does the men wants to kill himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to kill or injure him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: She only wants to scare him', 'Lynn van Zeijts: to protect herself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to protect and help him?', 'Linthe Van Rooij: Ask these questions seperately', 'Lynn van Zeijts: is the women trying to help the men by scaring him with the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.', 'Linthe Van Rooij: Yes!!!!!!! You got it']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man climbs out of a large vehicle and drowned himself', 'Lynn van Zeijts: is the vehicle still on land when he climbs out the vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle close to water as well?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other people in the vehicle as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this vehicle an airplane?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is this vehicle used for public transport?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it relevant to know the type of vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle made to be on land?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is it a tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he drown himself on purpose?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was he a farmer?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did something negative happened to his farming practices?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did something negative happened at all?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does this has anything to do with the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was the tractor broken?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the land, in which the tractor was located at that moment boggy?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the reason that he climbed out of the tractor had anything to do with the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the water in which he drowned himself close to the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other objects or people involved in the negative event?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were there any people in the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he wanted to go to the other people?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the drowning happened right after he climbed out of the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: did the other people influenced him in stepping out of the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was it dangerous for him to stay in the vehicle?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people also with tractors? n', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know how he exactly climbed out of the tractor?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about the relationship with the people involved', 'Lynn van Zeijts: did the other people wanted him to drown himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people wanted to save him?', 'Lynn van Zeijts: did he know the other people before?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: was it an accident that he drowned?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people saw something which the men could not see (when he was still in the tractor)?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the other people also farmers?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people angry at him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the know eachother for a long time?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they employees?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: family?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they close to the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was there a fight or any other negative event between the men and his family?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were there any childern involved?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the childeren outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he climbed out the tractor for his childern?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was his kid in a dangerous situation?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he aimed to save his kid by climbing out of the tractor?', 'Lynn van Zeijts: did he cause the dangerous situation?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he accidently killed his kid with his tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'PiÃ±a: Did someone die?', 'PiÃ±a: Are they loved ones?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Were they playing checkers together?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner do something with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner kill the loser with the pistol?', 'Linthe Van Rooij: No', 'PiÃ±a: Is someone going to shoot with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did the woman win?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Did the man or woman shot another person in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Were there other people in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Did someone shoot in the air?', 'Linthe Van Rooij: No', 'PiÃ±a: Did one of the two people kill the other?', 'Linthe Van Rooij: No', 'PiÃ±a: I mean did one shot the other?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot but not on a person?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: there was no shot but there is going to be', 'PiÃ±a: Can the winner use the pistol to make a shot?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Will the winner of the game shoot the other player after winning the game of checkers?', 'Linthe Van Rooij: No', 'PiÃ±a: Will someone die in the future?', 'Linthe Van Rooij: Yes', 'PiÃ±a: One of the two players?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The winner?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The loser is so sad and mad that they shot the winner?', 'Linthe Van Rooij: No', 'PiÃ±a: They are playing the game because someone has to die?', 'Linthe Van Rooij: No', 'PiÃ±a: The winner shot themselves?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is the why of this question relevant?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Ask about the location', 'PiÃ±a: Were they in jail?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in a bar?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in an unusual place to play the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Were they outside?', 'Linthe Van Rooij: No', 'PiÃ±a: At someoneâ€™s house?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they going from a place to another place while playing the game?', 'Linthe Van Rooij: No', 'PiÃ±a: This is so hard, can you give me another hint', 'Linthe Van Rooij: They are in some kind of vehicle', 'PiÃ±a: In a plane?', 'Linthe Van Rooij: No', 'PiÃ±a: In a train?', 'Linthe Van Rooij: No', 'PiÃ±a: In a bus?', 'Linthe Van Rooij: No', 'PiÃ±a: In a car?', 'Linthe Van Rooij: No', 'PiÃ±a: In a boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did someone shoot a hole in the boat?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The type of boat is relevant to the story', 'PiÃ±a: Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is it a cruise?', 'Linthe Van Rooij: No', 'PiÃ±a: A big boat?', 'Linthe Van Rooij: No', 'PiÃ±a: Or a small boat for just the two of them?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A rowing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: A rubber boat?', 'Linthe Van Rooij: No', 'PiÃ±a: The boat was big enough for a table right?', 'Linthe Van Rooij: Yes', 'PiÃ±a: An expensive boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A yacht?', 'Linthe Van Rooij: No', 'PiÃ±a: A sailing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: I just named all boat types haha, do I have to go in a different direction?', 'Linthe Van Rooij: Yes, under water', 'PiÃ±a: A submarine?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is why they were there relevant?', 'Linthe Van Rooij: No', 'PiÃ±a: What am I missing?', 'Linthe Van Rooij: Why would you want to shoot yourself in a submarine?', 'PiÃ±a: Because the person was getting crazy?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the submarine still able to go up after the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: So the person killed everyone in the submarine by the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the shot on themselves intentional?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Does the why they wanted to shot themselves have to do with the game?', 'Linthe Van Rooij: No', 'PiÃ±a: Did it have something to do with the other person?', 'Linthe Van Rooij: No', 'PiÃ±a: Give me more hints please haha I am done with this game', "Linthe Van Rooij: The game is a result of that the submarine can't go up", 'PiÃ±a: Am I even close? I am so bad at this', 'Linthe Van Rooij: Your almost there!!!', 'PiÃ±a: The person who shot themselves was the driver?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: They were forever stuck there?', 'Linthe Van Rooij: Yes', 'PiÃ±a: They already knew that they were stuck before playing the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: There was just one bullet?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
+  </si>
+  <si>
     <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
   </si>
   <si>
@@ -164,6 +176,18 @@
     <t>['Is her death related to the shoes', 'Are they regular shoes?', 'Is her friend willingly giving the shoes?', 'Does her friend know about the death when it is happening', 'Did she die naturally?', 'She was murdered?', 'Accident?', 'Did she trip because of the shoes?', 'Did sure have the shoes on when she died?', 'Was there anything off about the shoes?', 'Was there anyone else involved in her death', 'Did that person want the shoes', 'Did they make the accident happen', 'Was the accident at home', 'Was it her husband?', 'Was her husband having an affair with the friend', 'Did she die because of air restriction? E.g. choked', "We're they dancing?", "We're they moving", 'Was she moving', 'Was he moving', 'Did he kill her by accident', 'Did he trip over the shoes', 'Did he stab her', 'Was he taking a shower', 'Were they eating', 'Sleeping?', 'Cooking', 'Did he scare her', 'Hint', 'Was he a shoe maker', 'Did he have a workshop', 'Anything clothes, food or fashion related hobbies?', 'Anything with weapons?', 'Swords?', 'Guns', 'Bow and arrow', 'Did her shoes look like a target', 'Did he shoot her with an arrow', 'Did he think she was an intruder', 'Did she have the same shoes as his targets', 'Was she taller because of the shoes', 'Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Was she taller than a safety wall, so she could get hit', 'Was he blind or blondfolded', 'So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her']</t>
   </si>
   <si>
+    <t>['Did she die in a fire or die from the smoke of the fire', 'Was she already burried?', 'Was she already presumed to be dead?', 'Did she fall in a coffin?', 'But she is in a coffin?', 'She lit the lighter to see that she was buried?', 'Was she mistaken for someone else?', 'Was she in the coffin by accident?', 'Was she looking for someone in the coffin?', 'Did people already think that she was dead?', 'Did she fall asleep in the coffin?', 'Was there anyone else involved in her death?', 'Did that person try to kill/murder her or accidentally kill her?', 'Was that person alive?', 'Did she suffocate?', 'Did she dig the hole that she was in herself?', 'Hint', 'Was the other person a gravedigger or involved at the graveyard?', 'Was there anyone else involved', 'Was the gravedigger digging her grave?', 'Was the gravedigger already dead when she met him?', 'Did they fight and she killed him?', 'Did she know him?', 'Was she related to him?', 'Were they partners', 'To set something on fire or to signal something?', 'To light a cigarette or to suffocate herself?', 'Was the other person with her inside or the coffin?', 'Did she light it to kill him or to do anything related to him?', 'Did she take a shortcut home through the graveyard?', 'Did the guy fall in the coffin?', 'Was she at a funeral?', 'At a social event?', 'Was she visiting someone at the graveyard or was she running?', 'Was she walking', 'Was she scared of the gravedigger', 'Was she at home', 'Anything sport related or food related', 'Was she drunk or on drugs', 'Was she shopping or in town', 'Was it night', 'Was she driving around', 'Hint', 'Did she just rob the house of the gravedigger', 'Did she rob someone who died', 'Did she just rob someone', 'Did she just murder someone?', 'Was she escaping prison', 'And she was hiding in the grave to escape the police?', 'And the gravedigger was an accomplice?', 'So they tried to hide from the police by hiding in the grave but they got locked in', 'She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her']</t>
+  </si>
+  <si>
+    <t>['is one of them going to die after she leaves?', 'do they have an important conversation after he received the coke?', 'does the men also has a weapon?', 'will he take the knife of the women?', 'is she leaving with the knife in her hand?', 'did the men ask the women for a knife?', 'is one the men or the women getting injured?', 'are there more people involved except the men &amp; women?', 'is it important to know why the women decides to leave?', 'so HE leaves? (not she)', 'did the  men pay for his coke?', 'is the relation between the men &amp; women important?', 'did the women aimed to threaten him with the knife?', 'did the women ask him to do something with the knife because she did not want to do something?', 'did the men insult the women?', 'did the men do something which can be seen considerd as ethically wrong?', 'did he order a coke to celebrate something?', 'did he order something because had some medical emergency?', 'did he order something for a negative reason?', 'was this negative reason related to the women?', 'was this related to his work?', 'to his family live?', 'is the fact that he order coke (and not another drink) important to understand the negative event?', 'did he revelaed a secret?', 'did the men receive his coke before she grabbed the knife?', 'did the men threatend the women as well?', 'so did the women refused to give him the coke?', 'did the negative event happended shortly before he entered the cafe?', 'did they got into a fight?', 'did the men drink anything before he order the coke?', 'were there any other elements or objects involved, caused the negative event?', 'is the coke dangerous for him?', 'is the negative event over once he leaves the cafe?', 'is the women trying to help the men by showing the knife?', 'does the men wants to kill himself?', 'does the women wants to kill or injure him?', 'does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'to protect herself?', 'to protect and help him?', 'is the women trying to help the men by scaring him with the knife?', 'Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.']</t>
+  </si>
+  <si>
+    <t>['is the vehicle still on land when he climbs out the vehicle?', 'is the vehicle close to water as well?', 'were there any other people in the vehicle as well?', 'was this vehicle an airplane?', 'is this vehicle used for public transport?', 'is it relevant to know the type of vehicle?', 'is the vehicle made to be on land?', 'is it a tractor?', 'did he drown himself on purpose?', 'was he a farmer?', 'did something negative happened to his farming practices?', 'did something negative happened at all?', 'does this has anything to do with the tractor?', 'was the tractor broken?', 'was the land, in which the tractor was located at that moment boggy?', 'did the reason that he climbed out of the tractor had anything to do with the tractor?', 'was the water in which he drowned himself close to the tractor?', 'were there any other objects or people involved in the negative event?', 'were there any people in the tractor?', 'outside the tractor?', 'did he wanted to go to the other people?', 'did the drowning happened right after he climbed out of the tractor?', 'did the other people influenced him in stepping out of the tractor?', 'was it dangerous for him to stay in the vehicle?', 'were the other people also with tractors? n', 'is it important to know how he exactly climbed out of the tractor?', 'did the other people wanted him to drown himself?', 'did the other people wanted to save him?', 'did he know the other people before?', 'was it an accident that he drowned?', 'did the other people saw something which the men could not see (when he was still in the tractor)?', 'were the other people also farmers?', 'were the other people angry at him?', 'did the know eachother for a long time?', 'were they employees?', 'family?', 'were they close to the tractor?', 'was there a fight or any other negative event between the men and his family?', 'were there any childern involved?', 'were the childeren outside the tractor?', 'did he climbed out the tractor for his childern?', 'was his kid in a dangerous situation?', 'did he aimed to save his kid by climbing out of the tractor?', 'did he cause the dangerous situation?', 'did he accidently killed his kid with his tractor?', 'so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
+  </si>
+  <si>
+    <t>['Did someone die?', 'Are they loved ones?', 'Were they playing checkers together?', 'Can the winner do something with the pistol?', 'Can the winner kill the loser with the pistol?', 'Is someone going to shoot with the pistol?', 'Did the woman win?', 'Did the man or woman shot another person in the room?', 'Were there other people in the room?', 'Did someone shoot in the air?', 'Did one of the two people kill the other?', 'I mean did one shot the other?', 'But there was a shot?', 'But there was a shot but not on a person?', 'Can the winner use the pistol to make a shot?', 'Will the winner of the game shoot the other player after winning the game of checkers?', 'Will someone die in the future?', 'One of the two players?', 'The winner?', 'The loser is so sad and mad that they shot the winner?', 'They are playing the game because someone has to die?', 'The winner shot themselves?', 'Is the why of this question relevant?', 'Were they in jail?', 'Were they in a bar?', 'Were they in an unusual place to play the game?', 'Were they outside?', 'At someoneâ€™s house?', 'Were they going from a place to another place while playing the game?', 'This is so hard, can you give me another hint', 'In a plane?', 'In a train?', 'In a bus?', 'In a car?', 'In a boat?', 'Did someone shoot a hole in the boat?', 'Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Is it a cruise?', 'A big boat?', 'Or a small boat for just the two of them?', 'A rowing boat?', 'A rubber boat?', 'The boat was big enough for a table right?', 'An expensive boat?', 'A yacht?', 'A sailing boat?', 'I just named all boat types haha, do I have to go in a different direction?', 'A submarine?', 'Is why they were there relevant?', 'What am I missing?', 'Because the person was getting crazy?', 'Was the submarine still able to go up after the shot?', 'So the person killed everyone in the submarine by the shot?', 'Was the shot on themselves intentional?', 'Does the why they wanted to shot themselves have to do with the game?', 'Did it have something to do with the other person?', 'Give me more hints please haha I am done with this game', 'Am I even close? I am so bad at this', 'The person who shot themselves was the driver?', 'They were forever stuck there?', 'They already knew that they were stuck before playing the game?', 'There was just one bullet?', 'Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
+  </si>
+  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
@@ -201,6 +225,18 @@
   </si>
   <si>
     <t>['You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'What where they doing together?', 'false assumption they', 'ask about the hobbies of the man', 'what could have been different with other shoes', 'Could he see where he was aiming?', 'ik keur hem goed!']</t>
+  </si>
+  <si>
+    <t>['A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Ask about the occupation of the other person involved', 'Why did she lit the lighter inside the coffin?', 'Ask about where she was before', 'Not relevant', 'She was a criminal/convict', 'She expected another person to be in the grave next to her', 'Allrightyy']</t>
+  </si>
+  <si>
+    <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'False assumption woman leaves', 'Not relevant', 'Ask about why he orders something at the bar', 'No, it is still happening', 'The drink could serve as a remedy for the event', 'She only wants to scare him', 'Ask these questions seperately', 'Yes!!!!!!! You got it']</t>
+  </si>
+  <si>
+    <t>['A man climbs out of a large vehicle and drowned himself', 'Not relevant', 'Not relevant', 'Not relevant', 'Ask about the relationship with the people involved', 'Not relevant']</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'Not relevant', 'Not relevant', 'there was no shot but there is going to be', 'Ask about the location', 'They are in some kind of vehicle', 'The type of boat is relevant to the story', 'Yes, under water', 'Why would you want to shoot yourself in a submarine?', "The game is a result of that the submarine can't go up", 'Your almost there!!!', 'Not relevant']</t>
   </si>
 </sst>
 </file>
@@ -568,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -649,7 +685,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -678,7 +714,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -687,7 +723,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -716,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -725,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -754,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -763,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -792,7 +828,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -801,7 +837,7 @@
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -830,7 +866,7 @@
         <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -839,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -868,7 +904,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -877,7 +913,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -906,7 +942,7 @@
         <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -915,7 +951,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -944,7 +980,7 @@
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -953,7 +989,7 @@
         <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -982,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -991,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1020,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1029,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1058,7 +1094,7 @@
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1067,7 +1103,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1096,7 +1132,7 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1105,7 +1141,7 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1134,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>16</v>
@@ -1143,10 +1179,163 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>78</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>23</v>
+      </c>
+      <c r="L18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>63</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>98</v>
+      </c>
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\OneDrive\Documenten\GitHub\BlackStoriesAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2809AA0-AB8E-4010-8E0F-5622943741DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F557F72A-A65D-4308-B306-C45301CC4A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>Medium</t>
   </si>
@@ -77,166 +64,175 @@
     <t>Nikki</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
+  </si>
+  <si>
+    <t>['a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.', 'this is not a yes or no question', 'yes, but why are they doing this?', 'you're not done yet. I need a lot of more details. like the location, and circumstances', 'not relevant to the story', "no they don't do it to pass time. you're not there yet", 'sort of. they are both going to die regardless', 'quit']</t>
+  </si>
+  <si>
     <t>Linthe</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
-  </si>
-  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of hypothermia or exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from a self-inflicted injury or suicide?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die as a result of an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was he alone when the accident happened?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a motorcycle or bike?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an aircraft of some sort?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die from the crash of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump or fall out of the plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man have a parachute when he jumped or fell out of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?'}, {'role': 'user', 'content': 'no, false assumptions. ask how the man got into the plane with barely any clothes'}, {'role': 'assistant', 'content': 'Did the man board the plane initially with barely any clothes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man remove his clothes after boarding the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man lose his clothes because of a malfunction or damage of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did someone else remove the man's clothes before or during his flight?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane carrying cargo or was it a passenger plane?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Was the plane a cargo aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a personal aircraft, not intended for commercial or cargo use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a passenger aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane originally over water before it reached the woods?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man attempt to land the plane on water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the plane's final destination within the woods or wilderness area?"}, {'role': 'user', 'content': 'partly correct'}, {'role': 'assistant', 'content': 'Was the plane intended to land in a body of water near the woods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane intended to land in an area within the woods?'}, {'role': 'user', 'content': 'not land, but the plane was there for the woods'}, {'role': 'assistant', 'content': 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the plane involved in firefighting activities?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's clothing burn due to a fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?'}, {'role': 'user', 'content': 'the man was in the plane by accident'}, {'role': 'assistant', 'content': 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?'}, {'role': 'user', 'content': 'almost, why was he there?'}, {'role': 'assistant', 'content': "Did the man sneak into the plane without the crew's knowledge?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man homeless and seeking shelter in the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?'}, {'role': 'user', 'content': 'no, he did not enter the plane himself'}, {'role': 'assistant', 'content': 'Was the man placed in the plane by somebody else?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?'}, {'role': 'user', 'content': 'false assumption that it is used for cargo'}, {'role': 'assistant', 'content': 'Was the man placed in the plane as part of a rescue operation or medical evacuation?'}, {'role': 'user', 'content': 'you already guessed where the plane was for!'}, {'role': 'assistant', 'content': 'Did the man get scooped up with water when the plane was loading water for firefighting?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}]</t>
   </si>
   <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
+  </si>
+  <si>
+    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'no, false assumptions. ask how the man got into the plane with barely any clothes', 'this is not a yes or no question', 'partly correct', 'not land, but the plane was there for the woods', 'the man was in the plane by accident', 'almost, why was he there?', 'no, he did not enter the plane himself', 'sort of', 'false assumption that it is used for cargo', 'you already guessed where the plane was for!', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die from a self-inflicted injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die due to an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the accident related to a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it a car accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the accident related to an aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man jump out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man the pilot of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a passenger on the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the aircraft crash into the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the aircraft drop something that directly caused the man's death?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the man hit by a falling object from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die trying to catch something that was falling from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a parachute?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to save his life?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a packed object that got deployed accidentally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to be used in a survival situation?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?'}, {'role': 'user', 'content': 'no, the man was on the airplane'}, {'role': 'assistant', 'content': 'Was he detached from the aircraft in mid-air, leading to his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft without a parachute?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because the door was accidentally opened?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man trying to enter or exit the aircraft when he fell out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft as a result of a fight or altercation on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft during a routine operation or procedure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man pushed out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was on the ground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was taking off or landing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the man fall out because the floor of the aircraft gave way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?'}, {'role': 'user', 'content': 'he did not fall out of the aircraft due to himself'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because another person on that aircraft made him do it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something in the aircraft malfunction, causing him to fall out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out due to an explosion in the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because an animal in the aircraft caused it?'}, {'role': 'user', 'content': 'no, ask about the function of the airplane'}, {'role': 'assistant', 'content': 'Was the aircraft used for commercial travel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for military purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for cargo transportation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for scientific research?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for private/personal use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for a rescue mission?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the aircraft being used for air ambulance or medical evacuation purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for firefighting purposes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was releasing water or fire retardant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.'}, {'role': 'user', 'content': 'you miss one element, how did the person got there?'}, {'role': 'assistant', 'content': 'Was the man actually inside the aircraft when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man already in the area for another purpose when the aircraft arrived?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?"}, {'role': 'user', 'content': 'no, why did he had barely any clothes on?'}, {'role': 'assistant', 'content': 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}]</t>
   </si>
   <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die of natural causes?', 3: 'Did the man die of exposure to the elements?', 4: 'Did he die from a self-inflicted injury?', 5: 'Did he die due to an accident?', 6: 'Was the accident related to a vehicle?', 7: 'Was it a car accident?', 8: 'Was the accident related to an aircraft?', 9: 'Did the man jump out of the aircraft?', 10: 'Was the man the pilot of the aircraft?', 11: 'Was the man a passenger on the aircraft?', 12: 'Did the aircraft crash into the man?', 13: "Did the aircraft drop something that directly caused the man's death?", 14: 'Was the man hit by a falling object from the aircraft?', 15: 'Did the man die trying to catch something that was falling from the aircraft?', 16: "Did the man's death involve a parachute?", 17: "Did the man's death involve an object that was intended to save his life?", 18: "Did the man's death involve a packed object that got deployed accidentally?", 19: "Did the man's death involve an object that was intended to be used in a survival situation?", 20: 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?', 21: 'Was he detached from the aircraft in mid-air, leading to his death?', 22: 'Did the man fall out of the aircraft?', 23: 'Did the man fall out of the aircraft without a parachute?', 24: 'Did the man fall out of the aircraft because the door was accidentally opened?', 25: 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?', 26: 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?', 27: 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?', 28: 'Was the man trying to enter or exit the aircraft when he fell out?', 29: 'Did the man fall out of the aircraft as a result of a fight or altercation on board?', 30: 'Did the man fall out of the aircraft during a routine operation or procedure?', 31: 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?', 32: 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?', 33: 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?', 34: 'Was the man pushed out of the aircraft?', 35: 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?', 36: 'Did the man fall out of the aircraft while it was on the ground?', 37: 'Did the man fall out of the aircraft while it was taking off or landing?', 38: 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?', 39: 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?', 40: 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?', 41: 'Did the man fall out because the floor of the aircraft gave way?', 42: 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?', 43: 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?', 44: 'Did the man fall out of the aircraft because another person on that aircraft made him do it?', 45: 'Did something in the aircraft malfunction, causing him to fall out?', 46: 'Did the man fall out due to an explosion in the aircraft?', 47: 'Did the man fall out of the aircraft because an animal in the aircraft caused it?', 48: 'Was the aircraft used for commercial travel?', 49: 'Was the aircraft used for military purposes?', 50: 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?', 51: 'Was the aircraft being used for cargo transportation?', 52: 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?', 53: 'Was the aircraft used for scientific research?', 54: 'Was the aircraft being used for private/personal use?', 55: 'Was the aircraft being used for a rescue mission?', 56: 'Was the aircraft being used for air ambulance or medical evacuation purposes?', 57: 'Was the aircraft being used for firefighting purposes?', 58: 'Did the man fall out of the aircraft while it was releasing water or fire retardant?', 59: 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.', 60: 'Was the man actually inside the aircraft when it took off?', 61: 'Was the man already in the area for another purpose when the aircraft arrived?', 62: "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?", 63: 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?', 64: "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}</t>
+  </si>
+  <si>
+    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'sort of', 'no, the man was on the airplane', 'false assumption', 'he did not fall out of the aircraft due to himself', 'no, ask about the function of the airplane', 'sort of', 'you miss one element, how did the person got there?', 'no, why did he had barely any clothes on?', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Did the woman intend to harm herself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did something tragic happen to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have mental health issues?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she escaping from someone or something in city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she complete an important task or mission in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she forced to make the return trip against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did anything significant happen on her way back to city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the sundress and dark glasses relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the sundress and dark glasses a disguise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman wear the sundress and dark glasses to protect herself from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the sundress and dark glasses have symbolic meaning for the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does the woman have a visual impairment?'}, {'role': 'user', 'content': 'false assumption present tense'}, {'role': 'assistant', 'content': 'Did the woman have a visual impairment before the journey to city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A."}, {'role': 'user', 'content': 'almost correct. ask about the reason why she jumped'}, {'role': 'assistant', 'content': 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman see something specific on her return trip that prompted her to take her own life?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did she jump because she could not bear the darkness in the tunnel?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman scared of the darkness due to her previous inability to see?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because without her sight she could better handle the darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?'}, {'role': 'user', 'content': 'no, after eye surgery, what do you have?'}, {'role': 'assistant', 'content': 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.'}, {'role': 'user', 'content': 'almost, when did she check if she could see again?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again when she came out of the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again while she was still inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}]</t>
   </si>
   <si>
+    <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
+  </si>
+  <si>
+    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption present tense', 'almost correct. ask about the reason why she jumped', 'false assumption', 'yes, but why?', 'false assumption', 'no, after eye surgery, what do you have?', 'almost, when did she check if she could see again?', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman suffering from a mental illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something significant happen to her during her stay in city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did she receive bad news in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she meet someone significant in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she come into possession of something distressing or harmful in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she commit a crime in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she lose something valuable or meaningful to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she experience something traumatic in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman spend the entire twelve days in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman on a mission or task in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's return to City A have any significance?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman come back early from city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman ill physically?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the time spent in city B longer than she intended?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman forced or coerced into making the trip back to City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something happen to her on the bus trip from city B to A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the tunnel trigger a phobia or fear in the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman react to something she saw or heard inside the tunnel?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Was it completely dark inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Are the woman's dark glasses relevant to her reaction in the tunnel?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the woman not able to see in the dark tunnel even with her dark glasses on?'}, {'role': 'user', 'content': 'false assumption that she still has her glasses on'}, {'role': 'assistant', 'content': 'Did the woman lose her dark glasses during the bus ride?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she leave her glasses in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman remove her glasses before or during the bus ride?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses when they entered the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses after entering the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Had she removed her glasses before boarding the bus to city A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's state of mind change after taking off her glasses?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's glasses have a special feature or property?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does her glasses being off in the tunnel mean that she expected to see darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses due to an event or circumstance in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman lose or damage her glasses in City B?'}, {'role': 'user', 'content': 'no, stop asking questions about the glasses'}, {'role': 'assistant', 'content': 'Did the woman experience a change in her vision during her time in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the change in her vision cause her distress or discomfort?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone alter her vision intentionally while she was in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change in her vision permanent?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change made to her vision done against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman pay someone to alter her vision in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.'}, {'role': 'user', 'content': 'not really, ask about her condition in city a and after the surgery in city b'}, {'role': 'assistant', 'content': 'Did the woman have normal vision when she left City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman blind or had a serious vision problem when she left City A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After the surgery in City B, was the woman able to see?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but did she already know that she could see?'}, {'role': 'assistant', 'content': 'Did the woman not realize she could see until she was in the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.'}, {'role': 'user', 'content': 'no, when did she check if she could see?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see while she was inside the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel."}, {'role': 'user', 'content': 'she did not know yet if she could see, why did she jump?'}, {'role': 'assistant', 'content': 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}]</t>
   </si>
   <si>
+    <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?", 52: 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?', 53: 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?', 54: 'Did the woman not realize she could see until she was in the dark tunnel?', 55: 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.', 56: 'Did the woman check if she could see while she was inside the dark tunnel?', 57: "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel.", 58: 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?', 59: 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}</t>
+  </si>
+  <si>
+    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption', 'sort of', 'false assumption that she still has her glasses on', 'no, stop asking questions about the glasses', 'not really, ask about her condition in city a and after the surgery in city b', 'yes, but why?', 'yes, but did she already know that she could see?', 'no, when did she check if she could see?', 'she did not know yet if she could see, why did she jump?', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'assistant', 'content': 'Was the woman already dead before she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die because of an explosion caused by lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die from smoke or gas inhalation after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die instantaneously after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman alone when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the person she was with relevant to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman killed by the person she was with after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she die of natural causes (like heart attack) after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in some sort of vehicle when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in an enclosed space when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman die from lack of oxygen after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the lighter have anything 'special' or 'unusual' about it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the enclosed space underwater or in space?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's death directly caused by her lighting the lighter?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the lighting of the lighter cause an event that indirectly led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman in a coffin when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.'}, {'role': 'user', 'content': 'partly correct. ask about the other person'}, {'role': 'assistant', 'content': 'Was the other person with her in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person die as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "So, was the other person a creature that doesn't need air to survive?"}, {'role': 'user', 'content': 'no, he was already dead'}, {'role': 'assistant', 'content': "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral."}, {'role': 'user', 'content': 'seing the other person while lighting the lighter made her realise somthing'}, {'role': 'assistant', 'content': 'Did she recognize the dead person in the coffin with her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the dead person someone she was close to?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the dead person have something to do with her being in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed."}, {'role': 'user', 'content': 'no, ask about the occupation of the dead man'}, {'role': 'assistant', 'content': 'Was the dead man a mortician or funeral director?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.'}, {'role': 'user', 'content': 'ask more about herself and the relation to the mortician'}, {'role': 'assistant', 'content': 'Was the woman a patient or client of the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman work with the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman a criminal?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman kill the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman fake her own death or was she running away from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman plan to rob the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman hiding from the law or someone else in the coffin?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman plan to replace the mortician's body with a different body?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some sort of deal or arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman plan to be buried alive as part of her arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.'}, {'role': 'user', 'content': 'not a criminal plot. where was she before?'}, {'role': 'assistant', 'content': 'Was the woman in prison before she was in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in the morgue before she was in the coffin?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Was the woman trying to escape prison by being buried alive and then dug up later?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}]</t>
   </si>
   <si>
+    <t>{1: 'Was the woman already dead before she lit the lighter?', 2: 'Did the woman die because of an explosion caused by lighting the lighter?', 3: 'Did the woman die from smoke or gas inhalation after she lit the lighter?', 4: 'Did the woman die instantaneously after lighting the lighter?', 5: 'Was the woman alone when she lit the lighter?', 6: 'Is the person she was with relevant to her death?', 7: 'Was the woman killed by the person she was with after she lit the lighter?', 8: 'Did the woman have a terminal illness?', 9: 'Did she die of natural causes (like heart attack) after lighting the lighter?', 10: 'Was the woman in some sort of vehicle when she lit the lighter?', 11: 'Was the woman in an enclosed space when she lit the lighter?', 12: 'Did the woman die from lack of oxygen after lighting the lighter?', 13: "Did the lighter have anything 'special' or 'unusual' about it?", 14: 'Was the enclosed space underwater or in space?', 15: "Was the woman's death directly caused by her lighting the lighter?", 16: 'Did the lighting of the lighter cause an event that indirectly led to her death?', 17: "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?", 18: 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?', 19: 'Was the woman in a coffin when she lit the lighter?', 20: 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.', 21: 'Was the other person with her in the coffin?', 22: 'Did the other person die as well?', 23: "So, was the other person a creature that doesn't need air to survive?", 24: "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral.", 25: 'Did she recognize the dead person in the coffin with her?', 26: 'Is the dead person someone she was close to?', 27: 'Did the dead person have something to do with her being in the coffin?', 28: "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed.", 29: 'Was the dead man a mortician or funeral director?', 30: 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.', 31: 'Was the woman a patient or client of the mortician?', 32: 'Did the woman work with the mortician?', 33: 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?', 34: 'Was the woman a criminal?', 35: 'Did the woman kill the mortician?', 36: 'Did the woman fake her own death or was she running away from something?', 37: 'Did the woman plan to rob the mortician?', 38: 'Was the woman hiding from the law or someone else in the coffin?', 39: "Did the woman plan to replace the mortician's body with a different body?", 40: 'Did the woman have some sort of deal or arrangement with the mortician?', 41: 'Did the woman plan to be buried alive as part of her arrangement with the mortician?', 42: 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.', 43: 'Was the woman in prison before she was in the coffin?', 44: "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral.", 45: 'Was the woman in the morgue before she was in the coffin?', 46: 'Was the woman trying to escape prison by being buried alive and then dug up later?', 47: "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}</t>
+  </si>
+  <si>
+    <t>['a woman dies after lighting a lighter, and doesn’t even need a funeral.', 'partly correct. ask about the other person', 'no, he was already dead', 'seing the other person while lighting the lighter made her realise somthing', 'no, ask about the occupation of the dead man', 'ask more about herself and the relation to the mortician', 'not a criminal plot. where was she before?', 'not relevant', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'user', 'content': ' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions'}, {'role': 'assistant', 'content': ' Was the woman ill before lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the act of lighting the lighter cause her death?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alive when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman in a dangerous or risky environment when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a human?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did her death occur immediately after lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the lighter have any special or unusual characteristics?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alone when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Was the woman's death due to natural causes?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die due to an explosion or fire caused by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she suffocate because of the smoke or fumes created by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did someone else cause her death?'}, {'role': 'user', 'content': ' not really'}, {'role': 'assistant', 'content': ' Was the woman part of an act or performance when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she ingest or inhale anything harmful from the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die in a closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the space she died in a type of transport?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the space she died in lack oxygen?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she intentionally trying to die?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in submerged in water?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in naturally devoid of breathable air?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman in a spaceship or spacecraft when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she in outer space when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman trapped in the closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman already in a coffin when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' she was not alone in the coffin'}, {'role': 'assistant', 'content': " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried."}, {'role': 'user', 'content': ' ask about this other person'}, {'role': 'assistant', 'content': ' Was the other person alive when the woman lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person dead before the woman was put into the coffin?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person on purpose?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person a male?'}, {'role': 'user', 'content': ' not relevant'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a part of a ritual or custom?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person because there was no space in the grave site for another coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a form of punishment?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person in the coffin a loved one of the woman?'}, {'role': 'user', 'content': ' no '}, {'role': 'assistant', 'content': ' Did the woman know the other person in the coffin before they were buried together?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did the woman kill the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Did the woman's place of work or occupation have anything to do with her being buried with the other person?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a body double or stunt double for the dead person in the coffin?'}, {'role': 'user', 'content': ' no, ask about where she was before she was in the coffin'}, {'role': 'assistant', 'content': ' Was the woman in a hospital or medical facility before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at her place of work before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the location of death of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman attend the funeral of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the morgue before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the cemetery before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?'}, {'role': 'user', 'content': ' no, she was in prison'}, {'role': 'assistant', 'content': ' Was the woman in prison for a crime related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' this was the plan yes to be buried. But ask about the other person in the coffin'}, {'role': 'assistant', 'content': " Was the other person in the coffin an accomplice or involved in the woman's escape plan?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried."}, {'role': 'user', 'content': ' false assumption of other prisoner inside the coffin'}, {'role': 'assistant', 'content': ' Was the other person in the coffin someone who was not a prisoner?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried."}, {'role': 'user', 'content': ' what was the occupation of the accomplice?'}, {'role': 'assistant', 'content': ' Was the accomplice the cemetery worker or grave digger?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}]</t>
   </si>
   <si>
+    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
+  </si>
+  <si>
+    <t>[' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions', ' not really', ' she was not alone in the coffin', ' ask about this other person', ' not relevant', ' no, ask about where she was before she was in the coffin', ' no, she was in prison', ' this was the plan yes to be buried. But ask about the other person in the coffin', ' false assumption of other prisoner inside the coffin', ' what was the occupation of the accomplice?']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man ever tasted albatross before this incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly identified the dish as albatross when it was not?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any particular reactions (allergic or emotional) towards albatross?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man associated with an albatross in any traumatic past experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was this traumatic experience related to a lost loved one?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the traumatic experience related to being stranded or lost at sea?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he eat an albatross during this traumatic experience?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he believe he had eaten albatross during this traumatic experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}]</t>
   </si>
   <si>
+    <t>{1: 'Did the man ever tasted albatross before this incident?', 2: 'Did the man mistakenly identified the dish as albatross when it was not?', 3: 'Did the man have any particular reactions (allergic or emotional) towards albatross?', 4: 'Was the man associated with an albatross in any traumatic past experience?', 5: 'Was this traumatic experience related to a lost loved one?', 6: 'Was the traumatic experience related to being stranded or lost at sea?', 7: 'Did he eat an albatross during this traumatic experience?', 8: 'Did he believe he had eaten albatross during this traumatic experience?', 9: 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?', 10: 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}</t>
+  </si>
+  <si>
+    <t>['a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man have a prior encounter with albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}]</t>
   </si>
   <si>
+    <t>{1: 'Did the man have a prior encounter with albatross before his visit to the restaurant?', 2: 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?', 3: 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?', 4: 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?', 5: 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?', 6: "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions'}, {'role': 'assistant', 'content': 'Did the man die?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there poison in the drink that the man had?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any allergies?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing medical condition that might have caused his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman do anything to the man's drink after they were served by the bartender?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks come into contact with anything else after they were served?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman drink her drink faster than the man?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die as a result of a delayed reaction to something in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the bartender involved in the man's death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did anyone else manipulate the man's drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.'}, {'role': 'user', 'content': 'why was the woman not affected?'}, {'role': 'assistant', 'content': 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink get neutralized over time or by exposure to air?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there ice in the drink?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}]</t>
   </si>
   <si>
+    <t>{1: 'Did the man die?', 2: 'Was there poison in the drink that the man had?', 3: 'Did the man have any allergies?', 4: 'Did the man have a pre-existing medical condition that might have caused his death?', 5: "Did the woman do anything to the man's drink after they were served by the bartender?", 6: 'Did the drinks come into contact with anything else after they were served?', 7: 'Did the man choke on the drink?', 8: 'Did the woman drink her drink faster than the man?', 9: 'Did the man die as a result of a delayed reaction to something in the drink?', 10: "Was the bartender involved in the man's death?", 11: "Did anyone else manipulate the man's drink?", 12: 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?', 13: 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.', 14: 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.', 15: 'Did the harmful substance in the drink get neutralized over time or by exposure to air?', 16: 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?', 17: 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?', 18: "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?", 19: 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?', 20: 'Was there ice in the drink?', 21: 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?', 22: "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?", 23: 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}</t>
+  </si>
+  <si>
+    <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions', 'why was the woman not affected?', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. '}, {'role': 'assistant', 'content': 'Did the drink contain poison?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone else at the pub harm the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing health condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man consume anything else besides the drink before his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks have different temperatures?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drink something else other than the drink he ordered at the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was there something in the man's glass before the drink was poured?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they drink at different speeds?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drink faster than the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So the man died because he drank slower than the woman, correct?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the drink they ordered an alcoholic beverage?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Did the man die from some type of external event or trigger while they were in the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something deadly or toxic within the drinks that got neutralized over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on his drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in the drink that naturally sank to the bottom over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman do something to her drink before consuming it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drink they had ordered originally contain something harmful?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the ice in their drinks have anything to do with the death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's ice melt before she consumed her drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the man's drink contain a harmful substance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}]</t>
   </si>
   <si>
+    <t>{1: 'Did the drink contain poison?', 2: 'Did the woman die?', 3: 'Did someone else at the pub harm the man?', 4: 'Did the man have a pre-existing health condition?', 5: 'Did the man consume anything else besides the drink before his death?', 6: 'Did the drinks have different temperatures?', 7: 'Did the man drink something else other than the drink he ordered at the pub?', 8: "Was there something in the man's glass before the drink was poured?", 9: 'Did they drink at different speeds?', 10: 'Did the man drink faster than the woman?', 11: 'So the man died because he drank slower than the woman, correct?', 12: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.', 13: 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?', 14: 'Was the drink they ordered an alcoholic beverage?', 15: 'Did the man die from some type of external event or trigger while they were in the pub?', 16: 'Was there something deadly or toxic within the drinks that got neutralized over time?', 17: 'Did the man choke on his drink?', 18: 'Was there something harmful in the drink that naturally sank to the bottom over time?', 19: 'Did the woman do something to her drink before consuming it?', 20: 'Did the drink they had ordered originally contain something harmful?', 21: 'Did the ice in their drinks have anything to do with the death?', 22: "Did the woman's ice melt before she consumed her drink?", 23: "Did the ice in the man's drink contain a harmful substance?", 24: "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?", 25: "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise.", 26: 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?', 27: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}</t>
+  </si>
+  <si>
+    <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. ', 'not relevant', 'quit']</t>
+  </si>
+  <si>
     <t>['Linthe Van Rooij: You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Linthe Van Rooij: Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'Thijs : Is her death related to the shoes', 'Linthe Van Rooij: yes', 'Thijs : Are they regular shoes?', 'Linthe Van Rooij: yes', 'Thijs : Is her friend willingly giving the shoes?', 'Linthe Van Rooij: yes', 'Thijs : Does her friend know about the death when it is happening', 'Linthe Van Rooij: no', 'Thijs : Did she die naturally?', 'Linthe Van Rooij: no', 'Thijs : She was murdered?', 'Linthe Van Rooij: no', 'Thijs : Accident?', 'Linthe Van Rooij: yes', 'Thijs : Did she trip because of the shoes?', 'Linthe Van Rooij: no', 'Thijs : Did sure have the shoes on when she died?', 'Linthe Van Rooij: yes', 'Thijs : Was there anything off about the shoes?', 'Linthe Van Rooij: no', 'Thijs : Was there anyone else involved in her death', 'Linthe Van Rooij: yes', 'Thijs : Did that person want the shoes', 'Linthe Van Rooij: no', 'Thijs : Did they make the accident happen', 'Linthe Van Rooij: yes', 'Thijs : Was the accident at home', 'Linthe Van Rooij: yes', 'Thijs : Was it her husband?', 'Linthe Van Rooij: yes', 'Thijs : Was her husband having an affair with the friend', 'Linthe Van Rooij: no', 'Thijs : Did she die because of air restriction? E.g. choked', 'Linthe Van Rooij: no', 'Linthe Van Rooij: What where they doing together?', "Thijs : We're they dancing?", 'Linthe Van Rooij: no', "Thijs : We're they moving", 'Linthe Van Rooij: false assumption they', 'Thijs : Was she moving', 'Linthe Van Rooij: no', 'Thijs : Was he moving', 'Linthe Van Rooij: yes', 'Thijs : Did he kill her by accident', 'Linthe Van Rooij: yes', 'Thijs : Did he trip over the shoes', 'Linthe Van Rooij: no', 'Thijs : Did he stab her', 'Linthe Van Rooij: no', 'Thijs : Was he taking a shower', 'Linthe Van Rooij: no', 'Thijs : Were they eating', 'Linthe Van Rooij: no', 'Thijs : Sleeping?', 'Linthe Van Rooij: no', 'Thijs : Cooking', 'Linthe Van Rooij: no', 'Thijs : Did he scare her', 'Linthe Van Rooij: no', 'Thijs : Hint', 'Linthe Van Rooij: ask about the hobbies of the man', 'Thijs : Was he a shoe maker', 'Linthe Van Rooij: no', 'Thijs : Did he have a workshop', 'Linthe Van Rooij: no', 'Thijs : Anything clothes, food or fashion related hobbies?', 'Linthe Van Rooij: no', 'Thijs : Anything with weapons?', 'Linthe Van Rooij: yes', 'Thijs : Swords?', 'Linthe Van Rooij: no', 'Thijs : Guns', 'Linthe Van Rooij: no', 'Thijs : Bow and arrow', 'Linthe Van Rooij: yes', 'Thijs : Did her shoes look like a target', 'Linthe Van Rooij: no', 'Thijs : Did he shoot her with an arrow', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: what could have been different with other shoes', 'Thijs : Did he think she was an intruder', 'Linthe Van Rooij: no', 'Thijs : Did she have the same shoes as his targets', 'Linthe Van Rooij: no', 'Thijs : Was she taller because of the shoes', 'Linthe Van Rooij: yes', 'Thijs : Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Linthe Van Rooij: no', 'Thijs : Was she taller than a safety wall, so she could get hit', 'Linthe Van Rooij: no', 'Linthe Van Rooij: Could he see where he was aiming?', 'Thijs : Was he blind or blondfolded', 'Linthe Van Rooij: yes', 'Thijs : So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her', 'Linthe Van Rooij: ik keur hem goed!']</t>
   </si>
   <si>
+    <t>['Is her death related to the shoes', 'Are they regular shoes?', 'Is her friend willingly giving the shoes?', 'Does her friend know about the death when it is happening', 'Did she die naturally?', 'She was murdered?', 'Accident?', 'Did she trip because of the shoes?', 'Did sure have the shoes on when she died?', 'Was there anything off about the shoes?', 'Was there anyone else involved in her death', 'Did that person want the shoes', 'Did they make the accident happen', 'Was the accident at home', 'Was it her husband?', 'Was her husband having an affair with the friend', 'Did she die because of air restriction? E.g. choked', "We're they dancing?", "We're they moving", 'Was she moving', 'Was he moving', 'Did he kill her by accident', 'Did he trip over the shoes', 'Did he stab her', 'Was he taking a shower', 'Were they eating', 'Sleeping?', 'Cooking', 'Did he scare her', 'Hint', 'Was he a shoe maker', 'Did he have a workshop', 'Anything clothes, food or fashion related hobbies?', 'Anything with weapons?', 'Swords?', 'Guns', 'Bow and arrow', 'Did her shoes look like a target', 'Did he shoot her with an arrow', 'Did he think she was an intruder', 'Did she have the same shoes as his targets', 'Was she taller because of the shoes', 'Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Was she taller than a safety wall, so she could get hit', 'Was he blind or blondfolded', 'So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her']</t>
+  </si>
+  <si>
+    <t>['You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'What where they doing together?', 'false assumption they', 'ask about the hobbies of the man', 'what could have been different with other shoes', 'Could he see where he was aiming?', 'ik keur hem goed!']</t>
+  </si>
+  <si>
     <t>['Linthe Van Rooij: A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Thijs : Did she die in a fire or die from the smoke of the fire', 'Linthe Van Rooij: No', 'Thijs : Was she already burried?', 'Linthe Van Rooij: Yes', 'Thijs : Was she already presumed to be dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall in a coffin?', 'Linthe Van Rooij: No', 'Thijs : But she is in a coffin?', 'Linthe Van Rooij: Yes', 'Thijs : She lit the lighter to see that she was buried?', 'Linthe Van Rooij: No', 'Thijs : Was she mistaken for someone else?', 'Linthe Van Rooij: No', 'Thijs : Was she in the coffin by accident?', 'Linthe Van Rooij: No', 'Thijs : Was she looking for someone in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Did people already think that she was dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall asleep in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Was there anyone else involved in her death?', 'Linthe Van Rooij: Yes', 'Thijs : Did that person try to kill/murder her or accidentally kill her?', 'Linthe Van Rooij: No', 'Thijs : Was that person alive?', 'Linthe Van Rooij: No', 'Thijs : Did she suffocate?', 'Linthe Van Rooij: Yes', 'Thijs : Did she dig the hole that she was in herself?', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: Ask about the occupation of the other person involved', 'Thijs : Was the other person a gravedigger or involved at the graveyard?', 'Linthe Van Rooij: Yes', 'Thijs : Was there anyone else involved', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger digging her grave?', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger already dead when she met him?', 'Linthe Van Rooij: No', 'Thijs : Did they fight and she killed him?', 'Linthe Van Rooij: No', 'Thijs : Did she know him?', 'Linthe Van Rooij: Yes', 'Thijs : Was she related to him?', 'Linthe Van Rooij: No', 'Thijs : Were they partners', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Why did she lit the lighter inside the coffin?', 'Thijs : To set something on fire or to signal something?', 'Linthe Van Rooij: No', 'Thijs : To light a cigarette or to suffocate herself?', 'Linthe Van Rooij: No', 'Thijs : Was the other person with her inside or the coffin?', 'Linthe Van Rooij: Yes', 'Thijs : Did she light it to kill him or to do anything related to him?', 'Linthe Van Rooij: No', 'Thijs : Did she take a shortcut home through the graveyard?', 'Linthe Van Rooij: No', 'Thijs : Did the guy fall in the coffin?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about where she was before', 'Thijs : Was she at a funeral?', 'Linthe Van Rooij: No', 'Thijs : At a social event?', 'Linthe Van Rooij: No', 'Thijs : Was she visiting someone at the graveyard or was she running?', 'Linthe Van Rooij: No', 'Thijs : Was she walking', 'Linthe Van Rooij: No', 'Thijs : Was she scared of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Was she at home', 'Linthe Van Rooij: No', 'Thijs : Anything sport related or food related', 'Linthe Van Rooij: No', 'Thijs : Was she drunk or on drugs', 'Linthe Van Rooij: No', 'Thijs : Was she shopping or in town', 'Linthe Van Rooij: No', 'Thijs : Was it night', 'Linthe Van Rooij: Not relevant', 'Thijs : Was she driving around', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: She was a criminal/convict', 'Thijs : Did she just rob the house of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Did she rob someone who died', 'Linthe Van Rooij: No', 'Thijs : Did she just rob someone', 'Linthe Van Rooij: No', 'Thijs : Did she just murder someone?', 'Linthe Van Rooij: No', 'Thijs : Was she escaping prison', 'Linthe Van Rooij: Yes', 'Thijs : And she was hiding in the grave to escape the police?', 'Linthe Van Rooij: Yes', 'Thijs : And the gravedigger was an accomplice?', 'Linthe Van Rooij: Yes', 'Thijs : So they tried to hide from the police by hiding in the grave but they got locked in', 'Linthe Van Rooij: No', 'Thijs : She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'Linthe Van Rooij: She expected another person to be in the grave next to her', 'Thijs : She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her', 'Linthe Van Rooij: Allrightyy']</t>
   </si>
   <si>
+    <t>['Did she die in a fire or die from the smoke of the fire', 'Was she already burried?', 'Was she already presumed to be dead?', 'Did she fall in a coffin?', 'But she is in a coffin?', 'She lit the lighter to see that she was buried?', 'Was she mistaken for someone else?', 'Was she in the coffin by accident?', 'Was she looking for someone in the coffin?', 'Did people already think that she was dead?', 'Did she fall asleep in the coffin?', 'Was there anyone else involved in her death?', 'Did that person try to kill/murder her or accidentally kill her?', 'Was that person alive?', 'Did she suffocate?', 'Did she dig the hole that she was in herself?', 'Hint', 'Was the other person a gravedigger or involved at the graveyard?', 'Was there anyone else involved', 'Was the gravedigger digging her grave?', 'Was the gravedigger already dead when she met him?', 'Did they fight and she killed him?', 'Did she know him?', 'Was she related to him?', 'Were they partners', 'To set something on fire or to signal something?', 'To light a cigarette or to suffocate herself?', 'Was the other person with her inside or the coffin?', 'Did she light it to kill him or to do anything related to him?', 'Did she take a shortcut home through the graveyard?', 'Did the guy fall in the coffin?', 'Was she at a funeral?', 'At a social event?', 'Was she visiting someone at the graveyard or was she running?', 'Was she walking', 'Was she scared of the gravedigger', 'Was she at home', 'Anything sport related or food related', 'Was she drunk or on drugs', 'Was she shopping or in town', 'Was it night', 'Was she driving around', 'Hint', 'Did she just rob the house of the gravedigger', 'Did she rob someone who died', 'Did she just rob someone', 'Did she just murder someone?', 'Was she escaping prison', 'And she was hiding in the grave to escape the police?', 'And the gravedigger was an accomplice?', 'So they tried to hide from the police by hiding in the grave but they got locked in', 'She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her']</t>
+  </si>
+  <si>
+    <t>['A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Ask about the occupation of the other person involved', 'Why did she lit the lighter inside the coffin?', 'Ask about where she was before', 'Not relevant', 'She was a criminal/convict', 'She expected another person to be in the grave next to her', 'Allrightyy']</t>
+  </si>
+  <si>
     <t>['Linthe Van Rooij: A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'Lynn van Zeijts: is one of them going to die after she leaves?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: do they have an important conversation after he received the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the men also has a weapon?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: will he take the knife of the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is she leaving with the knife in her hand?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men ask the women for a knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is one the men or the women getting injured?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: are there more people involved except the men &amp; women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know why the women decides to leave?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: False assumption woman leaves', 'Lynn van Zeijts: so HE leaves? (not she)', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did the  men pay for his coke?', 'Lynn van Zeijts: is the relation between the men &amp; women important?', 'Linthe Van Rooij: Not relevant', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women aimed to threaten him with the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women ask him to do something with the knife because she did not want to do something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men insult the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men do something which can be seen considerd as ethically wrong?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about why he orders something at the bar', 'Lynn van Zeijts: did he order a coke to celebrate something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something because had some medical emergency?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something for a negative reason?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was this negative reason related to the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this related to his work?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to his family live?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the fact that he order coke (and not another drink) important to understand the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he revelaed a secret?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men receive his coke before she grabbed the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men threatend the women as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: so did the women refused to give him the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the negative event happended shortly before he entered the cafe?', 'Linthe Van Rooij: No, it is still happening', 'Lynn van Zeijts: did they got into a fight?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men drink anything before he order the coke?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The drink could serve as a remedy for the event', 'Lynn van Zeijts: were there any other elements or objects involved, caused the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the coke dangerous for him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the negative event over once he leaves the cafe?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the women trying to help the men by showing the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does the men wants to kill himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to kill or injure him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: She only wants to scare him', 'Lynn van Zeijts: to protect herself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to protect and help him?', 'Linthe Van Rooij: Ask these questions seperately', 'Lynn van Zeijts: is the women trying to help the men by scaring him with the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.', 'Linthe Van Rooij: Yes!!!!!!! You got it']</t>
   </si>
   <si>
+    <t>['is one of them going to die after she leaves?', 'do they have an important conversation after he received the coke?', 'does the men also has a weapon?', 'will he take the knife of the women?', 'is she leaving with the knife in her hand?', 'did the men ask the women for a knife?', 'is one the men or the women getting injured?', 'are there more people involved except the men &amp; women?', 'is it important to know why the women decides to leave?', 'so HE leaves? (not she)', 'did the  men pay for his coke?', 'is the relation between the men &amp; women important?', 'did the women aimed to threaten him with the knife?', 'did the women ask him to do something with the knife because she did not want to do something?', 'did the men insult the women?', 'did the men do something which can be seen considerd as ethically wrong?', 'did he order a coke to celebrate something?', 'did he order something because had some medical emergency?', 'did he order something for a negative reason?', 'was this negative reason related to the women?', 'was this related to his work?', 'to his family live?', 'is the fact that he order coke (and not another drink) important to understand the negative event?', 'did he revelaed a secret?', 'did the men receive his coke before she grabbed the knife?', 'did the men threatend the women as well?', 'so did the women refused to give him the coke?', 'did the negative event happended shortly before he entered the cafe?', 'did they got into a fight?', 'did the men drink anything before he order the coke?', 'were there any other elements or objects involved, caused the negative event?', 'is the coke dangerous for him?', 'is the negative event over once he leaves the cafe?', 'is the women trying to help the men by showing the knife?', 'does the men wants to kill himself?', 'does the women wants to kill or injure him?', 'does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'to protect herself?', 'to protect and help him?', 'is the women trying to help the men by scaring him with the knife?', 'Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.']</t>
+  </si>
+  <si>
+    <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'False assumption woman leaves', 'Not relevant', 'Ask about why he orders something at the bar', 'No, it is still happening', 'The drink could serve as a remedy for the event', 'She only wants to scare him', 'Ask these questions seperately', 'Yes!!!!!!! You got it']</t>
+  </si>
+  <si>
     <t>['Linthe Van Rooij: A man climbs out of a large vehicle and drowned himself', 'Lynn van Zeijts: is the vehicle still on land when he climbs out the vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle close to water as well?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other people in the vehicle as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this vehicle an airplane?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is this vehicle used for public transport?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it relevant to know the type of vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle made to be on land?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is it a tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he drown himself on purpose?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was he a farmer?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did something negative happened to his farming practices?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did something negative happened at all?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does this has anything to do with the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was the tractor broken?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the land, in which the tractor was located at that moment boggy?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the reason that he climbed out of the tractor had anything to do with the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the water in which he drowned himself close to the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other objects or people involved in the negative event?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were there any people in the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he wanted to go to the other people?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the drowning happened right after he climbed out of the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: did the other people influenced him in stepping out of the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was it dangerous for him to stay in the vehicle?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people also with tractors? n', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know how he exactly climbed out of the tractor?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about the relationship with the people involved', 'Lynn van Zeijts: did the other people wanted him to drown himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people wanted to save him?', 'Lynn van Zeijts: did he know the other people before?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: was it an accident that he drowned?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people saw something which the men could not see (when he was still in the tractor)?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the other people also farmers?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people angry at him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the know eachother for a long time?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they employees?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: family?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they close to the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was there a fight or any other negative event between the men and his family?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were there any childern involved?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the childeren outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he climbed out the tractor for his childern?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was his kid in a dangerous situation?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he aimed to save his kid by climbing out of the tractor?', 'Lynn van Zeijts: did he cause the dangerous situation?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he accidently killed his kid with his tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
   </si>
   <si>
+    <t>['is the vehicle still on land when he climbs out the vehicle?', 'is the vehicle close to water as well?', 'were there any other people in the vehicle as well?', 'was this vehicle an airplane?', 'is this vehicle used for public transport?', 'is it relevant to know the type of vehicle?', 'is the vehicle made to be on land?', 'is it a tractor?', 'did he drown himself on purpose?', 'was he a farmer?', 'did something negative happened to his farming practices?', 'did something negative happened at all?', 'does this has anything to do with the tractor?', 'was the tractor broken?', 'was the land, in which the tractor was located at that moment boggy?', 'did the reason that he climbed out of the tractor had anything to do with the tractor?', 'was the water in which he drowned himself close to the tractor?', 'were there any other objects or people involved in the negative event?', 'were there any people in the tractor?', 'outside the tractor?', 'did he wanted to go to the other people?', 'did the drowning happened right after he climbed out of the tractor?', 'did the other people influenced him in stepping out of the tractor?', 'was it dangerous for him to stay in the vehicle?', 'were the other people also with tractors? n', 'is it important to know how he exactly climbed out of the tractor?', 'did the other people wanted him to drown himself?', 'did the other people wanted to save him?', 'did he know the other people before?', 'was it an accident that he drowned?', 'did the other people saw something which the men could not see (when he was still in the tractor)?', 'were the other people also farmers?', 'were the other people angry at him?', 'did the know eachother for a long time?', 'were they employees?', 'family?', 'were they close to the tractor?', 'was there a fight or any other negative event between the men and his family?', 'were there any childern involved?', 'were the childeren outside the tractor?', 'did he climbed out the tractor for his childern?', 'was his kid in a dangerous situation?', 'did he aimed to save his kid by climbing out of the tractor?', 'did he cause the dangerous situation?', 'did he accidently killed his kid with his tractor?', 'so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
+  </si>
+  <si>
+    <t>['A man climbs out of a large vehicle and drowned himself', 'Not relevant', 'Not relevant', 'Not relevant', 'Ask about the relationship with the people involved', 'Not relevant']</t>
+  </si>
+  <si>
     <t>['Linthe Van Rooij: A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'PiÃ±a: Did someone die?', 'PiÃ±a: Are they loved ones?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Were they playing checkers together?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner do something with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner kill the loser with the pistol?', 'Linthe Van Rooij: No', 'PiÃ±a: Is someone going to shoot with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did the woman win?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Did the man or woman shot another person in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Were there other people in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Did someone shoot in the air?', 'Linthe Van Rooij: No', 'PiÃ±a: Did one of the two people kill the other?', 'Linthe Van Rooij: No', 'PiÃ±a: I mean did one shot the other?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot but not on a person?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: there was no shot but there is going to be', 'PiÃ±a: Can the winner use the pistol to make a shot?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Will the winner of the game shoot the other player after winning the game of checkers?', 'Linthe Van Rooij: No', 'PiÃ±a: Will someone die in the future?', 'Linthe Van Rooij: Yes', 'PiÃ±a: One of the two players?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The winner?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The loser is so sad and mad that they shot the winner?', 'Linthe Van Rooij: No', 'PiÃ±a: They are playing the game because someone has to die?', 'Linthe Van Rooij: No', 'PiÃ±a: The winner shot themselves?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is the why of this question relevant?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Ask about the location', 'PiÃ±a: Were they in jail?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in a bar?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in an unusual place to play the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Were they outside?', 'Linthe Van Rooij: No', 'PiÃ±a: At someoneâ€™s house?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they going from a place to another place while playing the game?', 'Linthe Van Rooij: No', 'PiÃ±a: This is so hard, can you give me another hint', 'Linthe Van Rooij: They are in some kind of vehicle', 'PiÃ±a: In a plane?', 'Linthe Van Rooij: No', 'PiÃ±a: In a train?', 'Linthe Van Rooij: No', 'PiÃ±a: In a bus?', 'Linthe Van Rooij: No', 'PiÃ±a: In a car?', 'Linthe Van Rooij: No', 'PiÃ±a: In a boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did someone shoot a hole in the boat?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The type of boat is relevant to the story', 'PiÃ±a: Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is it a cruise?', 'Linthe Van Rooij: No', 'PiÃ±a: A big boat?', 'Linthe Van Rooij: No', 'PiÃ±a: Or a small boat for just the two of them?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A rowing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: A rubber boat?', 'Linthe Van Rooij: No', 'PiÃ±a: The boat was big enough for a table right?', 'Linthe Van Rooij: Yes', 'PiÃ±a: An expensive boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A yacht?', 'Linthe Van Rooij: No', 'PiÃ±a: A sailing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: I just named all boat types haha, do I have to go in a different direction?', 'Linthe Van Rooij: Yes, under water', 'PiÃ±a: A submarine?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is why they were there relevant?', 'Linthe Van Rooij: No', 'PiÃ±a: What am I missing?', 'Linthe Van Rooij: Why would you want to shoot yourself in a submarine?', 'PiÃ±a: Because the person was getting crazy?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the submarine still able to go up after the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: So the person killed everyone in the submarine by the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the shot on themselves intentional?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Does the why they wanted to shot themselves have to do with the game?', 'Linthe Van Rooij: No', 'PiÃ±a: Did it have something to do with the other person?', 'Linthe Van Rooij: No', 'PiÃ±a: Give me more hints please haha I am done with this game', "Linthe Van Rooij: The game is a result of that the submarine can't go up", 'PiÃ±a: Am I even close? I am so bad at this', 'Linthe Van Rooij: Your almost there!!!', 'PiÃ±a: The person who shot themselves was the driver?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: They were forever stuck there?', 'Linthe Van Rooij: Yes', 'PiÃ±a: They already knew that they were stuck before playing the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: There was just one bullet?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
   </si>
   <si>
-    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the man murdered?', 2: 'Did the man die of natural causes?', 3: 'Did the man die of exposure to the elements?', 4: 'Did he die from a self-inflicted injury?', 5: 'Did he die due to an accident?', 6: 'Was the accident related to a vehicle?', 7: 'Was it a car accident?', 8: 'Was the accident related to an aircraft?', 9: 'Did the man jump out of the aircraft?', 10: 'Was the man the pilot of the aircraft?', 11: 'Was the man a passenger on the aircraft?', 12: 'Did the aircraft crash into the man?', 13: "Did the aircraft drop something that directly caused the man's death?", 14: 'Was the man hit by a falling object from the aircraft?', 15: 'Did the man die trying to catch something that was falling from the aircraft?', 16: "Did the man's death involve a parachute?", 17: "Did the man's death involve an object that was intended to save his life?", 18: "Did the man's death involve a packed object that got deployed accidentally?", 19: "Did the man's death involve an object that was intended to be used in a survival situation?", 20: 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?', 21: 'Was he detached from the aircraft in mid-air, leading to his death?', 22: 'Did the man fall out of the aircraft?', 23: 'Did the man fall out of the aircraft without a parachute?', 24: 'Did the man fall out of the aircraft because the door was accidentally opened?', 25: 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?', 26: 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?', 27: 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?', 28: 'Was the man trying to enter or exit the aircraft when he fell out?', 29: 'Did the man fall out of the aircraft as a result of a fight or altercation on board?', 30: 'Did the man fall out of the aircraft during a routine operation or procedure?', 31: 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?', 32: 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?', 33: 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?', 34: 'Was the man pushed out of the aircraft?', 35: 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?', 36: 'Did the man fall out of the aircraft while it was on the ground?', 37: 'Did the man fall out of the aircraft while it was taking off or landing?', 38: 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?', 39: 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?', 40: 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?', 41: 'Did the man fall out because the floor of the aircraft gave way?', 42: 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?', 43: 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?', 44: 'Did the man fall out of the aircraft because another person on that aircraft made him do it?', 45: 'Did something in the aircraft malfunction, causing him to fall out?', 46: 'Did the man fall out due to an explosion in the aircraft?', 47: 'Did the man fall out of the aircraft because an animal in the aircraft caused it?', 48: 'Was the aircraft used for commercial travel?', 49: 'Was the aircraft used for military purposes?', 50: 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?', 51: 'Was the aircraft being used for cargo transportation?', 52: 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?', 53: 'Was the aircraft used for scientific research?', 54: 'Was the aircraft being used for private/personal use?', 55: 'Was the aircraft being used for a rescue mission?', 56: 'Was the aircraft being used for air ambulance or medical evacuation purposes?', 57: 'Was the aircraft being used for firefighting purposes?', 58: 'Did the man fall out of the aircraft while it was releasing water or fire retardant?', 59: 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.', 60: 'Was the man actually inside the aircraft when it took off?', 61: 'Was the man already in the area for another purpose when the aircraft arrived?', 62: "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?", 63: 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?', 64: "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}</t>
-  </si>
-  <si>
-    <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?", 52: 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?', 53: 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?', 54: 'Did the woman not realize she could see until she was in the dark tunnel?', 55: 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.', 56: 'Did the woman check if she could see while she was inside the dark tunnel?', 57: "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel.", 58: 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?', 59: 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the woman already dead before she lit the lighter?', 2: 'Did the woman die because of an explosion caused by lighting the lighter?', 3: 'Did the woman die from smoke or gas inhalation after she lit the lighter?', 4: 'Did the woman die instantaneously after lighting the lighter?', 5: 'Was the woman alone when she lit the lighter?', 6: 'Is the person she was with relevant to her death?', 7: 'Was the woman killed by the person she was with after she lit the lighter?', 8: 'Did the woman have a terminal illness?', 9: 'Did she die of natural causes (like heart attack) after lighting the lighter?', 10: 'Was the woman in some sort of vehicle when she lit the lighter?', 11: 'Was the woman in an enclosed space when she lit the lighter?', 12: 'Did the woman die from lack of oxygen after lighting the lighter?', 13: "Did the lighter have anything 'special' or 'unusual' about it?", 14: 'Was the enclosed space underwater or in space?', 15: "Was the woman's death directly caused by her lighting the lighter?", 16: 'Did the lighting of the lighter cause an event that indirectly led to her death?', 17: "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?", 18: 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?', 19: 'Was the woman in a coffin when she lit the lighter?', 20: 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.', 21: 'Was the other person with her in the coffin?', 22: 'Did the other person die as well?', 23: "So, was the other person a creature that doesn't need air to survive?", 24: "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral.", 25: 'Did she recognize the dead person in the coffin with her?', 26: 'Is the dead person someone she was close to?', 27: 'Did the dead person have something to do with her being in the coffin?', 28: "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed.", 29: 'Was the dead man a mortician or funeral director?', 30: 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.', 31: 'Was the woman a patient or client of the mortician?', 32: 'Did the woman work with the mortician?', 33: 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?', 34: 'Was the woman a criminal?', 35: 'Did the woman kill the mortician?', 36: 'Did the woman fake her own death or was she running away from something?', 37: 'Did the woman plan to rob the mortician?', 38: 'Was the woman hiding from the law or someone else in the coffin?', 39: "Did the woman plan to replace the mortician's body with a different body?", 40: 'Did the woman have some sort of deal or arrangement with the mortician?', 41: 'Did the woman plan to be buried alive as part of her arrangement with the mortician?', 42: 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.', 43: 'Was the woman in prison before she was in the coffin?', 44: "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral.", 45: 'Was the woman in the morgue before she was in the coffin?', 46: 'Was the woman trying to escape prison by being buried alive and then dug up later?', 47: "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}</t>
-  </si>
-  <si>
-    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man ever tasted albatross before this incident?', 2: 'Did the man mistakenly identified the dish as albatross when it was not?', 3: 'Did the man have any particular reactions (allergic or emotional) towards albatross?', 4: 'Was the man associated with an albatross in any traumatic past experience?', 5: 'Was this traumatic experience related to a lost loved one?', 6: 'Was the traumatic experience related to being stranded or lost at sea?', 7: 'Did he eat an albatross during this traumatic experience?', 8: 'Did he believe he had eaten albatross during this traumatic experience?', 9: 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?', 10: 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man have a prior encounter with albatross before his visit to the restaurant?', 2: 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?', 3: 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?', 4: 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?', 5: 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?', 6: "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man die?', 2: 'Was there poison in the drink that the man had?', 3: 'Did the man have any allergies?', 4: 'Did the man have a pre-existing medical condition that might have caused his death?', 5: "Did the woman do anything to the man's drink after they were served by the bartender?", 6: 'Did the drinks come into contact with anything else after they were served?', 7: 'Did the man choke on the drink?', 8: 'Did the woman drink her drink faster than the man?', 9: 'Did the man die as a result of a delayed reaction to something in the drink?', 10: "Was the bartender involved in the man's death?", 11: "Did anyone else manipulate the man's drink?", 12: 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?', 13: 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.', 14: 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.', 15: 'Did the harmful substance in the drink get neutralized over time or by exposure to air?', 16: 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?', 17: 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?', 18: "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?", 19: 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?', 20: 'Was there ice in the drink?', 21: 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?', 22: "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?", 23: 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Did the drink contain poison?', 2: 'Did the woman die?', 3: 'Did someone else at the pub harm the man?', 4: 'Did the man have a pre-existing health condition?', 5: 'Did the man consume anything else besides the drink before his death?', 6: 'Did the drinks have different temperatures?', 7: 'Did the man drink something else other than the drink he ordered at the pub?', 8: "Was there something in the man's glass before the drink was poured?", 9: 'Did they drink at different speeds?', 10: 'Did the man drink faster than the woman?', 11: 'So the man died because he drank slower than the woman, correct?', 12: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.', 13: 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?', 14: 'Was the drink they ordered an alcoholic beverage?', 15: 'Did the man die from some type of external event or trigger while they were in the pub?', 16: 'Was there something deadly or toxic within the drinks that got neutralized over time?', 17: 'Did the man choke on his drink?', 18: 'Was there something harmful in the drink that naturally sank to the bottom over time?', 19: 'Did the woman do something to her drink before consuming it?', 20: 'Did the drink they had ordered originally contain something harmful?', 21: 'Did the ice in their drinks have anything to do with the death?', 22: "Did the woman's ice melt before she consumed her drink?", 23: "Did the ice in the man's drink contain a harmful substance?", 24: "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?", 25: "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise.", 26: 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?', 27: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}</t>
-  </si>
-  <si>
-    <t>['Is her death related to the shoes', 'Are they regular shoes?', 'Is her friend willingly giving the shoes?', 'Does her friend know about the death when it is happening', 'Did she die naturally?', 'She was murdered?', 'Accident?', 'Did she trip because of the shoes?', 'Did sure have the shoes on when she died?', 'Was there anything off about the shoes?', 'Was there anyone else involved in her death', 'Did that person want the shoes', 'Did they make the accident happen', 'Was the accident at home', 'Was it her husband?', 'Was her husband having an affair with the friend', 'Did she die because of air restriction? E.g. choked', "We're they dancing?", "We're they moving", 'Was she moving', 'Was he moving', 'Did he kill her by accident', 'Did he trip over the shoes', 'Did he stab her', 'Was he taking a shower', 'Were they eating', 'Sleeping?', 'Cooking', 'Did he scare her', 'Hint', 'Was he a shoe maker', 'Did he have a workshop', 'Anything clothes, food or fashion related hobbies?', 'Anything with weapons?', 'Swords?', 'Guns', 'Bow and arrow', 'Did her shoes look like a target', 'Did he shoot her with an arrow', 'Did he think she was an intruder', 'Did she have the same shoes as his targets', 'Was she taller because of the shoes', 'Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Was she taller than a safety wall, so she could get hit', 'Was he blind or blondfolded', 'So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her']</t>
-  </si>
-  <si>
-    <t>['Did she die in a fire or die from the smoke of the fire', 'Was she already burried?', 'Was she already presumed to be dead?', 'Did she fall in a coffin?', 'But she is in a coffin?', 'She lit the lighter to see that she was buried?', 'Was she mistaken for someone else?', 'Was she in the coffin by accident?', 'Was she looking for someone in the coffin?', 'Did people already think that she was dead?', 'Did she fall asleep in the coffin?', 'Was there anyone else involved in her death?', 'Did that person try to kill/murder her or accidentally kill her?', 'Was that person alive?', 'Did she suffocate?', 'Did she dig the hole that she was in herself?', 'Hint', 'Was the other person a gravedigger or involved at the graveyard?', 'Was there anyone else involved', 'Was the gravedigger digging her grave?', 'Was the gravedigger already dead when she met him?', 'Did they fight and she killed him?', 'Did she know him?', 'Was she related to him?', 'Were they partners', 'To set something on fire or to signal something?', 'To light a cigarette or to suffocate herself?', 'Was the other person with her inside or the coffin?', 'Did she light it to kill him or to do anything related to him?', 'Did she take a shortcut home through the graveyard?', 'Did the guy fall in the coffin?', 'Was she at a funeral?', 'At a social event?', 'Was she visiting someone at the graveyard or was she running?', 'Was she walking', 'Was she scared of the gravedigger', 'Was she at home', 'Anything sport related or food related', 'Was she drunk or on drugs', 'Was she shopping or in town', 'Was it night', 'Was she driving around', 'Hint', 'Did she just rob the house of the gravedigger', 'Did she rob someone who died', 'Did she just rob someone', 'Did she just murder someone?', 'Was she escaping prison', 'And she was hiding in the grave to escape the police?', 'And the gravedigger was an accomplice?', 'So they tried to hide from the police by hiding in the grave but they got locked in', 'She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her']</t>
-  </si>
-  <si>
-    <t>['is one of them going to die after she leaves?', 'do they have an important conversation after he received the coke?', 'does the men also has a weapon?', 'will he take the knife of the women?', 'is she leaving with the knife in her hand?', 'did the men ask the women for a knife?', 'is one the men or the women getting injured?', 'are there more people involved except the men &amp; women?', 'is it important to know why the women decides to leave?', 'so HE leaves? (not she)', 'did the  men pay for his coke?', 'is the relation between the men &amp; women important?', 'did the women aimed to threaten him with the knife?', 'did the women ask him to do something with the knife because she did not want to do something?', 'did the men insult the women?', 'did the men do something which can be seen considerd as ethically wrong?', 'did he order a coke to celebrate something?', 'did he order something because had some medical emergency?', 'did he order something for a negative reason?', 'was this negative reason related to the women?', 'was this related to his work?', 'to his family live?', 'is the fact that he order coke (and not another drink) important to understand the negative event?', 'did he revelaed a secret?', 'did the men receive his coke before she grabbed the knife?', 'did the men threatend the women as well?', 'so did the women refused to give him the coke?', 'did the negative event happended shortly before he entered the cafe?', 'did they got into a fight?', 'did the men drink anything before he order the coke?', 'were there any other elements or objects involved, caused the negative event?', 'is the coke dangerous for him?', 'is the negative event over once he leaves the cafe?', 'is the women trying to help the men by showing the knife?', 'does the men wants to kill himself?', 'does the women wants to kill or injure him?', 'does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'to protect herself?', 'to protect and help him?', 'is the women trying to help the men by scaring him with the knife?', 'Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.']</t>
-  </si>
-  <si>
-    <t>['is the vehicle still on land when he climbs out the vehicle?', 'is the vehicle close to water as well?', 'were there any other people in the vehicle as well?', 'was this vehicle an airplane?', 'is this vehicle used for public transport?', 'is it relevant to know the type of vehicle?', 'is the vehicle made to be on land?', 'is it a tractor?', 'did he drown himself on purpose?', 'was he a farmer?', 'did something negative happened to his farming practices?', 'did something negative happened at all?', 'does this has anything to do with the tractor?', 'was the tractor broken?', 'was the land, in which the tractor was located at that moment boggy?', 'did the reason that he climbed out of the tractor had anything to do with the tractor?', 'was the water in which he drowned himself close to the tractor?', 'were there any other objects or people involved in the negative event?', 'were there any people in the tractor?', 'outside the tractor?', 'did he wanted to go to the other people?', 'did the drowning happened right after he climbed out of the tractor?', 'did the other people influenced him in stepping out of the tractor?', 'was it dangerous for him to stay in the vehicle?', 'were the other people also with tractors? n', 'is it important to know how he exactly climbed out of the tractor?', 'did the other people wanted him to drown himself?', 'did the other people wanted to save him?', 'did he know the other people before?', 'was it an accident that he drowned?', 'did the other people saw something which the men could not see (when he was still in the tractor)?', 'were the other people also farmers?', 'were the other people angry at him?', 'did the know eachother for a long time?', 'were they employees?', 'family?', 'were they close to the tractor?', 'was there a fight or any other negative event between the men and his family?', 'were there any childern involved?', 'were the childeren outside the tractor?', 'did he climbed out the tractor for his childern?', 'was his kid in a dangerous situation?', 'did he aimed to save his kid by climbing out of the tractor?', 'did he cause the dangerous situation?', 'did he accidently killed his kid with his tractor?', 'so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
-  </si>
-  <si>
     <t>['Did someone die?', 'Are they loved ones?', 'Were they playing checkers together?', 'Can the winner do something with the pistol?', 'Can the winner kill the loser with the pistol?', 'Is someone going to shoot with the pistol?', 'Did the woman win?', 'Did the man or woman shot another person in the room?', 'Were there other people in the room?', 'Did someone shoot in the air?', 'Did one of the two people kill the other?', 'I mean did one shot the other?', 'But there was a shot?', 'But there was a shot but not on a person?', 'Can the winner use the pistol to make a shot?', 'Will the winner of the game shoot the other player after winning the game of checkers?', 'Will someone die in the future?', 'One of the two players?', 'The winner?', 'The loser is so sad and mad that they shot the winner?', 'They are playing the game because someone has to die?', 'The winner shot themselves?', 'Is the why of this question relevant?', 'Were they in jail?', 'Were they in a bar?', 'Were they in an unusual place to play the game?', 'Were they outside?', 'At someoneâ€™s house?', 'Were they going from a place to another place while playing the game?', 'This is so hard, can you give me another hint', 'In a plane?', 'In a train?', 'In a bus?', 'In a car?', 'In a boat?', 'Did someone shoot a hole in the boat?', 'Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Is it a cruise?', 'A big boat?', 'Or a small boat for just the two of them?', 'A rowing boat?', 'A rubber boat?', 'The boat was big enough for a table right?', 'An expensive boat?', 'A yacht?', 'A sailing boat?', 'I just named all boat types haha, do I have to go in a different direction?', 'A submarine?', 'Is why they were there relevant?', 'What am I missing?', 'Because the person was getting crazy?', 'Was the submarine still able to go up after the shot?', 'So the person killed everyone in the submarine by the shot?', 'Was the shot on themselves intentional?', 'Does the why they wanted to shot themselves have to do with the game?', 'Did it have something to do with the other person?', 'Give me more hints please haha I am done with this game', 'Am I even close? I am so bad at this', 'The person who shot themselves was the driver?', 'They were forever stuck there?', 'They already knew that they were stuck before playing the game?', 'There was just one bullet?', 'Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
   </si>
   <si>
-    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
-  </si>
-  <si>
-    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
-  </si>
-  <si>
-    <t>['a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.', 'this is not a yes or no question', 'yes, but why are they doing this?', 'you're not done yet. I need a lot of more details. like the location, and circumstances', 'not relevant to the story', "no they don't do it to pass time. you're not there yet", 'sort of. they are both going to die regardless', 'quit']</t>
-  </si>
-  <si>
-    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'no, false assumptions. ask how the man got into the plane with barely any clothes', 'this is not a yes or no question', 'partly correct', 'not land, but the plane was there for the woods', 'the man was in the plane by accident', 'almost, why was he there?', 'no, he did not enter the plane himself', 'sort of', 'false assumption that it is used for cargo', 'you already guessed where the plane was for!', 'quit']</t>
-  </si>
-  <si>
-    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'sort of', 'no, the man was on the airplane', 'false assumption', 'he did not fall out of the aircraft due to himself', 'no, ask about the function of the airplane', 'sort of', 'you miss one element, how did the person got there?', 'no, why did he had barely any clothes on?', 'quit']</t>
-  </si>
-  <si>
-    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption present tense', 'almost correct. ask about the reason why she jumped', 'false assumption', 'yes, but why?', 'false assumption', 'no, after eye surgery, what do you have?', 'almost, when did she check if she could see again?', 'quit']</t>
-  </si>
-  <si>
-    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption', 'sort of', 'false assumption that she still has her glasses on', 'no, stop asking questions about the glasses', 'not really, ask about her condition in city a and after the surgery in city b', 'yes, but why?', 'yes, but did she already know that she could see?', 'no, when did she check if she could see?', 'she did not know yet if she could see, why did she jump?', 'quit']</t>
-  </si>
-  <si>
-    <t>['a woman dies after lighting a lighter, and doesn’t even need a funeral.', 'partly correct. ask about the other person', 'no, he was already dead', 'seing the other person while lighting the lighter made her realise somthing', 'no, ask about the occupation of the dead man', 'ask more about herself and the relation to the mortician', 'not a criminal plot. where was she before?', 'not relevant', 'quit']</t>
-  </si>
-  <si>
-    <t>[' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions', ' not really', ' she was not alone in the coffin', ' ask about this other person', ' not relevant', ' no, ask about where she was before she was in the coffin', ' no, she was in prison', ' this was the plan yes to be buried. But ask about the other person in the coffin', ' false assumption of other prisoner inside the coffin', ' what was the occupation of the accomplice?']</t>
-  </si>
-  <si>
-    <t>['a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.', 'quit']</t>
-  </si>
-  <si>
-    <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions', 'why was the woman not affected?', 'quit']</t>
-  </si>
-  <si>
-    <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. ', 'not relevant', 'quit']</t>
-  </si>
-  <si>
-    <t>['You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'What where they doing together?', 'false assumption they', 'ask about the hobbies of the man', 'what could have been different with other shoes', 'Could he see where he was aiming?', 'ik keur hem goed!']</t>
-  </si>
-  <si>
-    <t>['A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Ask about the occupation of the other person involved', 'Why did she lit the lighter inside the coffin?', 'Ask about where she was before', 'Not relevant', 'She was a criminal/convict', 'She expected another person to be in the grave next to her', 'Allrightyy']</t>
-  </si>
-  <si>
-    <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'False assumption woman leaves', 'Not relevant', 'Ask about why he orders something at the bar', 'No, it is still happening', 'The drink could serve as a remedy for the event', 'She only wants to scare him', 'Ask these questions seperately', 'Yes!!!!!!! You got it']</t>
-  </si>
-  <si>
-    <t>['A man climbs out of a large vehicle and drowned himself', 'Not relevant', 'Not relevant', 'Not relevant', 'Ask about the relationship with the people involved', 'Not relevant']</t>
-  </si>
-  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'Not relevant', 'Not relevant', 'there was no shot but there is going to be', 'Ask about the location', 'They are in some kind of vehicle', 'The type of boat is relevant to the story', 'Yes, under water', 'Why would you want to shoot yourself in a submarine?', "The game is a result of that the submarine can't go up", 'Your almost there!!!', 'Not relevant']</t>
+  </si>
+  <si>
+    <t>{1: 'are the shoes poisoned?', 2: 'did lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'did lola trip and fall because of the shoes?', 4: "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'was lola killed because she was wearing the shoes and someone wanted them?', 6: 'did lola die because the shoes were too tight and it caused a health issue?', 7: 'was lola killed by an animal that was attracted to the shoes?', 8: 'did the shoes cause lola to be in a dangerous location or situation?', 9: "did lola's increased height cause her to hit her head fatally?", 10: "did lola's increased height make her visible to someone or something that led to her death?", 11: 'did the height from the shoes lead to lola falling from a height?', 12: 'was there something on a high place that lola could reach because of her increased height and this led to her death?', 13: "did lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'did lola get electrocuted because of her increased height from wearing the shoes?', 15: "did lola's tallness from the shoes cause her to be struck by lightning?", 16: "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "did lola's increased height from the shoes cause her to suffocate?", 20: "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "did lola's death involve water?", 23: "did lola's death involve fire?", 24: "did lola's death involve electricity?", 25: "did lola's death involve a direct contact with a person?", 26: 'was lola in a place with a low ceiling?', 27: 'was lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'was the person who had direct contact with lola the cause of her death?', 29: 'did this person attack lola because she was taller due to the shoes?', 30: "was this person a threat to lola and she didn't realize because of her increased height from the shoes?", 31: 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?', 32: 'could the danger have been avoided if lola had not been wearing the shoes?', 33: 'did the fatal incident involving lola and the other person occur indoors?', 34: 'did the other person mistake lola for someone else because of her increased height from the shoes?', 35: 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?', 36: 'did the other person attack lola because he/she was startled by her unexpected height?', 37: "did lola's death involve a fall or dropping from a height because of the shoes?", 38: "did the shoes change lola's posture or movements in a way that made the other person react fatally?", 39: 'was the other person using equipment or machinery that proved fatal to the overly tall lola?', 40: 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?', 41: 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to', 42: 'was lola in a work or construction environment when she was struck?', 43: "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes.", 51: "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?", 53: "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?", 54: "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?', 56: 'was the shooter blindfolded during the trick shot?', 57: "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'was it her partner who was performing the trick shot?', 61: "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.'}, {'role': 'assistant', 'content': 'are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the shoes cause lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the height from the shoes lead to lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was there something on a high place that lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the person who had direct contact with lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person attack lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was this person a threat to lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'could the danger have been avoided if lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the fatal incident involving lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'did the other person mistake lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the other person attack lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes change lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person using equipment or machinery that proved fatal to the overly tall lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'no you are not there yet. you are keeping it very vague.'}, {'role': 'assistant', 'content': 'was lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "you're missing some details. explore the relationships and circumstances."}, {'role': 'assistant', 'content': "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. why and who shot at lola?'}, {'role': 'assistant', 'content': "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
+  </si>
+  <si>
+    <t>['lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.', 'not relevant for the story', 'no you are not there yet. you are keeping it very vague.', "you're missing some details. explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. why and who shot at lola?', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -254,10 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,7 +295,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -318,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +351,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -392,7 +385,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -427,10 +419,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -685,7 +676,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -711,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -723,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -749,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -761,7 +752,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -769,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -787,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -799,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -807,7 +798,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -825,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -837,7 +828,7 @@
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -845,7 +836,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -863,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -875,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -883,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -901,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -913,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -921,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -939,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -951,7 +942,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -959,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -977,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -989,7 +980,7 @@
         <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -997,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1015,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1027,7 +1018,7 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1035,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1053,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1065,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1073,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1091,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1103,7 +1094,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1111,7 +1102,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1129,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1141,7 +1132,7 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1149,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1167,10 +1158,10 @@
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J15">
         <v>16</v>
@@ -1179,7 +1170,7 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1187,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1205,10 +1196,10 @@
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1217,7 +1208,7 @@
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1225,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1243,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>7</v>
@@ -1255,7 +1246,7 @@
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1263,7 +1254,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1281,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="J18">
         <v>22</v>
@@ -1293,7 +1284,7 @@
         <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1301,7 +1292,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1319,10 +1310,10 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J19">
         <v>21</v>
@@ -1334,8 +1325,45 @@
         <v>67</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>61</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>81</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikki\OneDrive\Documenten\GitHub\BlackStoriesAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F557F72A-A65D-4308-B306-C45301CC4A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_4E5DF4865BA0D861D7BA3811595ED87656C9B0F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E07468-077B-4252-BA16-8DA8ABF639E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t>Medium</t>
   </si>
@@ -226,13 +226,22 @@
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'Not relevant', 'Not relevant', 'there was no shot but there is going to be', 'Ask about the location', 'They are in some kind of vehicle', 'The type of boat is relevant to the story', 'Yes, under water', 'Why would you want to shoot yourself in a submarine?', "The game is a result of that the submarine can't go up", 'Your almost there!!!', 'Not relevant']</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.'}, {'role': 'assistant', 'content': 'are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the shoes cause lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the height from the shoes lead to lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was there something on a high place that lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the person who had direct contact with lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person attack lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was this person a threat to lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'could the danger have been avoided if lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the fatal incident involving lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'did the other person mistake lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the other person attack lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes change lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person using equipment or machinery that proved fatal to the overly tall lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'no you are not there yet. you are keeping it very vague.'}, {'role': 'assistant', 'content': 'was lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "you're missing some details. explore the relationships and circumstances."}, {'role': 'assistant', 'content': "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. why and who shot at lola?'}, {'role': 'assistant', 'content': "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
+  </si>
+  <si>
     <t>{1: 'are the shoes poisoned?', 2: 'did lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'did lola trip and fall because of the shoes?', 4: "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'was lola killed because she was wearing the shoes and someone wanted them?', 6: 'did lola die because the shoes were too tight and it caused a health issue?', 7: 'was lola killed by an animal that was attracted to the shoes?', 8: 'did the shoes cause lola to be in a dangerous location or situation?', 9: "did lola's increased height cause her to hit her head fatally?", 10: "did lola's increased height make her visible to someone or something that led to her death?", 11: 'did the height from the shoes lead to lola falling from a height?', 12: 'was there something on a high place that lola could reach because of her increased height and this led to her death?', 13: "did lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'did lola get electrocuted because of her increased height from wearing the shoes?', 15: "did lola's tallness from the shoes cause her to be struck by lightning?", 16: "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "did lola's increased height from the shoes cause her to suffocate?", 20: "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "did lola's death involve water?", 23: "did lola's death involve fire?", 24: "did lola's death involve electricity?", 25: "did lola's death involve a direct contact with a person?", 26: 'was lola in a place with a low ceiling?', 27: 'was lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'was the person who had direct contact with lola the cause of her death?', 29: 'did this person attack lola because she was taller due to the shoes?', 30: "was this person a threat to lola and she didn't realize because of her increased height from the shoes?", 31: 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?', 32: 'could the danger have been avoided if lola had not been wearing the shoes?', 33: 'did the fatal incident involving lola and the other person occur indoors?', 34: 'did the other person mistake lola for someone else because of her increased height from the shoes?', 35: 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?', 36: 'did the other person attack lola because he/she was startled by her unexpected height?', 37: "did lola's death involve a fall or dropping from a height because of the shoes?", 38: "did the shoes change lola's posture or movements in a way that made the other person react fatally?", 39: 'was the other person using equipment or machinery that proved fatal to the overly tall lola?', 40: 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?', 41: 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to', 42: 'was lola in a work or construction environment when she was struck?', 43: "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes.", 51: "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?", 53: "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?", 54: "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?', 56: 'was the shooter blindfolded during the trick shot?', 57: "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'was it her partner who was performing the trick shot?', 61: "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.'}, {'role': 'assistant', 'content': 'are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the shoes cause lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the height from the shoes lead to lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was there something on a high place that lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the person who had direct contact with lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person attack lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was this person a threat to lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'could the danger have been avoided if lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the fatal incident involving lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'did the other person mistake lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the other person attack lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes change lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person using equipment or machinery that proved fatal to the overly tall lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'no you are not there yet. you are keeping it very vague.'}, {'role': 'assistant', 'content': 'was lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "you're missing some details. explore the relationships and circumstances."}, {'role': 'assistant', 'content': "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. why and who shot at lola?'}, {'role': 'assistant', 'content': "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
-  </si>
-  <si>
     <t>['lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.', 'not relevant for the story', 'no you are not there yet. you are keeping it very vague.', "you're missing some details. explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. why and who shot at lola?', 'quit']</t>
+  </si>
+  <si>
+    <t>{1: 'did lola die because of a defect or problem with the shoes?', 2: 'did lola die because of something that happened while she was wearing the shoes?', 3: 'did lola die due to an accident while wearing the shoes?', 4: 'did the accident involve lola tripping or falling while wearing the shoes?', 5: 'did the shoes cause some sort of physical harm to lola while she was wearing them?', 6: 'did someone intentionally harm lola while she was wearing the shoes?', 7: "was lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "did lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "did lola's death involve someone else?", 10: 'did someone intentionally harm lola while she was wearing the shoes, leading to her death?', 11: 'did someone accidentally harm lola while she was wearing the shoes, leading to her death?', 12: 'did someone accidentally harm lola while they were trying to take the shoes off her feet?', 13: 'did someone accidentally harm lola while she was wearing the shoes, but not while trying to take them off?', 14: 'were the shoes lola received heels?', 15: 'did lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'did lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'did lola die due to an increase in height caused by wearing the heels?', 18: 'did lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'did lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'did lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'did lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'did lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'did lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'did lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'did someone mistakenly aim or direct something at lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'did someone mistakenly aim a projectile or object at lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "did lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'was lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'was lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'was lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'was lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'was lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'was lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'was lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "based on the information provided, it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she went to a friend's place where she was used as a target for precise shooting practice. the shooter mistook her increased height due to the heels for the height of the actual target, leading to lola being fatally shot with a bow and arrow.", 36: 'was lola shot with a bow and arrow by someone who knew her?', 37: 'was lola shot with a bow and arrow by a family member?', 38: 'was lola shot with a bow and arrow by a romantic partner?', 39: 'was lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'was lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "did something happen to physically impair lola's romantic partner's sight, preventing them from seeing lola's increased height due to the heels?", 43: "was lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "so, lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "the story is as follows: lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
+  </si>
+  <si>
+    <t>['lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.', 'no she never fell', 'yes. but there is more to it. what is the context? and with what was she shot', "not there yet. she didn't go to a friend's place.", "almost there! start thinking about why the archer didn't see her increase in height.", 'not the height of the actual target.', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.'}, {'role': 'assistant', 'content': 'did lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the accident involve lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the shoes cause some sort of physical harm to lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did someone intentionally harm lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone intentionally harm lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did someone accidentally harm lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone accidentally harm lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did someone accidentally harm lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'were the shoes lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone mistakenly aim or direct something at lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone mistakenly aim a projectile or object at lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. but there is more to it. what is the context? and with what was she shot'}, {'role': 'assistant', 'content': 'was lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "based on the information provided, it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she went to a friend's place where she was used as a target for precise shooting practice. the shooter mistook her increased height due to the heels for the height of the actual target, leading to lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "not there yet. she didn't go to a friend's place."}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "almost there! start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did something happen to physically impair lola's romantic partner's sight, preventing them from seeing lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "the story is as follows: lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
   </si>
 </sst>
 </file>
@@ -595,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1348,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" t="s">
         <v>69</v>
-      </c>
-      <c r="I20" t="s">
-        <v>68</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -1361,6 +1370,44 @@
       </c>
       <c r="L20" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4E5DF4865BA0D861D7BA3811595ED87656C9B0F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55E07468-077B-4252-BA16-8DA8ABF639E0}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_6E0935955BA0523C9FB83E11595ED87656C8E548" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB10DFF-5387-4962-B14C-37347354E618}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>Medium</t>
   </si>
@@ -226,22 +226,31 @@
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'Not relevant', 'Not relevant', 'there was no shot but there is going to be', 'Ask about the location', 'They are in some kind of vehicle', 'The type of boat is relevant to the story', 'Yes, under water', 'Why would you want to shoot yourself in a submarine?', "The game is a result of that the submarine can't go up", 'Your almost there!!!', 'Not relevant']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.'}, {'role': 'assistant', 'content': 'are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the shoes cause lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the height from the shoes lead to lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was there something on a high place that lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the person who had direct contact with lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person attack lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was this person a threat to lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'could the danger have been avoided if lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the fatal incident involving lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'did the other person mistake lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the other person attack lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes change lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was the other person using equipment or machinery that proved fatal to the overly tall lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'no you are not there yet. you are keeping it very vague.'}, {'role': 'assistant', 'content': 'was lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "you're missing some details. explore the relationships and circumstances."}, {'role': 'assistant', 'content': "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. why and who shot at lola?'}, {'role': 'assistant', 'content': "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
-  </si>
-  <si>
-    <t>{1: 'are the shoes poisoned?', 2: 'did lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'did lola trip and fall because of the shoes?', 4: "did lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'was lola killed because she was wearing the shoes and someone wanted them?', 6: 'did lola die because the shoes were too tight and it caused a health issue?', 7: 'was lola killed by an animal that was attracted to the shoes?', 8: 'did the shoes cause lola to be in a dangerous location or situation?', 9: "did lola's increased height cause her to hit her head fatally?", 10: "did lola's increased height make her visible to someone or something that led to her death?", 11: 'did the height from the shoes lead to lola falling from a height?', 12: 'was there something on a high place that lola could reach because of her increased height and this led to her death?', 13: "did lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'did lola get electrocuted because of her increased height from wearing the shoes?', 15: "did lola's tallness from the shoes cause her to be struck by lightning?", 16: "was lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'were the shoes heels and lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "did lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "did lola's increased height from the shoes cause her to suffocate?", 20: "did lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'did the increased height from the shoes cause lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "did lola's death involve water?", 23: "did lola's death involve fire?", 24: "did lola's death involve electricity?", 25: "did lola's death involve a direct contact with a person?", 26: 'was lola in a place with a low ceiling?', 27: 'was lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'was the person who had direct contact with lola the cause of her death?', 29: 'did this person attack lola because she was taller due to the shoes?', 30: "was this person a threat to lola and she didn't realize because of her increased height from the shoes?", 31: 'did this person purposely give lola the shoes knowing that the increased height would put her in danger?', 32: 'could the danger have been avoided if lola had not been wearing the shoes?', 33: 'did the fatal incident involving lola and the other person occur indoors?', 34: 'did the other person mistake lola for someone else because of her increased height from the shoes?', 35: 'was the other person aware that lola was wearing the shoes at the time of the fatal incident?', 36: 'did the other person attack lola because he/she was startled by her unexpected height?', 37: "did lola's death involve a fall or dropping from a height because of the shoes?", 38: "did the shoes change lola's posture or movements in a way that made the other person react fatally?", 39: 'was the other person using equipment or machinery that proved fatal to the overly tall lola?', 40: 'did the other person accidentally hit lola with the equipment or machinery because she was taller due to the shoes?', 41: 'so, the story is: lola received a pair of shoes from a friend that made her taller. later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. the operator of the machinery could not see her due to', 42: 'was lola in a work or construction environment when she was struck?', 43: "did the shoes make lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'was lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'was lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'was lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "did the person shoot an arrow and aim somewhere they believed lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "was lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "did the shooter rely on previous knowledge of lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "so, the story concludes like this: lola received a pair of shoes from a friend that made her taller. later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. the person shooting the arrow relied on their previous knowledge of lola's height to ensure safety, without directly observing her at the moment of shooting. because lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. the tragic mishap occurred because the shooter assumed lola's height without seeing the change caused by the shoes.", 51: "was the shooter practicing or aiming at a target they thought was unobstructed by lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "did lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing lola's head was in line with them?", 53: "was the shooter performing a demonstration or a trick shot that required precise knowledge of lola's height, and the shoes made lola taller than the shooter expected?", 54: "did the shooter not see lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'was the shooter blindfolded or not facing lola directly as part of the trick shot, relying on measurements or markers set before lola put on the shoes?', 56: 'was the shooter blindfolded during the trick shot?', 57: "so, here's the refined story: lola received a pair of shoes from a friend that unexpectedly made her taller. later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. the trick relied on precise knowledge of participants' heights, and the shooter had practiced based on lola's original height. however, the shoes made lola taller, altering her height without the shooter's knowledge due to the blindfold. when the shooter aimed and released the arrow, it struck lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "was the trick shot designed with the intention of shooting an arrow over lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "was it lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'was it her partner who was performing the trick shot?', 61: "alright, this is the story: lola received a pair of shoes from a friend that made her unexpectedly taller. that evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. unfortunately, due to the additional height provided by the shoes, lola was taller than her partner anticipated. the arrow, meant to impressively pass just over her head, fatally struck her instead. the tragic accident occurred because the blindfold prevented her partner from seeing the change in lola's height, and they relied on their previous understanding of her height for the trick."}</t>
-  </si>
-  <si>
-    <t>['lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.', 'not relevant for the story', 'no you are not there yet. you are keeping it very vague.', "you're missing some details. explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. why and who shot at lola?', 'quit']</t>
-  </si>
-  <si>
-    <t>{1: 'did lola die because of a defect or problem with the shoes?', 2: 'did lola die because of something that happened while she was wearing the shoes?', 3: 'did lola die due to an accident while wearing the shoes?', 4: 'did the accident involve lola tripping or falling while wearing the shoes?', 5: 'did the shoes cause some sort of physical harm to lola while she was wearing them?', 6: 'did someone intentionally harm lola while she was wearing the shoes?', 7: "was lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "did lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "did lola's death involve someone else?", 10: 'did someone intentionally harm lola while she was wearing the shoes, leading to her death?', 11: 'did someone accidentally harm lola while she was wearing the shoes, leading to her death?', 12: 'did someone accidentally harm lola while they were trying to take the shoes off her feet?', 13: 'did someone accidentally harm lola while she was wearing the shoes, but not while trying to take them off?', 14: 'were the shoes lola received heels?', 15: 'did lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'did lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'did lola die due to an increase in height caused by wearing the heels?', 18: 'did lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'did lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'did lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'did lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'did lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'did lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'did lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'did someone mistakenly aim or direct something at lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'did someone mistakenly aim a projectile or object at lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "did lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'was lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'was lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'was lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'was lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'was lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'was lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'was lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "based on the information provided, it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she went to a friend's place where she was used as a target for precise shooting practice. the shooter mistook her increased height due to the heels for the height of the actual target, leading to lola being fatally shot with a bow and arrow.", 36: 'was lola shot with a bow and arrow by someone who knew her?', 37: 'was lola shot with a bow and arrow by a family member?', 38: 'was lola shot with a bow and arrow by a romantic partner?', 39: 'was lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'was lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "did something happen to physically impair lola's romantic partner's sight, preventing them from seeing lola's increased height due to the heels?", 43: "was lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "so, lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "the story is as follows: lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
-  </si>
-  <si>
-    <t>['lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.', 'no she never fell', 'yes. but there is more to it. what is the context? and with what was she shot', "not there yet. she didn't go to a friend's place.", "almost there! start thinking about why the archer didn't see her increase in height.", 'not the height of the actual target.', 'quit']</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. it will mean her death that same evening.'}, {'role': 'assistant', 'content': 'did lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did the accident involve lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did the shoes cause some sort of physical harm to lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did someone intentionally harm lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "did lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone intentionally harm lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did someone accidentally harm lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone accidentally harm lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did someone accidentally harm lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'were the shoes lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'did lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone mistakenly aim or direct something at lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'did someone mistakenly aim a projectile or object at lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. but there is more to it. what is the context? and with what was she shot'}, {'role': 'assistant', 'content': 'was lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "based on the information provided, it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she went to a friend's place where she was used as a target for precise shooting practice. the shooter mistook her increased height due to the heels for the height of the actual target, leading to lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "not there yet. she didn't go to a friend's place."}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'it seems lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "almost there! start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'was lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "did something happen to physically impair lola's romantic partner's sight, preventing them from seeing lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "was lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "so, lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "the story is as follows: lola received a pair of heels from a friend that were too big for her friend but fit lola. lola wore the heels, which increased her height. later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'assistant', 'content': 'Did the man know the woman behind the bar?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man order anything else besides the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman behind the bar intend to harm the man with the knife?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's action with the knife serve a purpose other than harm or threat?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to open something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to prepare the glass of coke in some way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate or signal something to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out a specific detail or object to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to stir or mix something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something from the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to retrieve something from behind the bar?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out an unusual or unexpected situation to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to draw the man's attention to a message or writing?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate to the man that she was out of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to point out a problem or issue with the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to gesture towards something else in the cafe?'}, {'role': 'user', 'content': "she didn't use the knife to point anything out or signal something."}, {'role': 'assistant', 'content': "Was the woman's action with the knife accidental?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or slice something for the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man in some way?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with something personal, like opening a package or letter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a physical ailment or injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with something related to his clothing or accessories?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a technical or mechanical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his physical appearance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his identification or documentation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his health or well-being?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something harmful or dangerous from the man's person?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?'}, {'role': 'user', 'content': 'she meant to scare him.'}, {'role': 'assistant', 'content': "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?'}, {'role': 'user', 'content': 'no. what usually goes away when you get a scare?'}, {'role': 'assistant', 'content': 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}, {'role': 'user', 'content': 'but why did he order coke?'}, {'role': 'assistant', 'content': 'Did the man order coke specifically because he believed it would help with his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man know the woman behind the bar?', 2: 'Did the man order anything else besides the glass of coke?', 3: 'Did the woman behind the bar intend to harm the man with the knife?', 4: "Was the woman's action with the knife related to the man's order of a glass of coke?", 5: "Did the woman's action with the knife serve a purpose other than harm or threat?", 6: 'Did the woman use the knife to open something?', 7: 'Did the woman use the knife to prepare the glass of coke in some way?', 8: 'Did the woman use the knife to indicate or signal something to the man?', 9: "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?", 10: 'Did the woman use the knife to point out a specific detail or object to the man?', 11: "Did the woman use the knife to cut something related to the man's order of a glass of coke?", 12: 'Did the woman use the knife to stir or mix something?', 13: "Did the woman use the knife to remove something from the man's order of a glass of coke?", 14: 'Did the woman use the knife to retrieve something from behind the bar?', 15: 'Did the woman use the knife to point out an unusual or unexpected situation to the man?', 16: "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?", 17: "Did the woman use the knife to draw the man's attention to a message or writing?", 18: "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?", 19: 'Did the woman use the knife to indicate to the man that she was out of coke?', 20: "Did the woman use the knife to point out a problem or issue with the man's glass of coke?", 21: 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?', 22: 'Did the woman use the knife to gesture towards something else in the cafe?', 23: "Was the woman's action with the knife accidental?", 24: 'Did the woman use the knife to cut or slice something for the man?', 25: 'Did the woman use the knife to help the man in some way?', 26: 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?', 27: 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?', 28: 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?', 29: 'Did the woman use the knife to help the man with something personal, like opening a package or letter?', 30: 'Did the woman use the knife to assist the man with a physical ailment or injury?', 31: 'Did the woman use the knife to assist the man with something related to his clothing or accessories?', 32: 'Did the woman use the knife to assist the man with a technical or mechanical issue?', 33: 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?', 34: 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?', 35: 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?', 36: 'Did the woman use the knife to help the man with a problem related to his physical appearance?', 37: 'Did the woman use the knife to help the man with a problem related to his identification or documentation?', 38: 'Did the woman use the knife to help the man with a problem related to his health or well-being?', 39: 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?', 40: "Did the woman use the knife to remove something harmful or dangerous from the man's person?", 41: "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?", 42: "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?", 43: 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?', 44: 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?', 45: "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?", 46: 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?', 47: 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?', 48: 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?', 49: 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?', 50: 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?', 51: 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?', 52: 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?', 53: 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.', 54: 'Did the man order coke specifically because he believed it would help with his hiccups?', 55: 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}</t>
+  </si>
+  <si>
+    <t>['not relevant for the story', "she didn't use the knife to point anything out or signal something.", 'she meant to scare him.', 'no. what usually goes away when you get a scare?', 'but why did he order coke?', 'quit']</t>
+  </si>
+  <si>
+    <t>{1: 'Are the shoes poisoned?', 2: 'Did Lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'Did Lola trip and fall because of the shoes?', 4: "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'Was Lola killed because she was wearing the shoes and someone wanted them?', 6: 'Did Lola die because the shoes were too tight and it caused a health issue?', 7: 'Was Lola killed by an animal that was attracted to the shoes?', 8: 'Did the shoes cause Lola to be in a dangerous location or situation?', 9: "Did Lola's increased height cause her to hit her head fatally?", 10: "Did Lola's increased height make her visible to someone or something that led to her death?", 11: 'Did the height from the shoes lead to Lola falling from a height?', 12: 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?', 13: "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'Did Lola get electrocuted because of her increased height from wearing the shoes?', 15: "Did Lola's tallness from the shoes cause her to be struck by lightning?", 16: "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "Did Lola's increased height from the shoes cause her to suffocate?", 20: "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "Did Lola's death involve water?", 23: "Did Lola's death involve fire?", 24: "Did Lola's death involve electricity?", 25: "Did Lola's death involve a direct contact with a person?", 26: 'Was Lola in a place with a low ceiling?', 27: 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'Was the person who had direct contact with Lola the cause of her death?', 29: 'Did this person attack Lola because she was taller due to the shoes?', 30: "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?", 31: 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?', 32: 'Could the danger have been avoided if Lola had not been wearing the shoes?', 33: 'Did the fatal incident involving Lola and the other person occur indoors?', 34: 'Did the other person mistake Lola for someone else because of her increased height from the shoes?', 35: 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?', 36: 'Did the other person attack Lola because he/she was startled by her unexpected height?', 37: "Did Lola's death involve a fall or dropping from a height because of the shoes?", 38: "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?", 39: 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?', 40: 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?', 41: 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to', 42: 'Was Lola in a work or construction environment when she was struck?', 43: "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes.", 51: "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?", 53: "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?", 54: "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?', 56: 'Was the shooter blindfolded during the trick shot?', 57: "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'Was it her partner who was performing the trick shot?', 61: "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did Lola die because of a defect or problem with the shoes?', 2: 'Did Lola die because of something that happened while she was wearing the shoes?', 3: 'Did Lola die due to an accident while wearing the shoes?', 4: 'Did the accident involve Lola tripping or falling while wearing the shoes?', 5: 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?', 6: 'Did someone intentionally harm Lola while she was wearing the shoes?', 7: "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "Did Lola's death involve someone else?", 10: 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?', 11: 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?', 12: 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?', 13: 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?', 14: 'Were the shoes Lola received heels?', 15: 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'Did Lola die due to an increase in height caused by wearing the heels?', 18: 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow.", 36: 'Was Lola shot with a bow and arrow by someone who knew her?', 37: 'Was Lola shot with a bow and arrow by a family member?', 38: 'Was Lola shot with a bow and arrow by a romantic partner?', 39: 'Was Lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?", 43: "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause Lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the height from the shoes lead to Lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the person who had direct contact with Lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person attack Lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Could the danger have been avoided if Lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the fatal incident involving Lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the other person mistake Lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the other person attack Lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'No you are not there yet. You are keeping it very vague.'}, {'role': 'assistant', 'content': 'Was Lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "You're missing some details. Explore the relationships and circumstances."}, {'role': 'assistant', 'content': "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. Why and who shot at Lola?'}, {'role': 'assistant', 'content': "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Did Lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve Lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes Lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. But there is more to it. What is the context? And with what was she shot'}, {'role': 'assistant', 'content': 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "Not there yet. She didn't go to a friend's place."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "Almost there! Start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
+  </si>
+  <si>
+    <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'not relevant for the story', 'No you are not there yet. You are keeping it very vague.', "You're missing some details. Explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. Why and who shot at Lola?', 'quit']</t>
+  </si>
+  <si>
+    <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'no she never fell', 'yes. But there is more to it. What is the context? And with what was she shot', "Not there yet. She didn't go to a friend's place.", "Almost there! Start thinking about why the archer didn't see her increase in height.", 'not the height of the actual target.', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -604,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -1369,7 +1378,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1395,10 +1404,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -1407,7 +1416,45 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>72</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>41</v>
+      </c>
+      <c r="L22" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_6E0935955BA0523C9FB83E11595ED87656C8E548" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CB10DFF-5387-4962-B14C-37347354E618}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_74E9F69F5B8052580FF82411595ED87656C9E195" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A00C94D2-6CCF-4224-8168-9D8119185E6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>Medium</t>
   </si>
@@ -226,6 +226,24 @@
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'Not relevant', 'Not relevant', 'there was no shot but there is going to be', 'Ask about the location', 'They are in some kind of vehicle', 'The type of boat is relevant to the story', 'Yes, under water', 'Why would you want to shoot yourself in a submarine?', "The game is a result of that the submarine can't go up", 'Your almost there!!!', 'Not relevant']</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause Lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the height from the shoes lead to Lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the person who had direct contact with Lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person attack Lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Could the danger have been avoided if Lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the fatal incident involving Lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the other person mistake Lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the other person attack Lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'No you are not there yet. You are keeping it very vague.'}, {'role': 'assistant', 'content': 'Was Lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "You're missing some details. Explore the relationships and circumstances."}, {'role': 'assistant', 'content': "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. Why and who shot at Lola?'}, {'role': 'assistant', 'content': "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
+  </si>
+  <si>
+    <t>{1: 'Are the shoes poisoned?', 2: 'Did Lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'Did Lola trip and fall because of the shoes?', 4: "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'Was Lola killed because she was wearing the shoes and someone wanted them?', 6: 'Did Lola die because the shoes were too tight and it caused a health issue?', 7: 'Was Lola killed by an animal that was attracted to the shoes?', 8: 'Did the shoes cause Lola to be in a dangerous location or situation?', 9: "Did Lola's increased height cause her to hit her head fatally?", 10: "Did Lola's increased height make her visible to someone or something that led to her death?", 11: 'Did the height from the shoes lead to Lola falling from a height?', 12: 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?', 13: "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'Did Lola get electrocuted because of her increased height from wearing the shoes?', 15: "Did Lola's tallness from the shoes cause her to be struck by lightning?", 16: "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "Did Lola's increased height from the shoes cause her to suffocate?", 20: "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "Did Lola's death involve water?", 23: "Did Lola's death involve fire?", 24: "Did Lola's death involve electricity?", 25: "Did Lola's death involve a direct contact with a person?", 26: 'Was Lola in a place with a low ceiling?', 27: 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'Was the person who had direct contact with Lola the cause of her death?', 29: 'Did this person attack Lola because she was taller due to the shoes?', 30: "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?", 31: 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?', 32: 'Could the danger have been avoided if Lola had not been wearing the shoes?', 33: 'Did the fatal incident involving Lola and the other person occur indoors?', 34: 'Did the other person mistake Lola for someone else because of her increased height from the shoes?', 35: 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?', 36: 'Did the other person attack Lola because he/she was startled by her unexpected height?', 37: "Did Lola's death involve a fall or dropping from a height because of the shoes?", 38: "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?", 39: 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?', 40: 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?', 41: 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to', 42: 'Was Lola in a work or construction environment when she was struck?', 43: "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes.", 51: "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?", 53: "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?", 54: "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?', 56: 'Was the shooter blindfolded during the trick shot?', 57: "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'Was it her partner who was performing the trick shot?', 61: "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}</t>
+  </si>
+  <si>
+    <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'not relevant for the story', 'No you are not there yet. You are keeping it very vague.', "You're missing some details. Explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. Why and who shot at Lola?', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Did Lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve Lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes Lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. But there is more to it. What is the context? And with what was she shot'}, {'role': 'assistant', 'content': 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "Not there yet. She didn't go to a friend's place."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "Almost there! Start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
+  </si>
+  <si>
+    <t>{1: 'Did Lola die because of a defect or problem with the shoes?', 2: 'Did Lola die because of something that happened while she was wearing the shoes?', 3: 'Did Lola die due to an accident while wearing the shoes?', 4: 'Did the accident involve Lola tripping or falling while wearing the shoes?', 5: 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?', 6: 'Did someone intentionally harm Lola while she was wearing the shoes?', 7: "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "Did Lola's death involve someone else?", 10: 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?', 11: 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?', 12: 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?', 13: 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?', 14: 'Were the shoes Lola received heels?', 15: 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'Did Lola die due to an increase in height caused by wearing the heels?', 18: 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow.", 36: 'Was Lola shot with a bow and arrow by someone who knew her?', 37: 'Was Lola shot with a bow and arrow by a family member?', 38: 'Was Lola shot with a bow and arrow by a romantic partner?', 39: 'Was Lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?", 43: "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
+  </si>
+  <si>
+    <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'no she never fell', 'yes. But there is more to it. What is the context? And with what was she shot', "Not there yet. She didn't go to a friend's place.", "Almost there! Start thinking about why the archer didn't see her increase in height.", 'not the height of the actual target.', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'assistant', 'content': 'Did the man know the woman behind the bar?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man order anything else besides the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman behind the bar intend to harm the man with the knife?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's action with the knife serve a purpose other than harm or threat?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to open something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to prepare the glass of coke in some way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate or signal something to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out a specific detail or object to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to stir or mix something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something from the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to retrieve something from behind the bar?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out an unusual or unexpected situation to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to draw the man's attention to a message or writing?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate to the man that she was out of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to point out a problem or issue with the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to gesture towards something else in the cafe?'}, {'role': 'user', 'content': "she didn't use the knife to point anything out or signal something."}, {'role': 'assistant', 'content': "Was the woman's action with the knife accidental?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or slice something for the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man in some way?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with something personal, like opening a package or letter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a physical ailment or injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with something related to his clothing or accessories?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a technical or mechanical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his physical appearance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his identification or documentation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his health or well-being?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something harmful or dangerous from the man's person?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?'}, {'role': 'user', 'content': 'she meant to scare him.'}, {'role': 'assistant', 'content': "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?'}, {'role': 'user', 'content': 'no. what usually goes away when you get a scare?'}, {'role': 'assistant', 'content': 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}, {'role': 'user', 'content': 'but why did he order coke?'}, {'role': 'assistant', 'content': 'Did the man order coke specifically because he believed it would help with his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}]</t>
   </si>
   <si>
@@ -235,22 +253,13 @@
     <t>['not relevant for the story', "she didn't use the knife to point anything out or signal something.", 'she meant to scare him.', 'no. what usually goes away when you get a scare?', 'but why did he order coke?', 'quit']</t>
   </si>
   <si>
-    <t>{1: 'Are the shoes poisoned?', 2: 'Did Lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'Did Lola trip and fall because of the shoes?', 4: "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'Was Lola killed because she was wearing the shoes and someone wanted them?', 6: 'Did Lola die because the shoes were too tight and it caused a health issue?', 7: 'Was Lola killed by an animal that was attracted to the shoes?', 8: 'Did the shoes cause Lola to be in a dangerous location or situation?', 9: "Did Lola's increased height cause her to hit her head fatally?", 10: "Did Lola's increased height make her visible to someone or something that led to her death?", 11: 'Did the height from the shoes lead to Lola falling from a height?', 12: 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?', 13: "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'Did Lola get electrocuted because of her increased height from wearing the shoes?', 15: "Did Lola's tallness from the shoes cause her to be struck by lightning?", 16: "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "Did Lola's increased height from the shoes cause her to suffocate?", 20: "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "Did Lola's death involve water?", 23: "Did Lola's death involve fire?", 24: "Did Lola's death involve electricity?", 25: "Did Lola's death involve a direct contact with a person?", 26: 'Was Lola in a place with a low ceiling?', 27: 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'Was the person who had direct contact with Lola the cause of her death?', 29: 'Did this person attack Lola because she was taller due to the shoes?', 30: "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?", 31: 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?', 32: 'Could the danger have been avoided if Lola had not been wearing the shoes?', 33: 'Did the fatal incident involving Lola and the other person occur indoors?', 34: 'Did the other person mistake Lola for someone else because of her increased height from the shoes?', 35: 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?', 36: 'Did the other person attack Lola because he/she was startled by her unexpected height?', 37: "Did Lola's death involve a fall or dropping from a height because of the shoes?", 38: "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?", 39: 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?', 40: 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?', 41: 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to', 42: 'Was Lola in a work or construction environment when she was struck?', 43: "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes.", 51: "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?", 53: "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?", 54: "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?', 56: 'Was the shooter blindfolded during the trick shot?', 57: "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'Was it her partner who was performing the trick shot?', 61: "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}</t>
-  </si>
-  <si>
-    <t>{1: 'Did Lola die because of a defect or problem with the shoes?', 2: 'Did Lola die because of something that happened while she was wearing the shoes?', 3: 'Did Lola die due to an accident while wearing the shoes?', 4: 'Did the accident involve Lola tripping or falling while wearing the shoes?', 5: 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?', 6: 'Did someone intentionally harm Lola while she was wearing the shoes?', 7: "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "Did Lola's death involve someone else?", 10: 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?', 11: 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?', 12: 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?', 13: 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?', 14: 'Were the shoes Lola received heels?', 15: 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'Did Lola die due to an increase in height caused by wearing the heels?', 18: 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow.", 36: 'Was Lola shot with a bow and arrow by someone who knew her?', 37: 'Was Lola shot with a bow and arrow by a family member?', 38: 'Was Lola shot with a bow and arrow by a romantic partner?', 39: 'Was Lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?", 43: "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause Lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the height from the shoes lead to Lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the person who had direct contact with Lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person attack Lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Could the danger have been avoided if Lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the fatal incident involving Lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the other person mistake Lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the other person attack Lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'No you are not there yet. You are keeping it very vague.'}, {'role': 'assistant', 'content': 'Was Lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "You're missing some details. Explore the relationships and circumstances."}, {'role': 'assistant', 'content': "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. Why and who shot at Lola?'}, {'role': 'assistant', 'content': "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Did Lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve Lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes Lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. But there is more to it. What is the context? And with what was she shot'}, {'role': 'assistant', 'content': 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "Not there yet. She didn't go to a friend's place."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "Almost there! Start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
-  </si>
-  <si>
-    <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'not relevant for the story', 'No you are not there yet. You are keeping it very vague.', "You're missing some details. Explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. Why and who shot at Lola?', 'quit']</t>
-  </si>
-  <si>
-    <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'no she never fell', 'yes. But there is more to it. What is the context? And with what was she shot', "Not there yet. She didn't go to a friend's place.", "Almost there! Start thinking about why the archer didn't see her increase in height.", 'not the height of the actual target.', 'quit']</t>
+    <t>{1: 'Did the woman threaten the man with the knife?', 2: 'Was the man asking for the knife instead of the coke?', 3: 'Did the man need the knife for a reason unrelated to violence?', 4: 'Was the knife part of a magic trick or performance?', 5: 'Did the man use the knife to address a medical condition or emergency?', 6: 'Was the act of pointing the knife at the man a prearranged signal or code between them', 7: 'Was the knife used to open or prepare the coke in some way', 8: 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected', 9: 'Was the knife used to communicate a message or signal understood by the man but not related to a threat', 10: 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman', 11: "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake", 12: 'Did the man specifically request the woman to point the knife at him for any reason', 13: 'Is the presence of the knife relevant to the reason why the man thanked the woman and left', 14: 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment', 15: 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason', 16: 'Did the woman point the knife at the man in response to something he did or said after ordering the coke', 17: "Is the woman's action with the knife a standard practice or ritual in this cafe", 18: 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man', 19: "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence", 20: "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order", 21: 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him', 22: "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation", 23: 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others', 24: 'Did she point the knife at him to help him', 25: 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of', 26: 'Did the woman point the knife at the man to help him make a decision or realize something', 27: 'Did the woman point the knife at the man to assist him with a physical task or action', 28: 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way', 29: 'Did the woman point the knife at the man to draw his attention to something specific', 30: 'Did the woman point the knife at the man to warn him about something', 31: 'Did the woman point the knife at the man to convey a message that was not related to danger or warning', 32: 'Did the woman point the knife at the man to signal that she was impressed or surprised by something', 33: 'Did the woman want to scare the man by pointing the knife at him', 34: 'Did the woman want to scare the man as a form of amusement or prank', 35: 'Did the woman want to scare the man as a way to test his reaction or assess his character', 36: 'Did the woman want to scare the man to convey a message or make a point about something', 37: 'Did the woman want to scare the man because she mistook him for someone else', 38: 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason', 39: 'Did the woman want to scare the man to elicit a specific response from him', 40: 'Did the woman want to scare the man as a form of greeting or initiation', 41: 'Did the woman want to scare the man as a way to discourage him from returning to the cafe', 42: 'Did the woman want to scare the man as a reaction to something he did or said', 43: 'Did the woman want to scare the man as part of a tradition or cultural practice', 44: 'Did the woman want to scare the man to test his bravery or reaction under pressure', 45: "Was the woman's intention to scare the man related to her own safety or protection", 46: "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part", 47: 'Did the woman want to scare the man as a form of retaliation for something he did or said?', 48: 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?', 49: 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?', 50: "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?", 51: 'Did the woman want to scare the man to play a practical joke or prank on him?', 52: 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?', 53: 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?', 54: 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?', 55: 'Did the woman want to scare the man to help him overcome a fear or phobia?', 56: "Does the woman want to scare the man to help him sober up if he's drunk?", 57: 'Did the woman want to scare the man to help him overcome hiccups?', 58: 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.', 59: 'Did the man believe that drinking the glass of coke would help his hiccups go away?', 60: 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?', 61: 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.'}, {'role': 'assistant', 'content': 'Did the woman threaten the man with the knife?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man asking for the knife instead of the coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man need the knife for a reason unrelated to violence?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife part of a magic trick or performance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use the knife to address a medical condition or emergency?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a prearranged signal or code between them'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to open or prepare the coke in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to communicate a message or signal understood by the man but not related to a threat'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man specifically request the woman to point the knife at him for any reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the presence of the knife relevant to the reason why the man thanked the woman and left'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man in response to something he did or said after ordering the coke'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the woman's action with the knife a standard practice or ritual in this cafe"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she point the knife at him to help him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to help him make a decision or realize something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to assist him with a physical task or action'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to draw his attention to something specific'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to warn him about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to convey a message that was not related to danger or warning'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to signal that she was impressed or surprised by something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man by pointing the knife at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of amusement or prank'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to test his reaction or assess his character'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to convey a message or make a point about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man because she mistook him for someone else'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to elicit a specific response from him'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of greeting or initiation'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to discourage him from returning to the cafe'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a reaction to something he did or said'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as part of a tradition or cultural practice'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his bravery or reaction under pressure'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to her own safety or protection"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of retaliation for something he did or said?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to play a practical joke or prank on him?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome a fear or phobia?'}, {'role': 'user', 'content': 'what is usually believed to go away when you get a scare?'}, {'role': 'assistant', 'content': "Does the woman want to scare the man to help him sober up if he's drunk?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.'}, {'role': 'user', 'content': 'How does the coke fit into this?'}, {'role': 'assistant', 'content': 'Did the man believe that drinking the glass of coke would help his hiccups go away?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}]</t>
+  </si>
+  <si>
+    <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.', 'what is usually believed to go away when you get a scare?', 'How does the coke fit into this?', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -613,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -1378,7 +1387,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1404,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
         <v>72</v>
@@ -1416,7 +1425,7 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1442,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1454,7 +1463,45 @@
         <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>71</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_74E9F69F5B8052580FF82411595ED87656C9E195" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A00C94D2-6CCF-4224-8168-9D8119185E6B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_42CDD79A5BA0DB5EB7183111595ED87656C99C54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DF0D8D-371F-4755-8CEF-BEF291D26B08}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Medium</t>
   </si>
@@ -253,13 +253,22 @@
     <t>['not relevant for the story', "she didn't use the knife to point anything out or signal something.", 'she meant to scare him.', 'no. what usually goes away when you get a scare?', 'but why did he order coke?', 'quit']</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.'}, {'role': 'assistant', 'content': 'Did the woman threaten the man with the knife?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man asking for the knife instead of the coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man need the knife for a reason unrelated to violence?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife part of a magic trick or performance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use the knife to address a medical condition or emergency?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a prearranged signal or code between them'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to open or prepare the coke in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to communicate a message or signal understood by the man but not related to a threat'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man specifically request the woman to point the knife at him for any reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the presence of the knife relevant to the reason why the man thanked the woman and left'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man in response to something he did or said after ordering the coke'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the woman's action with the knife a standard practice or ritual in this cafe"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she point the knife at him to help him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to help him make a decision or realize something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to assist him with a physical task or action'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to draw his attention to something specific'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to warn him about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to convey a message that was not related to danger or warning'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to signal that she was impressed or surprised by something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man by pointing the knife at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of amusement or prank'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to test his reaction or assess his character'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to convey a message or make a point about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man because she mistook him for someone else'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to elicit a specific response from him'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of greeting or initiation'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to discourage him from returning to the cafe'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a reaction to something he did or said'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as part of a tradition or cultural practice'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his bravery or reaction under pressure'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to her own safety or protection"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of retaliation for something he did or said?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to play a practical joke or prank on him?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome a fear or phobia?'}, {'role': 'user', 'content': 'what is usually believed to go away when you get a scare?'}, {'role': 'assistant', 'content': "Does the woman want to scare the man to help him sober up if he's drunk?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.'}, {'role': 'user', 'content': 'How does the coke fit into this?'}, {'role': 'assistant', 'content': 'Did the man believe that drinking the glass of coke would help his hiccups go away?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}]</t>
+  </si>
+  <si>
     <t>{1: 'Did the woman threaten the man with the knife?', 2: 'Was the man asking for the knife instead of the coke?', 3: 'Did the man need the knife for a reason unrelated to violence?', 4: 'Was the knife part of a magic trick or performance?', 5: 'Did the man use the knife to address a medical condition or emergency?', 6: 'Was the act of pointing the knife at the man a prearranged signal or code between them', 7: 'Was the knife used to open or prepare the coke in some way', 8: 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected', 9: 'Was the knife used to communicate a message or signal understood by the man but not related to a threat', 10: 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman', 11: "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake", 12: 'Did the man specifically request the woman to point the knife at him for any reason', 13: 'Is the presence of the knife relevant to the reason why the man thanked the woman and left', 14: 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment', 15: 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason', 16: 'Did the woman point the knife at the man in response to something he did or said after ordering the coke', 17: "Is the woman's action with the knife a standard practice or ritual in this cafe", 18: 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man', 19: "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence", 20: "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order", 21: 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him', 22: "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation", 23: 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others', 24: 'Did she point the knife at him to help him', 25: 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of', 26: 'Did the woman point the knife at the man to help him make a decision or realize something', 27: 'Did the woman point the knife at the man to assist him with a physical task or action', 28: 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way', 29: 'Did the woman point the knife at the man to draw his attention to something specific', 30: 'Did the woman point the knife at the man to warn him about something', 31: 'Did the woman point the knife at the man to convey a message that was not related to danger or warning', 32: 'Did the woman point the knife at the man to signal that she was impressed or surprised by something', 33: 'Did the woman want to scare the man by pointing the knife at him', 34: 'Did the woman want to scare the man as a form of amusement or prank', 35: 'Did the woman want to scare the man as a way to test his reaction or assess his character', 36: 'Did the woman want to scare the man to convey a message or make a point about something', 37: 'Did the woman want to scare the man because she mistook him for someone else', 38: 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason', 39: 'Did the woman want to scare the man to elicit a specific response from him', 40: 'Did the woman want to scare the man as a form of greeting or initiation', 41: 'Did the woman want to scare the man as a way to discourage him from returning to the cafe', 42: 'Did the woman want to scare the man as a reaction to something he did or said', 43: 'Did the woman want to scare the man as part of a tradition or cultural practice', 44: 'Did the woman want to scare the man to test his bravery or reaction under pressure', 45: "Was the woman's intention to scare the man related to her own safety or protection", 46: "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part", 47: 'Did the woman want to scare the man as a form of retaliation for something he did or said?', 48: 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?', 49: 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?', 50: "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?", 51: 'Did the woman want to scare the man to play a practical joke or prank on him?', 52: 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?', 53: 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?', 54: 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?', 55: 'Did the woman want to scare the man to help him overcome a fear or phobia?', 56: "Does the woman want to scare the man to help him sober up if he's drunk?", 57: 'Did the woman want to scare the man to help him overcome hiccups?', 58: 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.', 59: 'Did the man believe that drinking the glass of coke would help his hiccups go away?', 60: 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?', 61: 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.'}, {'role': 'assistant', 'content': 'Did the woman threaten the man with the knife?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man asking for the knife instead of the coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man need the knife for a reason unrelated to violence?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife part of a magic trick or performance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use the knife to address a medical condition or emergency?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a prearranged signal or code between them'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to open or prepare the coke in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to communicate a message or signal understood by the man but not related to a threat'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man specifically request the woman to point the knife at him for any reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the presence of the knife relevant to the reason why the man thanked the woman and left'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man in response to something he did or said after ordering the coke'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the woman's action with the knife a standard practice or ritual in this cafe"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she point the knife at him to help him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to help him make a decision or realize something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to assist him with a physical task or action'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to draw his attention to something specific'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to warn him about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to convey a message that was not related to danger or warning'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to signal that she was impressed or surprised by something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man by pointing the knife at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of amusement or prank'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to test his reaction or assess his character'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to convey a message or make a point about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man because she mistook him for someone else'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to elicit a specific response from him'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of greeting or initiation'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to discourage him from returning to the cafe'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a reaction to something he did or said'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as part of a tradition or cultural practice'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his bravery or reaction under pressure'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to her own safety or protection"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of retaliation for something he did or said?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to play a practical joke or prank on him?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome a fear or phobia?'}, {'role': 'user', 'content': 'what is usually believed to go away when you get a scare?'}, {'role': 'assistant', 'content': "Does the woman want to scare the man to help him sober up if he's drunk?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.'}, {'role': 'user', 'content': 'How does the coke fit into this?'}, {'role': 'assistant', 'content': 'Did the man believe that drinking the glass of coke would help his hiccups go away?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}]</t>
-  </si>
-  <si>
     <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.', 'what is usually believed to go away when you get a scare?', 'How does the coke fit into this?', 'quit']</t>
+  </si>
+  <si>
+    <t>{1: 'Was the large vehicle near a body of water?', 2: 'Did the man drown himself intentionally?', 3: 'Was the large vehicle an unusual place for someone to be?', 4: 'Was the vehicle submerged or partially submerged in water when the man climbed out?', 5: 'Did the man drown in water located inside the vehicle?', 6: 'Did the man use something from the vehicle to help him drown himself?', 7: 'Did the man drown immediately after exiting the vehicle?', 8: 'Was the method of drowning related to a liquid other than water?', 9: "Was the man's occupation relevant to the story?", 10: 'Was the man a driver or operator of the large vehicle?', 11: "Did the man's occupation directly contribute to his decision to drown himself?", 12: "Was the man's mental state affected by an event that occurred while he was in the vehicle?", 13: 'Did the event involve other people?', 14: 'Was the event traumatic or distressing?', 15: 'Did the traumatic event cause the man to feel responsible or guilty?', 16: 'Did the traumatic event involve an accident with the vehicle?', 17: "Was the accident caused by the man's actions or negligence?", 18: 'Did the accident result in harm or death to others?', 19: "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?", 20: 'Did the man kill a family member or someone close to him in the accident?', 21: 'Was the vehicle a bus or truck?', 22: 'Was the vehicle a train?', 23: 'Was the vehicle an airplane?', 24: 'Was the vehicle a car?', 25: 'Was the vehicle a ship or boat?', 26: 'Was the vehicle a military vehicle?', 27: 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?', 28: 'Was the vehicle related to public transportation, such as a taxi or rideshare?', 29: 'Was the vehicle a recreational vehicle, like a camper or RV?', 30: 'Was the vehicle a construction vehicle?', 31: 'Was the vehicle involved in agriculture, like a tractor?', 32: 'Did the man accidentally cause the death of his own child in the accident?', 33: "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?", 34: 'Did the accident happen while the children were riding with the man in the vehicle?', 35: "Did the accident occur on the man's property, such as a farm?", 36: "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?", 37: 'Were the children playing in the field where the man was working with the vehicle?', 38: 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}</t>
+  </si>
+  <si>
+    <t>['A man climbs out of a large vehicle and drowned himself', 'not relevant for the story', 'not relevant for the story', "you are in the right direction. You're not there yet. We are missing a lot of details", 'more than one child', 'how did it happen?', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself'}, {'role': 'assistant', 'content': 'Was the large vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the large vehicle an unusual place for someone to be?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle submerged or partially submerged in water when the man climbed out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown in water located inside the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use something from the vehicle to help him drown himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown immediately after exiting the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the method of drowning related to a liquid other than water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': "Was the man's occupation relevant to the story?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the large vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's occupation directly contribute to his decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's mental state affected by an event that occurred while he was in the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the event involve other people?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the event traumatic or distressing?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event cause the man to feel responsible or guilty?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event involve an accident with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the accident caused by the man's actions or negligence?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm or death to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?"}, {'role': 'user', 'content': "you are in the right direction. You're not there yet. We are missing a lot of details."}, {'role': 'assistant', 'content': 'Did the man kill a family member or someone close to him in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a bus or truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle related to public transportation, such as a taxi or rideshare?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like a camper or RV?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a construction vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle involved in agriculture, like a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man accidentally cause the death of his own child in the accident?'}, {'role': 'user', 'content': 'more than one child'}, {'role': 'assistant', 'content': "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?"}, {'role': 'user', 'content': 'how did it happen?'}, {'role': 'assistant', 'content': 'Did the accident happen while the children were riding with the man in the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the accident occur on the man's property, such as a farm?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing in the field where the man was working with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}]</t>
   </si>
 </sst>
 </file>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1489,10 +1498,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" t="s">
         <v>78</v>
-      </c>
-      <c r="I23" t="s">
-        <v>77</v>
       </c>
       <c r="J23">
         <v>8</v>
@@ -1502,6 +1511,44 @@
       </c>
       <c r="L23" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>53</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <v>15</v>
+      </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_42CDD79A5BA0DB5EB7183111595ED87656C99C54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DF0D8D-371F-4755-8CEF-BEF291D26B08}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2535D6845BF05402B7782211595ED87656C9C218" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612439D9-18EA-499B-80B9-5EC861F8DDC8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
   <si>
     <t>Medium</t>
   </si>
@@ -262,13 +262,22 @@
     <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.', 'what is usually believed to go away when you get a scare?', 'How does the coke fit into this?', 'quit']</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself'}, {'role': 'assistant', 'content': 'Was the large vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the large vehicle an unusual place for someone to be?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle submerged or partially submerged in water when the man climbed out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown in water located inside the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use something from the vehicle to help him drown himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown immediately after exiting the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the method of drowning related to a liquid other than water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': "Was the man's occupation relevant to the story?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the large vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's occupation directly contribute to his decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's mental state affected by an event that occurred while he was in the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the event involve other people?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the event traumatic or distressing?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event cause the man to feel responsible or guilty?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event involve an accident with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the accident caused by the man's actions or negligence?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm or death to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?"}, {'role': 'user', 'content': "you are in the right direction. You're not there yet. We are missing a lot of details."}, {'role': 'assistant', 'content': 'Did the man kill a family member or someone close to him in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a bus or truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle related to public transportation, such as a taxi or rideshare?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like a camper or RV?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a construction vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle involved in agriculture, like a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man accidentally cause the death of his own child in the accident?'}, {'role': 'user', 'content': 'more than one child'}, {'role': 'assistant', 'content': "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?"}, {'role': 'user', 'content': 'how did it happen?'}, {'role': 'assistant', 'content': 'Did the accident happen while the children were riding with the man in the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the accident occur on the man's property, such as a farm?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing in the field where the man was working with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}]</t>
+  </si>
+  <si>
     <t>{1: 'Was the large vehicle near a body of water?', 2: 'Did the man drown himself intentionally?', 3: 'Was the large vehicle an unusual place for someone to be?', 4: 'Was the vehicle submerged or partially submerged in water when the man climbed out?', 5: 'Did the man drown in water located inside the vehicle?', 6: 'Did the man use something from the vehicle to help him drown himself?', 7: 'Did the man drown immediately after exiting the vehicle?', 8: 'Was the method of drowning related to a liquid other than water?', 9: "Was the man's occupation relevant to the story?", 10: 'Was the man a driver or operator of the large vehicle?', 11: "Did the man's occupation directly contribute to his decision to drown himself?", 12: "Was the man's mental state affected by an event that occurred while he was in the vehicle?", 13: 'Did the event involve other people?', 14: 'Was the event traumatic or distressing?', 15: 'Did the traumatic event cause the man to feel responsible or guilty?', 16: 'Did the traumatic event involve an accident with the vehicle?', 17: "Was the accident caused by the man's actions or negligence?", 18: 'Did the accident result in harm or death to others?', 19: "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?", 20: 'Did the man kill a family member or someone close to him in the accident?', 21: 'Was the vehicle a bus or truck?', 22: 'Was the vehicle a train?', 23: 'Was the vehicle an airplane?', 24: 'Was the vehicle a car?', 25: 'Was the vehicle a ship or boat?', 26: 'Was the vehicle a military vehicle?', 27: 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?', 28: 'Was the vehicle related to public transportation, such as a taxi or rideshare?', 29: 'Was the vehicle a recreational vehicle, like a camper or RV?', 30: 'Was the vehicle a construction vehicle?', 31: 'Was the vehicle involved in agriculture, like a tractor?', 32: 'Did the man accidentally cause the death of his own child in the accident?', 33: "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?", 34: 'Did the accident happen while the children were riding with the man in the vehicle?', 35: "Did the accident occur on the man's property, such as a farm?", 36: "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?", 37: 'Were the children playing in the field where the man was working with the vehicle?', 38: 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}</t>
   </si>
   <si>
     <t>['A man climbs out of a large vehicle and drowned himself', 'not relevant for the story', 'not relevant for the story', "you are in the right direction. You're not there yet. We are missing a lot of details", 'more than one child', 'how did it happen?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself'}, {'role': 'assistant', 'content': 'Was the large vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the large vehicle an unusual place for someone to be?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle submerged or partially submerged in water when the man climbed out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown in water located inside the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use something from the vehicle to help him drown himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown immediately after exiting the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the method of drowning related to a liquid other than water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': "Was the man's occupation relevant to the story?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the large vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's occupation directly contribute to his decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's mental state affected by an event that occurred while he was in the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the event involve other people?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the event traumatic or distressing?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event cause the man to feel responsible or guilty?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event involve an accident with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the accident caused by the man's actions or negligence?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm or death to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?"}, {'role': 'user', 'content': "you are in the right direction. You're not there yet. We are missing a lot of details."}, {'role': 'assistant', 'content': 'Did the man kill a family member or someone close to him in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a bus or truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle related to public transportation, such as a taxi or rideshare?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like a camper or RV?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a construction vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle involved in agriculture, like a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man accidentally cause the death of his own child in the accident?'}, {'role': 'user', 'content': 'more than one child'}, {'role': 'assistant', 'content': "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?"}, {'role': 'user', 'content': 'how did it happen?'}, {'role': 'assistant', 'content': 'Did the accident happen while the children were riding with the man in the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the accident occur on the man's property, such as a farm?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing in the field where the man was working with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}]</t>
+    <t>{1: 'Did the man drown immediately after climbing out of the vehicle?', 2: 'Was the vehicle near a body of water?', 3: 'Did the man intentionally drown himself?', 4: "Did the vehicle's location or condition directly lead to the man's decision to drown himself?", 5: 'Was the vehicle moving when the man decided to exit it?', 6: 'Did the man drown himself in water that was carried or contained within the vehicle?', 7: "Was the vehicle's type or purpose relevant to the man's decision to drown himself?", 8: 'Did the man have an occupation or role that is relevant to the story?', 9: "Was the man's occupation related to the large vehicle?", 10: 'Was the man a driver or operator of the vehicle?', 11: "Did the man's decision to drown himself result from an incident involving the vehicle he was operating?", 12: "Was the incident that led to the man's decision to drown himself an accident involving the vehicle?", 13: 'Did the accident result in harm to others?', 14: 'Did the man drown himself out of guilt or remorse for the accident?', 15: "The story involves a man who was a driver or operator of a large vehicle. While operating this vehicle, he was involved in an accident that resulted in harm to others. Overwhelmed by guilt or remorse for the consequences of this accident, the man made the decision to end his life by drowning himself. This tragic outcome was influenced not by the immediate circumstances of the accident, but by the man's emotional response to the harm caused to others.", 16: 'Was the large vehicle a bus?', 17: 'Was the vehicle a truck?', 18: 'Was the vehicle an airplane?', 19: 'Was the vehicle a train?', 20: 'Was the vehicle a ship or boat?', 21: 'Was the vehicle a military vehicle?', 22: 'Was the vehicle used for commercial purposes?', 23: 'Was the vehicle a recreational vehicle, like an RV or a camper?', 24: 'Was the vehicle a special-purpose vehicle, like an ambulance or fire truck?', 25: 'Was the vehicle used primarily for transporting goods?', 26: 'Was the vehicle a personal mode of transport, like a car or motorcycle?', 27: "Is the vehicle's primary purpose for construction or agriculture?", 28: 'Was the vehicle a tractor?', 29: 'Did the accident involve the tractor causing harm to someone on a farm?', 30: 'Did the man drown himself out of guilt for causing harm or death to a family member in the accident?', 31: "The story revolves around a man who was operating a tractor, likely on a farm, which is a setting common for such vehicles. While he was using the tractor, an accident occurred that resulted in harm or possibly the death of a family member. This tragic event was not a consequence of the man's professional duties beyond the immediate operation of the vehicle but stemmed from a deeply personal and devastating incident. The man, overwhelmed by guilt or remorse for the accident and the harm caused to his family member, made the heart-wrenching decision to end his own life by drowning. The location or specifics of where he drowned are not detailed in the story, but his actions were driven by the emotional weight of the tragedy and his inability to cope with the guilt.", 32: 'Did the accident involve a child?', 33: 'Did the accident occur because the man did not see the child while operating the tractor?', 34: 'Was the child playing near the tractor?', 35: 'Was the child playing in a field where the tractor was being used?', 36: 'Was the child playing in the field because they considered it a usual play area, not recognizing the danger of the operating tractor?', 37: "Was the man unaware of the child's presence in the field while he was operating the tractor?", 38: 'Was the child playing alone in the field?', 39: 'Was the child playing with other children in the field?', 40: 'Were the children playing together in the field siblings?', 41: 'So, in a devastating turn of events, a man operating a tractor in a field accidentally struck and killed all of his children, who were playing there. Stricken with unbearable guilt, he later drowned himself, overwhelmed by the loss of his children the tragic accident.'}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself.'}, {'role': 'assistant', 'content': 'Did the man drown immediately after climbing out of the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man intentionally drown himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the vehicle's location or condition directly lead to the man's decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle moving when the man decided to exit it?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself in water that was carried or contained within the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the vehicle's type or purpose relevant to the man's decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have an occupation or role that is relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the man's occupation related to the large vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's decision to drown himself result from an incident involving the vehicle he was operating?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the incident that led to the man's decision to drown himself an accident involving the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drown himself out of guilt or remorse for the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The story involves a man who was a driver or operator of a large vehicle. While operating this vehicle, he was involved in an accident that resulted in harm to others. Overwhelmed by guilt or remorse for the consequences of this accident, the man made the decision to end his life by drowning himself. This tragic outcome was influenced not by the immediate circumstances of the accident, but by the man's emotional response to the harm caused to others."}, {'role': 'user', 'content': 'I want more specific details. For example, vehicle, location, and who got hurt.'}, {'role': 'assistant', 'content': 'Was the large vehicle a bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle used for commercial purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like an RV or a camper?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a special-purpose vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle used primarily for transporting goods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a personal mode of transport, like a car or motorcycle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the vehicle's primary purpose for construction or agriculture?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve the tractor causing harm to someone on a farm?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drown himself out of guilt for causing harm or death to a family member in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The story revolves around a man who was operating a tractor, likely on a farm, which is a setting common for such vehicles. While he was using the tractor, an accident occurred that resulted in harm or possibly the death of a family member. This tragic event was not a consequence of the man's professional duties beyond the immediate operation of the vehicle but stemmed from a deeply personal and devastating incident. The man, overwhelmed by guilt or remorse for the accident and the harm caused to his family member, made the heart-wrenching decision to end his own life by drowning. The location or specifics of where he drowned are not detailed in the story, but his actions were driven by the emotional weight of the tragedy and his inability to cope with the guilt."}, {'role': 'user', 'content': 'More details. how did it happen and who died?'}, {'role': 'assistant', 'content': 'Did the accident involve a child?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident occur because the man did not see the child while operating the tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing near the tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing in a field where the tractor was being used?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing in the field because they considered it a usual play area, not recognizing the danger of the operating tractor?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': "Was the man unaware of the child's presence in the field while he was operating the tractor?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing alone in the field?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the child playing with other children in the field?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing together in the field siblings?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, in a devastating turn of events, a man operating a tractor in a field accidentally struck and killed all of his children, who were playing there. Stricken with unbearable guilt, he later drowned himself, overwhelmed by the loss of his children the tragic accident.'}]</t>
+  </si>
+  <si>
+    <t>['A man climbs out of a large vehicle and drowned himself.', 'not relevant for the story', 'not relevant for the story', 'I want more specific details. For example, vehicle, location, and who got hurt.', 'More details. how did it happen and who died?', 'not relevant to the story', 'quit']</t>
   </si>
 </sst>
 </file>
@@ -631,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1536,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J24">
         <v>15</v>
@@ -1548,7 +1557,45 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25">
+        <v>19</v>
+      </c>
+      <c r="K25">
+        <v>16</v>
+      </c>
+      <c r="L25" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2535D6845BF05402B7782211595ED87656C9C218" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612439D9-18EA-499B-80B9-5EC861F8DDC8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240585B-E6B6-4080-A389-73DECF19B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>Medium</t>
   </si>
@@ -64,220 +77,238 @@
     <t>Nikki</t>
   </si>
   <si>
+    <t>Linthe</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of hypothermia or exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from a self-inflicted injury or suicide?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die as a result of an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was he alone when the accident happened?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a motorcycle or bike?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an aircraft of some sort?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die from the crash of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump or fall out of the plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man have a parachute when he jumped or fell out of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?'}, {'role': 'user', 'content': 'no, false assumptions. ask how the man got into the plane with barely any clothes'}, {'role': 'assistant', 'content': 'Did the man board the plane initially with barely any clothes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man remove his clothes after boarding the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man lose his clothes because of a malfunction or damage of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did someone else remove the man's clothes before or during his flight?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane carrying cargo or was it a passenger plane?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Was the plane a cargo aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a personal aircraft, not intended for commercial or cargo use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a passenger aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane originally over water before it reached the woods?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man attempt to land the plane on water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the plane's final destination within the woods or wilderness area?"}, {'role': 'user', 'content': 'partly correct'}, {'role': 'assistant', 'content': 'Was the plane intended to land in a body of water near the woods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane intended to land in an area within the woods?'}, {'role': 'user', 'content': 'not land, but the plane was there for the woods'}, {'role': 'assistant', 'content': 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the plane involved in firefighting activities?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's clothing burn due to a fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?'}, {'role': 'user', 'content': 'the man was in the plane by accident'}, {'role': 'assistant', 'content': 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?'}, {'role': 'user', 'content': 'almost, why was he there?'}, {'role': 'assistant', 'content': "Did the man sneak into the plane without the crew's knowledge?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man homeless and seeking shelter in the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?'}, {'role': 'user', 'content': 'no, he did not enter the plane himself'}, {'role': 'assistant', 'content': 'Was the man placed in the plane by somebody else?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?'}, {'role': 'user', 'content': 'false assumption that it is used for cargo'}, {'role': 'assistant', 'content': 'Was the man placed in the plane as part of a rescue operation or medical evacuation?'}, {'role': 'user', 'content': 'you already guessed where the plane was for!'}, {'role': 'assistant', 'content': 'Did the man get scooped up with water when the plane was loading water for firefighting?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die from a self-inflicted injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die due to an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the accident related to a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it a car accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the accident related to an aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man jump out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man the pilot of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a passenger on the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the aircraft crash into the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the aircraft drop something that directly caused the man's death?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the man hit by a falling object from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die trying to catch something that was falling from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a parachute?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to save his life?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a packed object that got deployed accidentally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to be used in a survival situation?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?'}, {'role': 'user', 'content': 'no, the man was on the airplane'}, {'role': 'assistant', 'content': 'Was he detached from the aircraft in mid-air, leading to his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft without a parachute?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because the door was accidentally opened?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man trying to enter or exit the aircraft when he fell out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft as a result of a fight or altercation on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft during a routine operation or procedure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man pushed out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was on the ground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was taking off or landing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the man fall out because the floor of the aircraft gave way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?'}, {'role': 'user', 'content': 'he did not fall out of the aircraft due to himself'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because another person on that aircraft made him do it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something in the aircraft malfunction, causing him to fall out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out due to an explosion in the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because an animal in the aircraft caused it?'}, {'role': 'user', 'content': 'no, ask about the function of the airplane'}, {'role': 'assistant', 'content': 'Was the aircraft used for commercial travel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for military purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for cargo transportation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for scientific research?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for private/personal use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for a rescue mission?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the aircraft being used for air ambulance or medical evacuation purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for firefighting purposes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was releasing water or fire retardant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.'}, {'role': 'user', 'content': 'you miss one element, how did the person got there?'}, {'role': 'assistant', 'content': 'Was the man actually inside the aircraft when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man already in the area for another purpose when the aircraft arrived?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?"}, {'role': 'user', 'content': 'no, why did he had barely any clothes on?'}, {'role': 'assistant', 'content': 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Did the woman intend to harm herself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did something tragic happen to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have mental health issues?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she escaping from someone or something in city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she complete an important task or mission in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she forced to make the return trip against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did anything significant happen on her way back to city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the sundress and dark glasses relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the sundress and dark glasses a disguise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman wear the sundress and dark glasses to protect herself from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the sundress and dark glasses have symbolic meaning for the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does the woman have a visual impairment?'}, {'role': 'user', 'content': 'false assumption present tense'}, {'role': 'assistant', 'content': 'Did the woman have a visual impairment before the journey to city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A."}, {'role': 'user', 'content': 'almost correct. ask about the reason why she jumped'}, {'role': 'assistant', 'content': 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman see something specific on her return trip that prompted her to take her own life?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did she jump because she could not bear the darkness in the tunnel?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman scared of the darkness due to her previous inability to see?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because without her sight she could better handle the darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?'}, {'role': 'user', 'content': 'no, after eye surgery, what do you have?'}, {'role': 'assistant', 'content': 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.'}, {'role': 'user', 'content': 'almost, when did she check if she could see again?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again when she came out of the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again while she was still inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman suffering from a mental illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something significant happen to her during her stay in city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did she receive bad news in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she meet someone significant in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she come into possession of something distressing or harmful in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she commit a crime in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she lose something valuable or meaningful to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she experience something traumatic in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman spend the entire twelve days in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman on a mission or task in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's return to City A have any significance?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman come back early from city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman ill physically?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the time spent in city B longer than she intended?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman forced or coerced into making the trip back to City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something happen to her on the bus trip from city B to A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the tunnel trigger a phobia or fear in the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman react to something she saw or heard inside the tunnel?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Was it completely dark inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Are the woman's dark glasses relevant to her reaction in the tunnel?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the woman not able to see in the dark tunnel even with her dark glasses on?'}, {'role': 'user', 'content': 'false assumption that she still has her glasses on'}, {'role': 'assistant', 'content': 'Did the woman lose her dark glasses during the bus ride?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she leave her glasses in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman remove her glasses before or during the bus ride?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses when they entered the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses after entering the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Had she removed her glasses before boarding the bus to city A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's state of mind change after taking off her glasses?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's glasses have a special feature or property?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does her glasses being off in the tunnel mean that she expected to see darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses due to an event or circumstance in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman lose or damage her glasses in City B?'}, {'role': 'user', 'content': 'no, stop asking questions about the glasses'}, {'role': 'assistant', 'content': 'Did the woman experience a change in her vision during her time in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the change in her vision cause her distress or discomfort?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone alter her vision intentionally while she was in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change in her vision permanent?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change made to her vision done against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman pay someone to alter her vision in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.'}, {'role': 'user', 'content': 'not really, ask about her condition in city a and after the surgery in city b'}, {'role': 'assistant', 'content': 'Did the woman have normal vision when she left City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman blind or had a serious vision problem when she left City A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After the surgery in City B, was the woman able to see?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but did she already know that she could see?'}, {'role': 'assistant', 'content': 'Did the woman not realize she could see until she was in the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.'}, {'role': 'user', 'content': 'no, when did she check if she could see?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see while she was inside the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel."}, {'role': 'user', 'content': 'she did not know yet if she could see, why did she jump?'}, {'role': 'assistant', 'content': 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'assistant', 'content': 'Was the woman already dead before she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die because of an explosion caused by lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die from smoke or gas inhalation after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die instantaneously after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman alone when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the person she was with relevant to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman killed by the person she was with after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she die of natural causes (like heart attack) after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in some sort of vehicle when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in an enclosed space when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman die from lack of oxygen after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the lighter have anything 'special' or 'unusual' about it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the enclosed space underwater or in space?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's death directly caused by her lighting the lighter?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the lighting of the lighter cause an event that indirectly led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman in a coffin when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.'}, {'role': 'user', 'content': 'partly correct. ask about the other person'}, {'role': 'assistant', 'content': 'Was the other person with her in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person die as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "So, was the other person a creature that doesn't need air to survive?"}, {'role': 'user', 'content': 'no, he was already dead'}, {'role': 'assistant', 'content': "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral."}, {'role': 'user', 'content': 'seing the other person while lighting the lighter made her realise somthing'}, {'role': 'assistant', 'content': 'Did she recognize the dead person in the coffin with her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the dead person someone she was close to?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the dead person have something to do with her being in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed."}, {'role': 'user', 'content': 'no, ask about the occupation of the dead man'}, {'role': 'assistant', 'content': 'Was the dead man a mortician or funeral director?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.'}, {'role': 'user', 'content': 'ask more about herself and the relation to the mortician'}, {'role': 'assistant', 'content': 'Was the woman a patient or client of the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman work with the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman a criminal?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman kill the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman fake her own death or was she running away from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman plan to rob the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman hiding from the law or someone else in the coffin?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman plan to replace the mortician's body with a different body?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some sort of deal or arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman plan to be buried alive as part of her arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.'}, {'role': 'user', 'content': 'not a criminal plot. where was she before?'}, {'role': 'assistant', 'content': 'Was the woman in prison before she was in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in the morgue before she was in the coffin?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Was the woman trying to escape prison by being buried alive and then dug up later?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'user', 'content': ' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions'}, {'role': 'assistant', 'content': ' Was the woman ill before lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the act of lighting the lighter cause her death?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alive when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman in a dangerous or risky environment when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a human?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did her death occur immediately after lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the lighter have any special or unusual characteristics?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alone when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Was the woman's death due to natural causes?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die due to an explosion or fire caused by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she suffocate because of the smoke or fumes created by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did someone else cause her death?'}, {'role': 'user', 'content': ' not really'}, {'role': 'assistant', 'content': ' Was the woman part of an act or performance when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she ingest or inhale anything harmful from the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die in a closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the space she died in a type of transport?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the space she died in lack oxygen?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she intentionally trying to die?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in submerged in water?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in naturally devoid of breathable air?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman in a spaceship or spacecraft when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she in outer space when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman trapped in the closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman already in a coffin when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' she was not alone in the coffin'}, {'role': 'assistant', 'content': " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried."}, {'role': 'user', 'content': ' ask about this other person'}, {'role': 'assistant', 'content': ' Was the other person alive when the woman lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person dead before the woman was put into the coffin?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person on purpose?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person a male?'}, {'role': 'user', 'content': ' not relevant'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a part of a ritual or custom?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person because there was no space in the grave site for another coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a form of punishment?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person in the coffin a loved one of the woman?'}, {'role': 'user', 'content': ' no '}, {'role': 'assistant', 'content': ' Did the woman know the other person in the coffin before they were buried together?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did the woman kill the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Did the woman's place of work or occupation have anything to do with her being buried with the other person?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a body double or stunt double for the dead person in the coffin?'}, {'role': 'user', 'content': ' no, ask about where she was before she was in the coffin'}, {'role': 'assistant', 'content': ' Was the woman in a hospital or medical facility before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at her place of work before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the location of death of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman attend the funeral of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the morgue before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the cemetery before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?'}, {'role': 'user', 'content': ' no, she was in prison'}, {'role': 'assistant', 'content': ' Was the woman in prison for a crime related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' this was the plan yes to be buried. But ask about the other person in the coffin'}, {'role': 'assistant', 'content': " Was the other person in the coffin an accomplice or involved in the woman's escape plan?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried."}, {'role': 'user', 'content': ' false assumption of other prisoner inside the coffin'}, {'role': 'assistant', 'content': ' Was the other person in the coffin someone who was not a prisoner?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried."}, {'role': 'user', 'content': ' what was the occupation of the accomplice?'}, {'role': 'assistant', 'content': ' Was the accomplice the cemetery worker or grave digger?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man ever tasted albatross before this incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly identified the dish as albatross when it was not?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any particular reactions (allergic or emotional) towards albatross?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man associated with an albatross in any traumatic past experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was this traumatic experience related to a lost loved one?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the traumatic experience related to being stranded or lost at sea?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he eat an albatross during this traumatic experience?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he believe he had eaten albatross during this traumatic experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man have a prior encounter with albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions'}, {'role': 'assistant', 'content': 'Did the man die?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there poison in the drink that the man had?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any allergies?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing medical condition that might have caused his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman do anything to the man's drink after they were served by the bartender?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks come into contact with anything else after they were served?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman drink her drink faster than the man?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die as a result of a delayed reaction to something in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the bartender involved in the man's death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did anyone else manipulate the man's drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.'}, {'role': 'user', 'content': 'why was the woman not affected?'}, {'role': 'assistant', 'content': 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink get neutralized over time or by exposure to air?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there ice in the drink?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. '}, {'role': 'assistant', 'content': 'Did the drink contain poison?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone else at the pub harm the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing health condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man consume anything else besides the drink before his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks have different temperatures?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drink something else other than the drink he ordered at the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was there something in the man's glass before the drink was poured?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they drink at different speeds?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drink faster than the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So the man died because he drank slower than the woman, correct?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the drink they ordered an alcoholic beverage?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Did the man die from some type of external event or trigger while they were in the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something deadly or toxic within the drinks that got neutralized over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on his drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in the drink that naturally sank to the bottom over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman do something to her drink before consuming it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drink they had ordered originally contain something harmful?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the ice in their drinks have anything to do with the death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's ice melt before she consumed her drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the man's drink contain a harmful substance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}]</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Linthe Van Rooij: Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'Thijs : Is her death related to the shoes', 'Linthe Van Rooij: yes', 'Thijs : Are they regular shoes?', 'Linthe Van Rooij: yes', 'Thijs : Is her friend willingly giving the shoes?', 'Linthe Van Rooij: yes', 'Thijs : Does her friend know about the death when it is happening', 'Linthe Van Rooij: no', 'Thijs : Did she die naturally?', 'Linthe Van Rooij: no', 'Thijs : She was murdered?', 'Linthe Van Rooij: no', 'Thijs : Accident?', 'Linthe Van Rooij: yes', 'Thijs : Did she trip because of the shoes?', 'Linthe Van Rooij: no', 'Thijs : Did sure have the shoes on when she died?', 'Linthe Van Rooij: yes', 'Thijs : Was there anything off about the shoes?', 'Linthe Van Rooij: no', 'Thijs : Was there anyone else involved in her death', 'Linthe Van Rooij: yes', 'Thijs : Did that person want the shoes', 'Linthe Van Rooij: no', 'Thijs : Did they make the accident happen', 'Linthe Van Rooij: yes', 'Thijs : Was the accident at home', 'Linthe Van Rooij: yes', 'Thijs : Was it her husband?', 'Linthe Van Rooij: yes', 'Thijs : Was her husband having an affair with the friend', 'Linthe Van Rooij: no', 'Thijs : Did she die because of air restriction? E.g. choked', 'Linthe Van Rooij: no', 'Linthe Van Rooij: What where they doing together?', "Thijs : We're they dancing?", 'Linthe Van Rooij: no', "Thijs : We're they moving", 'Linthe Van Rooij: false assumption they', 'Thijs : Was she moving', 'Linthe Van Rooij: no', 'Thijs : Was he moving', 'Linthe Van Rooij: yes', 'Thijs : Did he kill her by accident', 'Linthe Van Rooij: yes', 'Thijs : Did he trip over the shoes', 'Linthe Van Rooij: no', 'Thijs : Did he stab her', 'Linthe Van Rooij: no', 'Thijs : Was he taking a shower', 'Linthe Van Rooij: no', 'Thijs : Were they eating', 'Linthe Van Rooij: no', 'Thijs : Sleeping?', 'Linthe Van Rooij: no', 'Thijs : Cooking', 'Linthe Van Rooij: no', 'Thijs : Did he scare her', 'Linthe Van Rooij: no', 'Thijs : Hint', 'Linthe Van Rooij: ask about the hobbies of the man', 'Thijs : Was he a shoe maker', 'Linthe Van Rooij: no', 'Thijs : Did he have a workshop', 'Linthe Van Rooij: no', 'Thijs : Anything clothes, food or fashion related hobbies?', 'Linthe Van Rooij: no', 'Thijs : Anything with weapons?', 'Linthe Van Rooij: yes', 'Thijs : Swords?', 'Linthe Van Rooij: no', 'Thijs : Guns', 'Linthe Van Rooij: no', 'Thijs : Bow and arrow', 'Linthe Van Rooij: yes', 'Thijs : Did her shoes look like a target', 'Linthe Van Rooij: no', 'Thijs : Did he shoot her with an arrow', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: what could have been different with other shoes', 'Thijs : Did he think she was an intruder', 'Linthe Van Rooij: no', 'Thijs : Did she have the same shoes as his targets', 'Linthe Van Rooij: no', 'Thijs : Was she taller because of the shoes', 'Linthe Van Rooij: yes', 'Thijs : Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Linthe Van Rooij: no', 'Thijs : Was she taller than a safety wall, so she could get hit', 'Linthe Van Rooij: no', 'Linthe Van Rooij: Could he see where he was aiming?', 'Thijs : Was he blind or blondfolded', 'Linthe Van Rooij: yes', 'Thijs : So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her', 'Linthe Van Rooij: ik keur hem goed!']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Thijs : Did she die in a fire or die from the smoke of the fire', 'Linthe Van Rooij: No', 'Thijs : Was she already burried?', 'Linthe Van Rooij: Yes', 'Thijs : Was she already presumed to be dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall in a coffin?', 'Linthe Van Rooij: No', 'Thijs : But she is in a coffin?', 'Linthe Van Rooij: Yes', 'Thijs : She lit the lighter to see that she was buried?', 'Linthe Van Rooij: No', 'Thijs : Was she mistaken for someone else?', 'Linthe Van Rooij: No', 'Thijs : Was she in the coffin by accident?', 'Linthe Van Rooij: No', 'Thijs : Was she looking for someone in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Did people already think that she was dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall asleep in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Was there anyone else involved in her death?', 'Linthe Van Rooij: Yes', 'Thijs : Did that person try to kill/murder her or accidentally kill her?', 'Linthe Van Rooij: No', 'Thijs : Was that person alive?', 'Linthe Van Rooij: No', 'Thijs : Did she suffocate?', 'Linthe Van Rooij: Yes', 'Thijs : Did she dig the hole that she was in herself?', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: Ask about the occupation of the other person involved', 'Thijs : Was the other person a gravedigger or involved at the graveyard?', 'Linthe Van Rooij: Yes', 'Thijs : Was there anyone else involved', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger digging her grave?', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger already dead when she met him?', 'Linthe Van Rooij: No', 'Thijs : Did they fight and she killed him?', 'Linthe Van Rooij: No', 'Thijs : Did she know him?', 'Linthe Van Rooij: Yes', 'Thijs : Was she related to him?', 'Linthe Van Rooij: No', 'Thijs : Were they partners', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Why did she lit the lighter inside the coffin?', 'Thijs : To set something on fire or to signal something?', 'Linthe Van Rooij: No', 'Thijs : To light a cigarette or to suffocate herself?', 'Linthe Van Rooij: No', 'Thijs : Was the other person with her inside or the coffin?', 'Linthe Van Rooij: Yes', 'Thijs : Did she light it to kill him or to do anything related to him?', 'Linthe Van Rooij: No', 'Thijs : Did she take a shortcut home through the graveyard?', 'Linthe Van Rooij: No', 'Thijs : Did the guy fall in the coffin?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about where she was before', 'Thijs : Was she at a funeral?', 'Linthe Van Rooij: No', 'Thijs : At a social event?', 'Linthe Van Rooij: No', 'Thijs : Was she visiting someone at the graveyard or was she running?', 'Linthe Van Rooij: No', 'Thijs : Was she walking', 'Linthe Van Rooij: No', 'Thijs : Was she scared of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Was she at home', 'Linthe Van Rooij: No', 'Thijs : Anything sport related or food related', 'Linthe Van Rooij: No', 'Thijs : Was she drunk or on drugs', 'Linthe Van Rooij: No', 'Thijs : Was she shopping or in town', 'Linthe Van Rooij: No', 'Thijs : Was it night', 'Linthe Van Rooij: Not relevant', 'Thijs : Was she driving around', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: She was a criminal/convict', 'Thijs : Did she just rob the house of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Did she rob someone who died', 'Linthe Van Rooij: No', 'Thijs : Did she just rob someone', 'Linthe Van Rooij: No', 'Thijs : Did she just murder someone?', 'Linthe Van Rooij: No', 'Thijs : Was she escaping prison', 'Linthe Van Rooij: Yes', 'Thijs : And she was hiding in the grave to escape the police?', 'Linthe Van Rooij: Yes', 'Thijs : And the gravedigger was an accomplice?', 'Linthe Van Rooij: Yes', 'Thijs : So they tried to hide from the police by hiding in the grave but they got locked in', 'Linthe Van Rooij: No', 'Thijs : She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'Linthe Van Rooij: She expected another person to be in the grave next to her', 'Thijs : She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her', 'Linthe Van Rooij: Allrightyy']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'Lynn van Zeijts: is one of them going to die after she leaves?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: do they have an important conversation after he received the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the men also has a weapon?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: will he take the knife of the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is she leaving with the knife in her hand?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men ask the women for a knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is one the men or the women getting injured?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: are there more people involved except the men &amp; women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know why the women decides to leave?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: False assumption woman leaves', 'Lynn van Zeijts: so HE leaves? (not she)', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did the  men pay for his coke?', 'Lynn van Zeijts: is the relation between the men &amp; women important?', 'Linthe Van Rooij: Not relevant', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women aimed to threaten him with the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women ask him to do something with the knife because she did not want to do something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men insult the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men do something which can be seen considerd as ethically wrong?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about why he orders something at the bar', 'Lynn van Zeijts: did he order a coke to celebrate something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something because had some medical emergency?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something for a negative reason?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was this negative reason related to the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this related to his work?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to his family live?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the fact that he order coke (and not another drink) important to understand the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he revelaed a secret?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men receive his coke before she grabbed the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men threatend the women as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: so did the women refused to give him the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the negative event happended shortly before he entered the cafe?', 'Linthe Van Rooij: No, it is still happening', 'Lynn van Zeijts: did they got into a fight?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men drink anything before he order the coke?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The drink could serve as a remedy for the event', 'Lynn van Zeijts: were there any other elements or objects involved, caused the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the coke dangerous for him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the negative event over once he leaves the cafe?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the women trying to help the men by showing the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does the men wants to kill himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to kill or injure him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: She only wants to scare him', 'Lynn van Zeijts: to protect herself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to protect and help him?', 'Linthe Van Rooij: Ask these questions seperately', 'Lynn van Zeijts: is the women trying to help the men by scaring him with the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.', 'Linthe Van Rooij: Yes!!!!!!! You got it']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man climbs out of a large vehicle and drowned himself', 'Lynn van Zeijts: is the vehicle still on land when he climbs out the vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle close to water as well?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other people in the vehicle as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this vehicle an airplane?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is this vehicle used for public transport?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it relevant to know the type of vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle made to be on land?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is it a tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he drown himself on purpose?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was he a farmer?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did something negative happened to his farming practices?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did something negative happened at all?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does this has anything to do with the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was the tractor broken?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the land, in which the tractor was located at that moment boggy?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the reason that he climbed out of the tractor had anything to do with the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the water in which he drowned himself close to the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other objects or people involved in the negative event?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were there any people in the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he wanted to go to the other people?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the drowning happened right after he climbed out of the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: did the other people influenced him in stepping out of the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was it dangerous for him to stay in the vehicle?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people also with tractors? n', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know how he exactly climbed out of the tractor?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about the relationship with the people involved', 'Lynn van Zeijts: did the other people wanted him to drown himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people wanted to save him?', 'Lynn van Zeijts: did he know the other people before?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: was it an accident that he drowned?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people saw something which the men could not see (when he was still in the tractor)?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the other people also farmers?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people angry at him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the know eachother for a long time?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they employees?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: family?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they close to the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was there a fight or any other negative event between the men and his family?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were there any childern involved?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the childeren outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he climbed out the tractor for his childern?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was his kid in a dangerous situation?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he aimed to save his kid by climbing out of the tractor?', 'Lynn van Zeijts: did he cause the dangerous situation?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he accidently killed his kid with his tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'PiÃ±a: Did someone die?', 'PiÃ±a: Are they loved ones?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Were they playing checkers together?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner do something with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner kill the loser with the pistol?', 'Linthe Van Rooij: No', 'PiÃ±a: Is someone going to shoot with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did the woman win?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Did the man or woman shot another person in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Were there other people in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Did someone shoot in the air?', 'Linthe Van Rooij: No', 'PiÃ±a: Did one of the two people kill the other?', 'Linthe Van Rooij: No', 'PiÃ±a: I mean did one shot the other?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot but not on a person?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: there was no shot but there is going to be', 'PiÃ±a: Can the winner use the pistol to make a shot?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Will the winner of the game shoot the other player after winning the game of checkers?', 'Linthe Van Rooij: No', 'PiÃ±a: Will someone die in the future?', 'Linthe Van Rooij: Yes', 'PiÃ±a: One of the two players?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The winner?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The loser is so sad and mad that they shot the winner?', 'Linthe Van Rooij: No', 'PiÃ±a: They are playing the game because someone has to die?', 'Linthe Van Rooij: No', 'PiÃ±a: The winner shot themselves?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is the why of this question relevant?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Ask about the location', 'PiÃ±a: Were they in jail?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in a bar?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in an unusual place to play the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Were they outside?', 'Linthe Van Rooij: No', 'PiÃ±a: At someoneâ€™s house?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they going from a place to another place while playing the game?', 'Linthe Van Rooij: No', 'PiÃ±a: This is so hard, can you give me another hint', 'Linthe Van Rooij: They are in some kind of vehicle', 'PiÃ±a: In a plane?', 'Linthe Van Rooij: No', 'PiÃ±a: In a train?', 'Linthe Van Rooij: No', 'PiÃ±a: In a bus?', 'Linthe Van Rooij: No', 'PiÃ±a: In a car?', 'Linthe Van Rooij: No', 'PiÃ±a: In a boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did someone shoot a hole in the boat?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The type of boat is relevant to the story', 'PiÃ±a: Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is it a cruise?', 'Linthe Van Rooij: No', 'PiÃ±a: A big boat?', 'Linthe Van Rooij: No', 'PiÃ±a: Or a small boat for just the two of them?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A rowing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: A rubber boat?', 'Linthe Van Rooij: No', 'PiÃ±a: The boat was big enough for a table right?', 'Linthe Van Rooij: Yes', 'PiÃ±a: An expensive boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A yacht?', 'Linthe Van Rooij: No', 'PiÃ±a: A sailing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: I just named all boat types haha, do I have to go in a different direction?', 'Linthe Van Rooij: Yes, under water', 'PiÃ±a: A submarine?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is why they were there relevant?', 'Linthe Van Rooij: No', 'PiÃ±a: What am I missing?', 'Linthe Van Rooij: Why would you want to shoot yourself in a submarine?', 'PiÃ±a: Because the person was getting crazy?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the submarine still able to go up after the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: So the person killed everyone in the submarine by the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the shot on themselves intentional?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Does the why they wanted to shot themselves have to do with the game?', 'Linthe Van Rooij: No', 'PiÃ±a: Did it have something to do with the other person?', 'Linthe Van Rooij: No', 'PiÃ±a: Give me more hints please haha I am done with this game', "Linthe Van Rooij: The game is a result of that the submarine can't go up", 'PiÃ±a: Am I even close? I am so bad at this', 'Linthe Van Rooij: Your almost there!!!', 'PiÃ±a: The person who shot themselves was the driver?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: They were forever stuck there?', 'Linthe Van Rooij: Yes', 'PiÃ±a: They already knew that they were stuck before playing the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: There was just one bullet?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause Lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the height from the shoes lead to Lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the person who had direct contact with Lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person attack Lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Could the danger have been avoided if Lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the fatal incident involving Lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the other person mistake Lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the other person attack Lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'No you are not there yet. You are keeping it very vague.'}, {'role': 'assistant', 'content': 'Was Lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "You're missing some details. Explore the relationships and circumstances."}, {'role': 'assistant', 'content': "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. Why and who shot at Lola?'}, {'role': 'assistant', 'content': "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Did Lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve Lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes Lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. But there is more to it. What is the context? And with what was she shot'}, {'role': 'assistant', 'content': 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "Not there yet. She didn't go to a friend's place."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "Almost there! Start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'assistant', 'content': 'Did the man know the woman behind the bar?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man order anything else besides the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman behind the bar intend to harm the man with the knife?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's action with the knife serve a purpose other than harm or threat?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to open something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to prepare the glass of coke in some way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate or signal something to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out a specific detail or object to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to stir or mix something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something from the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to retrieve something from behind the bar?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out an unusual or unexpected situation to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to draw the man's attention to a message or writing?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate to the man that she was out of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to point out a problem or issue with the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to gesture towards something else in the cafe?'}, {'role': 'user', 'content': "she didn't use the knife to point anything out or signal something."}, {'role': 'assistant', 'content': "Was the woman's action with the knife accidental?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or slice something for the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man in some way?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with something personal, like opening a package or letter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a physical ailment or injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with something related to his clothing or accessories?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a technical or mechanical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his physical appearance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his identification or documentation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his health or well-being?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something harmful or dangerous from the man's person?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?'}, {'role': 'user', 'content': 'she meant to scare him.'}, {'role': 'assistant', 'content': "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?'}, {'role': 'user', 'content': 'no. what usually goes away when you get a scare?'}, {'role': 'assistant', 'content': 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}, {'role': 'user', 'content': 'but why did he order coke?'}, {'role': 'assistant', 'content': 'Did the man order coke specifically because he believed it would help with his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.'}, {'role': 'assistant', 'content': 'Did the woman threaten the man with the knife?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man asking for the knife instead of the coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man need the knife for a reason unrelated to violence?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife part of a magic trick or performance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use the knife to address a medical condition or emergency?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a prearranged signal or code between them'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to open or prepare the coke in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to communicate a message or signal understood by the man but not related to a threat'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man specifically request the woman to point the knife at him for any reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the presence of the knife relevant to the reason why the man thanked the woman and left'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man in response to something he did or said after ordering the coke'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the woman's action with the knife a standard practice or ritual in this cafe"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she point the knife at him to help him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to help him make a decision or realize something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to assist him with a physical task or action'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to draw his attention to something specific'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to warn him about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to convey a message that was not related to danger or warning'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to signal that she was impressed or surprised by something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man by pointing the knife at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of amusement or prank'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to test his reaction or assess his character'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to convey a message or make a point about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man because she mistook him for someone else'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to elicit a specific response from him'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of greeting or initiation'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to discourage him from returning to the cafe'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a reaction to something he did or said'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as part of a tradition or cultural practice'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his bravery or reaction under pressure'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to her own safety or protection"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of retaliation for something he did or said?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to play a practical joke or prank on him?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome a fear or phobia?'}, {'role': 'user', 'content': 'what is usually believed to go away when you get a scare?'}, {'role': 'assistant', 'content': "Does the woman want to scare the man to help him sober up if he's drunk?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.'}, {'role': 'user', 'content': 'How does the coke fit into this?'}, {'role': 'assistant', 'content': 'Did the man believe that drinking the glass of coke would help his hiccups go away?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself'}, {'role': 'assistant', 'content': 'Was the large vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the large vehicle an unusual place for someone to be?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle submerged or partially submerged in water when the man climbed out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown in water located inside the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use something from the vehicle to help him drown himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown immediately after exiting the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the method of drowning related to a liquid other than water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': "Was the man's occupation relevant to the story?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the large vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's occupation directly contribute to his decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's mental state affected by an event that occurred while he was in the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the event involve other people?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the event traumatic or distressing?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event cause the man to feel responsible or guilty?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event involve an accident with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the accident caused by the man's actions or negligence?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm or death to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?"}, {'role': 'user', 'content': "you are in the right direction. You're not there yet. We are missing a lot of details."}, {'role': 'assistant', 'content': 'Did the man kill a family member or someone close to him in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a bus or truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle related to public transportation, such as a taxi or rideshare?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like a camper or RV?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a construction vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle involved in agriculture, like a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man accidentally cause the death of his own child in the accident?'}, {'role': 'user', 'content': 'more than one child'}, {'role': 'assistant', 'content': "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?"}, {'role': 'user', 'content': 'how did it happen?'}, {'role': 'assistant', 'content': 'Did the accident happen while the children were riding with the man in the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the accident occur on the man's property, such as a farm?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing in the field where the man was working with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}]</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself.'}, {'role': 'assistant', 'content': 'Did the man drown immediately after climbing out of the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man intentionally drown himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the vehicle's location or condition directly lead to the man's decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle moving when the man decided to exit it?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself in water that was carried or contained within the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the vehicle's type or purpose relevant to the man's decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have an occupation or role that is relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the man's occupation related to the large vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's decision to drown himself result from an incident involving the vehicle he was operating?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the incident that led to the man's decision to drown himself an accident involving the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drown himself out of guilt or remorse for the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The story involves a man who was a driver or operator of a large vehicle. While operating this vehicle, he was involved in an accident that resulted in harm to others. Overwhelmed by guilt or remorse for the consequences of this accident, the man made the decision to end his life by drowning himself. This tragic outcome was influenced not by the immediate circumstances of the accident, but by the man's emotional response to the harm caused to others."}, {'role': 'user', 'content': 'I want more specific details. For example, vehicle, location, and who got hurt.'}, {'role': 'assistant', 'content': 'Was the large vehicle a bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle used for commercial purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like an RV or a camper?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a special-purpose vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle used primarily for transporting goods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a personal mode of transport, like a car or motorcycle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the vehicle's primary purpose for construction or agriculture?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve the tractor causing harm to someone on a farm?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drown himself out of guilt for causing harm or death to a family member in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The story revolves around a man who was operating a tractor, likely on a farm, which is a setting common for such vehicles. While he was using the tractor, an accident occurred that resulted in harm or possibly the death of a family member. This tragic event was not a consequence of the man's professional duties beyond the immediate operation of the vehicle but stemmed from a deeply personal and devastating incident. The man, overwhelmed by guilt or remorse for the accident and the harm caused to his family member, made the heart-wrenching decision to end his own life by drowning. The location or specifics of where he drowned are not detailed in the story, but his actions were driven by the emotional weight of the tragedy and his inability to cope with the guilt."}, {'role': 'user', 'content': 'More details. how did it happen and who died?'}, {'role': 'assistant', 'content': 'Did the accident involve a child?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident occur because the man did not see the child while operating the tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing near the tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing in a field where the tractor was being used?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing in the field because they considered it a usual play area, not recognizing the danger of the operating tractor?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': "Was the man unaware of the child's presence in the field while he was operating the tractor?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing alone in the field?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the child playing with other children in the field?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing together in the field siblings?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, in a devastating turn of events, a man operating a tractor in a field accidentally struck and killed all of his children, who were playing there. Stricken with unbearable guilt, he later drowned himself, overwhelmed by the loss of his children the tragic accident.'}]</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A man opens his duffle bag. When he finds a dead woman inside, he takes his own life.', 'Lynn Sirene: is the woman human?', 'Linthe Van Rooij: yes', 'Lynn Sirene: is the man human?', 'Linthe Van Rooij: yes', 'Lynn Sirene: do they know each other?', 'Linthe Van Rooij: yes', 'Lynn Sirene: is the duffle bag from the man?', 'Linthe Van Rooij: yes', 'Lynn Sirene: does the woman fit in one piece in the duffle bag?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did the man lose the duffle bag for a period of time?', 'Linthe Van Rooij: no', 'Lynn Sirene: did the man kill the woman?', 'Linthe Van Rooij: no', 'Lynn Sirene: are they married/partners?', 'Linthe Van Rooij: yes', 'Lynn Sirene: for a long time?', 'Linthe Van Rooij: not relevant', 'Lynn Sirene: did the woman die of an accident?', 'Linthe Van Rooij: yes', 'Lynn Sirene: caused by herself?', 'Linthe Van Rooij: no', 'Lynn Sirene: caused by the man?', 'Linthe Van Rooij: no', 'Lynn Sirene: caused by someone she or he knows?', 'Linthe Van Rooij: no', 'Lynn Sirene: did she die of a gunshot?', 'Linthe Van Rooij: no', 'Lynn Sirene: was she hit to death?', 'Linthe Van Rooij: no', 'Lynn Sirene: hit by a car?', 'Linthe Van Rooij: no', 'Lynn Sirene: overdose?', 'Linthe Van Rooij: no', 'Lynn Sirene: is it relevant how she died?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was the man there when she died', 'Linthe Van Rooij: where would you bring a bag?', 'Linthe Van Rooij: no', 'Lynn Sirene: to the gym?', 'Linthe Van Rooij: no', 'Lynn Sirene: holiday?', 'Linthe Van Rooij: no', 'Lynn Sirene: work?', 'Linthe Van Rooij: no', 'Lynn Sirene: was she alive when she first got in the bag?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did she get in the bag voluntarily?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was it part of a game?', 'Linthe Van Rooij: no', 'Lynn Sirene: did she stay in the bag for a long time?', 'Linthe Van Rooij: no', 'Lynn Sirene: a day', 'Linthe Van Rooij: no', 'Lynn Sirene: couple of hours?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was he there when she got in the bag?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did she get in te bag and died on the same day?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did he ever leave the bag during that period?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did he leave it voluntarily?', 'Linthe Van Rooij: yes', 'Lynn Sirene: hint please haha', 'Linthe Van Rooij: Ask about the type of vehicle that is involved', 'Lynn Sirene: was a car involved?', 'Linthe Van Rooij: no', 'Lynn Sirene: was a plane involved?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did she get in the loading space of a plane?', 'Linthe Van Rooij: yes', 'Lynn Sirene: is that how she died, of suffocation or lack of oxygen?', 'Linthe Van Rooij: yes', 'Lynn Sirene: were they too poor to buy 2 tickets for the plane?', 'Linthe Van Rooij: no', 'Lynn Sirene: did they plan on going on the plane?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was she illegally getting in the country?', 'Linthe Van Rooij: yes', 'Lynn Sirene: okay so, she was illegally trying to get in the country so she hid in a bag that he dropped off, she died in the storage area in the plane and when he discovered that he was so hearbroken that he killed himself?']</t>
+  </si>
+  <si>
+    <t>['Linthe Van Rooij: A dead woman is lying in a sauna; next to her, a water bottle', 'Lynn Sirene: is the bottle relevant for the story?', 'Linthe Van Rooij: yes', 'Lynn Sirene: is it empty?', 'Linthe Van Rooij: no', 'Lynn Sirene: does it contain water?', 'Linthe Van Rooij: yes', 'Lynn Sirene: anything else besides water?', 'Linthe Van Rooij: no', 'Lynn Sirene: is it hers?', 'Linthe Van Rooij: no', 'Lynn Sirene: when she got in te sauna, where there other people already in there?', 'Linthe Van Rooij: no', 'Lynn Sirene: was she still alive when she got in the sauna?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did she die of an accident?', 'Linthe Van Rooij: no', 'Lynn Sirene: did someone kill her?', 'Linthe Van Rooij: yes', 'Lynn Sirene: someone she knows?', 'Linthe Van Rooij: not relevant', 'Lynn Sirene: is the water bottle from te killer?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was it a man or woman that killed her?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was it a man that killed her?', 'Linthe Van Rooij: not relevant', 'Lynn Sirene: is the water bottle the murder weapon?', 'Linthe Van Rooij: no', 'Lynn Sirene: were there other people in the sauna when she died?', 'Linthe Van Rooij: No', 'Lynn Sirene: were there other people there before she died? besides the murderer', 'Linthe Van Rooij: no', 'Lynn Sirene: is the sauna in her house or on her property?', 'Linthe Van Rooij: not relevant', 'Lynn Sirene: was killing her planned?', 'Linthe Van Rooij: yes', 'Lynn Sirene: was it planned to kill her in the sauna?', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: ask about the murder weapon, it has something to do with the sauna and the water bottle', 'Lynn Sirene: did she die of suffocation?', 'Linthe Van Rooij: no', 'Lynn Sirene: gunshot?', 'Linthe Van Rooij: no', 'Lynn Sirene: beaten?', 'Linthe Van Rooij: no', 'Lynn Sirene: did the murderer pour more water on the coals?', 'Linthe Van Rooij: no', 'Lynn Sirene: was she awake when she was killed?', 'Linthe Van Rooij: not relevant', 'Lynn Sirene: did the killer use the water botte to kill her?', 'Linthe Van Rooij: no', 'Lynn Sirene: did she ever drink from the water bottle?', 'Linthe Van Rooij: no', 'Lynn Sirene: was it already there when she entered the sauna?', 'Linthe Van Rooij: no', 'Lynn Sirene: was she poisoned?', 'Linthe Van Rooij: no', 'Lynn Sirene: did the murderer leave the water bottle on purpose?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did she die after the killer left?', 'Linthe Van Rooij: not relevant', 'Lynn Sirene: hours?', 'Lynn Sirene: did the killer ever touched the woman?', 'Linthe Van Rooij: no', 'Linthe Van Rooij: but the killing was physical', 'Lynn Sirene: did she recognize the water bottle?', 'Linthe Van Rooij: no', 'Lynn Sirene: so to kill her he did touch her?', 'Linthe Van Rooij: not directly, how can you kill someone aside from gunshot, beaten etc.', 'Lynn Sirene: did she kill herself?', 'Linthe Van Rooij: no', 'Lynn Sirene: strangling?', 'Linthe Van Rooij: no', 'Lynn Sirene: knife?', 'Linthe Van Rooij: no, but stabbing yes', 'Lynn Sirene: is the water bottle in one piece?', 'Linthe Van Rooij: yes', 'Lynn Sirene: did she ever touch the water bottle?', 'Linthe Van Rooij: no', 'Lynn Sirene: okay, she was alone in the sauna, the killer came in with the water bottle, stabbed her with something, left the sauna but left the water bottle behind?', 'Linthe Van Rooij: so far so good, ask about the location of the murder weapon', 'Lynn Sirene: is the murder weapon in the sauna?', 'Linthe Van Rooij: no', 'Lynn Sirene: is it near her?', 'Linthe Van Rooij: yes', 'Lynn Sirene: is the murder weapon outside the sauna?', 'Linthe Van Rooij: no', 'Lynn Sirene: is the sauna the murder weapon?', 'Linthe Van Rooij: no', 'Lynn Sirene: does the water bottle have anything to do with the murder weapon', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: if the murder weapon was outside the sauna, it would have been found', "Lynn Sirene: but it's also not in the sauna?", 'Lynn Sirene: but it is near her?', 'Linthe Van Rooij: no', 'Lynn Sirene: did the murderer take it away?', 'Linthe Van Rooij: no', 'Lynn Sirene: is it the thing that you arrange the coals with?', 'Linthe Van Rooij: no', 'Linthe Van Rooij: ask about the states of water', 'Lynn Sirene: was it a frozen ice dagger?', 'Linthe Van Rooij: yes', 'Lynn Sirene: is that the water in the bottle?', 'Linthe Van Rooij: yes', 'Lynn Sirene: okay so the woman was stabbed with a frozen ice dagger that was left behind in the water bottle by the killer and melted']</t>
+  </si>
+  <si>
     <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
   </si>
   <si>
+    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die of natural causes?', 3: 'Did the man die of exposure to the elements?', 4: 'Did he die from a self-inflicted injury?', 5: 'Did he die due to an accident?', 6: 'Was the accident related to a vehicle?', 7: 'Was it a car accident?', 8: 'Was the accident related to an aircraft?', 9: 'Did the man jump out of the aircraft?', 10: 'Was the man the pilot of the aircraft?', 11: 'Was the man a passenger on the aircraft?', 12: 'Did the aircraft crash into the man?', 13: "Did the aircraft drop something that directly caused the man's death?", 14: 'Was the man hit by a falling object from the aircraft?', 15: 'Did the man die trying to catch something that was falling from the aircraft?', 16: "Did the man's death involve a parachute?", 17: "Did the man's death involve an object that was intended to save his life?", 18: "Did the man's death involve a packed object that got deployed accidentally?", 19: "Did the man's death involve an object that was intended to be used in a survival situation?", 20: 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?', 21: 'Was he detached from the aircraft in mid-air, leading to his death?', 22: 'Did the man fall out of the aircraft?', 23: 'Did the man fall out of the aircraft without a parachute?', 24: 'Did the man fall out of the aircraft because the door was accidentally opened?', 25: 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?', 26: 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?', 27: 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?', 28: 'Was the man trying to enter or exit the aircraft when he fell out?', 29: 'Did the man fall out of the aircraft as a result of a fight or altercation on board?', 30: 'Did the man fall out of the aircraft during a routine operation or procedure?', 31: 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?', 32: 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?', 33: 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?', 34: 'Was the man pushed out of the aircraft?', 35: 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?', 36: 'Did the man fall out of the aircraft while it was on the ground?', 37: 'Did the man fall out of the aircraft while it was taking off or landing?', 38: 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?', 39: 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?', 40: 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?', 41: 'Did the man fall out because the floor of the aircraft gave way?', 42: 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?', 43: 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?', 44: 'Did the man fall out of the aircraft because another person on that aircraft made him do it?', 45: 'Did something in the aircraft malfunction, causing him to fall out?', 46: 'Did the man fall out due to an explosion in the aircraft?', 47: 'Did the man fall out of the aircraft because an animal in the aircraft caused it?', 48: 'Was the aircraft used for commercial travel?', 49: 'Was the aircraft used for military purposes?', 50: 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?', 51: 'Was the aircraft being used for cargo transportation?', 52: 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?', 53: 'Was the aircraft used for scientific research?', 54: 'Was the aircraft being used for private/personal use?', 55: 'Was the aircraft being used for a rescue mission?', 56: 'Was the aircraft being used for air ambulance or medical evacuation purposes?', 57: 'Was the aircraft being used for firefighting purposes?', 58: 'Did the man fall out of the aircraft while it was releasing water or fire retardant?', 59: 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.', 60: 'Was the man actually inside the aircraft when it took off?', 61: 'Was the man already in the area for another purpose when the aircraft arrived?', 62: "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?", 63: 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?', 64: "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?", 52: 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?', 53: 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?', 54: 'Did the woman not realize she could see until she was in the dark tunnel?', 55: 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.', 56: 'Did the woman check if she could see while she was inside the dark tunnel?', 57: "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel.", 58: 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?', 59: 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the woman already dead before she lit the lighter?', 2: 'Did the woman die because of an explosion caused by lighting the lighter?', 3: 'Did the woman die from smoke or gas inhalation after she lit the lighter?', 4: 'Did the woman die instantaneously after lighting the lighter?', 5: 'Was the woman alone when she lit the lighter?', 6: 'Is the person she was with relevant to her death?', 7: 'Was the woman killed by the person she was with after she lit the lighter?', 8: 'Did the woman have a terminal illness?', 9: 'Did she die of natural causes (like heart attack) after lighting the lighter?', 10: 'Was the woman in some sort of vehicle when she lit the lighter?', 11: 'Was the woman in an enclosed space when she lit the lighter?', 12: 'Did the woman die from lack of oxygen after lighting the lighter?', 13: "Did the lighter have anything 'special' or 'unusual' about it?", 14: 'Was the enclosed space underwater or in space?', 15: "Was the woman's death directly caused by her lighting the lighter?", 16: 'Did the lighting of the lighter cause an event that indirectly led to her death?', 17: "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?", 18: 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?', 19: 'Was the woman in a coffin when she lit the lighter?', 20: 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.', 21: 'Was the other person with her in the coffin?', 22: 'Did the other person die as well?', 23: "So, was the other person a creature that doesn't need air to survive?", 24: "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral.", 25: 'Did she recognize the dead person in the coffin with her?', 26: 'Is the dead person someone she was close to?', 27: 'Did the dead person have something to do with her being in the coffin?', 28: "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed.", 29: 'Was the dead man a mortician or funeral director?', 30: 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.', 31: 'Was the woman a patient or client of the mortician?', 32: 'Did the woman work with the mortician?', 33: 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?', 34: 'Was the woman a criminal?', 35: 'Did the woman kill the mortician?', 36: 'Did the woman fake her own death or was she running away from something?', 37: 'Did the woman plan to rob the mortician?', 38: 'Was the woman hiding from the law or someone else in the coffin?', 39: "Did the woman plan to replace the mortician's body with a different body?", 40: 'Did the woman have some sort of deal or arrangement with the mortician?', 41: 'Did the woman plan to be buried alive as part of her arrangement with the mortician?', 42: 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.', 43: 'Was the woman in prison before she was in the coffin?', 44: "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral.", 45: 'Was the woman in the morgue before she was in the coffin?', 46: 'Was the woman trying to escape prison by being buried alive and then dug up later?', 47: "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}</t>
+  </si>
+  <si>
+    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man ever tasted albatross before this incident?', 2: 'Did the man mistakenly identified the dish as albatross when it was not?', 3: 'Did the man have any particular reactions (allergic or emotional) towards albatross?', 4: 'Was the man associated with an albatross in any traumatic past experience?', 5: 'Was this traumatic experience related to a lost loved one?', 6: 'Was the traumatic experience related to being stranded or lost at sea?', 7: 'Did he eat an albatross during this traumatic experience?', 8: 'Did he believe he had eaten albatross during this traumatic experience?', 9: 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?', 10: 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man have a prior encounter with albatross before his visit to the restaurant?', 2: 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?', 3: 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?', 4: 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?', 5: 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?', 6: "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man die?', 2: 'Was there poison in the drink that the man had?', 3: 'Did the man have any allergies?', 4: 'Did the man have a pre-existing medical condition that might have caused his death?', 5: "Did the woman do anything to the man's drink after they were served by the bartender?", 6: 'Did the drinks come into contact with anything else after they were served?', 7: 'Did the man choke on the drink?', 8: 'Did the woman drink her drink faster than the man?', 9: 'Did the man die as a result of a delayed reaction to something in the drink?', 10: "Was the bartender involved in the man's death?", 11: "Did anyone else manipulate the man's drink?", 12: 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?', 13: 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.', 14: 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.', 15: 'Did the harmful substance in the drink get neutralized over time or by exposure to air?', 16: 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?', 17: 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?', 18: "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?", 19: 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?', 20: 'Was there ice in the drink?', 21: 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?', 22: "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?", 23: 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the drink contain poison?', 2: 'Did the woman die?', 3: 'Did someone else at the pub harm the man?', 4: 'Did the man have a pre-existing health condition?', 5: 'Did the man consume anything else besides the drink before his death?', 6: 'Did the drinks have different temperatures?', 7: 'Did the man drink something else other than the drink he ordered at the pub?', 8: "Was there something in the man's glass before the drink was poured?", 9: 'Did they drink at different speeds?', 10: 'Did the man drink faster than the woman?', 11: 'So the man died because he drank slower than the woman, correct?', 12: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.', 13: 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?', 14: 'Was the drink they ordered an alcoholic beverage?', 15: 'Did the man die from some type of external event or trigger while they were in the pub?', 16: 'Was there something deadly or toxic within the drinks that got neutralized over time?', 17: 'Did the man choke on his drink?', 18: 'Was there something harmful in the drink that naturally sank to the bottom over time?', 19: 'Did the woman do something to her drink before consuming it?', 20: 'Did the drink they had ordered originally contain something harmful?', 21: 'Did the ice in their drinks have anything to do with the death?', 22: "Did the woman's ice melt before she consumed her drink?", 23: "Did the ice in the man's drink contain a harmful substance?", 24: "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?", 25: "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise.", 26: 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?', 27: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}</t>
+  </si>
+  <si>
+    <t>['Is her death related to the shoes', 'Are they regular shoes?', 'Is her friend willingly giving the shoes?', 'Does her friend know about the death when it is happening', 'Did she die naturally?', 'She was murdered?', 'Accident?', 'Did she trip because of the shoes?', 'Did sure have the shoes on when she died?', 'Was there anything off about the shoes?', 'Was there anyone else involved in her death', 'Did that person want the shoes', 'Did they make the accident happen', 'Was the accident at home', 'Was it her husband?', 'Was her husband having an affair with the friend', 'Did she die because of air restriction? E.g. choked', "We're they dancing?", "We're they moving", 'Was she moving', 'Was he moving', 'Did he kill her by accident', 'Did he trip over the shoes', 'Did he stab her', 'Was he taking a shower', 'Were they eating', 'Sleeping?', 'Cooking', 'Did he scare her', 'Hint', 'Was he a shoe maker', 'Did he have a workshop', 'Anything clothes, food or fashion related hobbies?', 'Anything with weapons?', 'Swords?', 'Guns', 'Bow and arrow', 'Did her shoes look like a target', 'Did he shoot her with an arrow', 'Did he think she was an intruder', 'Did she have the same shoes as his targets', 'Was she taller because of the shoes', 'Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Was she taller than a safety wall, so she could get hit', 'Was he blind or blondfolded', 'So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her']</t>
+  </si>
+  <si>
+    <t>['Did she die in a fire or die from the smoke of the fire', 'Was she already burried?', 'Was she already presumed to be dead?', 'Did she fall in a coffin?', 'But she is in a coffin?', 'She lit the lighter to see that she was buried?', 'Was she mistaken for someone else?', 'Was she in the coffin by accident?', 'Was she looking for someone in the coffin?', 'Did people already think that she was dead?', 'Did she fall asleep in the coffin?', 'Was there anyone else involved in her death?', 'Did that person try to kill/murder her or accidentally kill her?', 'Was that person alive?', 'Did she suffocate?', 'Did she dig the hole that she was in herself?', 'Hint', 'Was the other person a gravedigger or involved at the graveyard?', 'Was there anyone else involved', 'Was the gravedigger digging her grave?', 'Was the gravedigger already dead when she met him?', 'Did they fight and she killed him?', 'Did she know him?', 'Was she related to him?', 'Were they partners', 'To set something on fire or to signal something?', 'To light a cigarette or to suffocate herself?', 'Was the other person with her inside or the coffin?', 'Did she light it to kill him or to do anything related to him?', 'Did she take a shortcut home through the graveyard?', 'Did the guy fall in the coffin?', 'Was she at a funeral?', 'At a social event?', 'Was she visiting someone at the graveyard or was she running?', 'Was she walking', 'Was she scared of the gravedigger', 'Was she at home', 'Anything sport related or food related', 'Was she drunk or on drugs', 'Was she shopping or in town', 'Was it night', 'Was she driving around', 'Hint', 'Did she just rob the house of the gravedigger', 'Did she rob someone who died', 'Did she just rob someone', 'Did she just murder someone?', 'Was she escaping prison', 'And she was hiding in the grave to escape the police?', 'And the gravedigger was an accomplice?', 'So they tried to hide from the police by hiding in the grave but they got locked in', 'She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her']</t>
+  </si>
+  <si>
+    <t>['is one of them going to die after she leaves?', 'do they have an important conversation after he received the coke?', 'does the men also has a weapon?', 'will he take the knife of the women?', 'is she leaving with the knife in her hand?', 'did the men ask the women for a knife?', 'is one the men or the women getting injured?', 'are there more people involved except the men &amp; women?', 'is it important to know why the women decides to leave?', 'so HE leaves? (not she)', 'did the  men pay for his coke?', 'is the relation between the men &amp; women important?', 'did the women aimed to threaten him with the knife?', 'did the women ask him to do something with the knife because she did not want to do something?', 'did the men insult the women?', 'did the men do something which can be seen considerd as ethically wrong?', 'did he order a coke to celebrate something?', 'did he order something because had some medical emergency?', 'did he order something for a negative reason?', 'was this negative reason related to the women?', 'was this related to his work?', 'to his family live?', 'is the fact that he order coke (and not another drink) important to understand the negative event?', 'did he revelaed a secret?', 'did the men receive his coke before she grabbed the knife?', 'did the men threatend the women as well?', 'so did the women refused to give him the coke?', 'did the negative event happended shortly before he entered the cafe?', 'did they got into a fight?', 'did the men drink anything before he order the coke?', 'were there any other elements or objects involved, caused the negative event?', 'is the coke dangerous for him?', 'is the negative event over once he leaves the cafe?', 'is the women trying to help the men by showing the knife?', 'does the men wants to kill himself?', 'does the women wants to kill or injure him?', 'does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'to protect herself?', 'to protect and help him?', 'is the women trying to help the men by scaring him with the knife?', 'Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.']</t>
+  </si>
+  <si>
+    <t>['is the vehicle still on land when he climbs out the vehicle?', 'is the vehicle close to water as well?', 'were there any other people in the vehicle as well?', 'was this vehicle an airplane?', 'is this vehicle used for public transport?', 'is it relevant to know the type of vehicle?', 'is the vehicle made to be on land?', 'is it a tractor?', 'did he drown himself on purpose?', 'was he a farmer?', 'did something negative happened to his farming practices?', 'did something negative happened at all?', 'does this has anything to do with the tractor?', 'was the tractor broken?', 'was the land, in which the tractor was located at that moment boggy?', 'did the reason that he climbed out of the tractor had anything to do with the tractor?', 'was the water in which he drowned himself close to the tractor?', 'were there any other objects or people involved in the negative event?', 'were there any people in the tractor?', 'outside the tractor?', 'did he wanted to go to the other people?', 'did the drowning happened right after he climbed out of the tractor?', 'did the other people influenced him in stepping out of the tractor?', 'was it dangerous for him to stay in the vehicle?', 'were the other people also with tractors? n', 'is it important to know how he exactly climbed out of the tractor?', 'did the other people wanted him to drown himself?', 'did the other people wanted to save him?', 'did he know the other people before?', 'was it an accident that he drowned?', 'did the other people saw something which the men could not see (when he was still in the tractor)?', 'were the other people also farmers?', 'were the other people angry at him?', 'did the know eachother for a long time?', 'were they employees?', 'family?', 'were they close to the tractor?', 'was there a fight or any other negative event between the men and his family?', 'were there any childern involved?', 'were the childeren outside the tractor?', 'did he climbed out the tractor for his childern?', 'was his kid in a dangerous situation?', 'did he aimed to save his kid by climbing out of the tractor?', 'did he cause the dangerous situation?', 'did he accidently killed his kid with his tractor?', 'so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
+  </si>
+  <si>
+    <t>['Did someone die?', 'Are they loved ones?', 'Were they playing checkers together?', 'Can the winner do something with the pistol?', 'Can the winner kill the loser with the pistol?', 'Is someone going to shoot with the pistol?', 'Did the woman win?', 'Did the man or woman shot another person in the room?', 'Were there other people in the room?', 'Did someone shoot in the air?', 'Did one of the two people kill the other?', 'I mean did one shot the other?', 'But there was a shot?', 'But there was a shot but not on a person?', 'Can the winner use the pistol to make a shot?', 'Will the winner of the game shoot the other player after winning the game of checkers?', 'Will someone die in the future?', 'One of the two players?', 'The winner?', 'The loser is so sad and mad that they shot the winner?', 'They are playing the game because someone has to die?', 'The winner shot themselves?', 'Is the why of this question relevant?', 'Were they in jail?', 'Were they in a bar?', 'Were they in an unusual place to play the game?', 'Were they outside?', 'At someoneâ€™s house?', 'Were they going from a place to another place while playing the game?', 'This is so hard, can you give me another hint', 'In a plane?', 'In a train?', 'In a bus?', 'In a car?', 'In a boat?', 'Did someone shoot a hole in the boat?', 'Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Is it a cruise?', 'A big boat?', 'Or a small boat for just the two of them?', 'A rowing boat?', 'A rubber boat?', 'The boat was big enough for a table right?', 'An expensive boat?', 'A yacht?', 'A sailing boat?', 'I just named all boat types haha, do I have to go in a different direction?', 'A submarine?', 'Is why they were there relevant?', 'What am I missing?', 'Because the person was getting crazy?', 'Was the submarine still able to go up after the shot?', 'So the person killed everyone in the submarine by the shot?', 'Was the shot on themselves intentional?', 'Does the why they wanted to shot themselves have to do with the game?', 'Did it have something to do with the other person?', 'Give me more hints please haha I am done with this game', 'Am I even close? I am so bad at this', 'The person who shot themselves was the driver?', 'They were forever stuck there?', 'They already knew that they were stuck before playing the game?', 'There was just one bullet?', 'Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
+  </si>
+  <si>
+    <t>{1: 'Are the shoes poisoned?', 2: 'Did Lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'Did Lola trip and fall because of the shoes?', 4: "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'Was Lola killed because she was wearing the shoes and someone wanted them?', 6: 'Did Lola die because the shoes were too tight and it caused a health issue?', 7: 'Was Lola killed by an animal that was attracted to the shoes?', 8: 'Did the shoes cause Lola to be in a dangerous location or situation?', 9: "Did Lola's increased height cause her to hit her head fatally?", 10: "Did Lola's increased height make her visible to someone or something that led to her death?", 11: 'Did the height from the shoes lead to Lola falling from a height?', 12: 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?', 13: "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'Did Lola get electrocuted because of her increased height from wearing the shoes?', 15: "Did Lola's tallness from the shoes cause her to be struck by lightning?", 16: "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "Did Lola's increased height from the shoes cause her to suffocate?", 20: "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "Did Lola's death involve water?", 23: "Did Lola's death involve fire?", 24: "Did Lola's death involve electricity?", 25: "Did Lola's death involve a direct contact with a person?", 26: 'Was Lola in a place with a low ceiling?', 27: 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'Was the person who had direct contact with Lola the cause of her death?', 29: 'Did this person attack Lola because she was taller due to the shoes?', 30: "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?", 31: 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?', 32: 'Could the danger have been avoided if Lola had not been wearing the shoes?', 33: 'Did the fatal incident involving Lola and the other person occur indoors?', 34: 'Did the other person mistake Lola for someone else because of her increased height from the shoes?', 35: 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?', 36: 'Did the other person attack Lola because he/she was startled by her unexpected height?', 37: "Did Lola's death involve a fall or dropping from a height because of the shoes?", 38: "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?", 39: 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?', 40: 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?', 41: 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to', 42: 'Was Lola in a work or construction environment when she was struck?', 43: "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes.", 51: "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?", 53: "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?", 54: "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?', 56: 'Was the shooter blindfolded during the trick shot?', 57: "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'Was it her partner who was performing the trick shot?', 61: "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did Lola die because of a defect or problem with the shoes?', 2: 'Did Lola die because of something that happened while she was wearing the shoes?', 3: 'Did Lola die due to an accident while wearing the shoes?', 4: 'Did the accident involve Lola tripping or falling while wearing the shoes?', 5: 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?', 6: 'Did someone intentionally harm Lola while she was wearing the shoes?', 7: "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "Did Lola's death involve someone else?", 10: 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?', 11: 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?', 12: 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?', 13: 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?', 14: 'Were the shoes Lola received heels?', 15: 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'Did Lola die due to an increase in height caused by wearing the heels?', 18: 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow.", 36: 'Was Lola shot with a bow and arrow by someone who knew her?', 37: 'Was Lola shot with a bow and arrow by a family member?', 38: 'Was Lola shot with a bow and arrow by a romantic partner?', 39: 'Was Lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?", 43: "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man know the woman behind the bar?', 2: 'Did the man order anything else besides the glass of coke?', 3: 'Did the woman behind the bar intend to harm the man with the knife?', 4: "Was the woman's action with the knife related to the man's order of a glass of coke?", 5: "Did the woman's action with the knife serve a purpose other than harm or threat?", 6: 'Did the woman use the knife to open something?', 7: 'Did the woman use the knife to prepare the glass of coke in some way?', 8: 'Did the woman use the knife to indicate or signal something to the man?', 9: "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?", 10: 'Did the woman use the knife to point out a specific detail or object to the man?', 11: "Did the woman use the knife to cut something related to the man's order of a glass of coke?", 12: 'Did the woman use the knife to stir or mix something?', 13: "Did the woman use the knife to remove something from the man's order of a glass of coke?", 14: 'Did the woman use the knife to retrieve something from behind the bar?', 15: 'Did the woman use the knife to point out an unusual or unexpected situation to the man?', 16: "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?", 17: "Did the woman use the knife to draw the man's attention to a message or writing?", 18: "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?", 19: 'Did the woman use the knife to indicate to the man that she was out of coke?', 20: "Did the woman use the knife to point out a problem or issue with the man's glass of coke?", 21: 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?', 22: 'Did the woman use the knife to gesture towards something else in the cafe?', 23: "Was the woman's action with the knife accidental?", 24: 'Did the woman use the knife to cut or slice something for the man?', 25: 'Did the woman use the knife to help the man in some way?', 26: 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?', 27: 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?', 28: 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?', 29: 'Did the woman use the knife to help the man with something personal, like opening a package or letter?', 30: 'Did the woman use the knife to assist the man with a physical ailment or injury?', 31: 'Did the woman use the knife to assist the man with something related to his clothing or accessories?', 32: 'Did the woman use the knife to assist the man with a technical or mechanical issue?', 33: 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?', 34: 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?', 35: 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?', 36: 'Did the woman use the knife to help the man with a problem related to his physical appearance?', 37: 'Did the woman use the knife to help the man with a problem related to his identification or documentation?', 38: 'Did the woman use the knife to help the man with a problem related to his health or well-being?', 39: 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?', 40: "Did the woman use the knife to remove something harmful or dangerous from the man's person?", 41: "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?", 42: "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?", 43: 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?', 44: 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?', 45: "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?", 46: 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?', 47: 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?', 48: 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?', 49: 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?', 50: 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?', 51: 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?', 52: 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?', 53: 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.', 54: 'Did the man order coke specifically because he believed it would help with his hiccups?', 55: 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the woman threaten the man with the knife?', 2: 'Was the man asking for the knife instead of the coke?', 3: 'Did the man need the knife for a reason unrelated to violence?', 4: 'Was the knife part of a magic trick or performance?', 5: 'Did the man use the knife to address a medical condition or emergency?', 6: 'Was the act of pointing the knife at the man a prearranged signal or code between them', 7: 'Was the knife used to open or prepare the coke in some way', 8: 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected', 9: 'Was the knife used to communicate a message or signal understood by the man but not related to a threat', 10: 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman', 11: "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake", 12: 'Did the man specifically request the woman to point the knife at him for any reason', 13: 'Is the presence of the knife relevant to the reason why the man thanked the woman and left', 14: 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment', 15: 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason', 16: 'Did the woman point the knife at the man in response to something he did or said after ordering the coke', 17: "Is the woman's action with the knife a standard practice or ritual in this cafe", 18: 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man', 19: "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence", 20: "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order", 21: 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him', 22: "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation", 23: 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others', 24: 'Did she point the knife at him to help him', 25: 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of', 26: 'Did the woman point the knife at the man to help him make a decision or realize something', 27: 'Did the woman point the knife at the man to assist him with a physical task or action', 28: 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way', 29: 'Did the woman point the knife at the man to draw his attention to something specific', 30: 'Did the woman point the knife at the man to warn him about something', 31: 'Did the woman point the knife at the man to convey a message that was not related to danger or warning', 32: 'Did the woman point the knife at the man to signal that she was impressed or surprised by something', 33: 'Did the woman want to scare the man by pointing the knife at him', 34: 'Did the woman want to scare the man as a form of amusement or prank', 35: 'Did the woman want to scare the man as a way to test his reaction or assess his character', 36: 'Did the woman want to scare the man to convey a message or make a point about something', 37: 'Did the woman want to scare the man because she mistook him for someone else', 38: 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason', 39: 'Did the woman want to scare the man to elicit a specific response from him', 40: 'Did the woman want to scare the man as a form of greeting or initiation', 41: 'Did the woman want to scare the man as a way to discourage him from returning to the cafe', 42: 'Did the woman want to scare the man as a reaction to something he did or said', 43: 'Did the woman want to scare the man as part of a tradition or cultural practice', 44: 'Did the woman want to scare the man to test his bravery or reaction under pressure', 45: "Was the woman's intention to scare the man related to her own safety or protection", 46: "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part", 47: 'Did the woman want to scare the man as a form of retaliation for something he did or said?', 48: 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?', 49: 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?', 50: "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?", 51: 'Did the woman want to scare the man to play a practical joke or prank on him?', 52: 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?', 53: 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?', 54: 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?', 55: 'Did the woman want to scare the man to help him overcome a fear or phobia?', 56: "Does the woman want to scare the man to help him sober up if he's drunk?", 57: 'Did the woman want to scare the man to help him overcome hiccups?', 58: 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.', 59: 'Did the man believe that drinking the glass of coke would help his hiccups go away?', 60: 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?', 61: 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the large vehicle near a body of water?', 2: 'Did the man drown himself intentionally?', 3: 'Was the large vehicle an unusual place for someone to be?', 4: 'Was the vehicle submerged or partially submerged in water when the man climbed out?', 5: 'Did the man drown in water located inside the vehicle?', 6: 'Did the man use something from the vehicle to help him drown himself?', 7: 'Did the man drown immediately after exiting the vehicle?', 8: 'Was the method of drowning related to a liquid other than water?', 9: "Was the man's occupation relevant to the story?", 10: 'Was the man a driver or operator of the large vehicle?', 11: "Did the man's occupation directly contribute to his decision to drown himself?", 12: "Was the man's mental state affected by an event that occurred while he was in the vehicle?", 13: 'Did the event involve other people?', 14: 'Was the event traumatic or distressing?', 15: 'Did the traumatic event cause the man to feel responsible or guilty?', 16: 'Did the traumatic event involve an accident with the vehicle?', 17: "Was the accident caused by the man's actions or negligence?", 18: 'Did the accident result in harm or death to others?', 19: "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?", 20: 'Did the man kill a family member or someone close to him in the accident?', 21: 'Was the vehicle a bus or truck?', 22: 'Was the vehicle a train?', 23: 'Was the vehicle an airplane?', 24: 'Was the vehicle a car?', 25: 'Was the vehicle a ship or boat?', 26: 'Was the vehicle a military vehicle?', 27: 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?', 28: 'Was the vehicle related to public transportation, such as a taxi or rideshare?', 29: 'Was the vehicle a recreational vehicle, like a camper or RV?', 30: 'Was the vehicle a construction vehicle?', 31: 'Was the vehicle involved in agriculture, like a tractor?', 32: 'Did the man accidentally cause the death of his own child in the accident?', 33: "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?", 34: 'Did the accident happen while the children were riding with the man in the vehicle?', 35: "Did the accident occur on the man's property, such as a farm?", 36: "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?", 37: 'Were the children playing in the field where the man was working with the vehicle?', 38: 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Did the man drown immediately after climbing out of the vehicle?', 2: 'Was the vehicle near a body of water?', 3: 'Did the man intentionally drown himself?', 4: "Did the vehicle's location or condition directly lead to the man's decision to drown himself?", 5: 'Was the vehicle moving when the man decided to exit it?', 6: 'Did the man drown himself in water that was carried or contained within the vehicle?', 7: "Was the vehicle's type or purpose relevant to the man's decision to drown himself?", 8: 'Did the man have an occupation or role that is relevant to the story?', 9: "Was the man's occupation related to the large vehicle?", 10: 'Was the man a driver or operator of the vehicle?', 11: "Did the man's decision to drown himself result from an incident involving the vehicle he was operating?", 12: "Was the incident that led to the man's decision to drown himself an accident involving the vehicle?", 13: 'Did the accident result in harm to others?', 14: 'Did the man drown himself out of guilt or remorse for the accident?', 15: "The story involves a man who was a driver or operator of a large vehicle. While operating this vehicle, he was involved in an accident that resulted in harm to others. Overwhelmed by guilt or remorse for the consequences of this accident, the man made the decision to end his life by drowning himself. This tragic outcome was influenced not by the immediate circumstances of the accident, but by the man's emotional response to the harm caused to others.", 16: 'Was the large vehicle a bus?', 17: 'Was the vehicle a truck?', 18: 'Was the vehicle an airplane?', 19: 'Was the vehicle a train?', 20: 'Was the vehicle a ship or boat?', 21: 'Was the vehicle a military vehicle?', 22: 'Was the vehicle used for commercial purposes?', 23: 'Was the vehicle a recreational vehicle, like an RV or a camper?', 24: 'Was the vehicle a special-purpose vehicle, like an ambulance or fire truck?', 25: 'Was the vehicle used primarily for transporting goods?', 26: 'Was the vehicle a personal mode of transport, like a car or motorcycle?', 27: "Is the vehicle's primary purpose for construction or agriculture?", 28: 'Was the vehicle a tractor?', 29: 'Did the accident involve the tractor causing harm to someone on a farm?', 30: 'Did the man drown himself out of guilt for causing harm or death to a family member in the accident?', 31: "The story revolves around a man who was operating a tractor, likely on a farm, which is a setting common for such vehicles. While he was using the tractor, an accident occurred that resulted in harm or possibly the death of a family member. This tragic event was not a consequence of the man's professional duties beyond the immediate operation of the vehicle but stemmed from a deeply personal and devastating incident. The man, overwhelmed by guilt or remorse for the accident and the harm caused to his family member, made the heart-wrenching decision to end his own life by drowning. The location or specifics of where he drowned are not detailed in the story, but his actions were driven by the emotional weight of the tragedy and his inability to cope with the guilt.", 32: 'Did the accident involve a child?', 33: 'Did the accident occur because the man did not see the child while operating the tractor?', 34: 'Was the child playing near the tractor?', 35: 'Was the child playing in a field where the tractor was being used?', 36: 'Was the child playing in the field because they considered it a usual play area, not recognizing the danger of the operating tractor?', 37: "Was the man unaware of the child's presence in the field while he was operating the tractor?", 38: 'Was the child playing alone in the field?', 39: 'Was the child playing with other children in the field?', 40: 'Were the children playing together in the field siblings?', 41: 'So, in a devastating turn of events, a man operating a tractor in a field accidentally struck and killed all of his children, who were playing there. Stricken with unbearable guilt, he later drowned himself, overwhelmed by the loss of his children the tragic accident.'}</t>
+  </si>
+  <si>
+    <t>['is the woman human?', 'is the man human?', 'do they know each other?', 'is the duffle bag from the man?', 'does the woman fit in one piece in the duffle bag?', 'did the man lose the duffle bag for a period of time?', 'did the man kill the woman?', 'are they married/partners?', 'for a long time?', 'did the woman die of an accident?', 'caused by herself?', 'caused by the man?', 'caused by someone she or he knows?', 'did she die of a gunshot?', 'was she hit to death?', 'hit by a car?', 'overdose?', 'is it relevant how she died?', 'was the man there when she died', 'to the gym?', 'holiday?', 'work?', 'was she alive when she first got in the bag?', 'did she get in the bag voluntarily?', 'was it part of a game?', 'did she stay in the bag for a long time?', 'a day', 'couple of hours?', 'was he there when she got in the bag?', 'did she get in te bag and died on the same day?', 'did he ever leave the bag during that period?', 'did he leave it voluntarily?', 'hint please haha', 'was a car involved?', 'was a plane involved?', 'did she get in the loading space of a plane?', 'is that how she died, of suffocation or lack of oxygen?', 'were they too poor to buy 2 tickets for the plane?', 'did they plan on going on the plane?', 'was she illegally getting in the country?', 'okay so, she was illegally trying to get in the country so she hid in a bag that he dropped off, she died in the storage area in the plane and when he discovered that he was so hearbroken that he killed himself?']</t>
+  </si>
+  <si>
+    <t>['is the bottle relevant for the story?', 'is it empty?', 'does it contain water?', 'anything else besides water?', 'is it hers?', 'when she got in te sauna, where there other people already in there?', 'was she still alive when she got in the sauna?', 'did she die of an accident?', 'did someone kill her?', 'someone she knows?', 'is the water bottle from te killer?', 'was it a man or woman that killed her?', 'was it a man that killed her?', 'is the water bottle the murder weapon?', 'were there other people in the sauna when she died?', 'were there other people there before she died? besides the murderer', 'is the sauna in her house or on her property?', 'was killing her planned?', 'was it planned to kill her in the sauna?', 'did she die of suffocation?', 'gunshot?', 'beaten?', 'did the murderer pour more water on the coals?', 'was she awake when she was killed?', 'did the killer use the water botte to kill her?', 'did she ever drink from the water bottle?', 'was it already there when she entered the sauna?', 'was she poisoned?', 'did the murderer leave the water bottle on purpose?', 'did she die after the killer left?', 'hours?', 'did the killer ever touched the woman?', 'did she recognize the water bottle?', 'so to kill her he did touch her?', 'did she kill herself?', 'strangling?', 'knife?', 'is the water bottle in one piece?', 'did she ever touch the water bottle?', 'okay, she was alone in the sauna, the killer came in with the water bottle, stabbed her with something, left the sauna but left the water bottle behind?', 'is the murder weapon in the sauna?', 'is it near her?', 'is the murder weapon outside the sauna?', 'is the sauna the murder weapon?', 'does the water bottle have anything to do with the murder weapon', "but it's also not in the sauna?", 'but it is near her?', 'did the murderer take it away?', 'is it the thing that you arrange the coals with?', 'was it a frozen ice dagger?', 'is that the water in the bottle?', 'okay so the woman was stabbed with a frozen ice dagger that was left behind in the water bottle by the killer and melted']</t>
+  </si>
+  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
-    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
-  </si>
-  <si>
     <t>['a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.', 'this is not a yes or no question', 'yes, but why are they doing this?', 'you're not done yet. I need a lot of more details. like the location, and circumstances', 'not relevant to the story', "no they don't do it to pass time. you're not there yet", 'sort of. they are both going to die regardless', 'quit']</t>
   </si>
   <si>
-    <t>Linthe</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of hypothermia or exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from a self-inflicted injury or suicide?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die as a result of an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was he alone when the accident happened?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a motorcycle or bike?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an aircraft of some sort?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die from the crash of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump or fall out of the plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man have a parachute when he jumped or fell out of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?'}, {'role': 'user', 'content': 'no, false assumptions. ask how the man got into the plane with barely any clothes'}, {'role': 'assistant', 'content': 'Did the man board the plane initially with barely any clothes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man remove his clothes after boarding the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man lose his clothes because of a malfunction or damage of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did someone else remove the man's clothes before or during his flight?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane carrying cargo or was it a passenger plane?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Was the plane a cargo aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a personal aircraft, not intended for commercial or cargo use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a passenger aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane originally over water before it reached the woods?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man attempt to land the plane on water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the plane's final destination within the woods or wilderness area?"}, {'role': 'user', 'content': 'partly correct'}, {'role': 'assistant', 'content': 'Was the plane intended to land in a body of water near the woods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane intended to land in an area within the woods?'}, {'role': 'user', 'content': 'not land, but the plane was there for the woods'}, {'role': 'assistant', 'content': 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the plane involved in firefighting activities?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's clothing burn due to a fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?'}, {'role': 'user', 'content': 'the man was in the plane by accident'}, {'role': 'assistant', 'content': 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?'}, {'role': 'user', 'content': 'almost, why was he there?'}, {'role': 'assistant', 'content': "Did the man sneak into the plane without the crew's knowledge?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man homeless and seeking shelter in the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?'}, {'role': 'user', 'content': 'no, he did not enter the plane himself'}, {'role': 'assistant', 'content': 'Was the man placed in the plane by somebody else?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?'}, {'role': 'user', 'content': 'false assumption that it is used for cargo'}, {'role': 'assistant', 'content': 'Was the man placed in the plane as part of a rescue operation or medical evacuation?'}, {'role': 'user', 'content': 'you already guessed where the plane was for!'}, {'role': 'assistant', 'content': 'Did the man get scooped up with water when the plane was loading water for firefighting?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
-  </si>
-  <si>
     <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'no, false assumptions. ask how the man got into the plane with barely any clothes', 'this is not a yes or no question', 'partly correct', 'not land, but the plane was there for the woods', 'the man was in the plane by accident', 'almost, why was he there?', 'no, he did not enter the plane himself', 'sort of', 'false assumption that it is used for cargo', 'you already guessed where the plane was for!', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die from a self-inflicted injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die due to an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the accident related to a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it a car accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the accident related to an aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man jump out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man the pilot of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a passenger on the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the aircraft crash into the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the aircraft drop something that directly caused the man's death?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the man hit by a falling object from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die trying to catch something that was falling from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a parachute?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to save his life?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a packed object that got deployed accidentally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to be used in a survival situation?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?'}, {'role': 'user', 'content': 'no, the man was on the airplane'}, {'role': 'assistant', 'content': 'Was he detached from the aircraft in mid-air, leading to his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft without a parachute?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because the door was accidentally opened?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man trying to enter or exit the aircraft when he fell out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft as a result of a fight or altercation on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft during a routine operation or procedure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man pushed out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was on the ground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was taking off or landing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the man fall out because the floor of the aircraft gave way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?'}, {'role': 'user', 'content': 'he did not fall out of the aircraft due to himself'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because another person on that aircraft made him do it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something in the aircraft malfunction, causing him to fall out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out due to an explosion in the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because an animal in the aircraft caused it?'}, {'role': 'user', 'content': 'no, ask about the function of the airplane'}, {'role': 'assistant', 'content': 'Was the aircraft used for commercial travel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for military purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for cargo transportation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for scientific research?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for private/personal use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for a rescue mission?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the aircraft being used for air ambulance or medical evacuation purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for firefighting purposes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was releasing water or fire retardant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.'}, {'role': 'user', 'content': 'you miss one element, how did the person got there?'}, {'role': 'assistant', 'content': 'Was the man actually inside the aircraft when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man already in the area for another purpose when the aircraft arrived?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?"}, {'role': 'user', 'content': 'no, why did he had barely any clothes on?'}, {'role': 'assistant', 'content': 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}]</t>
-  </si>
-  <si>
-    <t>{1: 'Was the man murdered?', 2: 'Did the man die of natural causes?', 3: 'Did the man die of exposure to the elements?', 4: 'Did he die from a self-inflicted injury?', 5: 'Did he die due to an accident?', 6: 'Was the accident related to a vehicle?', 7: 'Was it a car accident?', 8: 'Was the accident related to an aircraft?', 9: 'Did the man jump out of the aircraft?', 10: 'Was the man the pilot of the aircraft?', 11: 'Was the man a passenger on the aircraft?', 12: 'Did the aircraft crash into the man?', 13: "Did the aircraft drop something that directly caused the man's death?", 14: 'Was the man hit by a falling object from the aircraft?', 15: 'Did the man die trying to catch something that was falling from the aircraft?', 16: "Did the man's death involve a parachute?", 17: "Did the man's death involve an object that was intended to save his life?", 18: "Did the man's death involve a packed object that got deployed accidentally?", 19: "Did the man's death involve an object that was intended to be used in a survival situation?", 20: 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?', 21: 'Was he detached from the aircraft in mid-air, leading to his death?', 22: 'Did the man fall out of the aircraft?', 23: 'Did the man fall out of the aircraft without a parachute?', 24: 'Did the man fall out of the aircraft because the door was accidentally opened?', 25: 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?', 26: 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?', 27: 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?', 28: 'Was the man trying to enter or exit the aircraft when he fell out?', 29: 'Did the man fall out of the aircraft as a result of a fight or altercation on board?', 30: 'Did the man fall out of the aircraft during a routine operation or procedure?', 31: 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?', 32: 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?', 33: 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?', 34: 'Was the man pushed out of the aircraft?', 35: 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?', 36: 'Did the man fall out of the aircraft while it was on the ground?', 37: 'Did the man fall out of the aircraft while it was taking off or landing?', 38: 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?', 39: 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?', 40: 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?', 41: 'Did the man fall out because the floor of the aircraft gave way?', 42: 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?', 43: 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?', 44: 'Did the man fall out of the aircraft because another person on that aircraft made him do it?', 45: 'Did something in the aircraft malfunction, causing him to fall out?', 46: 'Did the man fall out due to an explosion in the aircraft?', 47: 'Did the man fall out of the aircraft because an animal in the aircraft caused it?', 48: 'Was the aircraft used for commercial travel?', 49: 'Was the aircraft used for military purposes?', 50: 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?', 51: 'Was the aircraft being used for cargo transportation?', 52: 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?', 53: 'Was the aircraft used for scientific research?', 54: 'Was the aircraft being used for private/personal use?', 55: 'Was the aircraft being used for a rescue mission?', 56: 'Was the aircraft being used for air ambulance or medical evacuation purposes?', 57: 'Was the aircraft being used for firefighting purposes?', 58: 'Did the man fall out of the aircraft while it was releasing water or fire retardant?', 59: 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.', 60: 'Was the man actually inside the aircraft when it took off?', 61: 'Was the man already in the area for another purpose when the aircraft arrived?', 62: "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?", 63: 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?', 64: "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}</t>
-  </si>
-  <si>
     <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'sort of', 'no, the man was on the airplane', 'false assumption', 'he did not fall out of the aircraft due to himself', 'no, ask about the function of the airplane', 'sort of', 'you miss one element, how did the person got there?', 'no, why did he had barely any clothes on?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Did the woman intend to harm herself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did something tragic happen to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have mental health issues?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she escaping from someone or something in city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she complete an important task or mission in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she forced to make the return trip against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did anything significant happen on her way back to city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the sundress and dark glasses relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the sundress and dark glasses a disguise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman wear the sundress and dark glasses to protect herself from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the sundress and dark glasses have symbolic meaning for the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does the woman have a visual impairment?'}, {'role': 'user', 'content': 'false assumption present tense'}, {'role': 'assistant', 'content': 'Did the woman have a visual impairment before the journey to city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A."}, {'role': 'user', 'content': 'almost correct. ask about the reason why she jumped'}, {'role': 'assistant', 'content': 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman see something specific on her return trip that prompted her to take her own life?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did she jump because she could not bear the darkness in the tunnel?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman scared of the darkness due to her previous inability to see?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because without her sight she could better handle the darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?'}, {'role': 'user', 'content': 'no, after eye surgery, what do you have?'}, {'role': 'assistant', 'content': 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.'}, {'role': 'user', 'content': 'almost, when did she check if she could see again?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again when she came out of the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again while she was still inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
-  </si>
-  <si>
     <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption present tense', 'almost correct. ask about the reason why she jumped', 'false assumption', 'yes, but why?', 'false assumption', 'no, after eye surgery, what do you have?', 'almost, when did she check if she could see again?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman suffering from a mental illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something significant happen to her during her stay in city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did she receive bad news in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she meet someone significant in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she come into possession of something distressing or harmful in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she commit a crime in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she lose something valuable or meaningful to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she experience something traumatic in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman spend the entire twelve days in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman on a mission or task in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's return to City A have any significance?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman come back early from city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman ill physically?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the time spent in city B longer than she intended?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman forced or coerced into making the trip back to City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something happen to her on the bus trip from city B to A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the tunnel trigger a phobia or fear in the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman react to something she saw or heard inside the tunnel?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Was it completely dark inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Are the woman's dark glasses relevant to her reaction in the tunnel?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the woman not able to see in the dark tunnel even with her dark glasses on?'}, {'role': 'user', 'content': 'false assumption that she still has her glasses on'}, {'role': 'assistant', 'content': 'Did the woman lose her dark glasses during the bus ride?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she leave her glasses in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman remove her glasses before or during the bus ride?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses when they entered the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses after entering the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Had she removed her glasses before boarding the bus to city A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's state of mind change after taking off her glasses?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's glasses have a special feature or property?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does her glasses being off in the tunnel mean that she expected to see darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses due to an event or circumstance in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman lose or damage her glasses in City B?'}, {'role': 'user', 'content': 'no, stop asking questions about the glasses'}, {'role': 'assistant', 'content': 'Did the woman experience a change in her vision during her time in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the change in her vision cause her distress or discomfort?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone alter her vision intentionally while she was in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change in her vision permanent?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change made to her vision done against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman pay someone to alter her vision in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.'}, {'role': 'user', 'content': 'not really, ask about her condition in city a and after the surgery in city b'}, {'role': 'assistant', 'content': 'Did the woman have normal vision when she left City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman blind or had a serious vision problem when she left City A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After the surgery in City B, was the woman able to see?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but did she already know that she could see?'}, {'role': 'assistant', 'content': 'Did the woman not realize she could see until she was in the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.'}, {'role': 'user', 'content': 'no, when did she check if she could see?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see while she was inside the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel."}, {'role': 'user', 'content': 'she did not know yet if she could see, why did she jump?'}, {'role': 'assistant', 'content': 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?", 52: 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?', 53: 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?', 54: 'Did the woman not realize she could see until she was in the dark tunnel?', 55: 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.', 56: 'Did the woman check if she could see while she was inside the dark tunnel?', 57: "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel.", 58: 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?', 59: 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}</t>
-  </si>
-  <si>
     <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption', 'sort of', 'false assumption that she still has her glasses on', 'no, stop asking questions about the glasses', 'not really, ask about her condition in city a and after the surgery in city b', 'yes, but why?', 'yes, but did she already know that she could see?', 'no, when did she check if she could see?', 'she did not know yet if she could see, why did she jump?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'assistant', 'content': 'Was the woman already dead before she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die because of an explosion caused by lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die from smoke or gas inhalation after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die instantaneously after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman alone when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the person she was with relevant to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman killed by the person she was with after she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she die of natural causes (like heart attack) after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in some sort of vehicle when she lit the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in an enclosed space when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman die from lack of oxygen after lighting the lighter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the lighter have anything 'special' or 'unusual' about it?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the enclosed space underwater or in space?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's death directly caused by her lighting the lighter?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the lighting of the lighter cause an event that indirectly led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman in a coffin when she lit the lighter?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.'}, {'role': 'user', 'content': 'partly correct. ask about the other person'}, {'role': 'assistant', 'content': 'Was the other person with her in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person die as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "So, was the other person a creature that doesn't need air to survive?"}, {'role': 'user', 'content': 'no, he was already dead'}, {'role': 'assistant', 'content': "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral."}, {'role': 'user', 'content': 'seing the other person while lighting the lighter made her realise somthing'}, {'role': 'assistant', 'content': 'Did she recognize the dead person in the coffin with her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the dead person someone she was close to?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the dead person have something to do with her being in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed."}, {'role': 'user', 'content': 'no, ask about the occupation of the dead man'}, {'role': 'assistant', 'content': 'Was the dead man a mortician or funeral director?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.'}, {'role': 'user', 'content': 'ask more about herself and the relation to the mortician'}, {'role': 'assistant', 'content': 'Was the woman a patient or client of the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman work with the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman a criminal?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman kill the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman fake her own death or was she running away from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman plan to rob the mortician?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman hiding from the law or someone else in the coffin?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman plan to replace the mortician's body with a different body?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some sort of deal or arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman plan to be buried alive as part of her arrangement with the mortician?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.'}, {'role': 'user', 'content': 'not a criminal plot. where was she before?'}, {'role': 'assistant', 'content': 'Was the woman in prison before she was in the coffin?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman in the morgue before she was in the coffin?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Was the woman trying to escape prison by being buried alive and then dug up later?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}]</t>
-  </si>
-  <si>
-    <t>{1: 'Was the woman already dead before she lit the lighter?', 2: 'Did the woman die because of an explosion caused by lighting the lighter?', 3: 'Did the woman die from smoke or gas inhalation after she lit the lighter?', 4: 'Did the woman die instantaneously after lighting the lighter?', 5: 'Was the woman alone when she lit the lighter?', 6: 'Is the person she was with relevant to her death?', 7: 'Was the woman killed by the person she was with after she lit the lighter?', 8: 'Did the woman have a terminal illness?', 9: 'Did she die of natural causes (like heart attack) after lighting the lighter?', 10: 'Was the woman in some sort of vehicle when she lit the lighter?', 11: 'Was the woman in an enclosed space when she lit the lighter?', 12: 'Did the woman die from lack of oxygen after lighting the lighter?', 13: "Did the lighter have anything 'special' or 'unusual' about it?", 14: 'Was the enclosed space underwater or in space?', 15: "Was the woman's death directly caused by her lighting the lighter?", 16: 'Did the lighting of the lighter cause an event that indirectly led to her death?', 17: "Is the reason she doesn't need a funeral because her body was destroyed or is otherwise unrecoverable?", 18: 'Was the woman in a situation where she would have died regardless of whether or not she lit the lighter?', 19: 'Was the woman in a coffin when she lit the lighter?', 20: 'So, the woman was buried alive. She was in a coffin. In the darkness, she used a lighter. The flicker of the lighter revealed the fact that she was in a coffin. Unable to escape, she eventually died. Because she was already in the coffin, she did not need a funeral.', 21: 'Was the other person with her in the coffin?', 22: 'Did the other person die as well?', 23: "So, was the other person a creature that doesn't need air to survive?", 24: "So, here's the story: The woman was buried alive in a coffin with another person who was already dead. She lit a lighter and discovered the horrifying truth of her situation. Unable to escape, she eventually succumbed and died. Since she was already in a coffin, she didn't need a separate funeral.", 25: 'Did she recognize the dead person in the coffin with her?', 26: 'Is the dead person someone she was close to?', 27: 'Did the dead person have something to do with her being in the coffin?', 28: "So, did the woman light the lighter and recognized the dead man next to her as her kidnapper or murderer, and realizing there's no escape, she died of shock or suffocation in the coffin. And since she was already in a coffin, no separate funeral was needed.", 29: 'Was the dead man a mortician or funeral director?', 30: 'So, the woman was buried alive in a coffin with a dead mortician. Upon lighting the lighter, she recognizes him and realizes that there is no help coming as the person who could have possibly known about her predicament is deceased himself. In her panic and eventual suffocation, she dies. Since she was already in a coffin, no additional funeral was necessary.', 31: 'Was the woman a patient or client of the mortician?', 32: 'Did the woman work with the mortician?', 33: 'Did the woman have a relationship with the mortician outside of work? Was she a family member or a friend?', 34: 'Was the woman a criminal?', 35: 'Did the woman kill the mortician?', 36: 'Did the woman fake her own death or was she running away from something?', 37: 'Did the woman plan to rob the mortician?', 38: 'Was the woman hiding from the law or someone else in the coffin?', 39: "Did the woman plan to replace the mortician's body with a different body?", 40: 'Did the woman have some sort of deal or arrangement with the mortician?', 41: 'Did the woman plan to be buried alive as part of her arrangement with the mortician?', 42: 'I see. The woman was a part of a criminal plot where she agreed to be buried alive alongside the mortician as part of their arrangement, perhaps to evade the law or for some other criminal intent. However, the mortician died unexpectedly, leaving her trapped in the coffin with him. When she lit the lighter, she recognized him and realized that she was trapped with no hope for escape. She eventually died due to suffocation. Since she was already in a coffin, she did not need another funeral.', 43: 'Was the woman in prison before she was in the coffin?', 44: "So, the woman was a convict who made an arrangement with the mortician to help her fake her own death and escape the prison. She was supposed to be buried along with the mortician pretending to be dead. However, the mortician died unexpectedly before they could carry out the rest of their plan. After being buried, she lit a lighter and upon recognizing the mortician realized her plan had failed and she's now trapped. She eventually died due to suffocation and, as she was already in a coffin, she did not need another funeral.", 45: 'Was the woman in the morgue before she was in the coffin?', 46: 'Was the woman trying to escape prison by being buried alive and then dug up later?', 47: "So, the woman was a convict who had an arrangement with a mortician to escape prison. Their plan was for her to be buried alive then later dug up, facilitating her escape. However, the mortician died unexpectedly and thus he was buried with her. She noticed this when she lit the lighter and recognized the dead man next to her as the mortician. Realizing now that no one would come to dig her up, she, trapped and without escape, died due to suffocation. Since she was already in a coffin, she didn't need a separate funeral."}</t>
-  </si>
-  <si>
     <t>['a woman dies after lighting a lighter, and doesn’t even need a funeral.', 'partly correct. ask about the other person', 'no, he was already dead', 'seing the other person while lighting the lighter made her realise somthing', 'no, ask about the occupation of the dead man', 'ask more about herself and the relation to the mortician', 'not a criminal plot. where was she before?', 'not relevant', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman dies after lighting a lighter, and doesn’t even need a funeral.'}, {'role': 'user', 'content': ' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions'}, {'role': 'assistant', 'content': ' Was the woman ill before lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the act of lighting the lighter cause her death?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alive when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman in a dangerous or risky environment when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a human?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did her death occur immediately after lighting the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the lighter have any special or unusual characteristics?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman alone when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Was the woman's death due to natural causes?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die due to an explosion or fire caused by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she suffocate because of the smoke or fumes created by the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did someone else cause her death?'}, {'role': 'user', 'content': ' not really'}, {'role': 'assistant', 'content': ' Was the woman part of an act or performance when she lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she ingest or inhale anything harmful from the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did she die in a closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the space she died in a type of transport?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the space she died in lack oxygen?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she intentionally trying to die?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in submerged in water?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the space she died in naturally devoid of breathable air?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman in a spaceship or spacecraft when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was she in outer space when she died?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman trapped in the closed space?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?"}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman already in a coffin when she lit the lighter?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' she was not alone in the coffin'}, {'role': 'assistant', 'content': " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried."}, {'role': 'user', 'content': ' ask about this other person'}, {'role': 'assistant', 'content': ' Was the other person alive when the woman lit the lighter?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person dead before the woman was put into the coffin?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person on purpose?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person a male?'}, {'role': 'user', 'content': ' not relevant'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a part of a ritual or custom?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person because there was no space in the grave site for another coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman buried with the other person as a form of punishment?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the other person in the coffin a loved one of the woman?'}, {'role': 'user', 'content': ' no '}, {'role': 'assistant', 'content': ' Did the woman know the other person in the coffin before they were buried together?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Did the woman kill the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': " Did the woman's place of work or occupation have anything to do with her being buried with the other person?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a body double or stunt double for the dead person in the coffin?'}, {'role': 'user', 'content': ' no, ask about where she was before she was in the coffin'}, {'role': 'assistant', 'content': ' Was the woman in a hospital or medical facility before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at her place of work before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the location of death of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman attend the funeral of the other person before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the morgue before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at the cemetery before she ended up in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?'}, {'role': 'user', 'content': ' no, she was in prison'}, {'role': 'assistant', 'content': ' Was the woman in prison for a crime related to the other person in the coffin?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?'}, {'role': 'user', 'content': ' no'}, {'role': 'assistant', 'content': ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried."}, {'role': 'user', 'content': ' this was the plan yes to be buried. But ask about the other person in the coffin'}, {'role': 'assistant', 'content': " Was the other person in the coffin an accomplice or involved in the woman's escape plan?"}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried."}, {'role': 'user', 'content': ' false assumption of other prisoner inside the coffin'}, {'role': 'assistant', 'content': ' Was the other person in the coffin someone who was not a prisoner?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried."}, {'role': 'user', 'content': ' what was the occupation of the accomplice?'}, {'role': 'assistant', 'content': ' Was the accomplice the cemetery worker or grave digger?'}, {'role': 'user', 'content': ' yes'}, {'role': 'assistant', 'content': ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}]</t>
-  </si>
-  <si>
-    <t>{1: ' Was the woman ill before lighting the lighter?', 2: ' Did the act of lighting the lighter cause her death?', 3: ' Was the woman alive when she lit the lighter?', 4: ' Was the woman in a dangerous or risky environment when she lit the lighter?', 5: ' Was the woman a human?', 6: ' Did her death occur immediately after lighting the lighter?', 7: ' Did the lighter have any special or unusual characteristics?', 8: ' Was the woman alone when she died?', 9: " Was the woman's death due to natural causes?", 10: ' Did she die due to an explosion or fire caused by the lighter?', 11: ' Did she suffocate because of the smoke or fumes created by the lighter?', 12: ' Did someone else cause her death?', 13: ' Was the woman part of an act or performance when she lit the lighter?', 14: ' Did she ingest or inhale anything harmful from the lighter?', 15: ' Did she die in a closed space?', 16: ' Was the space she died in a type of transport?', 17: ' Did the space she died in lack oxygen?', 18: ' Was she intentionally trying to die?', 19: ' Was the space she died in submerged in water?', 20: ' Was the space she died in naturally devoid of breathable air?', 21: ' Was the woman in a spaceship or spacecraft when she died?', 22: ' Was she in outer space when she died?', 23: ' Did the woman die due to a lack of oxygen in the closed space after lighting the lighter?', 24: ' Was the woman trapped in the closed space?', 25: " Is the reason she doesn't need a funeral because her body was not recoverable or was destroyed?", 26: ' Was the woman already in a coffin when she lit the lighter?', 27: " So, to summarize - The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she had a lighter. At some point, she woke up, lit the lighter to see her surrounding, and then she died eventually due to lack of oxygen. She didn't need a funeral because she was already buried.", 28: " Alright, for a more detailed summary: The woman was mistakenly presumed dead and was buried alive in a coffin. In the coffin, she wasn't alone but had a lighter with her. At some point, she woke up, lit the lighter to see the surroundings, saw the other person with her, and then she died due to lack of oxygen. She didn't need another funeral because she was already buried.", 29: ' Was the other person alive when the woman lit the lighter?', 30: ' Was the other person dead before the woman was put into the coffin?', 31: ' Was the woman buried with the other person on purpose?', 32: ' Was the woman related to the other person in the coffin?', 33: ' Was the other person a male?', 34: ' Was the woman buried with the other person as a part of a ritual or custom?', 35: ' Was the woman buried with the other person because there was no space in the grave site for another coffin?', 36: ' Was the woman a professional, like a doctor or scientist, who was trying to help the other person in the coffin?', 37: ' Was the woman buried with the other person as a form of punishment?', 38: ' Was the other person in the coffin a loved one of the woman?', 39: ' Did the woman know the other person in the coffin before they were buried together?', 40: ' Did the woman kill the other person in the coffin?', 41: ' Were they mistakenly considered as one entity due to an accident or other circumstance, leading to being buried together?', 42: " Did the woman's place of work or occupation have anything to do with her being buried with the other person?", 43: ' Was the woman a medical examiner or coroner who was doing an autopsy on the other person in the coffin?', 44: ' Was the woman a body double or stunt double for the dead person in the coffin?', 45: ' Was the woman in a hospital or medical facility before she ended up in the coffin?', 46: ' Was the woman at her place of work before she ended up in the coffin?', 47: ' Was the woman at the location of death of the other person before she ended up in the coffin?', 48: ' Did the woman attend the funeral of the other person before she ended up in the coffin?', 49: ' Was the woman at the morgue before she ended up in the coffin?', 50: ' Was the woman at the cemetery before she ended up in the coffin?', 51: ' Was the woman at a location like a funeral home or crematorium before she ended up in the coffin?', 52: ' Was the woman in prison for a crime related to the other person in the coffin?', 53: ' Was the woman a prisoner wrongly presumed dead and buried with the other person, who was a deceased prisoner?', 54: ' Did the woman die in prison and then was buried with the other person who was also a deceased prisoner?', 55: ' Was the woman working in the prison when she was mistakenly presumed to be a dead prisoner and was then buried with the other person?', 56: ' Was the woman a prisoner and decided to hide in a coffin of the dead person in an attempt to escape prison?', 57: " To summarize: The woman was a prisoner who planned to escape. The opportunity came when another prisoner died. She decided to hide in the dead prisoner's coffin before the burial. After she got buried, she used a lighter to see who was with her in the coffin. Upon seeing the dead prisoner and realizing her situation, she died due to lack of oxygen. She didn't need a funeral because she was already buried.", 58: " Was the other person in the coffin an accomplice or involved in the woman's escape plan?", 59: " Alright, revising the summary: The woman was a prisoner who planned to escape. The opportunity came when another prisoner, who was an accomplice in her escape plan, died. She decided to hide in the accomplice's coffin before burial, hoping to be dug up later as part of the plan. However, after getting buried, she woke up and used a lighter to view her surroundings. Upon viewing the dead accomplice and realizing the reality of her situation, she died due to lack of oxygen. She didn't require another funeral because she was already buried.", 60: ' Was the other person in the coffin someone who was not a prisoner?', 61: ' Was the other person in the coffin the one who was supposed to dig her up as part of the escape plan?', 62: " To summarize: The woman was a prisoner who plotted an escape. As part of her plan, after a fellow prisoner died, she hid in his coffin, expecting to be dug up later by an accomplice who wasn't a prisoner. Unfortunately, the accomplice unexpectedly died and was placed in the coffin with her before burial. After being buried, she woke up and used a lighter to assess her surroundings. Upon discovering her accomplice's dead body and understanding the gravity of her situation, she died due to a lack of oxygen. There was no need for a second funeral as she had already been buried.", 63: ' Was the accomplice the cemetery worker or grave digger?', 64: ' To summarize accurately: The woman was a prisoner who created an escape plan. Her plan involved hiding in a coffin of a dead prisoner, expecting to be dug up later by an accomplice who worked at the cemetery perhaps as a grave digger. Unfortunately, the accomplice died and ended up in the coffin with her unexpectedly. After the coffin was buried, she woke up, lit the lighter to understand her surroundings. Discovering the presence of her dead accomplice and realizing the failure of her escape plan, she eventually died due to a lack of oxygen. Because she was already buried, there was no need for her to have a second funeral.'}</t>
-  </si>
-  <si>
     <t>[' A woman dies after lighting a lighter, and doesn’t even need a funeral. start by asking me questions', ' not really', ' she was not alone in the coffin', ' ask about this other person', ' not relevant', ' no, ask about where she was before she was in the coffin', ' no, she was in prison', ' this was the plan yes to be buried. But ask about the other person in the coffin', ' false assumption of other prisoner inside the coffin', ' what was the occupation of the accomplice?']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man ever tasted albatross before this incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly identified the dish as albatross when it was not?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any particular reactions (allergic or emotional) towards albatross?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man associated with an albatross in any traumatic past experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was this traumatic experience related to a lost loved one?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the traumatic experience related to being stranded or lost at sea?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he eat an albatross during this traumatic experience?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he believe he had eaten albatross during this traumatic experience?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man ever tasted albatross before this incident?', 2: 'Did the man mistakenly identified the dish as albatross when it was not?', 3: 'Did the man have any particular reactions (allergic or emotional) towards albatross?', 4: 'Was the man associated with an albatross in any traumatic past experience?', 5: 'Was this traumatic experience related to a lost loved one?', 6: 'Was the traumatic experience related to being stranded or lost at sea?', 7: 'Did he eat an albatross during this traumatic experience?', 8: 'Did he believe he had eaten albatross during this traumatic experience?', 9: 'So was the traumatic experience linked to the death of a companion, whose meat he believed to be albatross?', 10: 'The story is that the man was once stranded at sea and in desperation, he and his companions had to resort to cannibalism. He was led to believe that they were eating albatross to survive, not a fellow human. When he tasted the albatross at the restaurant, he realized the flavor did not match that of his traumatic memory. The horrifying truth drove him to suicide.'}</t>
-  </si>
-  <si>
     <t>['a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man goes into a restaurant that serves tropical specialties and orders albatross. after taking a bite, he storms out and jumps in front of a passing tram.'}, {'role': 'assistant', 'content': 'Did the man have a prior encounter with albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man have a prior encounter with albatross before his visit to the restaurant?', 2: 'Did the man survive a life-threatening situation where he had to eat albatross before his visit to the restaurant?', 3: 'Did the man believe that he had eaten albatross in the past but upon tasting it in the restaurant, he realized it tasted different?', 4: 'Did the albatross in the past get served in a dire situation where he and others were stranded with limited food supply?', 5: 'Did he believe that he had been mistakenly eating human flesh during that dire situation thinking it was albatross?', 6: "In this story, a man who had survived a life-threatening situation in the past, where he and others were stranded with limited food supply, believes he had eaten albatross to survive. He goes into a restaurant that serves tropical specialties and orders albatross. Upon taking a bite, he realizes that the taste is different from what he remembers. The stark difference makes him realize that what he had eaten during the dire situation wasn't albatross but likely human flesh. This revelation is too much for him to bear, leading him to storm out and end his life."}</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions'}, {'role': 'assistant', 'content': 'Did the man die?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there poison in the drink that the man had?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have any allergies?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing medical condition that might have caused his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman do anything to the man's drink after they were served by the bartender?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks come into contact with anything else after they were served?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman drink her drink faster than the man?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die as a result of a delayed reaction to something in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the bartender involved in the man's death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did anyone else manipulate the man's drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.'}, {'role': 'user', 'content': 'why was the woman not affected?'}, {'role': 'assistant', 'content': 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink get neutralized over time or by exposure to air?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there ice in the drink?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man die?', 2: 'Was there poison in the drink that the man had?', 3: 'Did the man have any allergies?', 4: 'Did the man have a pre-existing medical condition that might have caused his death?', 5: "Did the woman do anything to the man's drink after they were served by the bartender?", 6: 'Did the drinks come into contact with anything else after they were served?', 7: 'Did the man choke on the drink?', 8: 'Did the woman drink her drink faster than the man?', 9: 'Did the man die as a result of a delayed reaction to something in the drink?', 10: "Was the bartender involved in the man's death?", 11: "Did anyone else manipulate the man's drink?", 12: 'Was there something harmful in both drinks but because the woman drank hers quickly, it did not affect her?', 13: 'So, the summary of the story is: A man and a woman went into a pub and ordered the same drink from the bartender. The drinks served by the bartender had something harmful in them. However, the woman drank her beverage quickly, so she was not affected by whatever was in the drink. The man, on the other hand, took his time, which led to his death.', 14: 'The woman was not affected because the harmful substance in the drink needed time in order to be fatal. Because she drank her drink quickly, the substance did not have enough time to become lethal in her body.', 15: 'Did the harmful substance in the drink get neutralized over time or by exposure to air?', 16: 'Was the harmful substance in the drink activated by the warmth or heat generated from holding the drink for a long time?', 17: 'Did the woman have some natural immunity or tolerance to the harmful substance in the drink?', 18: "Did the harmful substance settle at the bottom of the glass, meaning the woman didn't intake any as she didn't finish her drink completely?", 19: 'Did the harmful substance in the drink had to be stirred or shaken in order to be activated?', 20: 'Was there ice in the drink?', 21: 'Did the ice contain a harmless substance that when melted and mixed with the drink neutralized the harmful substance?', 22: "Did the ice in the drink contain the poison, and since the woman drank quickly, the ice didn't have time to fully melt into her drink?", 23: 'The story is: A man and a woman went into a pub and ordered the same drink, which had ice in it. Unbeknownst to them, the ice contained a harmful substance. The woman drank her beverage quickly, before the ice had time to melt and release the harmful substance into her drink, and therefore was not affected. The man, however, drank his beverage slowly, the ice melted, releasing the harmful substance into his drink, leading to his death.'}</t>
-  </si>
-  <si>
     <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. start asking questions', 'why was the woman not affected?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. '}, {'role': 'assistant', 'content': 'Did the drink contain poison?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman die?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone else at the pub harm the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a pre-existing health condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man consume anything else besides the drink before his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drinks have different temperatures?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drink something else other than the drink he ordered at the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was there something in the man's glass before the drink was poured?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they drink at different speeds?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drink faster than the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So the man died because he drank slower than the woman, correct?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the drink they ordered an alcoholic beverage?'}, {'role': 'user', 'content': 'not relevant'}, {'role': 'assistant', 'content': 'Did the man die from some type of external event or trigger while they were in the pub?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something deadly or toxic within the drinks that got neutralized over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man choke on his drink?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something harmful in the drink that naturally sank to the bottom over time?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman do something to her drink before consuming it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the drink they had ordered originally contain something harmful?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the ice in their drinks have anything to do with the death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's ice melt before she consumed her drink?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the ice in the man's drink contain a harmful substance?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise."}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the drink contain poison?', 2: 'Did the woman die?', 3: 'Did someone else at the pub harm the man?', 4: 'Did the man have a pre-existing health condition?', 5: 'Did the man consume anything else besides the drink before his death?', 6: 'Did the drinks have different temperatures?', 7: 'Did the man drink something else other than the drink he ordered at the pub?', 8: "Was there something in the man's glass before the drink was poured?", 9: 'Did they drink at different speeds?', 10: 'Did the man drink faster than the woman?', 11: 'So the man died because he drank slower than the woman, correct?', 12: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink. The woman drank her drink quickly, while the man sipped his slower. The drinks had a slowly dissolving poison that would only be deadly if ingested over a longer period of time. So, the man who took his time drinking, consumed more of the poison and thus died. The woman because she drank quickly, ingested less of the poison and survived.', 13: 'Was there something wrong or deadly with the last part of the drink that the man reached because he drank slower?', 14: 'Was the drink they ordered an alcoholic beverage?', 15: 'Did the man die from some type of external event or trigger while they were in the pub?', 16: 'Was there something deadly or toxic within the drinks that got neutralized over time?', 17: 'Did the man choke on his drink?', 18: 'Was there something harmful in the drink that naturally sank to the bottom over time?', 19: 'Did the woman do something to her drink before consuming it?', 20: 'Did the drink they had ordered originally contain something harmful?', 21: 'Did the ice in their drinks have anything to do with the death?', 22: "Did the woman's ice melt before she consumed her drink?", 23: "Did the ice in the man's drink contain a harmful substance?", 24: "Did the harmful substance in the man's ice start affecting him only after the ice began to melt?", 25: "The summary of the story is: A man and a woman walked into a pub and ordered the same drink. Each of their drinks contained ice, however, the ice in the man's drink contained a harmful substance. Since the woman drank her drink quickly, the ice in her drink did not have time to melt and release the harmful substance. But the man, who drank his drink slower, gave time for the ice to melt, releasing the harmful substance into his drink and leading to his demise.", 26: 'Did the woman finish her drink before the ice in her glass have a chance to fully melt?', 27: 'The summary of the story is: A man and a woman walked into a pub and ordered the same drink, both containing ice cubes. The ice cubes in the drinks were poisoned. The woman drank her drink quickly, not giving the ice cubes enough time to fully melt and release the poison into her drink. The man, on the other hand, drank slowly, the ice cubes in his drink melted and the poison was released into the drink, which led to his death.\n'}</t>
-  </si>
-  <si>
     <t>['a man and a woman are walking into a pub. they order the same drink from the bartender. one of them dies and the other one lives. ', 'not relevant', 'quit']</t>
   </si>
   <si>
-    <t>['Linthe Van Rooij: You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Linthe Van Rooij: Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'Thijs : Is her death related to the shoes', 'Linthe Van Rooij: yes', 'Thijs : Are they regular shoes?', 'Linthe Van Rooij: yes', 'Thijs : Is her friend willingly giving the shoes?', 'Linthe Van Rooij: yes', 'Thijs : Does her friend know about the death when it is happening', 'Linthe Van Rooij: no', 'Thijs : Did she die naturally?', 'Linthe Van Rooij: no', 'Thijs : She was murdered?', 'Linthe Van Rooij: no', 'Thijs : Accident?', 'Linthe Van Rooij: yes', 'Thijs : Did she trip because of the shoes?', 'Linthe Van Rooij: no', 'Thijs : Did sure have the shoes on when she died?', 'Linthe Van Rooij: yes', 'Thijs : Was there anything off about the shoes?', 'Linthe Van Rooij: no', 'Thijs : Was there anyone else involved in her death', 'Linthe Van Rooij: yes', 'Thijs : Did that person want the shoes', 'Linthe Van Rooij: no', 'Thijs : Did they make the accident happen', 'Linthe Van Rooij: yes', 'Thijs : Was the accident at home', 'Linthe Van Rooij: yes', 'Thijs : Was it her husband?', 'Linthe Van Rooij: yes', 'Thijs : Was her husband having an affair with the friend', 'Linthe Van Rooij: no', 'Thijs : Did she die because of air restriction? E.g. choked', 'Linthe Van Rooij: no', 'Linthe Van Rooij: What where they doing together?', "Thijs : We're they dancing?", 'Linthe Van Rooij: no', "Thijs : We're they moving", 'Linthe Van Rooij: false assumption they', 'Thijs : Was she moving', 'Linthe Van Rooij: no', 'Thijs : Was he moving', 'Linthe Van Rooij: yes', 'Thijs : Did he kill her by accident', 'Linthe Van Rooij: yes', 'Thijs : Did he trip over the shoes', 'Linthe Van Rooij: no', 'Thijs : Did he stab her', 'Linthe Van Rooij: no', 'Thijs : Was he taking a shower', 'Linthe Van Rooij: no', 'Thijs : Were they eating', 'Linthe Van Rooij: no', 'Thijs : Sleeping?', 'Linthe Van Rooij: no', 'Thijs : Cooking', 'Linthe Van Rooij: no', 'Thijs : Did he scare her', 'Linthe Van Rooij: no', 'Thijs : Hint', 'Linthe Van Rooij: ask about the hobbies of the man', 'Thijs : Was he a shoe maker', 'Linthe Van Rooij: no', 'Thijs : Did he have a workshop', 'Linthe Van Rooij: no', 'Thijs : Anything clothes, food or fashion related hobbies?', 'Linthe Van Rooij: no', 'Thijs : Anything with weapons?', 'Linthe Van Rooij: yes', 'Thijs : Swords?', 'Linthe Van Rooij: no', 'Thijs : Guns', 'Linthe Van Rooij: no', 'Thijs : Bow and arrow', 'Linthe Van Rooij: yes', 'Thijs : Did her shoes look like a target', 'Linthe Van Rooij: no', 'Thijs : Did he shoot her with an arrow', 'Linthe Van Rooij: yes', 'Linthe Van Rooij: what could have been different with other shoes', 'Thijs : Did he think she was an intruder', 'Linthe Van Rooij: no', 'Thijs : Did she have the same shoes as his targets', 'Linthe Van Rooij: no', 'Thijs : Was she taller because of the shoes', 'Linthe Van Rooij: yes', 'Thijs : Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Linthe Van Rooij: no', 'Thijs : Was she taller than a safety wall, so she could get hit', 'Linthe Van Rooij: no', 'Linthe Van Rooij: Could he see where he was aiming?', 'Thijs : Was he blind or blondfolded', 'Linthe Van Rooij: yes', 'Thijs : So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her', 'Linthe Van Rooij: ik keur hem goed!']</t>
-  </si>
-  <si>
-    <t>['Is her death related to the shoes', 'Are they regular shoes?', 'Is her friend willingly giving the shoes?', 'Does her friend know about the death when it is happening', 'Did she die naturally?', 'She was murdered?', 'Accident?', 'Did she trip because of the shoes?', 'Did sure have the shoes on when she died?', 'Was there anything off about the shoes?', 'Was there anyone else involved in her death', 'Did that person want the shoes', 'Did they make the accident happen', 'Was the accident at home', 'Was it her husband?', 'Was her husband having an affair with the friend', 'Did she die because of air restriction? E.g. choked', "We're they dancing?", "We're they moving", 'Was she moving', 'Was he moving', 'Did he kill her by accident', 'Did he trip over the shoes', 'Did he stab her', 'Was he taking a shower', 'Were they eating', 'Sleeping?', 'Cooking', 'Did he scare her', 'Hint', 'Was he a shoe maker', 'Did he have a workshop', 'Anything clothes, food or fashion related hobbies?', 'Anything with weapons?', 'Swords?', 'Guns', 'Bow and arrow', 'Did her shoes look like a target', 'Did he shoot her with an arrow', 'Did he think she was an intruder', 'Did she have the same shoes as his targets', 'Was she taller because of the shoes', 'Did he practice shooting stuff from her head but now she is taller thus he shot her in the head', 'Was she taller than a safety wall, so she could get hit', 'Was he blind or blondfolded', 'So he shoots arrows blind, and she hold up a target ðŸŽ¯, but because she is taller he missed and hit her']</t>
-  </si>
-  <si>
     <t>['You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.', 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'What where they doing together?', 'false assumption they', 'ask about the hobbies of the man', 'what could have been different with other shoes', 'Could he see where he was aiming?', 'ik keur hem goed!']</t>
   </si>
   <si>
-    <t>['Linthe Van Rooij: A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Thijs : Did she die in a fire or die from the smoke of the fire', 'Linthe Van Rooij: No', 'Thijs : Was she already burried?', 'Linthe Van Rooij: Yes', 'Thijs : Was she already presumed to be dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall in a coffin?', 'Linthe Van Rooij: No', 'Thijs : But she is in a coffin?', 'Linthe Van Rooij: Yes', 'Thijs : She lit the lighter to see that she was buried?', 'Linthe Van Rooij: No', 'Thijs : Was she mistaken for someone else?', 'Linthe Van Rooij: No', 'Thijs : Was she in the coffin by accident?', 'Linthe Van Rooij: No', 'Thijs : Was she looking for someone in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Did people already think that she was dead?', 'Linthe Van Rooij: No', 'Thijs : Did she fall asleep in the coffin?', 'Linthe Van Rooij: No', 'Thijs : Was there anyone else involved in her death?', 'Linthe Van Rooij: Yes', 'Thijs : Did that person try to kill/murder her or accidentally kill her?', 'Linthe Van Rooij: No', 'Thijs : Was that person alive?', 'Linthe Van Rooij: No', 'Thijs : Did she suffocate?', 'Linthe Van Rooij: Yes', 'Thijs : Did she dig the hole that she was in herself?', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: Ask about the occupation of the other person involved', 'Thijs : Was the other person a gravedigger or involved at the graveyard?', 'Linthe Van Rooij: Yes', 'Thijs : Was there anyone else involved', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger digging her grave?', 'Linthe Van Rooij: No', 'Thijs : Was the gravedigger already dead when she met him?', 'Linthe Van Rooij: No', 'Thijs : Did they fight and she killed him?', 'Linthe Van Rooij: No', 'Thijs : Did she know him?', 'Linthe Van Rooij: Yes', 'Thijs : Was she related to him?', 'Linthe Van Rooij: No', 'Thijs : Were they partners', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Why did she lit the lighter inside the coffin?', 'Thijs : To set something on fire or to signal something?', 'Linthe Van Rooij: No', 'Thijs : To light a cigarette or to suffocate herself?', 'Linthe Van Rooij: No', 'Thijs : Was the other person with her inside or the coffin?', 'Linthe Van Rooij: Yes', 'Thijs : Did she light it to kill him or to do anything related to him?', 'Linthe Van Rooij: No', 'Thijs : Did she take a shortcut home through the graveyard?', 'Linthe Van Rooij: No', 'Thijs : Did the guy fall in the coffin?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about where she was before', 'Thijs : Was she at a funeral?', 'Linthe Van Rooij: No', 'Thijs : At a social event?', 'Linthe Van Rooij: No', 'Thijs : Was she visiting someone at the graveyard or was she running?', 'Linthe Van Rooij: No', 'Thijs : Was she walking', 'Linthe Van Rooij: No', 'Thijs : Was she scared of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Was she at home', 'Linthe Van Rooij: No', 'Thijs : Anything sport related or food related', 'Linthe Van Rooij: No', 'Thijs : Was she drunk or on drugs', 'Linthe Van Rooij: No', 'Thijs : Was she shopping or in town', 'Linthe Van Rooij: No', 'Thijs : Was it night', 'Linthe Van Rooij: Not relevant', 'Thijs : Was she driving around', 'Linthe Van Rooij: No', 'Thijs : Hint', 'Linthe Van Rooij: She was a criminal/convict', 'Thijs : Did she just rob the house of the gravedigger', 'Linthe Van Rooij: No', 'Thijs : Did she rob someone who died', 'Linthe Van Rooij: No', 'Thijs : Did she just rob someone', 'Linthe Van Rooij: No', 'Thijs : Did she just murder someone?', 'Linthe Van Rooij: No', 'Thijs : Was she escaping prison', 'Linthe Van Rooij: Yes', 'Thijs : And she was hiding in the grave to escape the police?', 'Linthe Van Rooij: Yes', 'Thijs : And the gravedigger was an accomplice?', 'Linthe Van Rooij: Yes', 'Thijs : So they tried to hide from the police by hiding in the grave but they got locked in', 'Linthe Van Rooij: No', 'Thijs : She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'Linthe Van Rooij: She expected another person to be in the grave next to her', 'Thijs : She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her', 'Linthe Van Rooij: Allrightyy']</t>
-  </si>
-  <si>
-    <t>['Did she die in a fire or die from the smoke of the fire', 'Was she already burried?', 'Was she already presumed to be dead?', 'Did she fall in a coffin?', 'But she is in a coffin?', 'She lit the lighter to see that she was buried?', 'Was she mistaken for someone else?', 'Was she in the coffin by accident?', 'Was she looking for someone in the coffin?', 'Did people already think that she was dead?', 'Did she fall asleep in the coffin?', 'Was there anyone else involved in her death?', 'Did that person try to kill/murder her or accidentally kill her?', 'Was that person alive?', 'Did she suffocate?', 'Did she dig the hole that she was in herself?', 'Hint', 'Was the other person a gravedigger or involved at the graveyard?', 'Was there anyone else involved', 'Was the gravedigger digging her grave?', 'Was the gravedigger already dead when she met him?', 'Did they fight and she killed him?', 'Did she know him?', 'Was she related to him?', 'Were they partners', 'To set something on fire or to signal something?', 'To light a cigarette or to suffocate herself?', 'Was the other person with her inside or the coffin?', 'Did she light it to kill him or to do anything related to him?', 'Did she take a shortcut home through the graveyard?', 'Did the guy fall in the coffin?', 'Was she at a funeral?', 'At a social event?', 'Was she visiting someone at the graveyard or was she running?', 'Was she walking', 'Was she scared of the gravedigger', 'Was she at home', 'Anything sport related or food related', 'Was she drunk or on drugs', 'Was she shopping or in town', 'Was it night', 'Was she driving around', 'Hint', 'Did she just rob the house of the gravedigger', 'Did she rob someone who died', 'Did she just rob someone', 'Did she just murder someone?', 'Was she escaping prison', 'And she was hiding in the grave to escape the police?', 'And the gravedigger was an accomplice?', 'So they tried to hide from the police by hiding in the grave but they got locked in', 'She tried to hide from the police in the grave that the gravedigger made for her, but he was also dead in the coffin so they were trapped, she lit the lighter to confirm that he was dead', 'She tried to escape the prison through the coffin of someone else, and the gravedigger was supposed to get her out, but the coffin was for the gravedigger thus he could not get her out, she used the lighter to see the face of the person that was in the coffin with her']</t>
-  </si>
-  <si>
     <t>['A woman dies after lighting a lighter, and doesnâ€™t even need a funeral.', 'Ask about the occupation of the other person involved', 'Why did she lit the lighter inside the coffin?', 'Ask about where she was before', 'Not relevant', 'She was a criminal/convict', 'She expected another person to be in the grave next to her', 'Allrightyy']</t>
   </si>
   <si>
-    <t>['Linthe Van Rooij: A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'Lynn van Zeijts: is one of them going to die after she leaves?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: do they have an important conversation after he received the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the men also has a weapon?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: will he take the knife of the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is she leaving with the knife in her hand?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men ask the women for a knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is one the men or the women getting injured?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: are there more people involved except the men &amp; women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know why the women decides to leave?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: False assumption woman leaves', 'Lynn van Zeijts: so HE leaves? (not she)', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did the  men pay for his coke?', 'Lynn van Zeijts: is the relation between the men &amp; women important?', 'Linthe Van Rooij: Not relevant', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women aimed to threaten him with the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the women ask him to do something with the knife because she did not want to do something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men insult the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men do something which can be seen considerd as ethically wrong?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about why he orders something at the bar', 'Lynn van Zeijts: did he order a coke to celebrate something?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something because had some medical emergency?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he order something for a negative reason?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was this negative reason related to the women?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this related to his work?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to his family live?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the fact that he order coke (and not another drink) important to understand the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did he revelaed a secret?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men receive his coke before she grabbed the knife?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men threatend the women as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: so did the women refused to give him the coke?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the negative event happended shortly before he entered the cafe?', 'Linthe Van Rooij: No, it is still happening', 'Lynn van Zeijts: did they got into a fight?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the men drink anything before he order the coke?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The drink could serve as a remedy for the event', 'Lynn van Zeijts: were there any other elements or objects involved, caused the negative event?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the coke dangerous for him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is the negative event over once he leaves the cafe?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the women trying to help the men by showing the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does the men wants to kill himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to kill or injure him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: She only wants to scare him', 'Lynn van Zeijts: to protect herself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: to protect and help him?', 'Linthe Van Rooij: Ask these questions seperately', 'Lynn van Zeijts: is the women trying to help the men by scaring him with the knife?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.', 'Linthe Van Rooij: Yes!!!!!!! You got it']</t>
-  </si>
-  <si>
-    <t>['is one of them going to die after she leaves?', 'do they have an important conversation after he received the coke?', 'does the men also has a weapon?', 'will he take the knife of the women?', 'is she leaving with the knife in her hand?', 'did the men ask the women for a knife?', 'is one the men or the women getting injured?', 'are there more people involved except the men &amp; women?', 'is it important to know why the women decides to leave?', 'so HE leaves? (not she)', 'did the  men pay for his coke?', 'is the relation between the men &amp; women important?', 'did the women aimed to threaten him with the knife?', 'did the women ask him to do something with the knife because she did not want to do something?', 'did the men insult the women?', 'did the men do something which can be seen considerd as ethically wrong?', 'did he order a coke to celebrate something?', 'did he order something because had some medical emergency?', 'did he order something for a negative reason?', 'was this negative reason related to the women?', 'was this related to his work?', 'to his family live?', 'is the fact that he order coke (and not another drink) important to understand the negative event?', 'did he revelaed a secret?', 'did the men receive his coke before she grabbed the knife?', 'did the men threatend the women as well?', 'so did the women refused to give him the coke?', 'did the negative event happended shortly before he entered the cafe?', 'did they got into a fight?', 'did the men drink anything before he order the coke?', 'were there any other elements or objects involved, caused the negative event?', 'is the coke dangerous for him?', 'is the negative event over once he leaves the cafe?', 'is the women trying to help the men by showing the knife?', 'does the men wants to kill himself?', 'does the women wants to kill or injure him?', 'does the women wants to break or open anything related to the men (rope, hair, a bag ect)?', 'to protect herself?', 'to protect and help him?', 'is the women trying to help the men by scaring him with the knife?', 'Did the men had a hiccup, and therefore asked for a coke. However, this did not work. Therefore the women tried to scared him with a knife. As a result, the hiccup went away and the men thanked her for her help.']</t>
-  </si>
-  <si>
     <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and pointed it towards the man. He thanks her and leaves.', 'False assumption woman leaves', 'Not relevant', 'Ask about why he orders something at the bar', 'No, it is still happening', 'The drink could serve as a remedy for the event', 'She only wants to scare him', 'Ask these questions seperately', 'Yes!!!!!!! You got it']</t>
   </si>
   <si>
-    <t>['Linthe Van Rooij: A man climbs out of a large vehicle and drowned himself', 'Lynn van Zeijts: is the vehicle still on land when he climbs out the vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle close to water as well?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other people in the vehicle as well?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was this vehicle an airplane?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is this vehicle used for public transport?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it relevant to know the type of vehicle?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is the vehicle made to be on land?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: is it a tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he drown himself on purpose?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was he a farmer?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did something negative happened to his farming practices?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did something negative happened at all?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: does this has anything to do with the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was the tractor broken?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the land, in which the tractor was located at that moment boggy?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the reason that he climbed out of the tractor had anything to do with the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: was the water in which he drowned himself close to the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: were there any other objects or people involved in the negative event?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were there any people in the tractor?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he wanted to go to the other people?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the drowning happened right after he climbed out of the tractor?', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: did the other people influenced him in stepping out of the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was it dangerous for him to stay in the vehicle?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people also with tractors? n', 'Linthe Van Rooij: No', 'Lynn van Zeijts: is it important to know how he exactly climbed out of the tractor?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Ask about the relationship with the people involved', 'Lynn van Zeijts: did the other people wanted him to drown himself?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people wanted to save him?', 'Lynn van Zeijts: did he know the other people before?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Not relevant', 'Lynn van Zeijts: was it an accident that he drowned?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the other people saw something which the men could not see (when he was still in the tractor)?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the other people also farmers?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were the other people angry at him?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: did the know eachother for a long time?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they employees?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: family?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were they close to the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was there a fight or any other negative event between the men and his family?', 'Linthe Van Rooij: No', 'Lynn van Zeijts: were there any childern involved?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: were the childeren outside the tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he climbed out the tractor for his childern?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: was his kid in a dangerous situation?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he aimed to save his kid by climbing out of the tractor?', 'Lynn van Zeijts: did he cause the dangerous situation?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: did he accidently killed his kid with his tractor?', 'Linthe Van Rooij: Yes', 'Lynn van Zeijts: so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
-  </si>
-  <si>
-    <t>['is the vehicle still on land when he climbs out the vehicle?', 'is the vehicle close to water as well?', 'were there any other people in the vehicle as well?', 'was this vehicle an airplane?', 'is this vehicle used for public transport?', 'is it relevant to know the type of vehicle?', 'is the vehicle made to be on land?', 'is it a tractor?', 'did he drown himself on purpose?', 'was he a farmer?', 'did something negative happened to his farming practices?', 'did something negative happened at all?', 'does this has anything to do with the tractor?', 'was the tractor broken?', 'was the land, in which the tractor was located at that moment boggy?', 'did the reason that he climbed out of the tractor had anything to do with the tractor?', 'was the water in which he drowned himself close to the tractor?', 'were there any other objects or people involved in the negative event?', 'were there any people in the tractor?', 'outside the tractor?', 'did he wanted to go to the other people?', 'did the drowning happened right after he climbed out of the tractor?', 'did the other people influenced him in stepping out of the tractor?', 'was it dangerous for him to stay in the vehicle?', 'were the other people also with tractors? n', 'is it important to know how he exactly climbed out of the tractor?', 'did the other people wanted him to drown himself?', 'did the other people wanted to save him?', 'did he know the other people before?', 'was it an accident that he drowned?', 'did the other people saw something which the men could not see (when he was still in the tractor)?', 'were the other people also farmers?', 'were the other people angry at him?', 'did the know eachother for a long time?', 'were they employees?', 'family?', 'were they close to the tractor?', 'was there a fight or any other negative event between the men and his family?', 'were there any childern involved?', 'were the childeren outside the tractor?', 'did he climbed out the tractor for his childern?', 'was his kid in a dangerous situation?', 'did he aimed to save his kid by climbing out of the tractor?', 'did he cause the dangerous situation?', 'did he accidently killed his kid with his tractor?', 'so he accidently he run over the kid with his tractor because he did not saw him because they were playing the field so he drowned himself somewhere afterwards because it made him so depressed']</t>
-  </si>
-  <si>
     <t>['A man climbs out of a large vehicle and drowned himself', 'Not relevant', 'Not relevant', 'Not relevant', 'Ask about the relationship with the people involved', 'Not relevant']</t>
   </si>
   <si>
-    <t>['Linthe Van Rooij: A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'PiÃ±a: Did someone die?', 'PiÃ±a: Are they loved ones?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Were they playing checkers together?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner do something with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Can the winner kill the loser with the pistol?', 'Linthe Van Rooij: No', 'PiÃ±a: Is someone going to shoot with the pistol?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did the woman win?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: Did the man or woman shot another person in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Were there other people in the room?', 'Linthe Van Rooij: No', 'PiÃ±a: Did someone shoot in the air?', 'Linthe Van Rooij: No', 'PiÃ±a: Did one of the two people kill the other?', 'Linthe Van Rooij: No', 'PiÃ±a: I mean did one shot the other?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot?', 'Linthe Van Rooij: No', 'PiÃ±a: But there was a shot but not on a person?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: there was no shot but there is going to be', 'PiÃ±a: Can the winner use the pistol to make a shot?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Will the winner of the game shoot the other player after winning the game of checkers?', 'Linthe Van Rooij: No', 'PiÃ±a: Will someone die in the future?', 'Linthe Van Rooij: Yes', 'PiÃ±a: One of the two players?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The winner?', 'Linthe Van Rooij: Yes', 'PiÃ±a: The loser is so sad and mad that they shot the winner?', 'Linthe Van Rooij: No', 'PiÃ±a: They are playing the game because someone has to die?', 'Linthe Van Rooij: No', 'PiÃ±a: The winner shot themselves?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is the why of this question relevant?', 'Linthe Van Rooij: Yes', 'Linthe Van Rooij: Ask about the location', 'PiÃ±a: Were they in jail?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in a bar?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they in an unusual place to play the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Were they outside?', 'Linthe Van Rooij: No', 'PiÃ±a: At someoneâ€™s house?', 'Linthe Van Rooij: No', 'PiÃ±a: Were they going from a place to another place while playing the game?', 'Linthe Van Rooij: No', 'PiÃ±a: This is so hard, can you give me another hint', 'Linthe Van Rooij: They are in some kind of vehicle', 'PiÃ±a: In a plane?', 'Linthe Van Rooij: No', 'PiÃ±a: In a train?', 'Linthe Van Rooij: No', 'PiÃ±a: In a bus?', 'Linthe Van Rooij: No', 'PiÃ±a: In a car?', 'Linthe Van Rooij: No', 'PiÃ±a: In a boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Did someone shoot a hole in the boat?', 'Linthe Van Rooij: No', 'Linthe Van Rooij: The type of boat is relevant to the story', 'PiÃ±a: Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is it a cruise?', 'Linthe Van Rooij: No', 'PiÃ±a: A big boat?', 'Linthe Van Rooij: No', 'PiÃ±a: Or a small boat for just the two of them?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A rowing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: A rubber boat?', 'Linthe Van Rooij: No', 'PiÃ±a: The boat was big enough for a table right?', 'Linthe Van Rooij: Yes', 'PiÃ±a: An expensive boat?', 'Linthe Van Rooij: Yes', 'PiÃ±a: A yacht?', 'Linthe Van Rooij: No', 'PiÃ±a: A sailing boat?', 'Linthe Van Rooij: No', 'PiÃ±a: I just named all boat types haha, do I have to go in a different direction?', 'Linthe Van Rooij: Yes, under water', 'PiÃ±a: A submarine?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Is why they were there relevant?', 'Linthe Van Rooij: No', 'PiÃ±a: What am I missing?', 'Linthe Van Rooij: Why would you want to shoot yourself in a submarine?', 'PiÃ±a: Because the person was getting crazy?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the submarine still able to go up after the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: So the person killed everyone in the submarine by the shot?', 'Linthe Van Rooij: No', 'PiÃ±a: Was the shot on themselves intentional?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Does the why they wanted to shot themselves have to do with the game?', 'Linthe Van Rooij: No', 'PiÃ±a: Did it have something to do with the other person?', 'Linthe Van Rooij: No', 'PiÃ±a: Give me more hints please haha I am done with this game', "Linthe Van Rooij: The game is a result of that the submarine can't go up", 'PiÃ±a: Am I even close? I am so bad at this', 'Linthe Van Rooij: Your almost there!!!', 'PiÃ±a: The person who shot themselves was the driver?', 'Linthe Van Rooij: Not relevant', 'PiÃ±a: They were forever stuck there?', 'Linthe Van Rooij: Yes', 'PiÃ±a: They already knew that they were stuck before playing the game?', 'Linthe Van Rooij: Yes', 'PiÃ±a: There was just one bullet?', 'Linthe Van Rooij: Yes', 'PiÃ±a: Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
-  </si>
-  <si>
-    <t>['Did someone die?', 'Are they loved ones?', 'Were they playing checkers together?', 'Can the winner do something with the pistol?', 'Can the winner kill the loser with the pistol?', 'Is someone going to shoot with the pistol?', 'Did the woman win?', 'Did the man or woman shot another person in the room?', 'Were there other people in the room?', 'Did someone shoot in the air?', 'Did one of the two people kill the other?', 'I mean did one shot the other?', 'But there was a shot?', 'But there was a shot but not on a person?', 'Can the winner use the pistol to make a shot?', 'Will the winner of the game shoot the other player after winning the game of checkers?', 'Will someone die in the future?', 'One of the two players?', 'The winner?', 'The loser is so sad and mad that they shot the winner?', 'They are playing the game because someone has to die?', 'The winner shot themselves?', 'Is the why of this question relevant?', 'Were they in jail?', 'Were they in a bar?', 'Were they in an unusual place to play the game?', 'Were they outside?', 'At someoneâ€™s house?', 'Were they going from a place to another place while playing the game?', 'This is so hard, can you give me another hint', 'In a plane?', 'In a train?', 'In a bus?', 'In a car?', 'In a boat?', 'Did someone shoot a hole in the boat?', 'Okay summary, two players are on a boat playing checkers, the winner fires a shot with the pistol in the future on theirselves', 'Is it a cruise?', 'A big boat?', 'Or a small boat for just the two of them?', 'A rowing boat?', 'A rubber boat?', 'The boat was big enough for a table right?', 'An expensive boat?', 'A yacht?', 'A sailing boat?', 'I just named all boat types haha, do I have to go in a different direction?', 'A submarine?', 'Is why they were there relevant?', 'What am I missing?', 'Because the person was getting crazy?', 'Was the submarine still able to go up after the shot?', 'So the person killed everyone in the submarine by the shot?', 'Was the shot on themselves intentional?', 'Does the why they wanted to shot themselves have to do with the game?', 'Did it have something to do with the other person?', 'Give me more hints please haha I am done with this game', 'Am I even close? I am so bad at this', 'The person who shot themselves was the driver?', 'They were forever stuck there?', 'They already knew that they were stuck before playing the game?', 'There was just one bullet?', 'Ok I think I know now. The people were stuck in a submarine, and they wanted to kill themselves but there was just one bullet in the pistol, they played a game of checkers and the winner could use the bullet to use it to shoot themselves']</t>
-  </si>
-  <si>
     <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'Not relevant', 'Not relevant', 'there was no shot but there is going to be', 'Ask about the location', 'They are in some kind of vehicle', 'The type of boat is relevant to the story', 'Yes, under water', 'Why would you want to shoot yourself in a submarine?', "The game is a result of that the submarine can't go up", 'Your almost there!!!', 'Not relevant']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Are the shoes poisoned?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die as a result of a physical harm that was related to wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola trip and fall because of the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she was wearing the shoes and someone wanted them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the shoes were too tight and it caused a health issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed by an animal that was attracted to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause Lola to be in a dangerous location or situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height cause her to hit her head fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height make her visible to someone or something that led to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the height from the shoes lead to Lola falling from a height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola get electrocuted because of her increased height from wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's tallness from the shoes cause her to be struck by lightning?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height from the shoes cause her to suffocate?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve water?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve electricity?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a direct contact with a person?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola in a place with a low ceiling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the person who had direct contact with Lola the cause of her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person attack Lola because she was taller due to the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Could the danger have been avoided if Lola had not been wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the fatal incident involving Lola and the other person occur indoors?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the other person mistake Lola for someone else because of her increased height from the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the other person attack Lola because he/she was startled by her unexpected height?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve a fall or dropping from a height because of the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to'}, {'role': 'user', 'content': 'No you are not there yet. You are keeping it very vague.'}, {'role': 'assistant', 'content': 'Was Lola in a work or construction environment when she was struck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes."}, {'role': 'user', 'content': "You're missing some details. Explore the relationships and circumstances."}, {'role': 'assistant', 'content': "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?"}, {'role': 'user', 'content': 'yes but why did the shooter not account for that?'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the shooter blindfolded during the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height."}, {'role': 'user', 'content': 'not there yet. Why and who shot at Lola?'}, {'role': 'assistant', 'content': "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it her partner who was performing the trick shot?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}]</t>
-  </si>
-  <si>
-    <t>{1: 'Are the shoes poisoned?', 2: 'Did Lola die as a result of a physical harm that was related to wearing the shoes?', 3: 'Did Lola trip and fall because of the shoes?', 4: "Did Lola get hit by a vehicle because she couldn't move fast enough in the shoes?", 5: 'Was Lola killed because she was wearing the shoes and someone wanted them?', 6: 'Did Lola die because the shoes were too tight and it caused a health issue?', 7: 'Was Lola killed by an animal that was attracted to the shoes?', 8: 'Did the shoes cause Lola to be in a dangerous location or situation?', 9: "Did Lola's increased height cause her to hit her head fatally?", 10: "Did Lola's increased height make her visible to someone or something that led to her death?", 11: 'Did the height from the shoes lead to Lola falling from a height?', 12: 'Was there something on a high place that Lola could reach because of her increased height and this led to her death?', 13: "Did Lola's tallness from wearing the shoes cause her to be struck by something overhead?", 14: 'Did Lola get electrocuted because of her increased height from wearing the shoes?', 15: "Did Lola's tallness from the shoes cause her to be struck by lightning?", 16: "Was Lola's height from the shoes the cause of her getting stuck somewhere leading to her death?", 17: 'Were the shoes heels and Lola died because she was not used to walking in heels and the imbalance led to a fatal accident?', 18: "Did Lola's increased height from the shoes make her a target for a violent act that resulted in her death?", 19: "Did Lola's increased height from the shoes cause her to suffocate?", 20: "Did Lola's increased height due to the shoes cause her to hang herself, for example on a low hanging ceiling fan?", 21: 'Did the increased height from the shoes cause Lola to hit her head on  something, passing unnoticed initially but ultimately leading to a fatal injury?', 22: "Did Lola's death involve water?", 23: "Did Lola's death involve fire?", 24: "Did Lola's death involve electricity?", 25: "Did Lola's death involve a direct contact with a person?", 26: 'Was Lola in a place with a low ceiling?', 27: 'Was Lola killed because she stood out in a crowd due to her increased height from the shoes?', 28: 'Was the person who had direct contact with Lola the cause of her death?', 29: 'Did this person attack Lola because she was taller due to the shoes?', 30: "Was this person a threat to Lola and she didn't realize because of her increased height from the shoes?", 31: 'Did this person purposely give Lola the shoes knowing that the increased height would put her in danger?', 32: 'Could the danger have been avoided if Lola had not been wearing the shoes?', 33: 'Did the fatal incident involving Lola and the other person occur indoors?', 34: 'Did the other person mistake Lola for someone else because of her increased height from the shoes?', 35: 'Was the other person aware that Lola was wearing the shoes at the time of the fatal incident?', 36: 'Did the other person attack Lola because he/she was startled by her unexpected height?', 37: "Did Lola's death involve a fall or dropping from a height because of the shoes?", 38: "Did the shoes change Lola's posture or movements in a way that made the other person react fatally?", 39: 'Was the other person using equipment or machinery that proved fatal to the overly tall Lola?', 40: 'Did the other person accidentally hit Lola with the equipment or machinery because she was taller due to the shoes?', 41: 'So, the story is: Lola received a pair of shoes from a friend that made her taller. Later that day, she was accidentally fatally struck by someone using heavy machinery or equipment who did not expect her to be at the height that the shoes had brought her to. The operator of the machinery could not see her due to', 42: 'Was Lola in a work or construction environment when she was struck?', 43: "Did the shoes make Lola tall enough to be accidentally struck by a part of a vehicle, like a truck's side mirror, that someone did not expect her to be tall enough to be hit by?", 44: 'Was Lola struck by someone using a specific type of equipment in a recreational or sporting activity, due to her unexpected height from the shoes?', 45: 'Was Lola struck by a golf club during a swing because her increased height put her head at a level the golfer did not anticipate?', 46: 'Was Lola accidentally hit by an arrow or another projectile in an archery range or during a similar activity because her increased height made her unexpectedly taller?', 47: "Did the person shoot an arrow and aim somewhere they believed Lola wouldn't be tall enough to intersect with, but due to the shoes, she was accidentally in the path of the arrow?", 48: "Was Lola behind some sort of cover or obstacle that concealed her increase in height, leading the shooter to misjudge her position in relation to the arrow's path?", 49: "Did the shooter rely on previous knowledge of Lola's height for aiming, without directly seeing her, thus not accounting for her increased height from the shoes?", 50: "So, the story concludes like this: Lola received a pair of shoes from a friend that made her taller. Later that day, she was at an activity where arrows were being shot, perhaps archery or a similar sport. The person shooting the arrow relied on their previous knowledge of Lola's height to ensure safety, without directly observing her at the moment of shooting. Because Lola was taller due to the shoes, she was accidentally in the path of the arrow, leading to her fatal injury. The tragic mishap occurred because the shooter assumed Lola's height without seeing the change caused by the shoes.", 51: "Was the shooter practicing or aiming at a target they thought was unobstructed by Lola's presence, due to not directly seeing her because of an assumption about her height or position?", 52: "Did Lola's increase in height due to the shoes cause her head to be at the same level as targets used in the activity, and the shooter was aiming at one of these targets, not realizing Lola's head was in line with them?", 53: "Was the shooter performing a demonstration or a trick shot that required precise knowledge of Lola's height, and the shoes made Lola taller than the shooter expected?", 54: "Did the shooter not see Lola's increased height because the trick shot was based on a calculation or previous practice that did not account for the change in her height due to the shoes?", 55: 'Was the shooter blindfolded or not facing Lola directly as part of the trick shot, relying on measurements or markers set before Lola put on the shoes?', 56: 'Was the shooter blindfolded during the trick shot?', 57: "So, here's the refined story: Lola received a pair of shoes from a friend that unexpectedly made her taller. Later that day, she participated in an activity where a blindfolded person was performing a trick shot with a bow and arrow. The trick relied on precise knowledge of participants' heights, and the shooter had practiced based on Lola's original height. However, the shoes made Lola taller, altering her height without the shooter's knowledge due to the blindfold. When the shooter aimed and released the arrow, it struck Lola fatally because she was taller than expected, placing her in the path of the arrow that was meant to miss her based on her known height.", 58: "Was the trick shot designed with the intention of shooting an arrow over Lola's head or near her to demonstrate accuracy, but the shooter, being blindfolded, relied on prior knowledge of her height and did not anticipate the additional height from the shoes?", 59: "Was it Lola's partner or a close acquaintance who was performing the trick shot, someone who would have known her height well but was not aware of the height increase from the new shoes?", 60: 'Was it her partner who was performing the trick shot?', 61: "Alright, this is the story: Lola received a pair of shoes from a friend that made her unexpectedly taller. That evening, she was involved in a trick shot activity where her partner, who was blindfolded, attempted to shoot an arrow over what they believed was her standard height. Unfortunately, due to the additional height provided by the shoes, Lola was taller than her partner anticipated. The arrow, meant to impressively pass just over her head, fatally struck her instead. The tragic accident occurred because the blindfold prevented her partner from seeing the change in Lola's height, and they relied on their previous understanding of her height for the trick."}</t>
-  </si>
-  <si>
     <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'not relevant for the story', 'No you are not there yet. You are keeping it very vague.', "You're missing some details. Explore the relationships and circumstances.", 'yes but why did the shooter not account for that?', 'not there yet. Why and who shot at Lola?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.'}, {'role': 'assistant', 'content': 'Did Lola die because of a defect or problem with the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because of something that happened while she was wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to an accident while wearing the shoes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve Lola tripping or falling while wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did Lola's death involve someone else?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were the shoes Lola received heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die due to an increase in height caused by wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?'}, {'role': 'user', 'content': 'no she never fell'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?"}, {'role': 'user', 'content': 'yes. But there is more to it. What is the context? And with what was she shot'}, {'role': 'assistant', 'content': 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow."}, {'role': 'user', 'content': "Not there yet. She didn't go to a friend's place."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by someone who knew her?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a family member?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by a romantic partner?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner intentionally?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.'}, {'role': 'user', 'content': "Almost there! Start thinking about why the archer didn't see her increase in height."}, {'role': 'assistant', 'content': 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow."}, {'role': 'user', 'content': 'not the height of the actual target.'}, {'role': 'assistant', 'content': "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did Lola die because of a defect or problem with the shoes?', 2: 'Did Lola die because of something that happened while she was wearing the shoes?', 3: 'Did Lola die due to an accident while wearing the shoes?', 4: 'Did the accident involve Lola tripping or falling while wearing the shoes?', 5: 'Did the shoes cause some sort of physical harm to Lola while she was wearing them?', 6: 'Did someone intentionally harm Lola while she was wearing the shoes?', 7: "Was Lola's death caused by a specific event that occurred while she was wearing the shoes?", 8: "Did Lola's death involve a medical condition or allergic reaction triggered by wearing the shoes?", 9: "Did Lola's death involve someone else?", 10: 'Did someone intentionally harm Lola while she was wearing the shoes, leading to her death?', 11: 'Did someone accidentally harm Lola while she was wearing the shoes, leading to her death?', 12: 'Did someone accidentally harm Lola while they were trying to take the shoes off her feet?', 13: 'Did someone accidentally harm Lola while she was wearing the shoes, but not while trying to take them off?', 14: 'Were the shoes Lola received heels?', 15: 'Did Lola die due to complications resulting from wearing the heels, such as losing balance or stumbling?', 16: 'Did Lola die due to something related to the heels themselves, such as a defect or malfunction?', 17: 'Did Lola die due to an increase in height caused by wearing the heels?', 18: 'Did Lola die because the increase in height from wearing the heels led to her falling from a significant height?', 19: 'Did Lola die because the increase in height from wearing the heels made her more susceptible to a pre-existing medical condition?', 20: 'Did Lola die because the increase in height from wearing the heels made her more vulnerable in a specific situation, such as being hit by something?', 21: 'Did Lola die because the increase in height from wearing the heels made her head susceptible to being hit by something overhead?', 22: 'Did Lola die because the increase in height from wearing the heels made her more noticeable or visible to someone or something?', 23: 'Did Lola die because someone misinterpreted her height while she was wearing the heels, leading to a fatal misunderstanding or mistake?', 24: 'Did Lola die because someone mistook her for being shorter than she actually was while wearing the heels, resulting in a fatal error or decision?', 25: 'Did someone mistakenly aim or direct something at Lola based on the incorrect assumption of her height while wearing the heels, leading to her death?', 26: 'Did someone mistakenly aim a projectile or object at Lola, thinking she was shorter than she actually was, and this resulted in her death?', 27: "Did Lola's death occur because someone shot at her, mistaking her height due to the heels, and the shot was fatal?", 28: 'Was Lola shot with a gun due to someone mistaking her height while wearing the heels?', 29: 'Was Lola shot with another type of projectile weapon due to someone mistaking her height while wearing the heels?', 30: 'Was Lola shot with a projectile weapon such as a bow and arrow or a crossbow due to someone mistaking her height while wearing the heels?', 31: 'Was Lola shot with a bow and arrow due to someone mistaking her height while wearing the heels?', 32: 'Was Lola mistaken for an animal or target because of her increased height while wearing the heels, leading to someone shooting her with a bow and arrow?', 33: 'Was Lola shot with a bow and arrow by accident, as the shooter mistook her for something else due to her increased height while wearing the heels?', 34: 'Was Lola shot with a bow and arrow as part of a practice or demonstration of precise shooting, with the shooter aiming at her intentionally?', 35: "Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she went to a friend's place where she was used as a target for precise shooting practice. The shooter mistook her increased height due to the heels for the height of the actual target, leading to Lola being fatally shot with a bow and arrow.", 36: 'Was Lola shot with a bow and arrow by someone who knew her?', 37: 'Was Lola shot with a bow and arrow by a family member?', 38: 'Was Lola shot with a bow and arrow by a romantic partner?', 39: 'Was Lola shot with a bow and arrow by her romantic partner intentionally?', 40: 'It seems Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, while wearing the heels, she encountered her romantic partner, who, mistaking her increased height for someone or something else, accidentally shot her with a bow and arrow while practicing precise shooting.', 41: 'Was Lola shot with a bow and arrow by her romantic partner, who was blindfolded or otherwise impaired and unable to see her increased height due to the heels?', 42: "Did something happen to physically impair Lola's romantic partner's sight, preventing them from seeing Lola's increased height due to the heels?", 43: "Was Lola's romantic partner blindfolded when they shot her with the bow and arrow?", 44: "So, Lola's romantic partner was blindfolded while practicing precise shooting with a bow and arrow. Lola, wearing heels that increased her height, encountered her partner during this practice session, and due to the blindfold, her partner mistook her increased height for the height of the actual target, accidentally shooting her with the bow and arrow.", 45: "The story is as follows: Lola received a pair of heels from a friend that were too big for her friend but fit Lola. Lola wore the heels, which increased her height. Later that evening, she encountered her romantic partner, who was blindfolded while practicing precise shooting with a bow and arrow. Because her partner wasn't accustomed to her increased height, he unintentionally shot her with the bow and arrow, mistaking her for being shorter than she actually was and failing to adjust his aim accordingly."}</t>
-  </si>
-  <si>
     <t>['Lola goes to a friend of hers and receives a pair of shoes because they did not fit her friend. It will mean her death that same evening.', 'no she never fell', 'yes. But there is more to it. What is the context? And with what was she shot', "Not there yet. She didn't go to a friend's place.", "Almost there! Start thinking about why the archer didn't see her increase in height.", 'not the height of the actual target.', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'assistant', 'content': 'Did the man know the woman behind the bar?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man order anything else besides the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman behind the bar intend to harm the man with the knife?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's action with the knife serve a purpose other than harm or threat?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to open something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to prepare the glass of coke in some way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate or signal something to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out a specific detail or object to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something related to the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to stir or mix something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something from the man's order of a glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to retrieve something from behind the bar?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to point out an unusual or unexpected situation to the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to draw the man's attention to a message or writing?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to indicate to the man that she was out of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to point out a problem or issue with the man's glass of coke?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to gesture towards something else in the cafe?'}, {'role': 'user', 'content': "she didn't use the knife to point anything out or signal something."}, {'role': 'assistant', 'content': "Was the woman's action with the knife accidental?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or slice something for the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man in some way?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with something personal, like opening a package or letter?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a physical ailment or injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with something related to his clothing or accessories?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to assist the man with a technical or mechanical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his physical appearance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his identification or documentation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to help the man with a problem related to his health or well-being?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to remove something harmful or dangerous from the man's person?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?'}, {'role': 'user', 'content': 'she meant to scare him.'}, {'role': 'assistant', 'content': "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?'}, {'role': 'user', 'content': 'no. what usually goes away when you get a scare?'}, {'role': 'assistant', 'content': 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}, {'role': 'user', 'content': 'but why did he order coke?'}, {'role': 'assistant', 'content': 'Did the man order coke specifically because he believed it would help with his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the man know the woman behind the bar?', 2: 'Did the man order anything else besides the glass of coke?', 3: 'Did the woman behind the bar intend to harm the man with the knife?', 4: "Was the woman's action with the knife related to the man's order of a glass of coke?", 5: "Did the woman's action with the knife serve a purpose other than harm or threat?", 6: 'Did the woman use the knife to open something?', 7: 'Did the woman use the knife to prepare the glass of coke in some way?', 8: 'Did the woman use the knife to indicate or signal something to the man?', 9: "Was the woman's action with the knife a part of a routine or customary gesture in the cafe?", 10: 'Did the woman use the knife to point out a specific detail or object to the man?', 11: "Did the woman use the knife to cut something related to the man's order of a glass of coke?", 12: 'Did the woman use the knife to stir or mix something?', 13: "Did the woman use the knife to remove something from the man's order of a glass of coke?", 14: 'Did the woman use the knife to retrieve something from behind the bar?', 15: 'Did the woman use the knife to point out an unusual or unexpected situation to the man?', 16: "Did the woman use the knife to cut off a piece of something that was already on or near the man's glass of coke?", 17: "Did the woman use the knife to draw the man's attention to a message or writing?", 18: "Did the woman use the knife to perform a routine task related to the man's order of a glass of coke, such as opening a bottle or can?", 19: 'Did the woman use the knife to indicate to the man that she was out of coke?', 20: "Did the woman use the knife to point out a problem or issue with the man's glass of coke?", 21: 'Did the woman use the knife to offer the man a sample or taste of something related to the glass of coke?', 22: 'Did the woman use the knife to gesture towards something else in the cafe?', 23: "Was the woman's action with the knife accidental?", 24: 'Did the woman use the knife to cut or slice something for the man?', 25: 'Did the woman use the knife to help the man in some way?', 26: 'Did the woman use the knife to remove an obstacle or barrier preventing the man from leaving the cafe?', 27: 'Did the woman use the knife to cut or open something that the man needed for his glass of coke?', 28: 'Did the woman use the knife to assist the man with a problem or task unrelated to his glass of coke?', 29: 'Did the woman use the knife to help the man with something personal, like opening a package or letter?', 30: 'Did the woman use the knife to assist the man with a physical ailment or injury?', 31: 'Did the woman use the knife to assist the man with something related to his clothing or accessories?', 32: 'Did the woman use the knife to assist the man with a technical or mechanical issue?', 33: 'Did the woman use the knife to help the man with a problem related to his wallet, keys, or other personal belongings?', 34: 'Did the woman use the knife to help the man with a task related to his transportation or travel plans?', 35: 'Did the woman use the knife to help the man with a problem related to his phone or electronic device?', 36: 'Did the woman use the knife to help the man with a problem related to his physical appearance?', 37: 'Did the woman use the knife to help the man with a problem related to his identification or documentation?', 38: 'Did the woman use the knife to help the man with a problem related to his health or well-being?', 39: 'Did the woman use the knife to perform a medical procedure or assist the man with a medical issue?', 40: "Did the woman use the knife to remove something harmful or dangerous from the man's person?", 41: "Did the woman use the knife to cut something that was causing discomfort or hindrance to the man's well-being?", 42: "Did the woman use the knife to cut something that was obstructing the man's movement or causing him distress?", 43: 'Did the woman use the knife to cut something that was preventing the man from leaving the cafe?', 44: 'Did the woman use the knife to cut something that was preventing the man from enjoying his glass of coke?', 45: "The woman's action with the knife was intended to scare the man. Did the woman have a specific reason or motive for wanting to scare the man?", 46: 'Did the woman use the knife to scare the man as a way of alerting him to a danger or threat?', 47: 'Did the woman use the knife to scare the man as a means of drawing his attention to something important or urgent?', 48: 'Did the woman use the knife to scare the man as a way of jolting him into realizing a health-related issue or concern?', 49: 'Did the woman use the knife to scare the man in order to prompt him to take action regarding a health-related matter that he was unaware of or not taking seriously?', 50: 'The feeling of hunger or appetite typically diminishes when you get a scare. So, did the woman use the knife to scare the man in order to help him with an issue related to his hunger or appetite?', 51: 'Did the woman use the knife to scare the man in order to help him with an issue related to his thirst or hydration?', 52: 'Did the woman use the knife to scare the man as a way of helping him get rid of hiccups?', 53: 'So, to summarize the story: The man entered the cafe and ordered a glass of coke. When the woman behind the bar saw that he had hiccups, she grabbed a knife and pointed it towards him, intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.', 54: 'Did the man order coke specifically because he believed it would help with his hiccups?', 55: 'To sum up, the man entered the cafe with hiccups and ordered a glass of coke because he believed it would help getting rid of the hiccups. The woman behind the bar, realizing he wanted coke for his hiccups, grabbed a knife and pointed it towards him. She was intending to startle him and help him get rid of his hiccups. The man, understanding her intention, thanked her and left the cafe, presumably cured of his hiccups.'}</t>
-  </si>
-  <si>
     <t>['not relevant for the story', "she didn't use the knife to point anything out or signal something.", 'she meant to scare him.', 'no. what usually goes away when you get a scare?', 'but why did he order coke?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.'}, {'role': 'assistant', 'content': 'Did the woman threaten the man with the knife?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man asking for the knife instead of the coke?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man need the knife for a reason unrelated to violence?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife part of a magic trick or performance?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use the knife to address a medical condition or emergency?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a prearranged signal or code between them'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to open or prepare the coke in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the knife used to communicate a message or signal understood by the man but not related to a threat'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man specifically request the woman to point the knife at him for any reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the presence of the knife relevant to the reason why the man thanked the woman and left'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man in response to something he did or said after ordering the coke'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the woman's action with the knife a standard practice or ritual in this cafe"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she point the knife at him to help him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to help him make a decision or realize something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to assist him with a physical task or action'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to draw his attention to something specific'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to warn him about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to convey a message that was not related to danger or warning'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman point the knife at the man to signal that she was impressed or surprised by something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man by pointing the knife at him'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of amusement or prank'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to test his reaction or assess his character'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to convey a message or make a point about something'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man because she mistook him for someone else'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to elicit a specific response from him'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of greeting or initiation'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to discourage him from returning to the cafe'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a reaction to something he did or said'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as part of a tradition or cultural practice'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his bravery or reaction under pressure'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to her own safety or protection"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a form of retaliation for something he did or said?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to play a practical joke or prank on him?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome a fear or phobia?'}, {'role': 'user', 'content': 'what is usually believed to go away when you get a scare?'}, {'role': 'assistant', 'content': "Does the woman want to scare the man to help him sober up if he's drunk?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman want to scare the man to help him overcome hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.'}, {'role': 'user', 'content': 'How does the coke fit into this?'}, {'role': 'assistant', 'content': 'Did the man believe that drinking the glass of coke would help his hiccups go away?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Did the woman threaten the man with the knife?', 2: 'Was the man asking for the knife instead of the coke?', 3: 'Did the man need the knife for a reason unrelated to violence?', 4: 'Was the knife part of a magic trick or performance?', 5: 'Did the man use the knife to address a medical condition or emergency?', 6: 'Was the act of pointing the knife at the man a prearranged signal or code between them', 7: 'Was the knife used to open or prepare the coke in some way', 8: 'Did the man mistake the cafe for a different type of establishment where being pointed at with a knife is expected', 9: 'Was the knife used to communicate a message or signal understood by the man but not related to a threat', 10: 'Did the man have a reason to believe he would be in danger upon entering the cafe, prompting a defensive or protective response from the woman', 11: "Was the woman's act of pointing the knife at the man related to a misunderstanding or mistake", 12: 'Did the man specifically request the woman to point the knife at him for any reason', 13: 'Is the presence of the knife relevant to the reason why the man thanked the woman and left', 14: 'Did the woman use the knife as a means to show the man something, like cutting open a package or revealing a hidden compartment', 15: 'Did the act of pointing the knife have a calming or reassuring effect on the man for a specific reason', 16: 'Did the woman point the knife at the man in response to something he did or said after ordering the coke', 17: "Is the woman's action with the knife a standard practice or ritual in this cafe", 18: 'Did the woman point the knife at the man as a form of protection or defense against something perceived in or on the man', 19: "Is the knife somehow involved in verifying the authenticity or quality of something related to the man's order or presence", 20: "Was the action of pointing the knife at the man intended to solve a problem or address a situation in the cafe unrelated to the man's order", 21: 'Did the man leave because he got what he came for, which was somehow related to the knife being pointed at him', 22: "Did the man enter the cafe with the intention of testing the woman's reaction or preparedness for a certain situation", 23: 'Was the act of pointing the knife at the man a cue or signal for him to leave for his safety or the safety of others', 24: 'Did she point the knife at him to help him', 25: 'Did the woman point the knife at the man to alert him to a danger or threat that he was unaware of', 26: 'Did the woman point the knife at the man to help him make a decision or realize something', 27: 'Did the woman point the knife at the man to assist him with a physical task or action', 28: 'Did the woman point the knife at the man to indicate to him that his order was ready or prepared in some way', 29: 'Did the woman point the knife at the man to draw his attention to something specific', 30: 'Did the woman point the knife at the man to warn him about something', 31: 'Did the woman point the knife at the man to convey a message that was not related to danger or warning', 32: 'Did the woman point the knife at the man to signal that she was impressed or surprised by something', 33: 'Did the woman want to scare the man by pointing the knife at him', 34: 'Did the woman want to scare the man as a form of amusement or prank', 35: 'Did the woman want to scare the man as a way to test his reaction or assess his character', 36: 'Did the woman want to scare the man to convey a message or make a point about something', 37: 'Did the woman want to scare the man because she mistook him for someone else', 38: 'Did the woman want to scare the man to prompt him to leave the cafe for a specific reason', 39: 'Did the woman want to scare the man to elicit a specific response from him', 40: 'Did the woman want to scare the man as a form of greeting or initiation', 41: 'Did the woman want to scare the man as a way to discourage him from returning to the cafe', 42: 'Did the woman want to scare the man as a reaction to something he did or said', 43: 'Did the woman want to scare the man as part of a tradition or cultural practice', 44: 'Did the woman want to scare the man to test his bravery or reaction under pressure', 45: "Was the woman's intention to scare the man related to her own safety or protection", 46: "Was the woman's intention to scare the man related to a misunderstanding or misinterpretation on her part", 47: 'Did the woman want to scare the man as a form of retaliation for something he did or said?', 48: 'Did the woman want to scare the man as a way to demonstrate her authority or dominance in the situation?', 49: 'Did the woman want to scare the man as a way to grab his attention or emphasize something important?', 50: "Was the woman's intention to scare the man related to a mistaken belief or assumption about his identity or intentions?", 51: 'Did the woman want to scare the man to play a practical joke or prank on him?', 52: 'Did the woman want to scare the man to prompt him to leave quickly for some reason, thereby helping him indirectly?', 53: 'Did the woman want to scare the man to help him realize that he was in a dangerous situation?', 54: 'Did the woman want to scare the man to test his reactions in a simulated threatening scenario, for his own preparedness or safety?', 55: 'Did the woman want to scare the man to help him overcome a fear or phobia?', 56: "Does the woman want to scare the man to help him sober up if he's drunk?", 57: 'Did the woman want to scare the man to help him overcome hiccups?', 58: 'The woman pointed the knife at the man to give him a fright, which is a common method believed to help stop hiccups. The sudden scare would startle him and potentially interrupt the hiccups. So, the man thanked her for the scare, as it helped him get rid of his hiccups, and then he left the cafe.', 59: 'Did the man believe that drinking the glass of coke would help his hiccups go away?', 60: 'Did the woman know that the man had hiccups because he ordered a glass of coke, indicating that he believed it would help his hiccups?', 61: 'This is what happened: the man entered the cafe with a case of hiccups. Believing that drinking a glass of coke would cure his hiccups, he ordered one. The woman behind the bar, recognizing his intention, decided to help him by giving him a scare, a method often believed to stop hiccups. She pointed a knife at him, causing him to startle and, hopefully, stop his hiccups. Grateful for her unconventional but effective remedy, the man thanked her and left the cafe hiccup-free.'}</t>
-  </si>
-  <si>
     <t>['A man goes into a cafe and orders a glass of coke. The woman behind the bar grabs a knife and points it towards the man. He thanks her and leaves.', 'what is usually believed to go away when you get a scare?', 'How does the coke fit into this?', 'quit']</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself'}, {'role': 'assistant', 'content': 'Was the large vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself intentionally?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the large vehicle an unusual place for someone to be?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle submerged or partially submerged in water when the man climbed out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown in water located inside the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man use something from the vehicle to help him drown himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man drown immediately after exiting the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the method of drowning related to a liquid other than water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': "Was the man's occupation relevant to the story?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the large vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's occupation directly contribute to his decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's mental state affected by an event that occurred while he was in the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the event involve other people?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the event traumatic or distressing?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event cause the man to feel responsible or guilty?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the traumatic event involve an accident with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the accident caused by the man's actions or negligence?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm or death to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?"}, {'role': 'user', 'content': "you are in the right direction. You're not there yet. We are missing a lot of details."}, {'role': 'assistant', 'content': 'Did the man kill a family member or someone close to him in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a bus or truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle related to public transportation, such as a taxi or rideshare?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like a camper or RV?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a construction vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle involved in agriculture, like a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man accidentally cause the death of his own child in the accident?'}, {'role': 'user', 'content': 'more than one child'}, {'role': 'assistant', 'content': "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?"}, {'role': 'user', 'content': 'how did it happen?'}, {'role': 'assistant', 'content': 'Did the accident happen while the children were riding with the man in the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the accident occur on the man's property, such as a farm?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing in the field where the man was working with the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}]</t>
-  </si>
-  <si>
-    <t>{1: 'Was the large vehicle near a body of water?', 2: 'Did the man drown himself intentionally?', 3: 'Was the large vehicle an unusual place for someone to be?', 4: 'Was the vehicle submerged or partially submerged in water when the man climbed out?', 5: 'Did the man drown in water located inside the vehicle?', 6: 'Did the man use something from the vehicle to help him drown himself?', 7: 'Did the man drown immediately after exiting the vehicle?', 8: 'Was the method of drowning related to a liquid other than water?', 9: "Was the man's occupation relevant to the story?", 10: 'Was the man a driver or operator of the large vehicle?', 11: "Did the man's occupation directly contribute to his decision to drown himself?", 12: "Was the man's mental state affected by an event that occurred while he was in the vehicle?", 13: 'Did the event involve other people?', 14: 'Was the event traumatic or distressing?', 15: 'Did the traumatic event cause the man to feel responsible or guilty?', 16: 'Did the traumatic event involve an accident with the vehicle?', 17: "Was the accident caused by the man's actions or negligence?", 18: 'Did the accident result in harm or death to others?', 19: "To summarize: A man, who was the driver or operator of a large vehicle, was involved in an accident that was caused by his actions or negligence. This accident resulted in harm or death to others, leading to the man feeling responsible or guilty. His mental state was severely affected by this traumatic event, and as a result, he decided to drown himself, but not immediately after exiting the vehicle and not in a body of water related to the vehicle's immediate environment. Is this the story?", 20: 'Did the man kill a family member or someone close to him in the accident?', 21: 'Was the vehicle a bus or truck?', 22: 'Was the vehicle a train?', 23: 'Was the vehicle an airplane?', 24: 'Was the vehicle a car?', 25: 'Was the vehicle a ship or boat?', 26: 'Was the vehicle a military vehicle?', 27: 'Was the vehicle an emergency services vehicle, like an ambulance or fire truck?', 28: 'Was the vehicle related to public transportation, such as a taxi or rideshare?', 29: 'Was the vehicle a recreational vehicle, like a camper or RV?', 30: 'Was the vehicle a construction vehicle?', 31: 'Was the vehicle involved in agriculture, like a tractor?', 32: 'Did the man accidentally cause the death of his own child in the accident?', 33: "To refine the summary with the new details: The man was operating a large agricultural vehicle, such as a tractor, and accidentally caused an accident that resulted in the deaths of more than one of his own children. Overwhelmed by guilt and grief from this traumatic event, he later decided to end his own life by drowning, although not immediately after exiting the vehicle and not in a location directly related to the vehicle's immediate surroundings. Is this the correct story?", 34: 'Did the accident happen while the children were riding with the man in the vehicle?', 35: "Did the accident occur on the man's property, such as a farm?", 36: "Were the children in an area that the man did not expect them to be in, such as playing in a field or near the vehicle's path?", 37: 'Were the children playing in the field where the man was working with the vehicle?', 38: 'A man was using a tractor in a field on his farm, not knowing his kids were playing there in the field. He accidentally ran over them, causing their deaths. Feeling extremely guilty, he later drowned himself because of the sadness and guilt from this accident.'}</t>
-  </si>
-  <si>
     <t>['A man climbs out of a large vehicle and drowned himself', 'not relevant for the story', 'not relevant for the story', "you are in the right direction. You're not there yet. We are missing a lot of details", 'more than one child', 'how did it happen?', 'quit']</t>
   </si>
   <si>
-    <t>{1: 'Did the man drown immediately after climbing out of the vehicle?', 2: 'Was the vehicle near a body of water?', 3: 'Did the man intentionally drown himself?', 4: "Did the vehicle's location or condition directly lead to the man's decision to drown himself?", 5: 'Was the vehicle moving when the man decided to exit it?', 6: 'Did the man drown himself in water that was carried or contained within the vehicle?', 7: "Was the vehicle's type or purpose relevant to the man's decision to drown himself?", 8: 'Did the man have an occupation or role that is relevant to the story?', 9: "Was the man's occupation related to the large vehicle?", 10: 'Was the man a driver or operator of the vehicle?', 11: "Did the man's decision to drown himself result from an incident involving the vehicle he was operating?", 12: "Was the incident that led to the man's decision to drown himself an accident involving the vehicle?", 13: 'Did the accident result in harm to others?', 14: 'Did the man drown himself out of guilt or remorse for the accident?', 15: "The story involves a man who was a driver or operator of a large vehicle. While operating this vehicle, he was involved in an accident that resulted in harm to others. Overwhelmed by guilt or remorse for the consequences of this accident, the man made the decision to end his life by drowning himself. This tragic outcome was influenced not by the immediate circumstances of the accident, but by the man's emotional response to the harm caused to others.", 16: 'Was the large vehicle a bus?', 17: 'Was the vehicle a truck?', 18: 'Was the vehicle an airplane?', 19: 'Was the vehicle a train?', 20: 'Was the vehicle a ship or boat?', 21: 'Was the vehicle a military vehicle?', 22: 'Was the vehicle used for commercial purposes?', 23: 'Was the vehicle a recreational vehicle, like an RV or a camper?', 24: 'Was the vehicle a special-purpose vehicle, like an ambulance or fire truck?', 25: 'Was the vehicle used primarily for transporting goods?', 26: 'Was the vehicle a personal mode of transport, like a car or motorcycle?', 27: "Is the vehicle's primary purpose for construction or agriculture?", 28: 'Was the vehicle a tractor?', 29: 'Did the accident involve the tractor causing harm to someone on a farm?', 30: 'Did the man drown himself out of guilt for causing harm or death to a family member in the accident?', 31: "The story revolves around a man who was operating a tractor, likely on a farm, which is a setting common for such vehicles. While he was using the tractor, an accident occurred that resulted in harm or possibly the death of a family member. This tragic event was not a consequence of the man's professional duties beyond the immediate operation of the vehicle but stemmed from a deeply personal and devastating incident. The man, overwhelmed by guilt or remorse for the accident and the harm caused to his family member, made the heart-wrenching decision to end his own life by drowning. The location or specifics of where he drowned are not detailed in the story, but his actions were driven by the emotional weight of the tragedy and his inability to cope with the guilt.", 32: 'Did the accident involve a child?', 33: 'Did the accident occur because the man did not see the child while operating the tractor?', 34: 'Was the child playing near the tractor?', 35: 'Was the child playing in a field where the tractor was being used?', 36: 'Was the child playing in the field because they considered it a usual play area, not recognizing the danger of the operating tractor?', 37: "Was the man unaware of the child's presence in the field while he was operating the tractor?", 38: 'Was the child playing alone in the field?', 39: 'Was the child playing with other children in the field?', 40: 'Were the children playing together in the field siblings?', 41: 'So, in a devastating turn of events, a man operating a tractor in a field accidentally struck and killed all of his children, who were playing there. Stricken with unbearable guilt, he later drowned himself, overwhelmed by the loss of his children the tragic accident.'}</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man climbs out of a large vehicle and drowned himself.'}, {'role': 'assistant', 'content': 'Did the man drown immediately after climbing out of the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle near a body of water?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man intentionally drown himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the vehicle's location or condition directly lead to the man's decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle moving when the man decided to exit it?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man drown himself in water that was carried or contained within the vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the vehicle's type or purpose relevant to the man's decision to drown himself?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man have an occupation or role that is relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the man's occupation related to the large vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the man a driver or operator of the vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the man's decision to drown himself result from an incident involving the vehicle he was operating?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Was the incident that led to the man's decision to drown himself an accident involving the vehicle?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident result in harm to others?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drown himself out of guilt or remorse for the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The story involves a man who was a driver or operator of a large vehicle. While operating this vehicle, he was involved in an accident that resulted in harm to others. Overwhelmed by guilt or remorse for the consequences of this accident, the man made the decision to end his life by drowning himself. This tragic outcome was influenced not by the immediate circumstances of the accident, but by the man's emotional response to the harm caused to others."}, {'role': 'user', 'content': 'I want more specific details. For example, vehicle, location, and who got hurt.'}, {'role': 'assistant', 'content': 'Was the large vehicle a bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an airplane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a train?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a ship or boat?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a military vehicle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle used for commercial purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a recreational vehicle, like an RV or a camper?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a special-purpose vehicle, like an ambulance or fire truck?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle used primarily for transporting goods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a personal mode of transport, like a car or motorcycle?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Is the vehicle's primary purpose for construction or agriculture?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve the tractor causing harm to someone on a farm?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man drown himself out of guilt for causing harm or death to a family member in the accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "The story revolves around a man who was operating a tractor, likely on a farm, which is a setting common for such vehicles. While he was using the tractor, an accident occurred that resulted in harm or possibly the death of a family member. This tragic event was not a consequence of the man's professional duties beyond the immediate operation of the vehicle but stemmed from a deeply personal and devastating incident. The man, overwhelmed by guilt or remorse for the accident and the harm caused to his family member, made the heart-wrenching decision to end his own life by drowning. The location or specifics of where he drowned are not detailed in the story, but his actions were driven by the emotional weight of the tragedy and his inability to cope with the guilt."}, {'role': 'user', 'content': 'More details. how did it happen and who died?'}, {'role': 'assistant', 'content': 'Did the accident involve a child?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident occur because the man did not see the child while operating the tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing near the tractor?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing in a field where the tractor was being used?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing in the field because they considered it a usual play area, not recognizing the danger of the operating tractor?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': "Was the man unaware of the child's presence in the field while he was operating the tractor?"}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the child playing alone in the field?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the child playing with other children in the field?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the children playing together in the field siblings?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, in a devastating turn of events, a man operating a tractor in a field accidentally struck and killed all of his children, who were playing there. Stricken with unbearable guilt, he later drowned himself, overwhelmed by the loss of his children the tragic accident.'}]</t>
-  </si>
-  <si>
     <t>['A man climbs out of a large vehicle and drowned himself.', 'not relevant for the story', 'not relevant for the story', 'I want more specific details. For example, vehicle, location, and who got hurt.', 'More details. how did it happen and who died?', 'not relevant to the story', 'quit']</t>
+  </si>
+  <si>
+    <t>['A man opens his duffle bag. When he finds a dead woman inside, he takes his own life.', 'not relevant', 'where would you bring a bag?', 'Ask about the type of vehicle that is involved']</t>
+  </si>
+  <si>
+    <t>['A dead woman is lying in a sauna; next to her, a water bottle', 'not relevant', 'not relevant', 'not relevant', 'ask about the murder weapon, it has something to do with the sauna and the water bottle', 'not relevant', 'not relevant', 'but the killing was physical', 'not directly, how can you kill someone aside from gunshot, beaten etc.', 'no, but stabbing yes', 'so far so good, ask about the location of the murder weapon', 'if the murder weapon was outside the sauna, it would have been found', 'ask about the states of water']</t>
   </si>
 </sst>
 </file>
@@ -295,7 +326,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,7 +374,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,9 +390,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +430,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -430,6 +464,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -464,9 +499,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>16</v>
@@ -721,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -747,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>15</v>
@@ -759,7 +795,7 @@
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -785,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>12</v>
@@ -797,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -805,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -823,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -835,7 +871,7 @@
         <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -843,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -861,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>8</v>
@@ -873,7 +909,7 @@
         <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -881,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -899,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J7">
         <v>6</v>
@@ -911,7 +947,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -919,7 +955,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -937,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <v>17</v>
@@ -949,7 +985,7 @@
         <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -957,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -975,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>13</v>
@@ -987,7 +1023,7 @@
         <v>26</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -995,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1013,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J10">
         <v>15</v>
@@ -1025,7 +1061,7 @@
         <v>39</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1033,7 +1069,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1051,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1063,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1071,7 +1107,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1089,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1101,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1109,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1127,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1139,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1147,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1165,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -1177,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1185,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1203,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
         <v>54</v>
@@ -1215,7 +1251,7 @@
         <v>28</v>
       </c>
       <c r="L15" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1223,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -1241,10 +1277,10 @@
         <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1253,7 +1289,7 @@
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1261,7 +1297,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -1279,10 +1315,10 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J17">
         <v>7</v>
@@ -1291,7 +1327,7 @@
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1299,7 +1335,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1317,10 +1353,10 @@
         <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J18">
         <v>22</v>
@@ -1329,7 +1365,7 @@
         <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1337,7 +1373,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1355,10 +1391,10 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J19">
         <v>21</v>
@@ -1367,7 +1403,7 @@
         <v>38</v>
       </c>
       <c r="L19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1393,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <v>17</v>
@@ -1405,7 +1441,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1431,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="J21">
         <v>20</v>
@@ -1443,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1469,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -1481,7 +1517,7 @@
         <v>41</v>
       </c>
       <c r="L22" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1507,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="J23">
         <v>8</v>
@@ -1519,7 +1555,7 @@
         <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1545,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="J24">
         <v>15</v>
@@ -1557,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1583,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J25">
         <v>19</v>
@@ -1595,10 +1631,86 @@
         <v>16</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>41</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>51</v>
+      </c>
+      <c r="G26">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>65</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>19</v>
+      </c>
+      <c r="L26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>87</v>
+      </c>
+      <c r="G27">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>34</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NHC_analysis.xlsx
+++ b/NHC_analysis.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linth\PycharmProjects\Scientific_Prog\GitHub\BlackStoriesAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b947ab89a2f18f17/Documenten/GitHub/BlackStoriesAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0240585B-E6B6-4080-A389-73DECF19B996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_24DD35885B20D36E5F382F11595ED87656C86CB8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A15D1E8-A7C3-491A-AE7E-57AF163793AB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
   <si>
     <t>Medium</t>
   </si>
@@ -77,238 +64,250 @@
     <t>Nikki</t>
   </si>
   <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Was there a conflict or argument between the man and the woman?', 2: 'Did one of them use the pistol during their time at the table?', 3: 'Is the pistol relevant to the story?', 4: 'Is the game of checkers relevant to the story?', 5: 'Was the result of the checker game influencing what would happen with the pistol?', 6: 'Did they play checkers for their survival?', 7: 'Did the loser of the checker game have to use the pistol on themselves?', 8: 'Did the winner of the checker game have to use the pistol?', 9: 'Was the pistol a stake in the checker game?', 10: 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don\'t know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.', 11: 'Was the pistol theirs to begin with? Not relevant for the story.', 12: 'Did the man win the checker game? Not relevant for the story.', 13: 'Did they have a plan to use the pistol after the game?', 14: 'Was the pistol meant to be used on someone else not present at the checker game?', 15: 'Were they playing the game to kill time, with an imminent threat lurking, and that\'s why the pistol was placed on the table between them?', 16: 'Did they intend to use the pistol as protection?', 17: 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?', 18: 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?', 19: 'Did they intend to use the pistol to decide something or someone\'s fate?', 20: 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?', 21: 'Did they intend to scare someone with the pistol after the game?', 22: 'Did the game of checkers help them to decide who should use the pistol?', 23: 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?', 24: 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?', 25: 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.', 26: 'Is the situation life-threatening?', 27: 'Are they trapped or held hostage in a place from which they are unable to escape?', 28: 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there\'s no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.', 29: 'Are they trapped in an uninhabited or desolate location with no hope of rescue?', 30: 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?', 31: 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game\'s outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.', 32: 'Are they trapped at sea on a vessel with no hope of being found?', 33: 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?', 34: 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?', 35: 'Are they trapped in a cave or underground with no way out?', 36: 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?', 37: 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?', 38: 'Are they trapped in a post-apocalyptic setting without any survival resources?', 39: 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?', 40: 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?', 41: 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?', 42: 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?', 43: 'Is the worse fate they\'re trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?', 44: 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?', 45: 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story',  'not relevant for the story', 'your question is based on a false assumption', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>{1: 'Was the game of checkers being played by the man and the woman?', 2: 'Was the pistol intended to be used by the winner of the game?', 3: 'Did the game of checkers end before the scene described?', 4: 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?', 5: 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?', 6: 'Is the decision related to a mutual agreement or pact between the man and the woman?', 7: 'Was the game of checkers played to decide who would use the pistol on themselves?', 8: 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.', 9: 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?', 10: 'Was their situation related to being trapped or in danger?', 11: 'Was the danger they faced from an external threat, forcing them into this situation?', 12: 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?', 13: 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?', 14: 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.', 15: 'Were the man and the woman trapped in a location due to a natural disaster?', 16: 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?', 17: 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?', 18: 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.', 19: 'Were they on a submarine?', 20: 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?', 21: 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?', 22: 'Would they face death due to starvation?', 23: 'Would they face death due to dehydration?', 24: 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
+  </si>
+  <si>
+    <t>['A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.', 'not relevant for the story', 'no you are missing some details. why did they do this?', 'but what kind of situation were they in?', 'why would they die anyway?', 'quit']</t>
+  </si>
+  <si>
+    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
+  </si>
+  <si>
+    <t>{1: 'Is the woman dead?', 2: 'Is the man dead?', 3: 'Is the game of checkers relevant to the situation?', 4: 'Are they playing Russian roulette with each move in the checkers game?', 5: 'Are they playing checkers to determine who will get to use the pistol?', 6: 'Does the man want to use the pistol on the woman or himself?', 7: 'Does the man want to use the pistol on himself?', 8: 'Does the woman want to use the pistol on him as well?', 9: 'Is the woman trying to prevent the man from using the pistol on himself?', 10: 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?', 11: 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.', 12: 'Are they doing this because they are in a desperate situation?', 13: 'Are they doing this due to any financial crisis?', 14: 'Is their action related to a terminal illness?', 15: 'Are they doing this because they are stuck in a place from which they cannot escape?', 16: "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. ", 17: 'Are they trapped in a remote or isolated location?', 18: 'Are they trapped due to natural disaster?', 19: 'Are they trapped underground?', 20: 'Are they trapped in a building?', 21: 'Are they trapped on a deserted island?', 22: 'Are they trapped in a forest or wilderness?', 23: 'Are they trapped in a boat or ship?', 24: 'Is the boat or ship sinking or otherwise non-operational?', 25: 'Is their location isolated because there is no land nearby or no way of signaling for rescue?', 26: 'Are they trapped in a submarine underwater?', 27: 'Are they the only survivors in a submarine that has had a fatal accident?', 28: 'Is there any hope of being rescued from the submarine?', 29: 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.', 30: 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?', 31: 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.', 32: 'Is there only one bullet?', 33: 'Are they running out of oxygen?', 34: 'Are they going to starve or die due to dehydration?', 35: 'Do the man and woman have enough water to survive until they can get rescued?', 36: 'The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}</t>
+  </si>
+  <si>
+    <t>['a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.', 'this is not a yes or no question', 'yes, but why are they doing this?', 'you're not done yet. I need a lot of more details. like the location, and circumstances', 'not relevant to the story', "no they don't do it to pass time. you're not there yet", 'sort of. they are both going to die regardless', 'quit']</t>
+  </si>
+  <si>
     <t>Linthe</t>
   </si>
   <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was there a conflict or argument between the man and the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did one of them use the pistol during their time at the table?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the pistol relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the result of the checker game influencing what would happen with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play checkers for their survival?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the loser of the checker game have to use the pistol on themselves?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the winner of the checker game have to use the pistol?'}, {'role': 'user', 'content': 'your question is based on a false assumption'}, {'role': 'assistant', 'content': 'Was the pistol a stake in the checker game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the story is about a man and a woman who decided to play a game of checkers. The pistol on the table was the stake for the game. The winner would get the pistol, but we don't know why they wanted it or what they intended to do with it. No one used the pistol during their time at the table.'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is as follows: A man and a woman were seated at a table with a game of checkers and a pistol. They weren't in conflict or arguing, they were just playing a game. The unique thing about their game was the stake, the pistol. The outcome of the game would decide who would claim the pistol. Nevertheless, during this time, no one used the pistol.'}, {'role': 'user', 'content': 'no you are not there yet.'}, {'role': 'assistant', 'content': 'Was the pistol theirs to begin with?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did the man win the checker game?'}, {'role': 'user', 'content': 'not relevant for the story'}, {'role': 'assistant', 'content': 'Did they have a plan to use the pistol after the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol meant to be used on someone else not present at the checker game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they playing the game to kill time, with an imminent threat lurking, and that's why the pistol was placed on the table between them?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol as protection?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol in a celebratory way, like firing it into the air, after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the intention to use the pistol depended on whether they won or lost the game of checkers?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to use the pistol to decide something or someone's fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the winner of the checkers game get to decide the fate of a third party using the pistol?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they intend to scare someone with the pistol after the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the game of checkers help them to decide who should use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who would be the one to use the pistol to decide the fate of the other person?'}, {'role': 'user', 'content': 'based on a false assumption'}, {'role': 'assistant', 'content': 'Did they play the game of checkers to decide who gets to decide their own fate with the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and a woman who are in a desperate situation. They are seated at a table playing a game of checkers, not due to a conflict or a playful challenge. The pistol on the table is a reminder of their bleak situation. The checkers game is not for mere entertainment; the stake is much higher. The winner of the game earns the right to decide their own fate using the pistol. The outcome of the game will decide who gets to use the pistol to make a significant decision about their own life.'}, {'role': 'user', 'content': 'what kind of situation?'}, {'role': 'assistant', 'content': 'Is the situation life-threatening?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped or held hostage in a place from which they are unable to escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are trapped or held hostage in a place from which there's no escape. Facing a life-threatening situation, they decide to play a game of checkers, with a daunting stake - a pistol placed on the table. They are not playing out of leisure or conflict, but desperation. The winner of the game gets the right to decide their fate with the pistol. Rather than being at the mercy of their captors, they choose this way to have some control over their own lives.'}, {'role': 'user', 'content': 'you need to be more specific. Where are they? Why use the gun?'}, {'role': 'assistant', 'content': 'Are they trapped in an uninhabited or desolate location with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the winner of the game intend to use the pistol to end his/her own life, to avoid a possibly worse fate?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman who found themselves trapped in a desolate location with no hope of rescue. They faced dire circumstances and to avoid a possibly worse fate, they decided to play a game of checkers—the stake, however, was not traditional. A pistol was placed on the table, awaiting the game's outcome. Through this game, they seized what little control was left in their desperate situation. The winner won the morbid prize—the chance to use the pistol to end their own life, thus escaping the bleak reality before them.'}, {'role': 'user', 'content': 'where are they? what worse fate?'}, {'role': 'assistant', 'content': 'Are they trapped at sea on a vessel with no hope of being found?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cold, desolate place like the Arctic or Antarctic regions?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a desert with no hope for rescue and no way of getting food or water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a cave or underground with no way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they stranded in space, like on a spaceship or a space station, with no hope of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a jungle or forest with no means of communication or ability to navigate their way out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a post-apocalyptic setting without any survival resources?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a high mountain peak with harsh weather conditions and no possibility of rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a war-torn region and the worse fate they fear is falling into the hands of enemy troops or insurgents?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a sinking ship or submerged submarine with no hope of rescue?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Will the worse fate they fear be drowning or suffocating due to lack of oxygen in the sinking ship/submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the worse fate they're trying to avoid that of starvation or dehydration while being trapped in the ship/submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did they choose to play a game of checkers to decide who would use the pistol to avoid the slow and painful death of dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story is about a man and woman, trapped in a submerged submarine with no chance of rescue, faced the grim reality of eventual dehydration. In an attempt to take control of their fate, they decided to play a game of checkers, with a unique stake: a pistol with a single bullet. The outcome of the game would determine who gets to use the pistol, offering a quick escape from their dire situation. The checkers game, thus, became a means for one of them to choose an immediate end over a slow and painful death.'}]</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                      You have to solve the riddle with as little questions as possible.\n                                      The riddle tells you the end of a story and you have to find out what lead to this end. \n                                      When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                      You will use my answers to solve the riddle and find the story that lead to the end.\n                                      I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                      Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'A man and a woman are seated at a table. On the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Was the game of checkers being played by the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the pistol intended to be used by the winner of the game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the game of checkers end before the scene described?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the presence of the pistol meant as a form of threat or consequence related to losing the game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the game of checkers a way to make a decision between the man and the woman unrelated to the game itself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the decision related to a mutual agreement or pact between the man and the woman?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the game of checkers played to decide who would use the pistol on themselves?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'The story revolves around a man and a woman who are engaged in a game of checkers with a high-stakes agreement. They are not merely playing for the sake of entertainment or competition; instead, the outcome of the game carries a grave consequence. The presence of a pistol on the table between them signifies that the game is a determiner of fate, specifically, who will use the pistol on themselves. This setup suggests that the man and woman have entered into a mutual pact or agreement, wherein the loser of the game is to use the pistol in a manner that implies self-harm. The story, therefore, unfolds as a grim narrative where a traditional game transcends its usual boundaries to become a life-altering decision-making tool.'}, {'role': 'user', 'content': 'no you are missing some details. why did they do this?'} {'role': 'assistant', 'content': 'Were the man and the woman in a situation where they felt they had no other choice but to resort to this game?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was their situation related to being trapped or in danger?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the danger they faced from an external threat, forcing them into this situation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they facing a situation where only one of them could survive, due to limited resources or a similar reason?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did they decide to play the game of checkers to determine who would use the pistol as a means of controlling the manner of their deaths, given that they believed death was inevitable for both?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In a situation where death was inevitable for both, a man and a woman decide to play a game of checkers. The outcome of the game would determine who uses the pistol on the table between them, allowing one of them to control the manner of their impending death. This pact between them was a way to face their fate with a semblance of dignity and choice in an otherwise hopeless scenario.'}, {'role': 'user', 'content': 'but what kind of situation were they in?'}, {'role': 'assistant', 'content': 'Were the man and the woman trapped in a location due to a natural disaster?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they trapped in an underwater or maritime setting, like a submarine or a ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was there only one bullet available in the pistol, thereby allowing only one person to use it?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a submerged submarine or ship with no hope of rescue, a man and a woman faced the certainty of their demise. With only one bullet in the pistol placed between them, they decided to play a game of checkers. The stakes of the game were heartbreakingly clear: the winner would use the single bullet, granting them a swift end. This grim contest was their final act of autonomy, choosing how to face their inescapable fate together.'}, {'role': 'user', 'content': 'why would they die anyway?'}, {'role': 'assistant', 'content': 'Were they on a submarine?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the submarine irreparably damaged or running out of oxygen, leading to their inevitable demise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Were they in a situation where rescue was impossible, and they were depleting their essential supplies like food and water?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Would they face death due to starvation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Would they face death due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Trapped in a damaged submarine deep underwater, a man and a woman found themselves in a dire situation with no possibility of rescue and their supplies dwindling to nothing. Facing the inevitable outcome of dying from dehydration, they decided to play a game of checkers, not for diversion but to determine who would use the single bullet in the pistol between them. This grim agreement was their way of exerting control over their hopeless situation, choosing a quick end over the prolonged suffering of dehydration.'}</t>
-  </si>
-  <si>
-    <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a man and a woman are seated at a table. on the table between them is a game of checkers and a pistol.'}, {'role': 'assistant', 'content': 'Is the woman dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the man dead?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the game of checkers relevant to the situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they playing Russian roulette with each move in the checkers game?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing checkers to determine who will get to use the pistol?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on the woman or himself?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Does the man want to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Does the woman want to use the pistol on him as well?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the woman trying to prevent the man from using the pistol on himself?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they playing the game of checkers because the outcome will determine if the man is allowed to use the pistol on himself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, a man and a woman are seated at a table, with a game of checkers and a pistol between them. They are playing a high-stakes game of checkers, where the winner gets to decide whether or not the man will shoot himself with the pistol. If the man wins, he will be allowed to use the pistol on himself. If the woman wins, she will keep the pistol away, she will use it on herself.'}, {'role': 'user', 'content': 'yes, but why are they doing this?'}, {'role': 'assistant', 'content': 'Are they doing this because they are in a desperate situation?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they doing this due to any financial crisis?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is their action related to a terminal illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they doing this because they are stuck in a place from which they cannot escape?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, here's the story: A man and a woman are stuck in an inescapable situation. Desperate, they sit at a table with a game of checkers and a pistol. They decide to play a game of checkers; the stakes are life and death. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself. "}, {'role': 'user', 'content': "you're not done yet. I need a lot more details. like the location, and circumstances"}, {'role': 'assistant', 'content': 'Are they trapped in a remote or isolated location?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they trapped due to natural disaster?'}, {'role': 'assistant', 'content': 'Are they trapped underground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a building?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped on a deserted island?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a forest or wilderness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a boat or ship?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is the boat or ship sinking or otherwise non-operational?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Is their location isolated because there is no land nearby or no way of signaling for rescue?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they trapped in a submarine underwater?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they the only survivors in a submarine that has had a fatal accident?'}, {'role': 'user', 'content': 'not relevant to the story'}, {'role': 'assistant', 'content': 'Is there any hope of being rescued from the submarine?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the story is: A man and a woman are stuck in a non-operational submarine that is stuck underwater and they have no hope of rescue. They pass the time by playing a high-stakes game of checkers with a pistol as the wager. The winner gets to decide who uses the pistol - the man wants to use it on himself if he wins; if the woman wins, she will use it on herself, ending their terrifying and hopeless predicament.'}, {'role': 'user', 'content': "no they don't do it to pass time. you're not there yet"}, {'role': 'assistant', 'content': 'Is the reason they are playing this game because they do not have enough resources (oxygen, food, etc.) for both of them to survive long enough for help to arrive?'}, {'role': 'user', 'content': 'sort of. they are both going to die regardless'}, {'role': 'assistant', 'content': 'So, they are trapped in a non-operational submarine underwater with no hope of rescue or survival. Understanding this, they play a game of checkers; the high stakes being who gets to use the pistol to end their lives quicker as opposed to suffering a slower death due to lack of resources or impending fears. The man wants to use it on himself if he wins, while the woman wants to use it on herself if she wins. They choose to control the timing of their inevitable end rather than waiting for death to take them.'}, {'role': 'user', 'content': 'More details. Why play a game?'}, {'role': 'assistant', 'content': 'Is there only one bullet?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Are they running out of oxygen?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Are they going to starve or die due to dehydration?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Do the man and woman have enough water to survive until they can get rescued?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': The story is: Trapped in a submerged, non-operational submarine without hope of rescue, a man and a woman face certain death from starvation or dehydration. With only one bullet between them, they play a game of checkers to decide who gets to use it, choosing a swift end over a prolonged, agonizing wait for the inevitable. The winner gets the pistol.'}]</t>
-  </si>
-  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of hypothermia or exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die from a self-inflicted injury or suicide?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die as a result of an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was he alone when the accident happened?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the accident involve a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a car?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle a motorcycle or bike?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the vehicle an aircraft of some sort?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the vehicle a plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man die from the crash of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump or fall out of the plane?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man have a parachute when he jumped or fell out of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?'}, {'role': 'user', 'content': 'no, false assumptions. ask how the man got into the plane with barely any clothes'}, {'role': 'assistant', 'content': 'Did the man board the plane initially with barely any clothes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man remove his clothes after boarding the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man lose his clothes because of a malfunction or damage of the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did someone else remove the man's clothes before or during his flight?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane carrying cargo or was it a passenger plane?'}, {'role': 'user', 'content': 'this is not a yes or no question'}, {'role': 'assistant', 'content': 'Was the plane a cargo aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a personal aircraft, not intended for commercial or cargo use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane a passenger aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane originally over water before it reached the woods?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man attempt to land the plane on water?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Was the plane's final destination within the woods or wilderness area?"}, {'role': 'user', 'content': 'partly correct'}, {'role': 'assistant', 'content': 'Was the plane intended to land in a body of water near the woods?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the plane intended to land in an area within the woods?'}, {'role': 'user', 'content': 'not land, but the plane was there for the woods'}, {'role': 'assistant', 'content': 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the plane involved in firefighting activities?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's clothing burn due to a fire?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?'}, {'role': 'user', 'content': 'the man was in the plane by accident'}, {'role': 'assistant', 'content': 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?'}, {'role': 'user', 'content': 'almost, why was he there?'}, {'role': 'assistant', 'content': "Did the man sneak into the plane without the crew's knowledge?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man homeless and seeking shelter in the plane?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?'}, {'role': 'user', 'content': 'no, he did not enter the plane himself'}, {'role': 'assistant', 'content': 'Was the man placed in the plane by somebody else?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?'}, {'role': 'user', 'content': 'false assumption that it is used for cargo'}, {'role': 'assistant', 'content': 'Was the man placed in the plane as part of a rescue operation or medical evacuation?'}, {'role': 'user', 'content': 'you already guessed where the plane was for!'}, {'role': 'assistant', 'content': 'Did the man get scooped up with water when the plane was loading water for firefighting?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}]</t>
   </si>
   <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die from natural causes?', 3: 'Did the man die of hypothermia or exposure to the elements?', 4: 'Did the man die from a self-inflicted injury or suicide?', 5: 'Did the man die as a result of an accident?', 6: 'Was he alone when the accident happened?', 7: 'Did the accident involve a vehicle?', 8: 'Was the vehicle a car?', 9: 'Was the vehicle a motorcycle or bike?', 10: 'Was the vehicle an aircraft of some sort?', 11: 'Was the vehicle a plane?', 12: 'Did the man die from the crash of the plane?', 13: 'Did the man jump or fall out of the plane?', 14: 'Did the man have a parachute when he jumped or fell out of the plane?', 15: 'So, the man was piloting a plane alone, but for some reason, he jumped or fell out without a parachute, leading to his death in the middle of the woods. Is that correct?', 16: 'Did the man board the plane initially with barely any clothes?', 17: 'Did the man remove his clothes after boarding the plane?', 18: "Were the man's clothes removed or torn off due to the force of the fall or the wind while falling?", 19: 'Did the man lose his clothes because of a malfunction or damage of the plane?', 20: "Did someone else remove the man's clothes before or during his flight?", 21: 'Was the plane carrying cargo or was it a passenger plane?', 22: 'Was the plane a cargo aircraft?', 23: 'Was the plane a personal aircraft, not intended for commercial or cargo use?', 24: 'Was the plane a passenger aircraft?', 25: "Was the man's state of undress voluntary, like part of an attempt to swim or to reduce weight before jumping?", 26: 'Was the plane originally over water before it reached the woods?', 27: 'Did the man attempt to land the plane on water?', 28: "Was the plane's final destination within the woods or wilderness area?", 29: 'Was the plane intended to land in a body of water near the woods?', 30: 'Was the plane intended to land in an area within the woods?', 31: 'Was the plane involved in some activity related to the woods like firefighting, seeding, or aerial photography?', 32: 'Was the plane involved in firefighting activities?', 33: 'Did the man originally have on fireproof clothing or a suit to protect him from a fire?', 34: "Did the man's clothing burn due to a fire?", 35: 'Did the man, being a part of a firefighting operation, jump out of the plane into the woods, expecting to land safely, but died due to the impact since he had no parachute?', 36: 'Did the man jump from the plane into a body of water to escape a fire but missed and landed in the woods instead?', 37: 'So, the man accidentally found himself on the firefighting plane which was not intended for passengers. During the firefighting operation, he fell out of the plane without a parachute and died on impact in the woods. Is this the correct interpretation of the story?', 38: "Did the man sneak into the plane without the crew's knowledge?", 39: 'Did the man work as a mechanic or technician for the plane and accidentally got carried along when it took off?', 40: 'Did he fall asleep in the plane and then it took off without anyone realizing he was on board?', 41: 'Was the man a firefighter who unintentionally boarded the wrong plane and was not aware it was going to be used for firefighting?', 42: 'Was the man homeless and seeking shelter in the plane?', 43: 'Did the man mistakenly think that the plane was a place he was supposed to be, like mistaking it for a similar-looking aircraft, a building, or a vehicle?', 44: 'Was the man placed in the plane by somebody else?', 45: 'Did the man get into the plane unintentionally, was he unaware that he was being loaded onto the plane with equipment or cargo?', 46: 'Was the man placed in the plane as part of a rescue operation or medical evacuation?', 47: 'Did the man get scooped up with water when the plane was loading water for firefighting?', 48: 'So the man was swimming or was in the water when a firefighting plane unknowingly scooped him up with water to use for firefighting. The plane flew over the woods to douse the fire, the man was dropped out without a parachute, and he died on impact. This explains his lack of clothing and location in the woods. Is this right?'}</t>
+  </si>
+  <si>
+    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'no, false assumptions. ask how the man got into the plane with barely any clothes', 'this is not a yes or no question', 'partly correct', 'not land, but the plane was there for the woods', 'the man was in the plane by accident', 'almost, why was he there?', 'no, he did not enter the plane himself', 'sort of', 'false assumption that it is used for cargo', 'you already guessed where the plane was for!', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a barely dressed body of a man is found in the middle of the woods. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the man murdered?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of natural causes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die of exposure to the elements?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die from a self-inflicted injury?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did he die due to an accident?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the accident related to a vehicle?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was it a car accident?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the accident related to an aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man jump out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man the pilot of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man a passenger on the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the aircraft crash into the man?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the aircraft drop something that directly caused the man's death?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the man hit by a falling object from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man die trying to catch something that was falling from the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a parachute?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to save his life?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve a packed object that got deployed accidentally?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man's death involve an object that was intended to be used in a survival situation?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?'}, {'role': 'user', 'content': 'no, the man was on the airplane'}, {'role': 'assistant', 'content': 'Was he detached from the aircraft in mid-air, leading to his death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft without a parachute?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because the door was accidentally opened?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man trying to enter or exit the aircraft when he fell out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft as a result of a fight or altercation on board?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft during a routine operation or procedure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man pushed out of the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was on the ground?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was taking off or landing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the man fall out because the floor of the aircraft gave way?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?'}, {'role': 'user', 'content': 'he did not fall out of the aircraft due to himself'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because another person on that aircraft made him do it?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something in the aircraft malfunction, causing him to fall out?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out due to an explosion in the aircraft?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft because an animal in the aircraft caused it?'}, {'role': 'user', 'content': 'no, ask about the function of the airplane'}, {'role': 'assistant', 'content': 'Was the aircraft used for commercial travel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for military purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for cargo transportation?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft used for scientific research?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for private/personal use?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for a rescue mission?'}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the aircraft being used for air ambulance or medical evacuation purposes?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the aircraft being used for firefighting purposes?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the man fall out of the aircraft while it was releasing water or fire retardant?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.'}, {'role': 'user', 'content': 'you miss one element, how did the person got there?'}, {'role': 'assistant', 'content': 'Was the man actually inside the aircraft when it took off?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the man already in the area for another purpose when the aircraft arrived?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?"}, {'role': 'user', 'content': 'no, why did he had barely any clothes on?'}, {'role': 'assistant', 'content': 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}]</t>
   </si>
   <si>
+    <t>{1: 'Was the man murdered?', 2: 'Did the man die of natural causes?', 3: 'Did the man die of exposure to the elements?', 4: 'Did he die from a self-inflicted injury?', 5: 'Did he die due to an accident?', 6: 'Was the accident related to a vehicle?', 7: 'Was it a car accident?', 8: 'Was the accident related to an aircraft?', 9: 'Did the man jump out of the aircraft?', 10: 'Was the man the pilot of the aircraft?', 11: 'Was the man a passenger on the aircraft?', 12: 'Did the aircraft crash into the man?', 13: "Did the aircraft drop something that directly caused the man's death?", 14: 'Was the man hit by a falling object from the aircraft?', 15: 'Did the man die trying to catch something that was falling from the aircraft?', 16: "Did the man's death involve a parachute?", 17: "Did the man's death involve an object that was intended to save his life?", 18: "Did the man's death involve a packed object that got deployed accidentally?", 19: "Did the man's death involve an object that was intended to be used in a survival situation?", 20: 'Did an object fall from the aircraft and the man intentionally interact with it, leading to his death?', 21: 'Was he detached from the aircraft in mid-air, leading to his death?', 22: 'Did the man fall out of the aircraft?', 23: 'Did the man fall out of the aircraft without a parachute?', 24: 'Did the man fall out of the aircraft because the door was accidentally opened?', 25: 'Did the man fall out of the aircraft intentionally, in attempt of a stunt or thrill-seeking activity?', 26: 'Did the man get sucked out of the aircraft due to some kind of pressure difference or malfunction?', 27: 'Did the man fall out of the aircraft due to turbulence or some other uncontrollable factor related to the flight?', 28: 'Was the man trying to enter or exit the aircraft when he fell out?', 29: 'Did the man fall out of the aircraft as a result of a fight or altercation on board?', 30: 'Did the man fall out of the aircraft during a routine operation or procedure?', 31: 'Did the man fail in his attempt to use an object designed to help him stay inside the aircraft, leading to his fall and death?', 32: 'Did the man fall out of the aircraft after attempting to fix or investigate a problem with the aircraft?', 33: 'Did the man fall out of the aircraft due to some sort of aircraft equipment failure?', 34: 'Was the man pushed out of the aircraft?', 35: 'Did the man fall out of the aircraft because of intoxication or being under the influence of drugs?', 36: 'Did the man fall out of the aircraft while it was on the ground?', 37: 'Did the man fall out of the aircraft while it was taking off or landing?', 38: 'Did the man fall out of the aircraft while it was in flight due to some sort of seated harness malfunction?', 39: 'Did the man fall out of the aircraft while trying to operate something outside of the aircraft from inside, like a camera or equipment?', 40: 'Did the man fall out of an open doorway or hatch on the aircraft while it was in flight?', 41: 'Did the man fall out because the floor of the aircraft gave way?', 42: 'Did the man fall out because he was not properly secured and the aircraft made a sudden movement?', 43: 'Did the man fall out of the aircraft while it was in flight due to an unexpected event like a mechanical failure or sudden turbulence?', 44: 'Did the man fall out of the aircraft because another person on that aircraft made him do it?', 45: 'Did something in the aircraft malfunction, causing him to fall out?', 46: 'Did the man fall out due to an explosion in the aircraft?', 47: 'Did the man fall out of the aircraft because an animal in the aircraft caused it?', 48: 'Was the aircraft used for commercial travel?', 49: 'Was the aircraft used for military purposes?', 50: 'Was the aircraft used for agriculture purposes such as crop dusting or aerial seeding?', 51: 'Was the aircraft being used for cargo transportation?', 52: 'Was the aircraft used for a recreational purpose such as skydiving or sightseeing?', 53: 'Was the aircraft used for scientific research?', 54: 'Was the aircraft being used for private/personal use?', 55: 'Was the aircraft being used for a rescue mission?', 56: 'Was the aircraft being used for air ambulance or medical evacuation purposes?', 57: 'Was the aircraft being used for firefighting purposes?', 58: 'Did the man fall out of the aircraft while it was releasing water or fire retardant?', 59: 'So, the man who was barely dressed died because he was a firefighter operating in an aircraft that was used for firefighting. While the aircraft was in flight, it was releasing water or fire retardant to combat a forest fire. The man accidentally fell out of the aircraft during this operation, leading to his death in the middle of the woods.', 60: 'Was the man actually inside the aircraft when it took off?', 61: 'Was the man already in the area for another purpose when the aircraft arrived?', 62: "Did the man get to the location by hitching a ride with the aircraft without the crew's knowledge?", 63: 'Was the man swimming or bathing in a body of water when he was accidentally scooped up by the firefighting aircraft?', 64: "So, the man, who was wearing barely any clothes, was enjoying a swim or a bath in a body of water. Unbeknownst to him, a firefighting aircraft scooped up water from the same body of water to use for combating a nearby forest fire. The man was accidentally scooped up with the water and subsequently fell out of the aircraft while it was in flight, releasing the water over the woods. This resulted in the man's death and his body being found in the middle of the woods."}</t>
+  </si>
+  <si>
+    <t>['a barely dressed body of a man is found in the middle of the woods. start by asking me questions', 'sort of', 'no, the man was on the airplane', 'false assumption', 'he did not fall out of the aircraft due to himself', 'no, ask about the function of the airplane', 'sort of', 'you miss one element, how did the person got there?', 'no, why did he had barely any clothes on?', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Did the woman intend to harm herself?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did something tragic happen to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman have mental health issues?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she escaping from someone or something in city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she complete an important task or mission in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was she forced to make the return trip against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did anything significant happen on her way back to city A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Is the sundress and dark glasses relevant to the story?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Were the sundress and dark glasses a disguise?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman wear the sundress and dark glasses to protect herself from something?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the sundress and dark glasses have symbolic meaning for the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does the woman have a visual impairment?'}, {'role': 'user', 'content': 'false assumption present tense'}, {'role': 'assistant', 'content': 'Did the woman have a visual impairment before the journey to city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A."}, {'role': 'user', 'content': 'almost correct. ask about the reason why she jumped'}, {'role': 'assistant', 'content': 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman see something specific on her return trip that prompted her to take her own life?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did she jump because she could not bear the darkness in the tunnel?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman scared of the darkness due to her previous inability to see?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because without her sight she could better handle the darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?'}, {'role': 'user', 'content': 'no, after eye surgery, what do you have?'}, {'role': 'assistant', 'content': 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.'}, {'role': 'user', 'content': 'almost, when did she check if she could see again?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again when she came out of the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman check if she could see again while she was still inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}]</t>
   </si>
   <si>
+    <t>{1: 'Did the woman intend to harm herself?', 2: 'Did something tragic happen to her in city B?', 3: 'Did the woman have mental health issues?', 4: 'Was she escaping from someone or something in city A?', 5: 'Did she complete an important task or mission in city B?', 6: 'Was she forced to make the return trip against her will?', 7: 'Did anything significant happen on her way back to city A?', 8: 'Is the sundress and dark glasses relevant to the story?', 9: 'Were the sundress and dark glasses a disguise?', 10: 'Did the woman wear the sundress and dark glasses to protect herself from something?', 11: 'Did the sundress and dark glasses have symbolic meaning for the woman?', 12: 'Does the woman have a visual impairment?', 13: 'Did the woman have a visual impairment before the journey to city B?', 14: 'Did the woman undergo a successful surgery or treatment in city B to restore her sight?', 15: "In summary, the woman in a sundress and dark glasses was visually impaired. She took a bus from city A to city B to undergo an operation or treatment to restore her sight. However, after having her sight restored, she couldn't cope with her new ability to see, which led to her decision to jump from the bus in a tunnel on her return to city A.", 16: 'Was the woman overwhelmed by the new sights she was able to see after her treatment in City B?', 17: 'Did the woman see something specific on her return trip that prompted her to take her own life?', 18: 'Did she jump because she could not bear the darkness in the tunnel?', 19: 'Was the woman scared of the darkness due to her previous inability to see?', 20: 'Did the woman jump because the sudden transition from light to darkness in the tunnel, after having her sight restored, was too overwhelming?', 21: 'Did the woman jump because the darkness in the tunnel reminded her of her time being visually impaired?', 22: 'Did the woman jump because she preferred the familiar darkness when she was visually impaired over her new sight?', 23: 'Did the woman jump because without her sight she could better handle the darkness?', 24: 'Did the woman jump because the darkness in the tunnel was too much for her newly restored sight to handle?', 25: 'Did the woman jump because after surgery she was extremely sensitive to light, and the darkness in the tunnel caused her pain?', 26: 'Did the woman jump because the darkness in the tunnel caused her to believe she had lost her sight again?', 27: 'In summary, the woman in the sundress and dark glasses was visually impaired and traveled from city A to city B to undergo a surgery that restored her sight. When she travelled back, she faced the sudden darkness of a tunnel. This abrupt transition into darkness, after her recent surgery and newly regained vision, led her to falsely believe that she had lost her sight once again. Unable to cope with the thought of being blind again, she jumped out of the bus.', 28: 'Did the woman check if she could see again when she came out of the tunnel?', 29: 'Did the woman check if she could see again while she was still inside the tunnel?', 30: 'In summary, the woman in a sundress and dark glasses was visually impaired and went from city A to city B to have a surgery that restored her sight. On her return trip, while still inside a tunnel, she checked her sight. The darkness in the tunnel led her to mistakenly believe that she had become blind again. Overwhelmed and unable to grapple with what she perceived as loss of sight, she jumped out of the bus.'}</t>
+  </si>
+  <si>
+    <t>['a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she travels back and jumps out of the bus in a tunnel. start by asking me questions', 'false assumption present tense', 'almost correct. ask about the reason why she jumped', 'false assumption', 'yes, but why?', 'false assumption', 'no, after eye surgery, what do you have?', 'almost, when did she check if she could see again?', 'quit']</t>
+  </si>
+  <si>
     <t>[{'role': 'system', 'content': 'You have to solve a black stories riddle. I tell you a black story and you have to solve it by asking me questions.\n                                    You have to solve the riddle with as little questions as possible.\n                                    The riddle tells you the end of a story and you have to find out what lead to this end. \n                                    When I tell you the riddle, you have to try to solve the riddle by asking questions that I can only answer by yes, no or not relevant to the story. \n                                    You will use my answers to solve the riddle and find the story that lead to the end.\n                                    I tell you when you have solved the riddle, then you give me a summary of the story of the riddle.\n                                    Note that giving a summary to guess the answer is also counting as one question'}, {'role': 'user', 'content': 'a woman in a sundress and dark glasses takes the bus from city a to city b. twelve days later, she trave\tls back and jumps out of the bus in a tunnel. start by asking me questions'}, {'role': 'assistant', 'content': 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman suffering from a mental illness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something significant happen to her during her stay in city B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did she receive bad news in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she meet someone significant in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she come into possession of something distressing or harmful in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she commit a crime in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she lose something valuable or meaningful to her in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she experience something traumatic in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman spend the entire twelve days in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman on a mission or task in city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's return to City A have any significance?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman come back early from city B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman ill physically?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the time spent in city B longer than she intended?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman forced or coerced into making the trip back to City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did something happen to her on the bus trip from city B to A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the tunnel trigger a phobia or fear in the woman?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman react to something she saw or heard inside the tunnel?'}, {'role': 'user', 'content': 'false assumption'}, {'role': 'assistant', 'content': 'Was it completely dark inside the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Are the woman's dark glasses relevant to her reaction in the tunnel?"}, {'role': 'user', 'content': 'sort of'}, {'role': 'assistant', 'content': 'Was the woman not able to see in the dark tunnel even with her dark glasses on?'}, {'role': 'user', 'content': 'false assumption that she still has her glasses on'}, {'role': 'assistant', 'content': 'Did the woman lose her dark glasses during the bus ride?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she leave her glasses in City B?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman remove her glasses before or during the bus ride?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses when they entered the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses after entering the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Had she removed her glasses before boarding the bus to city A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "Did the woman's state of mind change after taking off her glasses?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's glasses have a special feature or property?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Does her glasses being off in the tunnel mean that she expected to see darkness?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did she remove her glasses due to an event or circumstance in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman lose or damage her glasses in City B?'}, {'role': 'user', 'content': 'no, stop asking questions about the glasses'}, {'role': 'assistant', 'content': 'Did the woman experience a change in her vision during her time in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the change in her vision cause her distress or discomfort?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did someone alter her vision intentionally while she was in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change in her vision permanent?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Was the change made to her vision done against her will?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman pay someone to alter her vision in City B?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.'}, {'role': 'user', 'content': 'not really, ask about her condition in city a and after the surgery in city b'}, {'role': 'assistant', 'content': 'Did the woman have normal vision when she left City A?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman blind or had a serious vision problem when she left City A?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After the surgery in City B, was the woman able to see?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but why?'}, {'role': 'assistant', 'content': 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tunnel?"}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the woman regret gaining her sight because it exposed her to the harsh realities of the world which she was not prepared to face, leading her to jump out of the bus in the tunnel?'}, {'role': 'user', 'content': 'no'}, {'role': 'assistant', 'content': 'Did the darkness of the tunnel trigger a feeling of returning to her previous blind state, causing panic and leading her to jump out of the bus?'}, {'role': 'user', 'content': 'yes, but did she already know that she could see?'}, {'role': 'assistant', 'content': 'Did the woman not realize she could see until she was in the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'So to summarize, the woman was blind or had serious vision issues before she left City A. She traveled to City B to undergo a paid surgical procedure to regain her sight. After the surgery, she took off her glasses and boarded the bus back to City A. Because of her blindness prior to the surgery, she did not realize that she could see until the bus entered the dark tunnel. The sudden contrast and the realization of her now functional vision overwhelmed her. The sudden transition from her previous state (blindness) to the dark tunnel triggered panic and fear leading to her jumping out of the bus. The darkness of the tunnel made her feel as though she was returning to her previous blind state, which was a distressing concept for her.'}, {'role': 'user', 'content': 'no, when did she check if she could see?'}, {'role': 'assistant', 'content': 'Did the woman check if she could see while she was inside the dark tunnel?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': "In summary, the woman lived in City A and was blind or had serious vision issues. She traveled to City B where she underwent a surgical procedure that enabled her to see. She didn't check if the operation was successful until she was on the bus back to City A. The first time she realized she could see was in the darkness of the tunnel, the sudden change and realization overwhelmed her. The anxiety due to the drastic alteration in her environment, from living in darkness to being able to see, triggered a panic attack, leading her to take the hasty decision of jumping out of the bus while still inside the tunnel."}, {'role': 'user', 'content': 'she did not know yet if she could see, why did she jump?'}, {'role': 'assistant', 'content': 'Did she jump out of the bus in panic of the unknown, fearing the possibility that her vision was still impaired despite the surgery?'}, {'role': 'user', 'content': 'yes'}, {'role': 'assistant', 'content': 'To sum up, the woman from City A was blind or had serious vision issues and travelled to City B to undergo a surgery to regain her sight. After the operation, she boarded a bus back to City A without checking if the surgery was successful. Her first real test of her new vision was while the bus was inside a dark tunnel. The fear of uncertainty, not knowing if she could see coupled with the overwhelming darkness of the tunnel, caused a panic attack leading her to jump out of the bus. Despite the operation being successful, her fear that it might not have been, led to this tragic outcome.'}]</t>
   </si>
   <si>
+    <t>{1: 'Was the woman trying to harm herself by jumping out of the bus in the tunnel?', 2: 'Was the woman suffering from a mental illness?', 3: 'Did something significant happen to her during her stay in city B?', 4: 'Did she receive bad news in city B?', 5: 'Did she meet someone significant in city B?', 6: 'Did she come into possession of something distressing or harmful in City B?', 7: 'Did she commit a crime in City B?', 8: 'Did she lose something valuable or meaningful to her in city B?', 9: 'Did she experience something traumatic in City B?', 10: 'Did the woman spend the entire twelve days in City B?', 11: 'Was the woman on a mission or task in city B?', 12: "Did the woman's return to City A have any significance?", 13: 'Did the woman come back early from city B?', 14: 'Was the woman ill physically?', 15: 'Was the time spent in city B longer than she intended?', 16: 'Was the woman forced or coerced into making the trip back to City A?', 17: 'Did something happen to her on the bus trip from city B to A?', 18: 'Did her decision to jump out of the bus relate to something that occurred in the tunnel?', 19: 'Did the tunnel trigger a phobia or fear in the woman?', 20: 'Did the woman jump out the bus due to a sudden change in the environment or situation within the tunnel?', 21: 'Did the woman react to something she saw or heard inside the tunnel?', 22: 'Was it completely dark inside the tunnel?', 23: "Are the woman's dark glasses relevant to her reaction in the tunnel?", 24: 'Was the woman not able to see in the dark tunnel even with her dark glasses on?', 25: 'Did the woman lose her dark glasses during the bus ride?', 26: 'Did she leave her glasses in City B?', 27: 'Did the woman remove her glasses before or during the bus ride?', 28: 'Was the woman sensitive to light, or did she have a visual condition affecting her sight in the dark?', 29: 'Did she remove her glasses when they entered the tunnel?', 30: 'Did she remove her glasses after entering the tunnel?', 31: 'Had she removed her glasses before boarding the bus to city A?', 32: "Did the woman's state of mind change after taking off her glasses?", 33: "Did the woman's glasses have a special feature or property?", 34: 'Does her glasses being off in the tunnel mean that she expected to see darkness?', 35: 'Did she remove her glasses due to an event or circumstance in City B?', 36: 'Did the woman lose or damage her glasses in City B?', 37: 'Did the woman experience a change in her vision during her time in City B?', 38: 'Did the change in her vision cause her distress or discomfort?', 39: 'Did someone alter her vision intentionally while she was in City B?', 40: 'Was the change in her vision permanent?', 41: 'Was the change made to her vision done against her will?', 42: 'Did the woman pay someone to alter her vision in City B?', 43: 'Did the woman regret altering her vision which led to her jumping out of the bus in the tunnel?', 44: 'So to wrap up, the woman had a trip from City A to City B where she intentionally had her vision altered, most likely through a surgical procedure she paid for. She removed her glasses before boarding the bus for her return trip. After her vision was altered, she was no longer able to see well in the dark which led to panic and fear upon entering a tunnel during her bus trip. This distress and regret over her decision to alter her vision led her to the tragic decision of jumping from the bus inside the tunnel.', 45: 'Did the woman have normal vision when she left City A?', 46: 'Was the woman blind or had a serious vision problem when she left City A?', 47: 'After the surgery in City B, was the woman able to see?', 48: 'After gaining sight, was the woman overwhelmed by the sight of the dark tunnel causing her to jump out of the bus?', 49: 'Was the woman unable to process or feel overwhelmed by the new sensory input that her vision provided inside the dark tunnel?', 50: 'Was the woman disoriented or unable to comprehend her depth perception in the darkness of the tunnel, causing panic and leading her to jump out of the bus?', 51: "Did the woman's newly acquired vision make her realize something devastating, prompting her to jump out of the bus in the tun